--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a5f29987-1271-4749-9301-06d95181cef1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67da7a50-06df-49ee-897a-92f9448a8532}">
   <dimension ref="A1:ZZ49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -36289,7 +36289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ed0966a-a5e8-4980-979e-a555e4b00ee4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50085235-117e-4308-9b12-2c595e23ee3a}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67da7a50-06df-49ee-897a-92f9448a8532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d4c76376-1ab1-4bac-9f53-5a9e9109eb33}">
   <dimension ref="A1:ZZ49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -36289,7 +36289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50085235-117e-4308-9b12-2c595e23ee3a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f208a3b0-9b7f-49ac-a26c-82c70324708c}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
   <si>
     <t>Приложение № 1 к постановлению Правительства Российской Федерации от 26 декабря 2011 г. № 1137
 (в редакции постановления Правительства Российской Федерации от 16 августа 2024 г. № 1096)</t>
@@ -1315,8 +1315,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d4c76376-1ab1-4bac-9f53-5a9e9109eb33}">
-  <dimension ref="A1:ZZ49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8908869b-cfb5-456a-a522-ebf7e0eb037a}">
+  <dimension ref="A1:ZZ50"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -17020,90 +17020,104 @@
       </c>
     </row>
     <row r="23" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="76" t="s">
-        <v>63</v>
+      <c r="A23" s="64">
+        <v>1</v>
       </c>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="76"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="76"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="76"/>
-      <c r="AS23" s="76"/>
-      <c r="AT23" s="76"/>
-      <c r="AU23" s="76"/>
-      <c r="AV23" s="76"/>
-      <c r="AW23" s="76"/>
-      <c r="AX23" s="76"/>
-      <c r="AY23" s="76"/>
-      <c r="AZ23" s="76"/>
-      <c r="BA23" s="76"/>
-      <c r="BB23" s="76"/>
-      <c r="BC23" s="76"/>
-      <c r="BD23" s="76"/>
-      <c r="BE23" s="76"/>
-      <c r="BF23" s="76"/>
-      <c r="BG23" s="76"/>
-      <c r="BH23" s="76"/>
-      <c r="BI23" s="76"/>
-      <c r="BJ23" s="76"/>
-      <c r="BK23" s="76"/>
-      <c r="BL23" s="76"/>
-      <c r="BM23" s="76"/>
-      <c r="BN23" s="76"/>
-      <c r="BO23" s="76"/>
-      <c r="BP23" s="76"/>
-      <c r="BQ23" s="76"/>
-      <c r="BR23" s="76"/>
-      <c r="BS23" s="76"/>
-      <c r="BT23" s="76"/>
-      <c r="BU23" s="76"/>
-      <c r="BV23" s="76"/>
-      <c r="BW23" s="76"/>
-      <c r="BX23" s="76"/>
-      <c r="BY23" s="76"/>
-      <c r="BZ23" s="76"/>
-      <c r="CA23" s="76"/>
-      <c r="CB23" s="76"/>
-      <c r="CC23" s="76"/>
-      <c r="CD23" s="76"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64">
+        <v>1</v>
+      </c>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="67"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="67"/>
+      <c r="AQ23" s="64">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="63"/>
+      <c r="AU23" s="63"/>
+      <c r="AV23" s="63"/>
+      <c r="AW23" s="64">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="63"/>
+      <c r="AY23" s="63"/>
+      <c r="AZ23" s="63"/>
+      <c r="BA23" s="64">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="63"/>
+      <c r="BC23" s="63"/>
+      <c r="BD23" s="63"/>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="63"/>
+      <c r="BG23" s="63"/>
+      <c r="BH23" s="63"/>
+      <c r="BI23" s="63"/>
+      <c r="BJ23" s="63"/>
+      <c r="BK23" s="63"/>
+      <c r="BL23" s="63"/>
+      <c r="BM23" s="63"/>
+      <c r="BN23" s="70">
+        <v>36526</v>
+      </c>
+      <c r="BO23" s="69"/>
+      <c r="BP23" s="69"/>
+      <c r="BQ23" s="69"/>
+      <c r="BR23" s="69"/>
+      <c r="BS23" s="69"/>
+      <c r="BT23" s="69"/>
+      <c r="BU23" s="70">
+        <v>36526</v>
+      </c>
+      <c r="BV23" s="69"/>
+      <c r="BW23" s="69"/>
+      <c r="BX23" s="69"/>
+      <c r="BY23" s="69"/>
+      <c r="BZ23" s="69"/>
+      <c r="CA23" s="69"/>
+      <c r="CB23" s="69"/>
+      <c r="CC23" s="69"/>
+      <c r="CD23" s="69"/>
       <c r="CE23" s="70">
         <v>36526</v>
       </c>
@@ -17119,15 +17133,17 @@
       <c r="CO23" s="69"/>
       <c r="CP23" s="69"/>
       <c r="CQ23" s="69"/>
-      <c r="CR23" s="63" t="s">
-        <v>64</v>
+      <c r="CR23" s="64">
+        <v>1</v>
       </c>
       <c r="CS23" s="63"/>
       <c r="CT23" s="63"/>
       <c r="CU23" s="63"/>
       <c r="CV23" s="63"/>
       <c r="CW23" s="63"/>
-      <c r="CX23" s="63"/>
+      <c r="CX23" s="63" t="s">
+        <v>61</v>
+      </c>
       <c r="CY23" s="63"/>
       <c r="CZ23" s="63"/>
       <c r="DA23" s="63"/>
@@ -17163,16 +17179,16 @@
       <c r="EA23" s="69"/>
       <c r="EB23" s="69"/>
       <c r="EC23" s="69"/>
-      <c r="ED23" s="63" t="s">
-        <v>64</v>
+      <c r="ED23" s="64">
+        <v>1</v>
       </c>
       <c r="EE23" s="63"/>
       <c r="EF23" s="63"/>
       <c r="EG23" s="63"/>
       <c r="EH23" s="63"/>
       <c r="EI23" s="63"/>
-      <c r="EJ23" s="63" t="s">
-        <v>64</v>
+      <c r="EJ23" s="64">
+        <v>1</v>
       </c>
       <c r="EK23" s="63"/>
       <c r="EL23" s="63"/>
@@ -17183,8 +17199,8 @@
       <c r="EQ23" s="63"/>
       <c r="ER23" s="63"/>
       <c r="ES23" s="63"/>
-      <c r="ET23" s="63" t="s">
-        <v>64</v>
+      <c r="ET23" s="64">
+        <v>1</v>
       </c>
       <c r="EU23" s="63"/>
       <c r="EV23" s="63"/>
@@ -17720,189 +17736,217 @@
       <c r="ZG23" s="55"/>
       <c r="ZH23" s="55"/>
       <c r="ZI23" s="55"/>
-      <c r="ZJ23" s="55"/>
-      <c r="ZK23" s="55"/>
-      <c r="ZL23" s="55"/>
-      <c r="ZM23" s="55"/>
-      <c r="ZN23" s="55"/>
-      <c r="ZO23" s="55"/>
+      <c r="ZJ23" s="72">
+        <v>1</v>
+      </c>
+      <c r="ZL23" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="ZM23" s="72">
+        <v>1</v>
+      </c>
+      <c r="ZN23" s="72">
+        <v>1</v>
+      </c>
       <c r="ZP23" s="55"/>
-      <c r="ZQ23" s="55"/>
-      <c r="ZR23" s="55"/>
-      <c r="ZS23" s="55"/>
-      <c r="ZT23" s="55"/>
-      <c r="ZU23" s="55"/>
-      <c r="ZV23" s="55"/>
-      <c r="ZW23" s="55"/>
-      <c r="ZX23" s="55"/>
-      <c r="ZY23" s="55"/>
-      <c r="ZZ23" s="55"/>
+      <c r="ZQ23" s="72">
+        <v>1</v>
+      </c>
+      <c r="ZV23" s="72">
+        <v>1</v>
+      </c>
+      <c r="ZW23" s="72">
+        <v>1</v>
+      </c>
+      <c r="ZX23" s="72">
+        <v>1</v>
+      </c>
+      <c r="ZZ23" s="72">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:702" ht="1.5" customHeight="1">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="2"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="55"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="55"/>
-      <c r="AN24" s="55"/>
-      <c r="AO24" s="55"/>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="55"/>
-      <c r="AT24" s="55"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="55"/>
-      <c r="AW24" s="55"/>
-      <c r="AX24" s="55"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="55"/>
-      <c r="BA24" s="55"/>
-      <c r="BB24" s="55"/>
-      <c r="BC24" s="55"/>
-      <c r="BD24" s="55"/>
-      <c r="BE24" s="55"/>
-      <c r="BF24" s="55"/>
-      <c r="BG24" s="55"/>
-      <c r="BH24" s="55"/>
-      <c r="BI24" s="55"/>
-      <c r="BJ24" s="55"/>
-      <c r="BK24" s="55"/>
-      <c r="BL24" s="55"/>
-      <c r="BM24" s="55"/>
-      <c r="BN24" s="55"/>
-      <c r="BO24" s="55"/>
-      <c r="BP24" s="55"/>
-      <c r="BQ24" s="55"/>
-      <c r="BR24" s="55"/>
-      <c r="BS24" s="55"/>
-      <c r="BT24" s="55"/>
-      <c r="BU24" s="55"/>
-      <c r="BV24" s="55"/>
-      <c r="BW24" s="55"/>
-      <c r="BX24" s="55"/>
-      <c r="BY24" s="55"/>
-      <c r="BZ24" s="55"/>
-      <c r="CA24" s="55"/>
-      <c r="CB24" s="55"/>
-      <c r="CC24" s="55"/>
-      <c r="CD24" s="55"/>
-      <c r="CE24" s="55"/>
-      <c r="CF24" s="55"/>
-      <c r="CG24" s="55"/>
-      <c r="CH24" s="55"/>
-      <c r="CI24" s="55"/>
-      <c r="CJ24" s="55"/>
-      <c r="CK24" s="55"/>
-      <c r="CL24" s="55"/>
-      <c r="CM24" s="55"/>
-      <c r="CN24" s="55"/>
-      <c r="CO24" s="55"/>
-      <c r="CP24" s="55"/>
-      <c r="CQ24" s="55"/>
-      <c r="CR24" s="55"/>
-      <c r="CS24" s="55"/>
-      <c r="CT24" s="55"/>
-      <c r="CU24" s="55"/>
-      <c r="CV24" s="55"/>
-      <c r="CW24" s="55"/>
-      <c r="CX24" s="55"/>
-      <c r="CY24" s="55"/>
-      <c r="CZ24" s="55"/>
-      <c r="DA24" s="55"/>
-      <c r="DB24" s="55"/>
-      <c r="DC24" s="55"/>
-      <c r="DD24" s="55"/>
-      <c r="DE24" s="55"/>
-      <c r="DF24" s="55"/>
-      <c r="DG24" s="55"/>
-      <c r="DH24" s="55"/>
-      <c r="DI24" s="55"/>
-      <c r="DJ24" s="55"/>
-      <c r="DK24" s="55"/>
-      <c r="DL24" s="55"/>
-      <c r="DM24" s="55"/>
-      <c r="DN24" s="55"/>
-      <c r="DO24" s="55"/>
-      <c r="DP24" s="55"/>
-      <c r="DQ24" s="55"/>
-      <c r="DR24" s="55"/>
-      <c r="DS24" s="55"/>
-      <c r="DT24" s="55"/>
-      <c r="DU24" s="55"/>
-      <c r="DV24" s="55"/>
-      <c r="DW24" s="55"/>
-      <c r="DX24" s="55"/>
-      <c r="DY24" s="55"/>
-      <c r="DZ24" s="55"/>
-      <c r="EA24" s="55"/>
-      <c r="EB24" s="55"/>
-      <c r="EC24" s="55"/>
-      <c r="ED24" s="55"/>
-      <c r="EE24" s="55"/>
-      <c r="EF24" s="55"/>
-      <c r="EG24" s="55"/>
-      <c r="EH24" s="55"/>
-      <c r="EI24" s="55"/>
-      <c r="EJ24" s="55"/>
-      <c r="EK24" s="55"/>
-      <c r="EL24" s="55"/>
-      <c r="EM24" s="55"/>
-      <c r="EN24" s="55"/>
-      <c r="EO24" s="55"/>
-      <c r="EP24" s="55"/>
-      <c r="EQ24" s="55"/>
-      <c r="ER24" s="55"/>
-      <c r="ES24" s="55"/>
-      <c r="ET24" s="55"/>
-      <c r="EU24" s="55"/>
-      <c r="EV24" s="55"/>
-      <c r="EW24" s="55"/>
-      <c r="EX24" s="55"/>
-      <c r="EY24" s="55"/>
-      <c r="EZ24" s="55"/>
-      <c r="FA24" s="55"/>
-      <c r="FB24" s="55"/>
-      <c r="FC24" s="55"/>
-      <c r="FD24" s="55"/>
-      <c r="FE24" s="55"/>
-      <c r="FF24" s="55"/>
-      <c r="FG24" s="55"/>
-      <c r="FH24" s="55"/>
-      <c r="FI24" s="55"/>
-      <c r="FJ24" s="55"/>
+    <row r="24" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="76"/>
+      <c r="AZ24" s="76"/>
+      <c r="BA24" s="76"/>
+      <c r="BB24" s="76"/>
+      <c r="BC24" s="76"/>
+      <c r="BD24" s="76"/>
+      <c r="BE24" s="76"/>
+      <c r="BF24" s="76"/>
+      <c r="BG24" s="76"/>
+      <c r="BH24" s="76"/>
+      <c r="BI24" s="76"/>
+      <c r="BJ24" s="76"/>
+      <c r="BK24" s="76"/>
+      <c r="BL24" s="76"/>
+      <c r="BM24" s="76"/>
+      <c r="BN24" s="76"/>
+      <c r="BO24" s="76"/>
+      <c r="BP24" s="76"/>
+      <c r="BQ24" s="76"/>
+      <c r="BR24" s="76"/>
+      <c r="BS24" s="76"/>
+      <c r="BT24" s="76"/>
+      <c r="BU24" s="76"/>
+      <c r="BV24" s="76"/>
+      <c r="BW24" s="76"/>
+      <c r="BX24" s="76"/>
+      <c r="BY24" s="76"/>
+      <c r="BZ24" s="76"/>
+      <c r="CA24" s="76"/>
+      <c r="CB24" s="76"/>
+      <c r="CC24" s="76"/>
+      <c r="CD24" s="76"/>
+      <c r="CE24" s="70">
+        <v>36526</v>
+      </c>
+      <c r="CF24" s="69"/>
+      <c r="CG24" s="69"/>
+      <c r="CH24" s="69"/>
+      <c r="CI24" s="69"/>
+      <c r="CJ24" s="69"/>
+      <c r="CK24" s="69"/>
+      <c r="CL24" s="69"/>
+      <c r="CM24" s="69"/>
+      <c r="CN24" s="69"/>
+      <c r="CO24" s="69"/>
+      <c r="CP24" s="69"/>
+      <c r="CQ24" s="69"/>
+      <c r="CR24" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="CS24" s="63"/>
+      <c r="CT24" s="63"/>
+      <c r="CU24" s="63"/>
+      <c r="CV24" s="63"/>
+      <c r="CW24" s="63"/>
+      <c r="CX24" s="63"/>
+      <c r="CY24" s="63"/>
+      <c r="CZ24" s="63"/>
+      <c r="DA24" s="63"/>
+      <c r="DB24" s="63"/>
+      <c r="DC24" s="63"/>
+      <c r="DD24" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="DE24" s="69"/>
+      <c r="DF24" s="69"/>
+      <c r="DG24" s="69"/>
+      <c r="DH24" s="69"/>
+      <c r="DI24" s="69"/>
+      <c r="DJ24" s="69"/>
+      <c r="DK24" s="69"/>
+      <c r="DL24" s="69"/>
+      <c r="DM24" s="69"/>
+      <c r="DN24" s="69"/>
+      <c r="DO24" s="69"/>
+      <c r="DP24" s="69"/>
+      <c r="DQ24" s="70">
+        <v>36526</v>
+      </c>
+      <c r="DR24" s="69"/>
+      <c r="DS24" s="69"/>
+      <c r="DT24" s="69"/>
+      <c r="DU24" s="69"/>
+      <c r="DV24" s="69"/>
+      <c r="DW24" s="69"/>
+      <c r="DX24" s="69"/>
+      <c r="DY24" s="69"/>
+      <c r="DZ24" s="69"/>
+      <c r="EA24" s="69"/>
+      <c r="EB24" s="69"/>
+      <c r="EC24" s="69"/>
+      <c r="ED24" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="EE24" s="63"/>
+      <c r="EF24" s="63"/>
+      <c r="EG24" s="63"/>
+      <c r="EH24" s="63"/>
+      <c r="EI24" s="63"/>
+      <c r="EJ24" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="EK24" s="63"/>
+      <c r="EL24" s="63"/>
+      <c r="EM24" s="63"/>
+      <c r="EN24" s="63"/>
+      <c r="EO24" s="63"/>
+      <c r="EP24" s="63"/>
+      <c r="EQ24" s="63"/>
+      <c r="ER24" s="63"/>
+      <c r="ES24" s="63"/>
+      <c r="ET24" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="EU24" s="63"/>
+      <c r="EV24" s="63"/>
+      <c r="EW24" s="63"/>
+      <c r="EX24" s="63"/>
+      <c r="EY24" s="63"/>
+      <c r="EZ24" s="63"/>
+      <c r="FA24" s="63"/>
+      <c r="FB24" s="63"/>
+      <c r="FC24" s="63"/>
+      <c r="FD24" s="63"/>
+      <c r="FE24" s="63"/>
+      <c r="FF24" s="63"/>
+      <c r="FG24" s="63"/>
+      <c r="FH24" s="63"/>
+      <c r="FI24" s="63"/>
       <c r="FK24" s="55"/>
       <c r="FL24" s="55"/>
       <c r="FM24" s="55"/>
@@ -18440,177 +18484,170 @@
       <c r="ZY24" s="55"/>
       <c r="ZZ24" s="55"/>
     </row>
-    <row r="25" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A25" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="O25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="78"/>
-      <c r="BA25" s="78"/>
-      <c r="BB25" s="78"/>
-      <c r="BC25" s="78"/>
-      <c r="BD25" s="78"/>
-      <c r="BE25" s="78"/>
-      <c r="BF25" s="78"/>
-      <c r="BG25" s="78"/>
-      <c r="BH25" s="78"/>
-      <c r="BI25" s="78"/>
-      <c r="BJ25" s="78"/>
-      <c r="BK25" s="78"/>
-      <c r="BL25" s="78"/>
-      <c r="BM25" s="78"/>
-      <c r="BN25" s="78"/>
-      <c r="BO25" s="78"/>
-      <c r="BP25" s="78"/>
-      <c r="BQ25" s="78"/>
-      <c r="BS25" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT25" s="79"/>
-      <c r="BU25" s="79"/>
-      <c r="BV25" s="79"/>
-      <c r="BW25" s="79"/>
-      <c r="BX25" s="79"/>
-      <c r="BY25" s="79"/>
-      <c r="BZ25" s="79"/>
-      <c r="CA25" s="79"/>
-      <c r="CB25" s="79"/>
-      <c r="CC25" s="79"/>
-      <c r="CD25" s="79"/>
-      <c r="CE25" s="79"/>
-      <c r="CF25" s="79"/>
-      <c r="CG25" s="79"/>
-      <c r="CH25" s="79"/>
-      <c r="CI25" s="79"/>
-      <c r="CJ25" s="79"/>
-      <c r="CK25" s="79"/>
-      <c r="CL25" s="79"/>
-      <c r="CM25" s="79"/>
-      <c r="CN25" s="79"/>
-      <c r="CO25" s="79"/>
-      <c r="CQ25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="CR25" s="3"/>
-      <c r="CS25" s="3"/>
-      <c r="CT25" s="3"/>
-      <c r="CU25" s="3"/>
-      <c r="CV25" s="3"/>
-      <c r="CW25" s="3"/>
-      <c r="CX25" s="3"/>
-      <c r="CY25" s="3"/>
-      <c r="CZ25" s="3"/>
-      <c r="DA25" s="3"/>
-      <c r="DB25" s="3"/>
-      <c r="DC25" s="3"/>
-      <c r="DD25" s="3"/>
-      <c r="DE25" s="3"/>
-      <c r="DF25" s="3"/>
-      <c r="DG25" s="3"/>
-      <c r="DH25" s="3"/>
-      <c r="DI25" s="3"/>
-      <c r="DJ25" s="3"/>
-      <c r="DK25" s="3"/>
-      <c r="DL25" s="3"/>
-      <c r="DM25" s="3"/>
-      <c r="DN25" s="3"/>
-      <c r="DO25" s="3"/>
-      <c r="DP25" s="3"/>
-      <c r="DQ25" s="3"/>
-      <c r="DR25" s="3"/>
-      <c r="DS25" s="78"/>
-      <c r="DT25" s="78"/>
-      <c r="DU25" s="78"/>
-      <c r="DV25" s="78"/>
-      <c r="DW25" s="78"/>
-      <c r="DX25" s="78"/>
-      <c r="DY25" s="78"/>
-      <c r="DZ25" s="78"/>
-      <c r="EA25" s="78"/>
-      <c r="EB25" s="78"/>
-      <c r="EC25" s="78"/>
-      <c r="ED25" s="78"/>
-      <c r="EE25" s="78"/>
-      <c r="EF25" s="78"/>
-      <c r="EG25" s="78"/>
-      <c r="EH25" s="78"/>
-      <c r="EI25" s="78"/>
-      <c r="EJ25" s="78"/>
-      <c r="EL25" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="EM25" s="79"/>
-      <c r="EN25" s="79"/>
-      <c r="EO25" s="79"/>
-      <c r="EP25" s="79"/>
-      <c r="EQ25" s="79"/>
-      <c r="ER25" s="79"/>
-      <c r="ES25" s="79"/>
-      <c r="ET25" s="79"/>
-      <c r="EU25" s="79"/>
-      <c r="EV25" s="79"/>
-      <c r="EW25" s="79"/>
-      <c r="EX25" s="79"/>
-      <c r="EY25" s="79"/>
-      <c r="EZ25" s="79"/>
-      <c r="FA25" s="79"/>
-      <c r="FB25" s="79"/>
-      <c r="FC25" s="79"/>
-      <c r="FD25" s="79"/>
-      <c r="FE25" s="79"/>
-      <c r="FF25" s="79"/>
-      <c r="FG25" s="79"/>
-      <c r="FH25" s="79"/>
+    <row r="25" spans="1:702" ht="1.5" customHeight="1">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="55"/>
+      <c r="BD25" s="55"/>
+      <c r="BE25" s="55"/>
+      <c r="BF25" s="55"/>
+      <c r="BG25" s="55"/>
+      <c r="BH25" s="55"/>
+      <c r="BI25" s="55"/>
+      <c r="BJ25" s="55"/>
+      <c r="BK25" s="55"/>
+      <c r="BL25" s="55"/>
+      <c r="BM25" s="55"/>
+      <c r="BN25" s="55"/>
+      <c r="BO25" s="55"/>
+      <c r="BP25" s="55"/>
+      <c r="BQ25" s="55"/>
+      <c r="BR25" s="55"/>
+      <c r="BS25" s="55"/>
+      <c r="BT25" s="55"/>
+      <c r="BU25" s="55"/>
+      <c r="BV25" s="55"/>
+      <c r="BW25" s="55"/>
+      <c r="BX25" s="55"/>
+      <c r="BY25" s="55"/>
+      <c r="BZ25" s="55"/>
+      <c r="CA25" s="55"/>
+      <c r="CB25" s="55"/>
+      <c r="CC25" s="55"/>
+      <c r="CD25" s="55"/>
+      <c r="CE25" s="55"/>
+      <c r="CF25" s="55"/>
+      <c r="CG25" s="55"/>
+      <c r="CH25" s="55"/>
+      <c r="CI25" s="55"/>
+      <c r="CJ25" s="55"/>
+      <c r="CK25" s="55"/>
+      <c r="CL25" s="55"/>
+      <c r="CM25" s="55"/>
+      <c r="CN25" s="55"/>
+      <c r="CO25" s="55"/>
+      <c r="CP25" s="55"/>
+      <c r="CQ25" s="55"/>
+      <c r="CR25" s="55"/>
+      <c r="CS25" s="55"/>
+      <c r="CT25" s="55"/>
+      <c r="CU25" s="55"/>
+      <c r="CV25" s="55"/>
+      <c r="CW25" s="55"/>
+      <c r="CX25" s="55"/>
+      <c r="CY25" s="55"/>
+      <c r="CZ25" s="55"/>
+      <c r="DA25" s="55"/>
+      <c r="DB25" s="55"/>
+      <c r="DC25" s="55"/>
+      <c r="DD25" s="55"/>
+      <c r="DE25" s="55"/>
+      <c r="DF25" s="55"/>
+      <c r="DG25" s="55"/>
+      <c r="DH25" s="55"/>
+      <c r="DI25" s="55"/>
+      <c r="DJ25" s="55"/>
+      <c r="DK25" s="55"/>
+      <c r="DL25" s="55"/>
+      <c r="DM25" s="55"/>
+      <c r="DN25" s="55"/>
+      <c r="DO25" s="55"/>
+      <c r="DP25" s="55"/>
+      <c r="DQ25" s="55"/>
+      <c r="DR25" s="55"/>
+      <c r="DS25" s="55"/>
+      <c r="DT25" s="55"/>
+      <c r="DU25" s="55"/>
+      <c r="DV25" s="55"/>
+      <c r="DW25" s="55"/>
+      <c r="DX25" s="55"/>
+      <c r="DY25" s="55"/>
+      <c r="DZ25" s="55"/>
+      <c r="EA25" s="55"/>
+      <c r="EB25" s="55"/>
+      <c r="EC25" s="55"/>
+      <c r="ED25" s="55"/>
+      <c r="EE25" s="55"/>
+      <c r="EF25" s="55"/>
+      <c r="EG25" s="55"/>
+      <c r="EH25" s="55"/>
+      <c r="EI25" s="55"/>
+      <c r="EJ25" s="55"/>
+      <c r="EK25" s="55"/>
+      <c r="EL25" s="55"/>
+      <c r="EM25" s="55"/>
+      <c r="EN25" s="55"/>
+      <c r="EO25" s="55"/>
+      <c r="EP25" s="55"/>
+      <c r="EQ25" s="55"/>
+      <c r="ER25" s="55"/>
+      <c r="ES25" s="55"/>
+      <c r="ET25" s="55"/>
+      <c r="EU25" s="55"/>
+      <c r="EV25" s="55"/>
+      <c r="EW25" s="55"/>
+      <c r="EX25" s="55"/>
+      <c r="EY25" s="55"/>
+      <c r="EZ25" s="55"/>
+      <c r="FA25" s="55"/>
+      <c r="FB25" s="55"/>
+      <c r="FC25" s="55"/>
+      <c r="FD25" s="55"/>
+      <c r="FE25" s="55"/>
+      <c r="FF25" s="55"/>
+      <c r="FG25" s="55"/>
+      <c r="FH25" s="55"/>
+      <c r="FI25" s="55"/>
       <c r="FJ25" s="55"/>
       <c r="FK25" s="55"/>
       <c r="FL25" s="55"/>
@@ -19136,18 +19173,23 @@
       <c r="ZL25" s="55"/>
       <c r="ZM25" s="55"/>
       <c r="ZN25" s="55"/>
-      <c r="ZO25" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="ZP25" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="ZO25" s="55"/>
+      <c r="ZP25" s="55"/>
+      <c r="ZQ25" s="55"/>
       <c r="ZR25" s="55"/>
+      <c r="ZS25" s="55"/>
+      <c r="ZT25" s="55"/>
+      <c r="ZU25" s="55"/>
+      <c r="ZV25" s="55"/>
       <c r="ZW25" s="55"/>
       <c r="ZX25" s="55"/>
+      <c r="ZY25" s="55"/>
+      <c r="ZZ25" s="55"/>
     </row>
     <row r="26" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A26" s="77"/>
+      <c r="A26" s="77" t="s">
+        <v>65</v>
+      </c>
       <c r="B26" s="77"/>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
@@ -19160,7 +19202,9 @@
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
       <c r="M26" s="77"/>
-      <c r="O26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -19197,52 +19241,52 @@
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
       <c r="AY26" s="3"/>
-      <c r="AZ26" s="47" t="s">
-        <v>70</v>
+      <c r="AZ26" s="78"/>
+      <c r="BA26" s="78"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="78"/>
+      <c r="BD26" s="78"/>
+      <c r="BE26" s="78"/>
+      <c r="BF26" s="78"/>
+      <c r="BG26" s="78"/>
+      <c r="BH26" s="78"/>
+      <c r="BI26" s="78"/>
+      <c r="BJ26" s="78"/>
+      <c r="BK26" s="78"/>
+      <c r="BL26" s="78"/>
+      <c r="BM26" s="78"/>
+      <c r="BN26" s="78"/>
+      <c r="BO26" s="78"/>
+      <c r="BP26" s="78"/>
+      <c r="BQ26" s="78"/>
+      <c r="BS26" s="79" t="s">
+        <v>67</v>
       </c>
-      <c r="BA26" s="47"/>
-      <c r="BB26" s="47"/>
-      <c r="BC26" s="47"/>
-      <c r="BD26" s="47"/>
-      <c r="BE26" s="47"/>
-      <c r="BF26" s="47"/>
-      <c r="BG26" s="47"/>
-      <c r="BH26" s="47"/>
-      <c r="BI26" s="47"/>
-      <c r="BJ26" s="47"/>
-      <c r="BK26" s="47"/>
-      <c r="BL26" s="47"/>
-      <c r="BM26" s="47"/>
-      <c r="BN26" s="47"/>
-      <c r="BO26" s="47"/>
-      <c r="BP26" s="47"/>
-      <c r="BQ26" s="47"/>
-      <c r="BS26" s="47" t="s">
-        <v>71</v>
+      <c r="BT26" s="79"/>
+      <c r="BU26" s="79"/>
+      <c r="BV26" s="79"/>
+      <c r="BW26" s="79"/>
+      <c r="BX26" s="79"/>
+      <c r="BY26" s="79"/>
+      <c r="BZ26" s="79"/>
+      <c r="CA26" s="79"/>
+      <c r="CB26" s="79"/>
+      <c r="CC26" s="79"/>
+      <c r="CD26" s="79"/>
+      <c r="CE26" s="79"/>
+      <c r="CF26" s="79"/>
+      <c r="CG26" s="79"/>
+      <c r="CH26" s="79"/>
+      <c r="CI26" s="79"/>
+      <c r="CJ26" s="79"/>
+      <c r="CK26" s="79"/>
+      <c r="CL26" s="79"/>
+      <c r="CM26" s="79"/>
+      <c r="CN26" s="79"/>
+      <c r="CO26" s="79"/>
+      <c r="CQ26" s="3" t="s">
+        <v>68</v>
       </c>
-      <c r="BT26" s="47"/>
-      <c r="BU26" s="47"/>
-      <c r="BV26" s="47"/>
-      <c r="BW26" s="47"/>
-      <c r="BX26" s="47"/>
-      <c r="BY26" s="47"/>
-      <c r="BZ26" s="47"/>
-      <c r="CA26" s="47"/>
-      <c r="CB26" s="47"/>
-      <c r="CC26" s="47"/>
-      <c r="CD26" s="47"/>
-      <c r="CE26" s="47"/>
-      <c r="CF26" s="47"/>
-      <c r="CG26" s="47"/>
-      <c r="CH26" s="47"/>
-      <c r="CI26" s="47"/>
-      <c r="CJ26" s="47"/>
-      <c r="CK26" s="47"/>
-      <c r="CL26" s="47"/>
-      <c r="CM26" s="47"/>
-      <c r="CN26" s="47"/>
-      <c r="CO26" s="47"/>
-      <c r="CQ26" s="3"/>
       <c r="CR26" s="3"/>
       <c r="CS26" s="3"/>
       <c r="CT26" s="3"/>
@@ -19270,51 +19314,49 @@
       <c r="DP26" s="3"/>
       <c r="DQ26" s="3"/>
       <c r="DR26" s="3"/>
-      <c r="DS26" s="47" t="s">
-        <v>70</v>
+      <c r="DS26" s="78"/>
+      <c r="DT26" s="78"/>
+      <c r="DU26" s="78"/>
+      <c r="DV26" s="78"/>
+      <c r="DW26" s="78"/>
+      <c r="DX26" s="78"/>
+      <c r="DY26" s="78"/>
+      <c r="DZ26" s="78"/>
+      <c r="EA26" s="78"/>
+      <c r="EB26" s="78"/>
+      <c r="EC26" s="78"/>
+      <c r="ED26" s="78"/>
+      <c r="EE26" s="78"/>
+      <c r="EF26" s="78"/>
+      <c r="EG26" s="78"/>
+      <c r="EH26" s="78"/>
+      <c r="EI26" s="78"/>
+      <c r="EJ26" s="78"/>
+      <c r="EL26" s="79" t="s">
+        <v>69</v>
       </c>
-      <c r="DT26" s="47"/>
-      <c r="DU26" s="47"/>
-      <c r="DV26" s="47"/>
-      <c r="DW26" s="47"/>
-      <c r="DX26" s="47"/>
-      <c r="DY26" s="47"/>
-      <c r="DZ26" s="47"/>
-      <c r="EA26" s="47"/>
-      <c r="EB26" s="47"/>
-      <c r="EC26" s="47"/>
-      <c r="ED26" s="47"/>
-      <c r="EE26" s="47"/>
-      <c r="EF26" s="47"/>
-      <c r="EG26" s="47"/>
-      <c r="EH26" s="47"/>
-      <c r="EI26" s="47"/>
-      <c r="EJ26" s="47"/>
-      <c r="EL26" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="EM26" s="47"/>
-      <c r="EN26" s="47"/>
-      <c r="EO26" s="47"/>
-      <c r="EP26" s="47"/>
-      <c r="EQ26" s="47"/>
-      <c r="ER26" s="47"/>
-      <c r="ES26" s="47"/>
-      <c r="ET26" s="47"/>
-      <c r="EU26" s="47"/>
-      <c r="EV26" s="47"/>
-      <c r="EW26" s="47"/>
-      <c r="EX26" s="47"/>
-      <c r="EY26" s="47"/>
-      <c r="EZ26" s="47"/>
-      <c r="FA26" s="47"/>
-      <c r="FB26" s="47"/>
-      <c r="FC26" s="47"/>
-      <c r="FD26" s="47"/>
-      <c r="FE26" s="47"/>
-      <c r="FF26" s="47"/>
-      <c r="FG26" s="47"/>
-      <c r="FH26" s="47"/>
+      <c r="EM26" s="79"/>
+      <c r="EN26" s="79"/>
+      <c r="EO26" s="79"/>
+      <c r="EP26" s="79"/>
+      <c r="EQ26" s="79"/>
+      <c r="ER26" s="79"/>
+      <c r="ES26" s="79"/>
+      <c r="ET26" s="79"/>
+      <c r="EU26" s="79"/>
+      <c r="EV26" s="79"/>
+      <c r="EW26" s="79"/>
+      <c r="EX26" s="79"/>
+      <c r="EY26" s="79"/>
+      <c r="EZ26" s="79"/>
+      <c r="FA26" s="79"/>
+      <c r="FB26" s="79"/>
+      <c r="FC26" s="79"/>
+      <c r="FD26" s="79"/>
+      <c r="FE26" s="79"/>
+      <c r="FF26" s="79"/>
+      <c r="FG26" s="79"/>
+      <c r="FH26" s="79"/>
       <c r="FJ26" s="55"/>
       <c r="FK26" s="55"/>
       <c r="FL26" s="55"/>
@@ -19840,32 +19882,30 @@
       <c r="ZL26" s="55"/>
       <c r="ZM26" s="55"/>
       <c r="ZN26" s="55"/>
-      <c r="ZO26" s="55"/>
-      <c r="ZP26" s="55"/>
-      <c r="ZQ26" s="55"/>
+      <c r="ZO26" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="ZP26" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="ZR26" s="55"/>
-      <c r="ZS26" s="55"/>
-      <c r="ZT26" s="55"/>
-      <c r="ZU26" s="55"/>
-      <c r="ZV26" s="55"/>
       <c r="ZW26" s="55"/>
       <c r="ZX26" s="55"/>
-      <c r="ZY26" s="55"/>
-      <c r="ZZ26" s="55"/>
     </row>
-    <row r="27" spans="1:702" ht="1.5" customHeight="1">
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="2"/>
+    <row r="27" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -19903,48 +19943,51 @@
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
-      <c r="BA27" s="55"/>
-      <c r="BB27" s="55"/>
-      <c r="BC27" s="55"/>
-      <c r="BD27" s="55"/>
-      <c r="BE27" s="55"/>
-      <c r="BF27" s="55"/>
-      <c r="BG27" s="55"/>
-      <c r="BH27" s="55"/>
-      <c r="BI27" s="55"/>
-      <c r="BJ27" s="55"/>
-      <c r="BK27" s="55"/>
-      <c r="BL27" s="55"/>
-      <c r="BM27" s="55"/>
-      <c r="BN27" s="55"/>
-      <c r="BO27" s="55"/>
-      <c r="BP27" s="55"/>
-      <c r="BQ27" s="55"/>
-      <c r="BR27" s="55"/>
-      <c r="BS27" s="55"/>
-      <c r="BT27" s="55"/>
-      <c r="BU27" s="55"/>
-      <c r="BV27" s="55"/>
-      <c r="BW27" s="55"/>
-      <c r="BX27" s="55"/>
-      <c r="BY27" s="55"/>
-      <c r="BZ27" s="55"/>
-      <c r="CA27" s="55"/>
-      <c r="CB27" s="55"/>
-      <c r="CC27" s="55"/>
-      <c r="CD27" s="55"/>
-      <c r="CE27" s="55"/>
-      <c r="CF27" s="55"/>
-      <c r="CG27" s="55"/>
-      <c r="CH27" s="55"/>
-      <c r="CI27" s="55"/>
-      <c r="CJ27" s="55"/>
-      <c r="CK27" s="55"/>
-      <c r="CL27" s="55"/>
-      <c r="CM27" s="55"/>
-      <c r="CN27" s="55"/>
-      <c r="CO27" s="55"/>
-      <c r="CP27" s="55"/>
+      <c r="AZ27" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA27" s="47"/>
+      <c r="BB27" s="47"/>
+      <c r="BC27" s="47"/>
+      <c r="BD27" s="47"/>
+      <c r="BE27" s="47"/>
+      <c r="BF27" s="47"/>
+      <c r="BG27" s="47"/>
+      <c r="BH27" s="47"/>
+      <c r="BI27" s="47"/>
+      <c r="BJ27" s="47"/>
+      <c r="BK27" s="47"/>
+      <c r="BL27" s="47"/>
+      <c r="BM27" s="47"/>
+      <c r="BN27" s="47"/>
+      <c r="BO27" s="47"/>
+      <c r="BP27" s="47"/>
+      <c r="BQ27" s="47"/>
+      <c r="BS27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT27" s="47"/>
+      <c r="BU27" s="47"/>
+      <c r="BV27" s="47"/>
+      <c r="BW27" s="47"/>
+      <c r="BX27" s="47"/>
+      <c r="BY27" s="47"/>
+      <c r="BZ27" s="47"/>
+      <c r="CA27" s="47"/>
+      <c r="CB27" s="47"/>
+      <c r="CC27" s="47"/>
+      <c r="CD27" s="47"/>
+      <c r="CE27" s="47"/>
+      <c r="CF27" s="47"/>
+      <c r="CG27" s="47"/>
+      <c r="CH27" s="47"/>
+      <c r="CI27" s="47"/>
+      <c r="CJ27" s="47"/>
+      <c r="CK27" s="47"/>
+      <c r="CL27" s="47"/>
+      <c r="CM27" s="47"/>
+      <c r="CN27" s="47"/>
+      <c r="CO27" s="47"/>
       <c r="CQ27" s="3"/>
       <c r="CR27" s="3"/>
       <c r="CS27" s="3"/>
@@ -19973,48 +20016,51 @@
       <c r="DP27" s="3"/>
       <c r="DQ27" s="3"/>
       <c r="DR27" s="3"/>
-      <c r="DT27" s="55"/>
-      <c r="DU27" s="55"/>
-      <c r="DV27" s="55"/>
-      <c r="DW27" s="55"/>
-      <c r="DX27" s="55"/>
-      <c r="DY27" s="55"/>
-      <c r="DZ27" s="55"/>
-      <c r="EA27" s="55"/>
-      <c r="EB27" s="55"/>
-      <c r="EC27" s="55"/>
-      <c r="ED27" s="55"/>
-      <c r="EE27" s="55"/>
-      <c r="EF27" s="55"/>
-      <c r="EG27" s="55"/>
-      <c r="EH27" s="55"/>
-      <c r="EI27" s="55"/>
-      <c r="EJ27" s="55"/>
-      <c r="EK27" s="55"/>
-      <c r="EL27" s="55"/>
-      <c r="EM27" s="55"/>
-      <c r="EN27" s="55"/>
-      <c r="EO27" s="55"/>
-      <c r="EP27" s="55"/>
-      <c r="EQ27" s="55"/>
-      <c r="ER27" s="55"/>
-      <c r="ES27" s="55"/>
-      <c r="ET27" s="55"/>
-      <c r="EU27" s="55"/>
-      <c r="EV27" s="55"/>
-      <c r="EW27" s="55"/>
-      <c r="EX27" s="55"/>
-      <c r="EY27" s="55"/>
-      <c r="EZ27" s="55"/>
-      <c r="FA27" s="55"/>
-      <c r="FB27" s="55"/>
-      <c r="FC27" s="55"/>
-      <c r="FD27" s="55"/>
-      <c r="FE27" s="55"/>
-      <c r="FF27" s="55"/>
-      <c r="FG27" s="55"/>
-      <c r="FH27" s="55"/>
-      <c r="FI27" s="55"/>
+      <c r="DS27" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="DT27" s="47"/>
+      <c r="DU27" s="47"/>
+      <c r="DV27" s="47"/>
+      <c r="DW27" s="47"/>
+      <c r="DX27" s="47"/>
+      <c r="DY27" s="47"/>
+      <c r="DZ27" s="47"/>
+      <c r="EA27" s="47"/>
+      <c r="EB27" s="47"/>
+      <c r="EC27" s="47"/>
+      <c r="ED27" s="47"/>
+      <c r="EE27" s="47"/>
+      <c r="EF27" s="47"/>
+      <c r="EG27" s="47"/>
+      <c r="EH27" s="47"/>
+      <c r="EI27" s="47"/>
+      <c r="EJ27" s="47"/>
+      <c r="EL27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="EM27" s="47"/>
+      <c r="EN27" s="47"/>
+      <c r="EO27" s="47"/>
+      <c r="EP27" s="47"/>
+      <c r="EQ27" s="47"/>
+      <c r="ER27" s="47"/>
+      <c r="ES27" s="47"/>
+      <c r="ET27" s="47"/>
+      <c r="EU27" s="47"/>
+      <c r="EV27" s="47"/>
+      <c r="EW27" s="47"/>
+      <c r="EX27" s="47"/>
+      <c r="EY27" s="47"/>
+      <c r="EZ27" s="47"/>
+      <c r="FA27" s="47"/>
+      <c r="FB27" s="47"/>
+      <c r="FC27" s="47"/>
+      <c r="FD27" s="47"/>
+      <c r="FE27" s="47"/>
+      <c r="FF27" s="47"/>
+      <c r="FG27" s="47"/>
+      <c r="FH27" s="47"/>
       <c r="FJ27" s="55"/>
       <c r="FK27" s="55"/>
       <c r="FL27" s="55"/>
@@ -20553,172 +20599,168 @@
       <c r="ZY27" s="55"/>
       <c r="ZZ27" s="55"/>
     </row>
-    <row r="28" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="O28" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="82"/>
-      <c r="AP28" s="82"/>
-      <c r="AQ28" s="82"/>
-      <c r="AR28" s="82"/>
-      <c r="AS28" s="82"/>
-      <c r="AT28" s="82"/>
-      <c r="AU28" s="82"/>
-      <c r="AV28" s="82"/>
-      <c r="AW28" s="82"/>
-      <c r="AX28" s="82"/>
-      <c r="AY28" s="82"/>
-      <c r="AZ28" s="78"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="78"/>
-      <c r="BC28" s="78"/>
-      <c r="BD28" s="78"/>
-      <c r="BE28" s="78"/>
-      <c r="BF28" s="78"/>
-      <c r="BG28" s="78"/>
-      <c r="BH28" s="78"/>
-      <c r="BI28" s="78"/>
-      <c r="BJ28" s="78"/>
-      <c r="BK28" s="78"/>
-      <c r="BL28" s="78"/>
-      <c r="BM28" s="78"/>
-      <c r="BN28" s="78"/>
-      <c r="BO28" s="78"/>
-      <c r="BP28" s="78"/>
-      <c r="BQ28" s="78"/>
-      <c r="BS28" s="79"/>
-      <c r="BT28" s="79"/>
-      <c r="BU28" s="79"/>
-      <c r="BV28" s="79"/>
-      <c r="BW28" s="79"/>
-      <c r="BX28" s="79"/>
-      <c r="BY28" s="79"/>
-      <c r="BZ28" s="79"/>
-      <c r="CA28" s="79"/>
-      <c r="CB28" s="79"/>
-      <c r="CC28" s="79"/>
-      <c r="CD28" s="79"/>
-      <c r="CE28" s="79"/>
-      <c r="CF28" s="79"/>
-      <c r="CG28" s="79"/>
-      <c r="CH28" s="79"/>
-      <c r="CI28" s="79"/>
-      <c r="CJ28" s="79"/>
-      <c r="CK28" s="79"/>
-      <c r="CL28" s="79"/>
-      <c r="CM28" s="79"/>
-      <c r="CN28" s="79"/>
-      <c r="CO28" s="79"/>
-      <c r="CQ28" s="79"/>
-      <c r="CR28" s="79"/>
-      <c r="CS28" s="79"/>
-      <c r="CT28" s="79"/>
-      <c r="CU28" s="79"/>
-      <c r="CV28" s="79"/>
-      <c r="CW28" s="79"/>
-      <c r="CX28" s="79"/>
-      <c r="CY28" s="79"/>
-      <c r="CZ28" s="79"/>
-      <c r="DA28" s="79"/>
-      <c r="DB28" s="79"/>
-      <c r="DC28" s="79"/>
-      <c r="DD28" s="79"/>
-      <c r="DE28" s="79"/>
-      <c r="DF28" s="79"/>
-      <c r="DG28" s="79"/>
-      <c r="DH28" s="79"/>
-      <c r="DI28" s="79"/>
-      <c r="DJ28" s="79"/>
-      <c r="DK28" s="79"/>
-      <c r="DL28" s="79"/>
-      <c r="DM28" s="79"/>
-      <c r="DN28" s="79"/>
-      <c r="DO28" s="79"/>
-      <c r="DP28" s="79"/>
-      <c r="DQ28" s="79"/>
-      <c r="DR28" s="79"/>
-      <c r="DS28" s="79"/>
-      <c r="DT28" s="79"/>
-      <c r="DU28" s="79"/>
-      <c r="DV28" s="79"/>
-      <c r="DW28" s="79"/>
-      <c r="DX28" s="79"/>
-      <c r="DY28" s="79"/>
-      <c r="DZ28" s="79"/>
-      <c r="EA28" s="79"/>
-      <c r="EB28" s="79"/>
-      <c r="EC28" s="79"/>
-      <c r="ED28" s="79"/>
-      <c r="EE28" s="79"/>
-      <c r="EF28" s="79"/>
-      <c r="EG28" s="79"/>
-      <c r="EH28" s="79"/>
-      <c r="EI28" s="79"/>
-      <c r="EJ28" s="79"/>
-      <c r="EK28" s="79"/>
-      <c r="EL28" s="79"/>
-      <c r="EM28" s="79"/>
-      <c r="EN28" s="79"/>
-      <c r="EO28" s="79"/>
-      <c r="EP28" s="79"/>
-      <c r="EQ28" s="79"/>
-      <c r="ER28" s="79"/>
-      <c r="ES28" s="79"/>
-      <c r="ET28" s="79"/>
-      <c r="EU28" s="79"/>
-      <c r="EV28" s="79"/>
-      <c r="EW28" s="79"/>
-      <c r="EX28" s="79"/>
-      <c r="EY28" s="79"/>
-      <c r="EZ28" s="79"/>
-      <c r="FA28" s="79"/>
-      <c r="FB28" s="79"/>
-      <c r="FC28" s="79"/>
-      <c r="FD28" s="79"/>
-      <c r="FE28" s="79"/>
-      <c r="FF28" s="79"/>
-      <c r="FG28" s="79"/>
-      <c r="FH28" s="79"/>
+    <row r="28" spans="1:702" ht="1.5" customHeight="1">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="BA28" s="55"/>
+      <c r="BB28" s="55"/>
+      <c r="BC28" s="55"/>
+      <c r="BD28" s="55"/>
+      <c r="BE28" s="55"/>
+      <c r="BF28" s="55"/>
+      <c r="BG28" s="55"/>
+      <c r="BH28" s="55"/>
+      <c r="BI28" s="55"/>
+      <c r="BJ28" s="55"/>
+      <c r="BK28" s="55"/>
+      <c r="BL28" s="55"/>
+      <c r="BM28" s="55"/>
+      <c r="BN28" s="55"/>
+      <c r="BO28" s="55"/>
+      <c r="BP28" s="55"/>
+      <c r="BQ28" s="55"/>
+      <c r="BR28" s="55"/>
+      <c r="BS28" s="55"/>
+      <c r="BT28" s="55"/>
+      <c r="BU28" s="55"/>
+      <c r="BV28" s="55"/>
+      <c r="BW28" s="55"/>
+      <c r="BX28" s="55"/>
+      <c r="BY28" s="55"/>
+      <c r="BZ28" s="55"/>
+      <c r="CA28" s="55"/>
+      <c r="CB28" s="55"/>
+      <c r="CC28" s="55"/>
+      <c r="CD28" s="55"/>
+      <c r="CE28" s="55"/>
+      <c r="CF28" s="55"/>
+      <c r="CG28" s="55"/>
+      <c r="CH28" s="55"/>
+      <c r="CI28" s="55"/>
+      <c r="CJ28" s="55"/>
+      <c r="CK28" s="55"/>
+      <c r="CL28" s="55"/>
+      <c r="CM28" s="55"/>
+      <c r="CN28" s="55"/>
+      <c r="CO28" s="55"/>
+      <c r="CP28" s="55"/>
+      <c r="CQ28" s="3"/>
+      <c r="CR28" s="3"/>
+      <c r="CS28" s="3"/>
+      <c r="CT28" s="3"/>
+      <c r="CU28" s="3"/>
+      <c r="CV28" s="3"/>
+      <c r="CW28" s="3"/>
+      <c r="CX28" s="3"/>
+      <c r="CY28" s="3"/>
+      <c r="CZ28" s="3"/>
+      <c r="DA28" s="3"/>
+      <c r="DB28" s="3"/>
+      <c r="DC28" s="3"/>
+      <c r="DD28" s="3"/>
+      <c r="DE28" s="3"/>
+      <c r="DF28" s="3"/>
+      <c r="DG28" s="3"/>
+      <c r="DH28" s="3"/>
+      <c r="DI28" s="3"/>
+      <c r="DJ28" s="3"/>
+      <c r="DK28" s="3"/>
+      <c r="DL28" s="3"/>
+      <c r="DM28" s="3"/>
+      <c r="DN28" s="3"/>
+      <c r="DO28" s="3"/>
+      <c r="DP28" s="3"/>
+      <c r="DQ28" s="3"/>
+      <c r="DR28" s="3"/>
+      <c r="DT28" s="55"/>
+      <c r="DU28" s="55"/>
+      <c r="DV28" s="55"/>
+      <c r="DW28" s="55"/>
+      <c r="DX28" s="55"/>
+      <c r="DY28" s="55"/>
+      <c r="DZ28" s="55"/>
+      <c r="EA28" s="55"/>
+      <c r="EB28" s="55"/>
+      <c r="EC28" s="55"/>
+      <c r="ED28" s="55"/>
+      <c r="EE28" s="55"/>
+      <c r="EF28" s="55"/>
+      <c r="EG28" s="55"/>
+      <c r="EH28" s="55"/>
+      <c r="EI28" s="55"/>
+      <c r="EJ28" s="55"/>
+      <c r="EK28" s="55"/>
+      <c r="EL28" s="55"/>
+      <c r="EM28" s="55"/>
+      <c r="EN28" s="55"/>
+      <c r="EO28" s="55"/>
+      <c r="EP28" s="55"/>
+      <c r="EQ28" s="55"/>
+      <c r="ER28" s="55"/>
+      <c r="ES28" s="55"/>
+      <c r="ET28" s="55"/>
+      <c r="EU28" s="55"/>
+      <c r="EV28" s="55"/>
+      <c r="EW28" s="55"/>
+      <c r="EX28" s="55"/>
+      <c r="EY28" s="55"/>
+      <c r="EZ28" s="55"/>
+      <c r="FA28" s="55"/>
+      <c r="FB28" s="55"/>
+      <c r="FC28" s="55"/>
+      <c r="FD28" s="55"/>
+      <c r="FE28" s="55"/>
+      <c r="FF28" s="55"/>
+      <c r="FG28" s="55"/>
+      <c r="FH28" s="55"/>
+      <c r="FI28" s="55"/>
       <c r="FJ28" s="55"/>
       <c r="FK28" s="55"/>
       <c r="FL28" s="55"/>
@@ -21247,25 +21289,35 @@
       <c r="ZO28" s="55"/>
       <c r="ZP28" s="55"/>
       <c r="ZQ28" s="55"/>
-      <c r="ZR28" s="23"/>
-      <c r="ZT28" s="23"/>
+      <c r="ZR28" s="55"/>
+      <c r="ZS28" s="55"/>
+      <c r="ZT28" s="55"/>
+      <c r="ZU28" s="55"/>
+      <c r="ZV28" s="55"/>
       <c r="ZW28" s="55"/>
       <c r="ZX28" s="55"/>
+      <c r="ZY28" s="55"/>
+      <c r="ZZ28" s="55"/>
     </row>
     <row r="29" spans="1:702" ht="14.25" customHeight="1">
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="2"/>
-      <c r="O29" s="82"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="O29" s="82" t="s">
+        <v>73</v>
+      </c>
       <c r="P29" s="82"/>
       <c r="Q29" s="82"/>
       <c r="R29" s="82"/>
@@ -21302,123 +21354,117 @@
       <c r="AW29" s="82"/>
       <c r="AX29" s="82"/>
       <c r="AY29" s="82"/>
-      <c r="AZ29" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA29" s="47"/>
-      <c r="BB29" s="47"/>
-      <c r="BC29" s="47"/>
-      <c r="BD29" s="47"/>
-      <c r="BE29" s="47"/>
-      <c r="BF29" s="47"/>
-      <c r="BG29" s="47"/>
-      <c r="BH29" s="47"/>
-      <c r="BI29" s="47"/>
-      <c r="BJ29" s="47"/>
-      <c r="BK29" s="47"/>
-      <c r="BL29" s="47"/>
-      <c r="BM29" s="47"/>
-      <c r="BN29" s="47"/>
-      <c r="BO29" s="47"/>
-      <c r="BP29" s="47"/>
-      <c r="BQ29" s="47"/>
-      <c r="BS29" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT29" s="47"/>
-      <c r="BU29" s="47"/>
-      <c r="BV29" s="47"/>
-      <c r="BW29" s="47"/>
-      <c r="BX29" s="47"/>
-      <c r="BY29" s="47"/>
-      <c r="BZ29" s="47"/>
-      <c r="CA29" s="47"/>
-      <c r="CB29" s="47"/>
-      <c r="CC29" s="47"/>
-      <c r="CD29" s="47"/>
-      <c r="CE29" s="47"/>
-      <c r="CF29" s="47"/>
-      <c r="CG29" s="47"/>
-      <c r="CH29" s="47"/>
-      <c r="CI29" s="47"/>
-      <c r="CJ29" s="47"/>
-      <c r="CK29" s="47"/>
-      <c r="CL29" s="47"/>
-      <c r="CM29" s="47"/>
-      <c r="CN29" s="47"/>
-      <c r="CO29" s="47"/>
-      <c r="CQ29" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR29" s="47"/>
-      <c r="CS29" s="47"/>
-      <c r="CT29" s="47"/>
-      <c r="CU29" s="47"/>
-      <c r="CV29" s="47"/>
-      <c r="CW29" s="47"/>
-      <c r="CX29" s="47"/>
-      <c r="CY29" s="47"/>
-      <c r="CZ29" s="47"/>
-      <c r="DA29" s="47"/>
-      <c r="DB29" s="47"/>
-      <c r="DC29" s="47"/>
-      <c r="DD29" s="47"/>
-      <c r="DE29" s="47"/>
-      <c r="DF29" s="47"/>
-      <c r="DG29" s="47"/>
-      <c r="DH29" s="47"/>
-      <c r="DI29" s="47"/>
-      <c r="DJ29" s="47"/>
-      <c r="DK29" s="47"/>
-      <c r="DL29" s="47"/>
-      <c r="DM29" s="47"/>
-      <c r="DN29" s="47"/>
-      <c r="DO29" s="47"/>
-      <c r="DP29" s="47"/>
-      <c r="DQ29" s="47"/>
-      <c r="DR29" s="47"/>
-      <c r="DS29" s="47"/>
-      <c r="DT29" s="47"/>
-      <c r="DU29" s="47"/>
-      <c r="DV29" s="47"/>
-      <c r="DW29" s="47"/>
-      <c r="DX29" s="47"/>
-      <c r="DY29" s="47"/>
-      <c r="DZ29" s="47"/>
-      <c r="EA29" s="47"/>
-      <c r="EB29" s="47"/>
-      <c r="EC29" s="47"/>
-      <c r="ED29" s="47"/>
-      <c r="EE29" s="47"/>
-      <c r="EF29" s="47"/>
-      <c r="EG29" s="47"/>
-      <c r="EH29" s="47"/>
-      <c r="EI29" s="47"/>
-      <c r="EJ29" s="47"/>
-      <c r="EK29" s="47"/>
-      <c r="EL29" s="47"/>
-      <c r="EM29" s="47"/>
-      <c r="EN29" s="47"/>
-      <c r="EO29" s="47"/>
-      <c r="EP29" s="47"/>
-      <c r="EQ29" s="47"/>
-      <c r="ER29" s="47"/>
-      <c r="ES29" s="47"/>
-      <c r="ET29" s="47"/>
-      <c r="EU29" s="47"/>
-      <c r="EV29" s="47"/>
-      <c r="EW29" s="47"/>
-      <c r="EX29" s="47"/>
-      <c r="EY29" s="47"/>
-      <c r="EZ29" s="47"/>
-      <c r="FA29" s="47"/>
-      <c r="FB29" s="47"/>
-      <c r="FC29" s="47"/>
-      <c r="FD29" s="47"/>
-      <c r="FE29" s="47"/>
-      <c r="FF29" s="47"/>
-      <c r="FG29" s="47"/>
-      <c r="FH29" s="47"/>
+      <c r="AZ29" s="78"/>
+      <c r="BA29" s="78"/>
+      <c r="BB29" s="78"/>
+      <c r="BC29" s="78"/>
+      <c r="BD29" s="78"/>
+      <c r="BE29" s="78"/>
+      <c r="BF29" s="78"/>
+      <c r="BG29" s="78"/>
+      <c r="BH29" s="78"/>
+      <c r="BI29" s="78"/>
+      <c r="BJ29" s="78"/>
+      <c r="BK29" s="78"/>
+      <c r="BL29" s="78"/>
+      <c r="BM29" s="78"/>
+      <c r="BN29" s="78"/>
+      <c r="BO29" s="78"/>
+      <c r="BP29" s="78"/>
+      <c r="BQ29" s="78"/>
+      <c r="BS29" s="79"/>
+      <c r="BT29" s="79"/>
+      <c r="BU29" s="79"/>
+      <c r="BV29" s="79"/>
+      <c r="BW29" s="79"/>
+      <c r="BX29" s="79"/>
+      <c r="BY29" s="79"/>
+      <c r="BZ29" s="79"/>
+      <c r="CA29" s="79"/>
+      <c r="CB29" s="79"/>
+      <c r="CC29" s="79"/>
+      <c r="CD29" s="79"/>
+      <c r="CE29" s="79"/>
+      <c r="CF29" s="79"/>
+      <c r="CG29" s="79"/>
+      <c r="CH29" s="79"/>
+      <c r="CI29" s="79"/>
+      <c r="CJ29" s="79"/>
+      <c r="CK29" s="79"/>
+      <c r="CL29" s="79"/>
+      <c r="CM29" s="79"/>
+      <c r="CN29" s="79"/>
+      <c r="CO29" s="79"/>
+      <c r="CQ29" s="79"/>
+      <c r="CR29" s="79"/>
+      <c r="CS29" s="79"/>
+      <c r="CT29" s="79"/>
+      <c r="CU29" s="79"/>
+      <c r="CV29" s="79"/>
+      <c r="CW29" s="79"/>
+      <c r="CX29" s="79"/>
+      <c r="CY29" s="79"/>
+      <c r="CZ29" s="79"/>
+      <c r="DA29" s="79"/>
+      <c r="DB29" s="79"/>
+      <c r="DC29" s="79"/>
+      <c r="DD29" s="79"/>
+      <c r="DE29" s="79"/>
+      <c r="DF29" s="79"/>
+      <c r="DG29" s="79"/>
+      <c r="DH29" s="79"/>
+      <c r="DI29" s="79"/>
+      <c r="DJ29" s="79"/>
+      <c r="DK29" s="79"/>
+      <c r="DL29" s="79"/>
+      <c r="DM29" s="79"/>
+      <c r="DN29" s="79"/>
+      <c r="DO29" s="79"/>
+      <c r="DP29" s="79"/>
+      <c r="DQ29" s="79"/>
+      <c r="DR29" s="79"/>
+      <c r="DS29" s="79"/>
+      <c r="DT29" s="79"/>
+      <c r="DU29" s="79"/>
+      <c r="DV29" s="79"/>
+      <c r="DW29" s="79"/>
+      <c r="DX29" s="79"/>
+      <c r="DY29" s="79"/>
+      <c r="DZ29" s="79"/>
+      <c r="EA29" s="79"/>
+      <c r="EB29" s="79"/>
+      <c r="EC29" s="79"/>
+      <c r="ED29" s="79"/>
+      <c r="EE29" s="79"/>
+      <c r="EF29" s="79"/>
+      <c r="EG29" s="79"/>
+      <c r="EH29" s="79"/>
+      <c r="EI29" s="79"/>
+      <c r="EJ29" s="79"/>
+      <c r="EK29" s="79"/>
+      <c r="EL29" s="79"/>
+      <c r="EM29" s="79"/>
+      <c r="EN29" s="79"/>
+      <c r="EO29" s="79"/>
+      <c r="EP29" s="79"/>
+      <c r="EQ29" s="79"/>
+      <c r="ER29" s="79"/>
+      <c r="ES29" s="79"/>
+      <c r="ET29" s="79"/>
+      <c r="EU29" s="79"/>
+      <c r="EV29" s="79"/>
+      <c r="EW29" s="79"/>
+      <c r="EX29" s="79"/>
+      <c r="EY29" s="79"/>
+      <c r="EZ29" s="79"/>
+      <c r="FA29" s="79"/>
+      <c r="FB29" s="79"/>
+      <c r="FC29" s="79"/>
+      <c r="FD29" s="79"/>
+      <c r="FE29" s="79"/>
+      <c r="FF29" s="79"/>
+      <c r="FG29" s="79"/>
+      <c r="FH29" s="79"/>
       <c r="FJ29" s="55"/>
       <c r="FK29" s="55"/>
       <c r="FL29" s="55"/>
@@ -21947,17 +21993,12 @@
       <c r="ZO29" s="55"/>
       <c r="ZP29" s="55"/>
       <c r="ZQ29" s="55"/>
-      <c r="ZR29" s="55"/>
-      <c r="ZS29" s="55"/>
-      <c r="ZT29" s="55"/>
-      <c r="ZU29" s="55"/>
-      <c r="ZV29" s="55"/>
+      <c r="ZR29" s="23"/>
+      <c r="ZT29" s="23"/>
       <c r="ZW29" s="55"/>
       <c r="ZX29" s="55"/>
-      <c r="ZY29" s="55"/>
-      <c r="ZZ29" s="55"/>
     </row>
-    <row r="30" spans="1:702" ht="1.5" customHeight="1">
+    <row r="30" spans="1:702" ht="14.25" customHeight="1">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
@@ -21970,7 +22011,6 @@
       <c r="K30" s="55"/>
       <c r="L30" s="55"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="78"/>
       <c r="O30" s="82"/>
       <c r="P30" s="82"/>
       <c r="Q30" s="82"/>
@@ -22008,120 +22048,124 @@
       <c r="AW30" s="82"/>
       <c r="AX30" s="82"/>
       <c r="AY30" s="82"/>
-      <c r="AZ30" s="78"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="16"/>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="16"/>
-      <c r="BE30" s="16"/>
-      <c r="BF30" s="16"/>
-      <c r="BG30" s="16"/>
-      <c r="BH30" s="16"/>
-      <c r="BI30" s="16"/>
-      <c r="BJ30" s="16"/>
-      <c r="BK30" s="16"/>
-      <c r="BL30" s="16"/>
-      <c r="BM30" s="16"/>
-      <c r="BN30" s="16"/>
-      <c r="BO30" s="16"/>
-      <c r="BP30" s="16"/>
-      <c r="BQ30" s="16"/>
-      <c r="BR30" s="16"/>
-      <c r="BS30" s="16"/>
-      <c r="BT30" s="16"/>
-      <c r="BU30" s="16"/>
-      <c r="BV30" s="16"/>
-      <c r="BW30" s="16"/>
-      <c r="BX30" s="16"/>
-      <c r="BY30" s="16"/>
-      <c r="BZ30" s="16"/>
-      <c r="CA30" s="16"/>
-      <c r="CB30" s="16"/>
-      <c r="CC30" s="16"/>
-      <c r="CD30" s="16"/>
-      <c r="CE30" s="16"/>
-      <c r="CF30" s="16"/>
-      <c r="CG30" s="16"/>
-      <c r="CH30" s="16"/>
-      <c r="CI30" s="16"/>
-      <c r="CJ30" s="16"/>
-      <c r="CK30" s="16"/>
-      <c r="CL30" s="16"/>
-      <c r="CM30" s="16"/>
-      <c r="CN30" s="16"/>
-      <c r="CO30" s="16"/>
-      <c r="CP30" s="16"/>
-      <c r="CQ30" s="16"/>
-      <c r="CR30" s="16"/>
-      <c r="CS30" s="16"/>
-      <c r="CT30" s="16"/>
-      <c r="CU30" s="16"/>
-      <c r="CV30" s="16"/>
-      <c r="CW30" s="16"/>
-      <c r="CX30" s="16"/>
-      <c r="CY30" s="16"/>
-      <c r="CZ30" s="16"/>
-      <c r="DA30" s="16"/>
-      <c r="DB30" s="16"/>
-      <c r="DC30" s="16"/>
-      <c r="DD30" s="16"/>
-      <c r="DE30" s="16"/>
-      <c r="DF30" s="16"/>
-      <c r="DG30" s="16"/>
-      <c r="DH30" s="16"/>
-      <c r="DI30" s="16"/>
-      <c r="DJ30" s="16"/>
-      <c r="DK30" s="16"/>
-      <c r="DL30" s="16"/>
-      <c r="DM30" s="16"/>
-      <c r="DN30" s="16"/>
-      <c r="DO30" s="16"/>
-      <c r="DP30" s="16"/>
-      <c r="DQ30" s="16"/>
-      <c r="DR30" s="16"/>
-      <c r="DS30" s="16"/>
-      <c r="DT30" s="16"/>
-      <c r="DU30" s="16"/>
-      <c r="DV30" s="16"/>
-      <c r="DW30" s="16"/>
-      <c r="DX30" s="16"/>
-      <c r="DY30" s="16"/>
-      <c r="DZ30" s="16"/>
-      <c r="EA30" s="16"/>
-      <c r="EB30" s="16"/>
-      <c r="EC30" s="16"/>
-      <c r="ED30" s="16"/>
-      <c r="EE30" s="16"/>
-      <c r="EF30" s="16"/>
-      <c r="EG30" s="16"/>
-      <c r="EH30" s="16"/>
-      <c r="EI30" s="16"/>
-      <c r="EJ30" s="16"/>
-      <c r="EK30" s="16"/>
-      <c r="EL30" s="16"/>
-      <c r="EM30" s="16"/>
-      <c r="EN30" s="16"/>
-      <c r="EO30" s="16"/>
-      <c r="EP30" s="16"/>
-      <c r="EQ30" s="16"/>
-      <c r="ER30" s="16"/>
-      <c r="ES30" s="16"/>
-      <c r="ET30" s="16"/>
-      <c r="EU30" s="16"/>
-      <c r="EV30" s="16"/>
-      <c r="EW30" s="16"/>
-      <c r="EX30" s="16"/>
-      <c r="EY30" s="16"/>
-      <c r="EZ30" s="16"/>
-      <c r="FA30" s="16"/>
-      <c r="FB30" s="16"/>
-      <c r="FC30" s="16"/>
-      <c r="FD30" s="16"/>
-      <c r="FE30" s="16"/>
-      <c r="FF30" s="16"/>
-      <c r="FG30" s="16"/>
-      <c r="FH30" s="16"/>
-      <c r="FI30" s="16"/>
+      <c r="AZ30" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA30" s="47"/>
+      <c r="BB30" s="47"/>
+      <c r="BC30" s="47"/>
+      <c r="BD30" s="47"/>
+      <c r="BE30" s="47"/>
+      <c r="BF30" s="47"/>
+      <c r="BG30" s="47"/>
+      <c r="BH30" s="47"/>
+      <c r="BI30" s="47"/>
+      <c r="BJ30" s="47"/>
+      <c r="BK30" s="47"/>
+      <c r="BL30" s="47"/>
+      <c r="BM30" s="47"/>
+      <c r="BN30" s="47"/>
+      <c r="BO30" s="47"/>
+      <c r="BP30" s="47"/>
+      <c r="BQ30" s="47"/>
+      <c r="BS30" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT30" s="47"/>
+      <c r="BU30" s="47"/>
+      <c r="BV30" s="47"/>
+      <c r="BW30" s="47"/>
+      <c r="BX30" s="47"/>
+      <c r="BY30" s="47"/>
+      <c r="BZ30" s="47"/>
+      <c r="CA30" s="47"/>
+      <c r="CB30" s="47"/>
+      <c r="CC30" s="47"/>
+      <c r="CD30" s="47"/>
+      <c r="CE30" s="47"/>
+      <c r="CF30" s="47"/>
+      <c r="CG30" s="47"/>
+      <c r="CH30" s="47"/>
+      <c r="CI30" s="47"/>
+      <c r="CJ30" s="47"/>
+      <c r="CK30" s="47"/>
+      <c r="CL30" s="47"/>
+      <c r="CM30" s="47"/>
+      <c r="CN30" s="47"/>
+      <c r="CO30" s="47"/>
+      <c r="CQ30" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR30" s="47"/>
+      <c r="CS30" s="47"/>
+      <c r="CT30" s="47"/>
+      <c r="CU30" s="47"/>
+      <c r="CV30" s="47"/>
+      <c r="CW30" s="47"/>
+      <c r="CX30" s="47"/>
+      <c r="CY30" s="47"/>
+      <c r="CZ30" s="47"/>
+      <c r="DA30" s="47"/>
+      <c r="DB30" s="47"/>
+      <c r="DC30" s="47"/>
+      <c r="DD30" s="47"/>
+      <c r="DE30" s="47"/>
+      <c r="DF30" s="47"/>
+      <c r="DG30" s="47"/>
+      <c r="DH30" s="47"/>
+      <c r="DI30" s="47"/>
+      <c r="DJ30" s="47"/>
+      <c r="DK30" s="47"/>
+      <c r="DL30" s="47"/>
+      <c r="DM30" s="47"/>
+      <c r="DN30" s="47"/>
+      <c r="DO30" s="47"/>
+      <c r="DP30" s="47"/>
+      <c r="DQ30" s="47"/>
+      <c r="DR30" s="47"/>
+      <c r="DS30" s="47"/>
+      <c r="DT30" s="47"/>
+      <c r="DU30" s="47"/>
+      <c r="DV30" s="47"/>
+      <c r="DW30" s="47"/>
+      <c r="DX30" s="47"/>
+      <c r="DY30" s="47"/>
+      <c r="DZ30" s="47"/>
+      <c r="EA30" s="47"/>
+      <c r="EB30" s="47"/>
+      <c r="EC30" s="47"/>
+      <c r="ED30" s="47"/>
+      <c r="EE30" s="47"/>
+      <c r="EF30" s="47"/>
+      <c r="EG30" s="47"/>
+      <c r="EH30" s="47"/>
+      <c r="EI30" s="47"/>
+      <c r="EJ30" s="47"/>
+      <c r="EK30" s="47"/>
+      <c r="EL30" s="47"/>
+      <c r="EM30" s="47"/>
+      <c r="EN30" s="47"/>
+      <c r="EO30" s="47"/>
+      <c r="EP30" s="47"/>
+      <c r="EQ30" s="47"/>
+      <c r="ER30" s="47"/>
+      <c r="ES30" s="47"/>
+      <c r="ET30" s="47"/>
+      <c r="EU30" s="47"/>
+      <c r="EV30" s="47"/>
+      <c r="EW30" s="47"/>
+      <c r="EX30" s="47"/>
+      <c r="EY30" s="47"/>
+      <c r="EZ30" s="47"/>
+      <c r="FA30" s="47"/>
+      <c r="FB30" s="47"/>
+      <c r="FC30" s="47"/>
+      <c r="FD30" s="47"/>
+      <c r="FE30" s="47"/>
+      <c r="FF30" s="47"/>
+      <c r="FG30" s="47"/>
+      <c r="FH30" s="47"/>
+      <c r="FJ30" s="55"/>
       <c r="FK30" s="55"/>
       <c r="FL30" s="55"/>
       <c r="FM30" s="55"/>
@@ -22659,177 +22703,171 @@
       <c r="ZY30" s="55"/>
       <c r="ZZ30" s="55"/>
     </row>
-    <row r="31" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AW31" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX31" s="61"/>
-      <c r="AY31" s="61"/>
-      <c r="AZ31" s="61"/>
-      <c r="BA31" s="61"/>
-      <c r="BB31" s="61"/>
-      <c r="BC31" s="61"/>
-      <c r="BD31" s="61"/>
-      <c r="BE31" s="61"/>
-      <c r="BF31" s="61"/>
-      <c r="BG31" s="61"/>
-      <c r="BH31" s="61"/>
-      <c r="BI31" s="61"/>
-      <c r="BJ31" s="61"/>
-      <c r="BK31" s="61"/>
-      <c r="BL31" s="61"/>
-      <c r="BM31" s="61"/>
-      <c r="BN31" s="61"/>
-      <c r="BO31" s="61"/>
-      <c r="BP31" s="61"/>
-      <c r="BQ31" s="61"/>
-      <c r="BR31" s="61"/>
-      <c r="BS31" s="61"/>
-      <c r="BT31" s="61"/>
-      <c r="BU31" s="61"/>
-      <c r="BV31" s="61"/>
-      <c r="BW31" s="61"/>
-      <c r="BX31" s="61"/>
-      <c r="BY31" s="61"/>
-      <c r="BZ31" s="61"/>
-      <c r="CA31" s="61"/>
-      <c r="CB31" s="61"/>
-      <c r="CC31" s="61"/>
-      <c r="CD31" s="61"/>
-      <c r="CE31" s="61"/>
-      <c r="CF31" s="61"/>
-      <c r="CG31" s="61"/>
-      <c r="CH31" s="61"/>
-      <c r="CI31" s="61"/>
-      <c r="CJ31" s="61"/>
-      <c r="CK31" s="61"/>
-      <c r="CL31" s="61"/>
-      <c r="CM31" s="61"/>
-      <c r="CN31" s="61"/>
-      <c r="CO31" s="61"/>
-      <c r="CP31" s="61"/>
-      <c r="CQ31" s="61"/>
-      <c r="CR31" s="61"/>
-      <c r="CS31" s="61"/>
-      <c r="CT31" s="61"/>
-      <c r="CU31" s="61"/>
-      <c r="CV31" s="61"/>
-      <c r="CW31" s="61"/>
-      <c r="CX31" s="61"/>
-      <c r="CY31" s="61"/>
-      <c r="CZ31" s="61"/>
-      <c r="DA31" s="61"/>
-      <c r="DB31" s="61"/>
-      <c r="DC31" s="61"/>
-      <c r="DD31" s="61"/>
-      <c r="DE31" s="61"/>
-      <c r="DF31" s="61"/>
-      <c r="DG31" s="61"/>
-      <c r="DH31" s="61"/>
-      <c r="DI31" s="61"/>
-      <c r="DJ31" s="61"/>
-      <c r="DK31" s="61"/>
-      <c r="DL31" s="61"/>
-      <c r="DM31" s="61"/>
-      <c r="DN31" s="61"/>
-      <c r="DO31" s="61"/>
-      <c r="DP31" s="61"/>
-      <c r="DQ31" s="61"/>
-      <c r="DR31" s="61"/>
-      <c r="DS31" s="61"/>
-      <c r="DT31" s="61"/>
-      <c r="DU31" s="61"/>
-      <c r="DV31" s="61"/>
-      <c r="DW31" s="61"/>
-      <c r="DX31" s="61"/>
-      <c r="DY31" s="61"/>
-      <c r="DZ31" s="61"/>
-      <c r="EA31" s="61"/>
-      <c r="EB31" s="61"/>
-      <c r="EC31" s="61"/>
-      <c r="ED31" s="61"/>
-      <c r="EE31" s="61"/>
-      <c r="EF31" s="61"/>
-      <c r="EG31" s="61"/>
-      <c r="EH31" s="61"/>
-      <c r="EI31" s="61"/>
-      <c r="EJ31" s="61"/>
-      <c r="EK31" s="61"/>
-      <c r="EL31" s="61"/>
-      <c r="EM31" s="61"/>
-      <c r="EN31" s="61"/>
-      <c r="EO31" s="61"/>
-      <c r="EP31" s="61"/>
-      <c r="EQ31" s="61"/>
-      <c r="ER31" s="61"/>
-      <c r="ES31" s="61"/>
-      <c r="ET31" s="61"/>
-      <c r="EU31" s="61"/>
-      <c r="EV31" s="61"/>
-      <c r="EW31" s="61"/>
-      <c r="EX31" s="61"/>
-      <c r="EY31" s="61"/>
-      <c r="EZ31" s="61"/>
-      <c r="FA31" s="61"/>
-      <c r="FB31" s="61"/>
-      <c r="FC31" s="61"/>
-      <c r="FD31" s="61"/>
-      <c r="FE31" s="61"/>
-      <c r="FF31" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="FG31" s="14"/>
-      <c r="FH31" s="14"/>
-      <c r="FI31" s="14"/>
+    <row r="31" spans="1:702" ht="1.5" customHeight="1">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="78"/>
+      <c r="BA31" s="16"/>
+      <c r="BB31" s="16"/>
+      <c r="BC31" s="16"/>
+      <c r="BD31" s="16"/>
+      <c r="BE31" s="16"/>
+      <c r="BF31" s="16"/>
+      <c r="BG31" s="16"/>
+      <c r="BH31" s="16"/>
+      <c r="BI31" s="16"/>
+      <c r="BJ31" s="16"/>
+      <c r="BK31" s="16"/>
+      <c r="BL31" s="16"/>
+      <c r="BM31" s="16"/>
+      <c r="BN31" s="16"/>
+      <c r="BO31" s="16"/>
+      <c r="BP31" s="16"/>
+      <c r="BQ31" s="16"/>
+      <c r="BR31" s="16"/>
+      <c r="BS31" s="16"/>
+      <c r="BT31" s="16"/>
+      <c r="BU31" s="16"/>
+      <c r="BV31" s="16"/>
+      <c r="BW31" s="16"/>
+      <c r="BX31" s="16"/>
+      <c r="BY31" s="16"/>
+      <c r="BZ31" s="16"/>
+      <c r="CA31" s="16"/>
+      <c r="CB31" s="16"/>
+      <c r="CC31" s="16"/>
+      <c r="CD31" s="16"/>
+      <c r="CE31" s="16"/>
+      <c r="CF31" s="16"/>
+      <c r="CG31" s="16"/>
+      <c r="CH31" s="16"/>
+      <c r="CI31" s="16"/>
+      <c r="CJ31" s="16"/>
+      <c r="CK31" s="16"/>
+      <c r="CL31" s="16"/>
+      <c r="CM31" s="16"/>
+      <c r="CN31" s="16"/>
+      <c r="CO31" s="16"/>
+      <c r="CP31" s="16"/>
+      <c r="CQ31" s="16"/>
+      <c r="CR31" s="16"/>
+      <c r="CS31" s="16"/>
+      <c r="CT31" s="16"/>
+      <c r="CU31" s="16"/>
+      <c r="CV31" s="16"/>
+      <c r="CW31" s="16"/>
+      <c r="CX31" s="16"/>
+      <c r="CY31" s="16"/>
+      <c r="CZ31" s="16"/>
+      <c r="DA31" s="16"/>
+      <c r="DB31" s="16"/>
+      <c r="DC31" s="16"/>
+      <c r="DD31" s="16"/>
+      <c r="DE31" s="16"/>
+      <c r="DF31" s="16"/>
+      <c r="DG31" s="16"/>
+      <c r="DH31" s="16"/>
+      <c r="DI31" s="16"/>
+      <c r="DJ31" s="16"/>
+      <c r="DK31" s="16"/>
+      <c r="DL31" s="16"/>
+      <c r="DM31" s="16"/>
+      <c r="DN31" s="16"/>
+      <c r="DO31" s="16"/>
+      <c r="DP31" s="16"/>
+      <c r="DQ31" s="16"/>
+      <c r="DR31" s="16"/>
+      <c r="DS31" s="16"/>
+      <c r="DT31" s="16"/>
+      <c r="DU31" s="16"/>
+      <c r="DV31" s="16"/>
+      <c r="DW31" s="16"/>
+      <c r="DX31" s="16"/>
+      <c r="DY31" s="16"/>
+      <c r="DZ31" s="16"/>
+      <c r="EA31" s="16"/>
+      <c r="EB31" s="16"/>
+      <c r="EC31" s="16"/>
+      <c r="ED31" s="16"/>
+      <c r="EE31" s="16"/>
+      <c r="EF31" s="16"/>
+      <c r="EG31" s="16"/>
+      <c r="EH31" s="16"/>
+      <c r="EI31" s="16"/>
+      <c r="EJ31" s="16"/>
+      <c r="EK31" s="16"/>
+      <c r="EL31" s="16"/>
+      <c r="EM31" s="16"/>
+      <c r="EN31" s="16"/>
+      <c r="EO31" s="16"/>
+      <c r="EP31" s="16"/>
+      <c r="EQ31" s="16"/>
+      <c r="ER31" s="16"/>
+      <c r="ES31" s="16"/>
+      <c r="ET31" s="16"/>
+      <c r="EU31" s="16"/>
+      <c r="EV31" s="16"/>
+      <c r="EW31" s="16"/>
+      <c r="EX31" s="16"/>
+      <c r="EY31" s="16"/>
+      <c r="EZ31" s="16"/>
+      <c r="FA31" s="16"/>
+      <c r="FB31" s="16"/>
+      <c r="FC31" s="16"/>
+      <c r="FD31" s="16"/>
+      <c r="FE31" s="16"/>
+      <c r="FF31" s="16"/>
+      <c r="FG31" s="16"/>
+      <c r="FH31" s="16"/>
+      <c r="FI31" s="16"/>
       <c r="FK31" s="55"/>
       <c r="FL31" s="55"/>
       <c r="FM31" s="55"/>
@@ -23304,9 +23342,8 @@
       <c r="XN31" s="55"/>
       <c r="XO31" s="55"/>
       <c r="XP31" s="55"/>
-      <c r="XQ31" s="23" t="s">
-        <v>76</v>
-      </c>
+      <c r="XQ31" s="55"/>
+      <c r="XR31" s="55"/>
       <c r="XS31" s="55"/>
       <c r="XT31" s="55"/>
       <c r="XU31" s="55"/>
@@ -23368,173 +23405,177 @@
       <c r="ZY31" s="55"/>
       <c r="ZZ31" s="55"/>
     </row>
-    <row r="32" spans="1:702" ht="6.75" customHeight="1">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
-      <c r="AO32" s="55"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="55"/>
-      <c r="AS32" s="55"/>
-      <c r="AT32" s="55"/>
-      <c r="AU32" s="55"/>
-      <c r="AV32" s="55"/>
-      <c r="AW32" s="51" t="s">
-        <v>78</v>
+    <row r="32" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>75</v>
       </c>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="51"/>
-      <c r="BA32" s="51"/>
-      <c r="BB32" s="51"/>
-      <c r="BC32" s="51"/>
-      <c r="BD32" s="51"/>
-      <c r="BE32" s="51"/>
-      <c r="BF32" s="51"/>
-      <c r="BG32" s="51"/>
-      <c r="BH32" s="51"/>
-      <c r="BI32" s="51"/>
-      <c r="BJ32" s="51"/>
-      <c r="BK32" s="51"/>
-      <c r="BL32" s="51"/>
-      <c r="BM32" s="51"/>
-      <c r="BN32" s="51"/>
-      <c r="BO32" s="51"/>
-      <c r="BP32" s="51"/>
-      <c r="BQ32" s="51"/>
-      <c r="BR32" s="51"/>
-      <c r="BS32" s="51"/>
-      <c r="BT32" s="51"/>
-      <c r="BU32" s="51"/>
-      <c r="BV32" s="51"/>
-      <c r="BW32" s="51"/>
-      <c r="BX32" s="51"/>
-      <c r="BY32" s="51"/>
-      <c r="BZ32" s="51"/>
-      <c r="CA32" s="51"/>
-      <c r="CB32" s="51"/>
-      <c r="CC32" s="51"/>
-      <c r="CD32" s="51"/>
-      <c r="CE32" s="51"/>
-      <c r="CF32" s="51"/>
-      <c r="CG32" s="51"/>
-      <c r="CH32" s="51"/>
-      <c r="CI32" s="51"/>
-      <c r="CJ32" s="51"/>
-      <c r="CK32" s="51"/>
-      <c r="CL32" s="51"/>
-      <c r="CM32" s="51"/>
-      <c r="CN32" s="51"/>
-      <c r="CO32" s="51"/>
-      <c r="CP32" s="51"/>
-      <c r="CQ32" s="51"/>
-      <c r="CR32" s="51"/>
-      <c r="CS32" s="51"/>
-      <c r="CT32" s="51"/>
-      <c r="CU32" s="51"/>
-      <c r="CV32" s="51"/>
-      <c r="CW32" s="51"/>
-      <c r="CX32" s="51"/>
-      <c r="CY32" s="51"/>
-      <c r="CZ32" s="51"/>
-      <c r="DA32" s="51"/>
-      <c r="DB32" s="51"/>
-      <c r="DC32" s="51"/>
-      <c r="DD32" s="51"/>
-      <c r="DE32" s="51"/>
-      <c r="DF32" s="51"/>
-      <c r="DG32" s="51"/>
-      <c r="DH32" s="51"/>
-      <c r="DI32" s="51"/>
-      <c r="DJ32" s="51"/>
-      <c r="DK32" s="51"/>
-      <c r="DL32" s="51"/>
-      <c r="DM32" s="51"/>
-      <c r="DN32" s="51"/>
-      <c r="DO32" s="51"/>
-      <c r="DP32" s="51"/>
-      <c r="DQ32" s="51"/>
-      <c r="DR32" s="51"/>
-      <c r="DS32" s="51"/>
-      <c r="DT32" s="51"/>
-      <c r="DU32" s="51"/>
-      <c r="DV32" s="51"/>
-      <c r="DW32" s="51"/>
-      <c r="DX32" s="51"/>
-      <c r="DY32" s="51"/>
-      <c r="DZ32" s="51"/>
-      <c r="EA32" s="51"/>
-      <c r="EB32" s="51"/>
-      <c r="EC32" s="51"/>
-      <c r="ED32" s="51"/>
-      <c r="EE32" s="51"/>
-      <c r="EF32" s="51"/>
-      <c r="EG32" s="51"/>
-      <c r="EH32" s="51"/>
-      <c r="EI32" s="51"/>
-      <c r="EJ32" s="51"/>
-      <c r="EK32" s="51"/>
-      <c r="EL32" s="51"/>
-      <c r="EM32" s="51"/>
-      <c r="EN32" s="51"/>
-      <c r="EO32" s="51"/>
-      <c r="EP32" s="51"/>
-      <c r="EQ32" s="51"/>
-      <c r="ER32" s="51"/>
-      <c r="ES32" s="51"/>
-      <c r="ET32" s="51"/>
-      <c r="EU32" s="51"/>
-      <c r="EV32" s="51"/>
-      <c r="EW32" s="51"/>
-      <c r="EX32" s="51"/>
-      <c r="EY32" s="51"/>
-      <c r="EZ32" s="51"/>
-      <c r="FA32" s="51"/>
-      <c r="FB32" s="51"/>
-      <c r="FC32" s="51"/>
-      <c r="FD32" s="51"/>
-      <c r="FE32" s="51"/>
-      <c r="FG32" s="55"/>
-      <c r="FH32" s="55"/>
-      <c r="FI32" s="55"/>
-      <c r="FJ32" s="55"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AW32" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="61"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="61"/>
+      <c r="BF32" s="61"/>
+      <c r="BG32" s="61"/>
+      <c r="BH32" s="61"/>
+      <c r="BI32" s="61"/>
+      <c r="BJ32" s="61"/>
+      <c r="BK32" s="61"/>
+      <c r="BL32" s="61"/>
+      <c r="BM32" s="61"/>
+      <c r="BN32" s="61"/>
+      <c r="BO32" s="61"/>
+      <c r="BP32" s="61"/>
+      <c r="BQ32" s="61"/>
+      <c r="BR32" s="61"/>
+      <c r="BS32" s="61"/>
+      <c r="BT32" s="61"/>
+      <c r="BU32" s="61"/>
+      <c r="BV32" s="61"/>
+      <c r="BW32" s="61"/>
+      <c r="BX32" s="61"/>
+      <c r="BY32" s="61"/>
+      <c r="BZ32" s="61"/>
+      <c r="CA32" s="61"/>
+      <c r="CB32" s="61"/>
+      <c r="CC32" s="61"/>
+      <c r="CD32" s="61"/>
+      <c r="CE32" s="61"/>
+      <c r="CF32" s="61"/>
+      <c r="CG32" s="61"/>
+      <c r="CH32" s="61"/>
+      <c r="CI32" s="61"/>
+      <c r="CJ32" s="61"/>
+      <c r="CK32" s="61"/>
+      <c r="CL32" s="61"/>
+      <c r="CM32" s="61"/>
+      <c r="CN32" s="61"/>
+      <c r="CO32" s="61"/>
+      <c r="CP32" s="61"/>
+      <c r="CQ32" s="61"/>
+      <c r="CR32" s="61"/>
+      <c r="CS32" s="61"/>
+      <c r="CT32" s="61"/>
+      <c r="CU32" s="61"/>
+      <c r="CV32" s="61"/>
+      <c r="CW32" s="61"/>
+      <c r="CX32" s="61"/>
+      <c r="CY32" s="61"/>
+      <c r="CZ32" s="61"/>
+      <c r="DA32" s="61"/>
+      <c r="DB32" s="61"/>
+      <c r="DC32" s="61"/>
+      <c r="DD32" s="61"/>
+      <c r="DE32" s="61"/>
+      <c r="DF32" s="61"/>
+      <c r="DG32" s="61"/>
+      <c r="DH32" s="61"/>
+      <c r="DI32" s="61"/>
+      <c r="DJ32" s="61"/>
+      <c r="DK32" s="61"/>
+      <c r="DL32" s="61"/>
+      <c r="DM32" s="61"/>
+      <c r="DN32" s="61"/>
+      <c r="DO32" s="61"/>
+      <c r="DP32" s="61"/>
+      <c r="DQ32" s="61"/>
+      <c r="DR32" s="61"/>
+      <c r="DS32" s="61"/>
+      <c r="DT32" s="61"/>
+      <c r="DU32" s="61"/>
+      <c r="DV32" s="61"/>
+      <c r="DW32" s="61"/>
+      <c r="DX32" s="61"/>
+      <c r="DY32" s="61"/>
+      <c r="DZ32" s="61"/>
+      <c r="EA32" s="61"/>
+      <c r="EB32" s="61"/>
+      <c r="EC32" s="61"/>
+      <c r="ED32" s="61"/>
+      <c r="EE32" s="61"/>
+      <c r="EF32" s="61"/>
+      <c r="EG32" s="61"/>
+      <c r="EH32" s="61"/>
+      <c r="EI32" s="61"/>
+      <c r="EJ32" s="61"/>
+      <c r="EK32" s="61"/>
+      <c r="EL32" s="61"/>
+      <c r="EM32" s="61"/>
+      <c r="EN32" s="61"/>
+      <c r="EO32" s="61"/>
+      <c r="EP32" s="61"/>
+      <c r="EQ32" s="61"/>
+      <c r="ER32" s="61"/>
+      <c r="ES32" s="61"/>
+      <c r="ET32" s="61"/>
+      <c r="EU32" s="61"/>
+      <c r="EV32" s="61"/>
+      <c r="EW32" s="61"/>
+      <c r="EX32" s="61"/>
+      <c r="EY32" s="61"/>
+      <c r="EZ32" s="61"/>
+      <c r="FA32" s="61"/>
+      <c r="FB32" s="61"/>
+      <c r="FC32" s="61"/>
+      <c r="FD32" s="61"/>
+      <c r="FE32" s="61"/>
+      <c r="FF32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="FG32" s="14"/>
+      <c r="FH32" s="14"/>
+      <c r="FI32" s="14"/>
       <c r="FK32" s="55"/>
       <c r="FL32" s="55"/>
       <c r="FM32" s="55"/>
@@ -24009,8 +24050,9 @@
       <c r="XN32" s="55"/>
       <c r="XO32" s="55"/>
       <c r="XP32" s="55"/>
-      <c r="XQ32" s="55"/>
-      <c r="XR32" s="55"/>
+      <c r="XQ32" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="XS32" s="55"/>
       <c r="XT32" s="55"/>
       <c r="XU32" s="55"/>
@@ -24072,178 +24114,173 @@
       <c r="ZY32" s="55"/>
       <c r="ZZ32" s="55"/>
     </row>
-    <row r="33" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>79</v>
+    <row r="33" spans="1:702" ht="6.75" customHeight="1">
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="55"/>
+      <c r="AS33" s="55"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="55"/>
+      <c r="AW33" s="51" t="s">
+        <v>78</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK33" s="61"/>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="61"/>
-      <c r="AN33" s="61"/>
-      <c r="AO33" s="61"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="61"/>
-      <c r="AR33" s="61"/>
-      <c r="AS33" s="61"/>
-      <c r="AT33" s="61"/>
-      <c r="AU33" s="61"/>
-      <c r="AV33" s="61"/>
-      <c r="AW33" s="61"/>
-      <c r="AX33" s="61"/>
-      <c r="AY33" s="61"/>
-      <c r="AZ33" s="61"/>
-      <c r="BA33" s="61"/>
-      <c r="BB33" s="61"/>
-      <c r="BC33" s="61"/>
-      <c r="BD33" s="61"/>
-      <c r="BE33" s="61"/>
-      <c r="BF33" s="61"/>
-      <c r="BG33" s="61"/>
-      <c r="BH33" s="61"/>
-      <c r="BI33" s="61"/>
-      <c r="BJ33" s="61"/>
-      <c r="BK33" s="61"/>
-      <c r="BL33" s="61"/>
-      <c r="BM33" s="61"/>
-      <c r="BN33" s="61"/>
-      <c r="BO33" s="61"/>
-      <c r="BP33" s="61"/>
-      <c r="BQ33" s="61"/>
-      <c r="BR33" s="61"/>
-      <c r="BS33" s="61"/>
-      <c r="BT33" s="61"/>
-      <c r="BU33" s="61"/>
-      <c r="BV33" s="61"/>
-      <c r="BW33" s="61"/>
-      <c r="BX33" s="61"/>
-      <c r="BY33" s="61"/>
-      <c r="BZ33" s="61"/>
-      <c r="CA33" s="61"/>
-      <c r="CB33" s="61"/>
-      <c r="CC33" s="61"/>
-      <c r="CD33" s="61"/>
-      <c r="CE33" s="61"/>
-      <c r="CF33" s="61"/>
-      <c r="CG33" s="61"/>
-      <c r="CH33" s="61"/>
-      <c r="CI33" s="61"/>
-      <c r="CJ33" s="61"/>
-      <c r="CK33" s="61"/>
-      <c r="CL33" s="61"/>
-      <c r="CM33" s="61"/>
-      <c r="CN33" s="61"/>
-      <c r="CO33" s="61"/>
-      <c r="CP33" s="61"/>
-      <c r="CQ33" s="61"/>
-      <c r="CR33" s="61"/>
-      <c r="CS33" s="61"/>
-      <c r="CT33" s="61"/>
-      <c r="CU33" s="61"/>
-      <c r="CV33" s="61"/>
-      <c r="CW33" s="61"/>
-      <c r="CX33" s="61"/>
-      <c r="CY33" s="61"/>
-      <c r="CZ33" s="61"/>
-      <c r="DA33" s="61"/>
-      <c r="DB33" s="61"/>
-      <c r="DC33" s="61"/>
-      <c r="DD33" s="61"/>
-      <c r="DE33" s="61"/>
-      <c r="DF33" s="61"/>
-      <c r="DG33" s="61"/>
-      <c r="DH33" s="61"/>
-      <c r="DI33" s="61"/>
-      <c r="DJ33" s="61"/>
-      <c r="DK33" s="61"/>
-      <c r="DL33" s="61"/>
-      <c r="DM33" s="61"/>
-      <c r="DN33" s="61"/>
-      <c r="DO33" s="61"/>
-      <c r="DP33" s="61"/>
-      <c r="DQ33" s="61"/>
-      <c r="DR33" s="61"/>
-      <c r="DS33" s="61"/>
-      <c r="DT33" s="61"/>
-      <c r="DU33" s="61"/>
-      <c r="DV33" s="61"/>
-      <c r="DW33" s="61"/>
-      <c r="DX33" s="61"/>
-      <c r="DY33" s="61"/>
-      <c r="DZ33" s="61"/>
-      <c r="EA33" s="61"/>
-      <c r="EB33" s="61"/>
-      <c r="EC33" s="61"/>
-      <c r="ED33" s="61"/>
-      <c r="EE33" s="61"/>
-      <c r="EF33" s="61"/>
-      <c r="EG33" s="61"/>
-      <c r="EH33" s="61"/>
-      <c r="EI33" s="61"/>
-      <c r="EJ33" s="61"/>
-      <c r="EK33" s="61"/>
-      <c r="EL33" s="61"/>
-      <c r="EM33" s="61"/>
-      <c r="EN33" s="61"/>
-      <c r="EO33" s="61"/>
-      <c r="EP33" s="61"/>
-      <c r="EQ33" s="61"/>
-      <c r="ER33" s="61"/>
-      <c r="ES33" s="61"/>
-      <c r="ET33" s="61"/>
-      <c r="EU33" s="61"/>
-      <c r="EV33" s="61"/>
-      <c r="EW33" s="61"/>
-      <c r="EX33" s="61"/>
-      <c r="EY33" s="61"/>
-      <c r="EZ33" s="61"/>
-      <c r="FA33" s="61"/>
-      <c r="FB33" s="61"/>
-      <c r="FC33" s="61"/>
-      <c r="FD33" s="61"/>
-      <c r="FE33" s="61"/>
-      <c r="FF33" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="FG33" s="14"/>
-      <c r="FH33" s="14"/>
-      <c r="FI33" s="14"/>
+      <c r="AX33" s="51"/>
+      <c r="AY33" s="51"/>
+      <c r="AZ33" s="51"/>
+      <c r="BA33" s="51"/>
+      <c r="BB33" s="51"/>
+      <c r="BC33" s="51"/>
+      <c r="BD33" s="51"/>
+      <c r="BE33" s="51"/>
+      <c r="BF33" s="51"/>
+      <c r="BG33" s="51"/>
+      <c r="BH33" s="51"/>
+      <c r="BI33" s="51"/>
+      <c r="BJ33" s="51"/>
+      <c r="BK33" s="51"/>
+      <c r="BL33" s="51"/>
+      <c r="BM33" s="51"/>
+      <c r="BN33" s="51"/>
+      <c r="BO33" s="51"/>
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="51"/>
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="51"/>
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="51"/>
+      <c r="BV33" s="51"/>
+      <c r="BW33" s="51"/>
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="51"/>
+      <c r="BZ33" s="51"/>
+      <c r="CA33" s="51"/>
+      <c r="CB33" s="51"/>
+      <c r="CC33" s="51"/>
+      <c r="CD33" s="51"/>
+      <c r="CE33" s="51"/>
+      <c r="CF33" s="51"/>
+      <c r="CG33" s="51"/>
+      <c r="CH33" s="51"/>
+      <c r="CI33" s="51"/>
+      <c r="CJ33" s="51"/>
+      <c r="CK33" s="51"/>
+      <c r="CL33" s="51"/>
+      <c r="CM33" s="51"/>
+      <c r="CN33" s="51"/>
+      <c r="CO33" s="51"/>
+      <c r="CP33" s="51"/>
+      <c r="CQ33" s="51"/>
+      <c r="CR33" s="51"/>
+      <c r="CS33" s="51"/>
+      <c r="CT33" s="51"/>
+      <c r="CU33" s="51"/>
+      <c r="CV33" s="51"/>
+      <c r="CW33" s="51"/>
+      <c r="CX33" s="51"/>
+      <c r="CY33" s="51"/>
+      <c r="CZ33" s="51"/>
+      <c r="DA33" s="51"/>
+      <c r="DB33" s="51"/>
+      <c r="DC33" s="51"/>
+      <c r="DD33" s="51"/>
+      <c r="DE33" s="51"/>
+      <c r="DF33" s="51"/>
+      <c r="DG33" s="51"/>
+      <c r="DH33" s="51"/>
+      <c r="DI33" s="51"/>
+      <c r="DJ33" s="51"/>
+      <c r="DK33" s="51"/>
+      <c r="DL33" s="51"/>
+      <c r="DM33" s="51"/>
+      <c r="DN33" s="51"/>
+      <c r="DO33" s="51"/>
+      <c r="DP33" s="51"/>
+      <c r="DQ33" s="51"/>
+      <c r="DR33" s="51"/>
+      <c r="DS33" s="51"/>
+      <c r="DT33" s="51"/>
+      <c r="DU33" s="51"/>
+      <c r="DV33" s="51"/>
+      <c r="DW33" s="51"/>
+      <c r="DX33" s="51"/>
+      <c r="DY33" s="51"/>
+      <c r="DZ33" s="51"/>
+      <c r="EA33" s="51"/>
+      <c r="EB33" s="51"/>
+      <c r="EC33" s="51"/>
+      <c r="ED33" s="51"/>
+      <c r="EE33" s="51"/>
+      <c r="EF33" s="51"/>
+      <c r="EG33" s="51"/>
+      <c r="EH33" s="51"/>
+      <c r="EI33" s="51"/>
+      <c r="EJ33" s="51"/>
+      <c r="EK33" s="51"/>
+      <c r="EL33" s="51"/>
+      <c r="EM33" s="51"/>
+      <c r="EN33" s="51"/>
+      <c r="EO33" s="51"/>
+      <c r="EP33" s="51"/>
+      <c r="EQ33" s="51"/>
+      <c r="ER33" s="51"/>
+      <c r="ES33" s="51"/>
+      <c r="ET33" s="51"/>
+      <c r="EU33" s="51"/>
+      <c r="EV33" s="51"/>
+      <c r="EW33" s="51"/>
+      <c r="EX33" s="51"/>
+      <c r="EY33" s="51"/>
+      <c r="EZ33" s="51"/>
+      <c r="FA33" s="51"/>
+      <c r="FB33" s="51"/>
+      <c r="FC33" s="51"/>
+      <c r="FD33" s="51"/>
+      <c r="FE33" s="51"/>
+      <c r="FG33" s="55"/>
+      <c r="FH33" s="55"/>
+      <c r="FI33" s="55"/>
+      <c r="FJ33" s="55"/>
       <c r="FK33" s="55"/>
       <c r="FL33" s="55"/>
       <c r="FM33" s="55"/>
@@ -24724,9 +24761,8 @@
       <c r="XT33" s="55"/>
       <c r="XU33" s="55"/>
       <c r="XV33" s="55"/>
-      <c r="XW33" s="23" t="s">
-        <v>80</v>
-      </c>
+      <c r="XW33" s="55"/>
+      <c r="XX33" s="55"/>
       <c r="XY33" s="55"/>
       <c r="XZ33" s="55"/>
       <c r="YA33" s="55"/>
@@ -24782,173 +24818,178 @@
       <c r="ZY33" s="55"/>
       <c r="ZZ33" s="55"/>
     </row>
-    <row r="34" spans="1:702" ht="6.75" customHeight="1">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="51" t="s">
-        <v>82</v>
+    <row r="34" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>79</v>
       </c>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="51"/>
-      <c r="BD34" s="51"/>
-      <c r="BE34" s="51"/>
-      <c r="BF34" s="51"/>
-      <c r="BG34" s="51"/>
-      <c r="BH34" s="51"/>
-      <c r="BI34" s="51"/>
-      <c r="BJ34" s="51"/>
-      <c r="BK34" s="51"/>
-      <c r="BL34" s="51"/>
-      <c r="BM34" s="51"/>
-      <c r="BN34" s="51"/>
-      <c r="BO34" s="51"/>
-      <c r="BP34" s="51"/>
-      <c r="BQ34" s="51"/>
-      <c r="BR34" s="51"/>
-      <c r="BS34" s="51"/>
-      <c r="BT34" s="51"/>
-      <c r="BU34" s="51"/>
-      <c r="BV34" s="51"/>
-      <c r="BW34" s="51"/>
-      <c r="BX34" s="51"/>
-      <c r="BY34" s="51"/>
-      <c r="BZ34" s="51"/>
-      <c r="CA34" s="51"/>
-      <c r="CB34" s="51"/>
-      <c r="CC34" s="51"/>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="51"/>
-      <c r="CF34" s="51"/>
-      <c r="CG34" s="51"/>
-      <c r="CH34" s="51"/>
-      <c r="CI34" s="51"/>
-      <c r="CJ34" s="51"/>
-      <c r="CK34" s="51"/>
-      <c r="CL34" s="51"/>
-      <c r="CM34" s="51"/>
-      <c r="CN34" s="51"/>
-      <c r="CO34" s="51"/>
-      <c r="CP34" s="51"/>
-      <c r="CQ34" s="51"/>
-      <c r="CR34" s="51"/>
-      <c r="CS34" s="51"/>
-      <c r="CT34" s="51"/>
-      <c r="CU34" s="51"/>
-      <c r="CV34" s="51"/>
-      <c r="CW34" s="51"/>
-      <c r="CX34" s="51"/>
-      <c r="CY34" s="51"/>
-      <c r="CZ34" s="51"/>
-      <c r="DA34" s="51"/>
-      <c r="DB34" s="51"/>
-      <c r="DC34" s="51"/>
-      <c r="DD34" s="51"/>
-      <c r="DE34" s="51"/>
-      <c r="DF34" s="51"/>
-      <c r="DG34" s="51"/>
-      <c r="DH34" s="51"/>
-      <c r="DI34" s="51"/>
-      <c r="DJ34" s="51"/>
-      <c r="DK34" s="51"/>
-      <c r="DL34" s="51"/>
-      <c r="DM34" s="51"/>
-      <c r="DN34" s="51"/>
-      <c r="DO34" s="51"/>
-      <c r="DP34" s="51"/>
-      <c r="DQ34" s="51"/>
-      <c r="DR34" s="51"/>
-      <c r="DS34" s="51"/>
-      <c r="DT34" s="51"/>
-      <c r="DU34" s="51"/>
-      <c r="DV34" s="51"/>
-      <c r="DW34" s="51"/>
-      <c r="DX34" s="51"/>
-      <c r="DY34" s="51"/>
-      <c r="DZ34" s="51"/>
-      <c r="EA34" s="51"/>
-      <c r="EB34" s="51"/>
-      <c r="EC34" s="51"/>
-      <c r="ED34" s="51"/>
-      <c r="EE34" s="51"/>
-      <c r="EF34" s="51"/>
-      <c r="EG34" s="51"/>
-      <c r="EH34" s="51"/>
-      <c r="EI34" s="51"/>
-      <c r="EJ34" s="51"/>
-      <c r="EK34" s="51"/>
-      <c r="EL34" s="51"/>
-      <c r="EM34" s="51"/>
-      <c r="EN34" s="51"/>
-      <c r="EO34" s="51"/>
-      <c r="EP34" s="51"/>
-      <c r="EQ34" s="51"/>
-      <c r="ER34" s="51"/>
-      <c r="ES34" s="51"/>
-      <c r="ET34" s="51"/>
-      <c r="EU34" s="51"/>
-      <c r="EV34" s="51"/>
-      <c r="EW34" s="51"/>
-      <c r="EX34" s="51"/>
-      <c r="EY34" s="51"/>
-      <c r="EZ34" s="51"/>
-      <c r="FA34" s="51"/>
-      <c r="FB34" s="51"/>
-      <c r="FC34" s="51"/>
-      <c r="FD34" s="51"/>
-      <c r="FE34" s="51"/>
-      <c r="FG34" s="55"/>
-      <c r="FH34" s="55"/>
-      <c r="FI34" s="55"/>
-      <c r="FJ34" s="55"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="61"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="61"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61"/>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="61"/>
+      <c r="BH34" s="61"/>
+      <c r="BI34" s="61"/>
+      <c r="BJ34" s="61"/>
+      <c r="BK34" s="61"/>
+      <c r="BL34" s="61"/>
+      <c r="BM34" s="61"/>
+      <c r="BN34" s="61"/>
+      <c r="BO34" s="61"/>
+      <c r="BP34" s="61"/>
+      <c r="BQ34" s="61"/>
+      <c r="BR34" s="61"/>
+      <c r="BS34" s="61"/>
+      <c r="BT34" s="61"/>
+      <c r="BU34" s="61"/>
+      <c r="BV34" s="61"/>
+      <c r="BW34" s="61"/>
+      <c r="BX34" s="61"/>
+      <c r="BY34" s="61"/>
+      <c r="BZ34" s="61"/>
+      <c r="CA34" s="61"/>
+      <c r="CB34" s="61"/>
+      <c r="CC34" s="61"/>
+      <c r="CD34" s="61"/>
+      <c r="CE34" s="61"/>
+      <c r="CF34" s="61"/>
+      <c r="CG34" s="61"/>
+      <c r="CH34" s="61"/>
+      <c r="CI34" s="61"/>
+      <c r="CJ34" s="61"/>
+      <c r="CK34" s="61"/>
+      <c r="CL34" s="61"/>
+      <c r="CM34" s="61"/>
+      <c r="CN34" s="61"/>
+      <c r="CO34" s="61"/>
+      <c r="CP34" s="61"/>
+      <c r="CQ34" s="61"/>
+      <c r="CR34" s="61"/>
+      <c r="CS34" s="61"/>
+      <c r="CT34" s="61"/>
+      <c r="CU34" s="61"/>
+      <c r="CV34" s="61"/>
+      <c r="CW34" s="61"/>
+      <c r="CX34" s="61"/>
+      <c r="CY34" s="61"/>
+      <c r="CZ34" s="61"/>
+      <c r="DA34" s="61"/>
+      <c r="DB34" s="61"/>
+      <c r="DC34" s="61"/>
+      <c r="DD34" s="61"/>
+      <c r="DE34" s="61"/>
+      <c r="DF34" s="61"/>
+      <c r="DG34" s="61"/>
+      <c r="DH34" s="61"/>
+      <c r="DI34" s="61"/>
+      <c r="DJ34" s="61"/>
+      <c r="DK34" s="61"/>
+      <c r="DL34" s="61"/>
+      <c r="DM34" s="61"/>
+      <c r="DN34" s="61"/>
+      <c r="DO34" s="61"/>
+      <c r="DP34" s="61"/>
+      <c r="DQ34" s="61"/>
+      <c r="DR34" s="61"/>
+      <c r="DS34" s="61"/>
+      <c r="DT34" s="61"/>
+      <c r="DU34" s="61"/>
+      <c r="DV34" s="61"/>
+      <c r="DW34" s="61"/>
+      <c r="DX34" s="61"/>
+      <c r="DY34" s="61"/>
+      <c r="DZ34" s="61"/>
+      <c r="EA34" s="61"/>
+      <c r="EB34" s="61"/>
+      <c r="EC34" s="61"/>
+      <c r="ED34" s="61"/>
+      <c r="EE34" s="61"/>
+      <c r="EF34" s="61"/>
+      <c r="EG34" s="61"/>
+      <c r="EH34" s="61"/>
+      <c r="EI34" s="61"/>
+      <c r="EJ34" s="61"/>
+      <c r="EK34" s="61"/>
+      <c r="EL34" s="61"/>
+      <c r="EM34" s="61"/>
+      <c r="EN34" s="61"/>
+      <c r="EO34" s="61"/>
+      <c r="EP34" s="61"/>
+      <c r="EQ34" s="61"/>
+      <c r="ER34" s="61"/>
+      <c r="ES34" s="61"/>
+      <c r="ET34" s="61"/>
+      <c r="EU34" s="61"/>
+      <c r="EV34" s="61"/>
+      <c r="EW34" s="61"/>
+      <c r="EX34" s="61"/>
+      <c r="EY34" s="61"/>
+      <c r="EZ34" s="61"/>
+      <c r="FA34" s="61"/>
+      <c r="FB34" s="61"/>
+      <c r="FC34" s="61"/>
+      <c r="FD34" s="61"/>
+      <c r="FE34" s="61"/>
+      <c r="FF34" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="FG34" s="14"/>
+      <c r="FH34" s="14"/>
+      <c r="FI34" s="14"/>
       <c r="FK34" s="55"/>
       <c r="FL34" s="55"/>
       <c r="FM34" s="55"/>
@@ -25429,8 +25470,9 @@
       <c r="XT34" s="55"/>
       <c r="XU34" s="55"/>
       <c r="XV34" s="55"/>
-      <c r="XW34" s="55"/>
-      <c r="XX34" s="55"/>
+      <c r="XW34" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="XY34" s="55"/>
       <c r="XZ34" s="55"/>
       <c r="YA34" s="55"/>
@@ -25486,175 +25528,173 @@
       <c r="ZY34" s="55"/>
       <c r="ZZ34" s="55"/>
     </row>
-    <row r="35" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>83</v>
+    <row r="35" spans="1:702" ht="6.75" customHeight="1">
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="55"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="55"/>
+      <c r="AI35" s="55"/>
+      <c r="AJ35" s="51" t="s">
+        <v>82</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
-      <c r="BL35" s="3"/>
-      <c r="BM35" s="3"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="3"/>
-      <c r="BP35" s="3"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="3"/>
-      <c r="BT35" s="3"/>
-      <c r="BU35" s="3"/>
-      <c r="BV35" s="3"/>
-      <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-      <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="3"/>
-      <c r="CC35" s="3"/>
-      <c r="CD35" s="83"/>
-      <c r="CF35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="3"/>
-      <c r="CJ35" s="3"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="3"/>
-      <c r="CM35" s="3"/>
-      <c r="CN35" s="3"/>
-      <c r="CO35" s="3"/>
-      <c r="CP35" s="3"/>
-      <c r="CQ35" s="3"/>
-      <c r="CR35" s="3"/>
-      <c r="CS35" s="3"/>
-      <c r="CT35" s="3"/>
-      <c r="CU35" s="3"/>
-      <c r="CV35" s="3"/>
-      <c r="CW35" s="3"/>
-      <c r="CX35" s="3"/>
-      <c r="CY35" s="3"/>
-      <c r="CZ35" s="3"/>
-      <c r="DA35" s="3"/>
-      <c r="DB35" s="3"/>
-      <c r="DC35" s="3"/>
-      <c r="DD35" s="3"/>
-      <c r="DE35" s="3"/>
-      <c r="DF35" s="3"/>
-      <c r="DG35" s="3"/>
-      <c r="DH35" s="3"/>
-      <c r="DI35" s="3"/>
-      <c r="DJ35" s="3"/>
-      <c r="DK35" s="3"/>
-      <c r="DL35" s="3"/>
-      <c r="DM35" s="3"/>
-      <c r="DN35" s="3"/>
-      <c r="DO35" s="3"/>
-      <c r="DP35" s="3"/>
-      <c r="DQ35" s="3"/>
-      <c r="DR35" s="3"/>
-      <c r="DS35" s="3"/>
-      <c r="DT35" s="3"/>
-      <c r="DU35" s="3"/>
-      <c r="DV35" s="3"/>
-      <c r="DW35" s="3"/>
-      <c r="DX35" s="3"/>
-      <c r="DY35" s="3"/>
-      <c r="DZ35" s="3"/>
-      <c r="EA35" s="3"/>
-      <c r="EB35" s="3"/>
-      <c r="EC35" s="3"/>
-      <c r="ED35" s="3"/>
-      <c r="EE35" s="3"/>
-      <c r="EF35" s="3"/>
-      <c r="EG35" s="3"/>
-      <c r="EH35" s="3"/>
-      <c r="EI35" s="3"/>
-      <c r="EJ35" s="3"/>
-      <c r="EK35" s="3"/>
-      <c r="EL35" s="3"/>
-      <c r="EM35" s="3"/>
-      <c r="EN35" s="3"/>
-      <c r="EO35" s="3"/>
-      <c r="EP35" s="3"/>
-      <c r="EQ35" s="3"/>
-      <c r="ER35" s="3"/>
-      <c r="ES35" s="3"/>
-      <c r="ET35" s="3"/>
-      <c r="EU35" s="3"/>
-      <c r="EV35" s="3"/>
-      <c r="EW35" s="3"/>
-      <c r="EX35" s="3"/>
-      <c r="EY35" s="3"/>
-      <c r="EZ35" s="3"/>
-      <c r="FA35" s="3"/>
-      <c r="FB35" s="3"/>
-      <c r="FC35" s="3"/>
-      <c r="FD35" s="3"/>
-      <c r="FE35" s="3"/>
-      <c r="FF35" s="3"/>
-      <c r="FG35" s="3"/>
-      <c r="FH35" s="3"/>
-      <c r="FI35" s="3"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="51"/>
+      <c r="BC35" s="51"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
+      <c r="BI35" s="51"/>
+      <c r="BJ35" s="51"/>
+      <c r="BK35" s="51"/>
+      <c r="BL35" s="51"/>
+      <c r="BM35" s="51"/>
+      <c r="BN35" s="51"/>
+      <c r="BO35" s="51"/>
+      <c r="BP35" s="51"/>
+      <c r="BQ35" s="51"/>
+      <c r="BR35" s="51"/>
+      <c r="BS35" s="51"/>
+      <c r="BT35" s="51"/>
+      <c r="BU35" s="51"/>
+      <c r="BV35" s="51"/>
+      <c r="BW35" s="51"/>
+      <c r="BX35" s="51"/>
+      <c r="BY35" s="51"/>
+      <c r="BZ35" s="51"/>
+      <c r="CA35" s="51"/>
+      <c r="CB35" s="51"/>
+      <c r="CC35" s="51"/>
+      <c r="CD35" s="51"/>
+      <c r="CE35" s="51"/>
+      <c r="CF35" s="51"/>
+      <c r="CG35" s="51"/>
+      <c r="CH35" s="51"/>
+      <c r="CI35" s="51"/>
+      <c r="CJ35" s="51"/>
+      <c r="CK35" s="51"/>
+      <c r="CL35" s="51"/>
+      <c r="CM35" s="51"/>
+      <c r="CN35" s="51"/>
+      <c r="CO35" s="51"/>
+      <c r="CP35" s="51"/>
+      <c r="CQ35" s="51"/>
+      <c r="CR35" s="51"/>
+      <c r="CS35" s="51"/>
+      <c r="CT35" s="51"/>
+      <c r="CU35" s="51"/>
+      <c r="CV35" s="51"/>
+      <c r="CW35" s="51"/>
+      <c r="CX35" s="51"/>
+      <c r="CY35" s="51"/>
+      <c r="CZ35" s="51"/>
+      <c r="DA35" s="51"/>
+      <c r="DB35" s="51"/>
+      <c r="DC35" s="51"/>
+      <c r="DD35" s="51"/>
+      <c r="DE35" s="51"/>
+      <c r="DF35" s="51"/>
+      <c r="DG35" s="51"/>
+      <c r="DH35" s="51"/>
+      <c r="DI35" s="51"/>
+      <c r="DJ35" s="51"/>
+      <c r="DK35" s="51"/>
+      <c r="DL35" s="51"/>
+      <c r="DM35" s="51"/>
+      <c r="DN35" s="51"/>
+      <c r="DO35" s="51"/>
+      <c r="DP35" s="51"/>
+      <c r="DQ35" s="51"/>
+      <c r="DR35" s="51"/>
+      <c r="DS35" s="51"/>
+      <c r="DT35" s="51"/>
+      <c r="DU35" s="51"/>
+      <c r="DV35" s="51"/>
+      <c r="DW35" s="51"/>
+      <c r="DX35" s="51"/>
+      <c r="DY35" s="51"/>
+      <c r="DZ35" s="51"/>
+      <c r="EA35" s="51"/>
+      <c r="EB35" s="51"/>
+      <c r="EC35" s="51"/>
+      <c r="ED35" s="51"/>
+      <c r="EE35" s="51"/>
+      <c r="EF35" s="51"/>
+      <c r="EG35" s="51"/>
+      <c r="EH35" s="51"/>
+      <c r="EI35" s="51"/>
+      <c r="EJ35" s="51"/>
+      <c r="EK35" s="51"/>
+      <c r="EL35" s="51"/>
+      <c r="EM35" s="51"/>
+      <c r="EN35" s="51"/>
+      <c r="EO35" s="51"/>
+      <c r="EP35" s="51"/>
+      <c r="EQ35" s="51"/>
+      <c r="ER35" s="51"/>
+      <c r="ES35" s="51"/>
+      <c r="ET35" s="51"/>
+      <c r="EU35" s="51"/>
+      <c r="EV35" s="51"/>
+      <c r="EW35" s="51"/>
+      <c r="EX35" s="51"/>
+      <c r="EY35" s="51"/>
+      <c r="EZ35" s="51"/>
+      <c r="FA35" s="51"/>
+      <c r="FB35" s="51"/>
+      <c r="FC35" s="51"/>
+      <c r="FD35" s="51"/>
+      <c r="FE35" s="51"/>
+      <c r="FG35" s="55"/>
+      <c r="FH35" s="55"/>
+      <c r="FI35" s="55"/>
+      <c r="FJ35" s="55"/>
       <c r="FK35" s="55"/>
       <c r="FL35" s="55"/>
       <c r="FM35" s="55"/>
@@ -26193,178 +26233,174 @@
       <c r="ZZ35" s="55"/>
     </row>
     <row r="36" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A36" s="79" t="s">
-        <v>85</v>
+      <c r="A36" s="3" t="s">
+        <v>83</v>
       </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AD36" s="78"/>
-      <c r="AE36" s="78"/>
-      <c r="AF36" s="78"/>
-      <c r="AG36" s="78"/>
-      <c r="AH36" s="78"/>
-      <c r="AI36" s="78"/>
-      <c r="AJ36" s="78"/>
-      <c r="AK36" s="78"/>
-      <c r="AL36" s="78"/>
-      <c r="AM36" s="78"/>
-      <c r="AN36" s="78"/>
-      <c r="AO36" s="78"/>
-      <c r="AP36" s="78"/>
-      <c r="AQ36" s="78"/>
-      <c r="AR36" s="78"/>
-      <c r="AS36" s="78"/>
-      <c r="AT36" s="78"/>
-      <c r="AU36" s="78"/>
-      <c r="AV36" s="78"/>
-      <c r="AW36" s="78"/>
-      <c r="AX36" s="78"/>
-      <c r="AZ36" s="79" t="s">
-        <v>67</v>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+      <c r="BJ36" s="3"/>
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
+      <c r="BQ36" s="3"/>
+      <c r="BR36" s="3"/>
+      <c r="BS36" s="3"/>
+      <c r="BT36" s="3"/>
+      <c r="BU36" s="3"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="3"/>
+      <c r="BY36" s="3"/>
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
+      <c r="CB36" s="3"/>
+      <c r="CC36" s="3"/>
+      <c r="CD36" s="83"/>
+      <c r="CF36" s="3" t="s">
+        <v>84</v>
       </c>
-      <c r="BA36" s="79"/>
-      <c r="BB36" s="79"/>
-      <c r="BC36" s="79"/>
-      <c r="BD36" s="79"/>
-      <c r="BE36" s="79"/>
-      <c r="BF36" s="79"/>
-      <c r="BG36" s="79"/>
-      <c r="BH36" s="79"/>
-      <c r="BI36" s="79"/>
-      <c r="BJ36" s="79"/>
-      <c r="BK36" s="79"/>
-      <c r="BL36" s="79"/>
-      <c r="BM36" s="79"/>
-      <c r="BN36" s="79"/>
-      <c r="BO36" s="79"/>
-      <c r="BP36" s="79"/>
-      <c r="BQ36" s="79"/>
-      <c r="BR36" s="79"/>
-      <c r="BS36" s="79"/>
-      <c r="BT36" s="79"/>
-      <c r="BU36" s="79"/>
-      <c r="BV36" s="79"/>
-      <c r="BW36" s="79"/>
-      <c r="BX36" s="79"/>
-      <c r="BY36" s="79"/>
-      <c r="BZ36" s="79"/>
-      <c r="CA36" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB36" s="81"/>
-      <c r="CC36" s="81"/>
-      <c r="CD36" s="81"/>
-      <c r="CF36" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="CG36" s="79"/>
-      <c r="CH36" s="79"/>
-      <c r="CI36" s="79"/>
-      <c r="CJ36" s="79"/>
-      <c r="CK36" s="79"/>
-      <c r="CL36" s="79"/>
-      <c r="CM36" s="79"/>
-      <c r="CN36" s="79"/>
-      <c r="CO36" s="79"/>
-      <c r="CP36" s="79"/>
-      <c r="CQ36" s="79"/>
-      <c r="CR36" s="79"/>
-      <c r="CS36" s="79"/>
-      <c r="CT36" s="79"/>
-      <c r="CU36" s="79"/>
-      <c r="CV36" s="79"/>
-      <c r="CW36" s="79"/>
-      <c r="CX36" s="79"/>
-      <c r="CY36" s="79"/>
-      <c r="CZ36" s="79"/>
-      <c r="DA36" s="79"/>
-      <c r="DB36" s="79"/>
-      <c r="DC36" s="79"/>
-      <c r="DD36" s="79"/>
-      <c r="DE36" s="79"/>
-      <c r="DF36" s="79"/>
-      <c r="DG36" s="79"/>
-      <c r="DI36" s="78"/>
-      <c r="DJ36" s="78"/>
-      <c r="DK36" s="78"/>
-      <c r="DL36" s="78"/>
-      <c r="DM36" s="78"/>
-      <c r="DN36" s="78"/>
-      <c r="DO36" s="78"/>
-      <c r="DP36" s="78"/>
-      <c r="DQ36" s="78"/>
-      <c r="DR36" s="78"/>
-      <c r="DS36" s="78"/>
-      <c r="DT36" s="78"/>
-      <c r="DU36" s="78"/>
-      <c r="DV36" s="78"/>
-      <c r="DW36" s="78"/>
-      <c r="DX36" s="78"/>
-      <c r="DY36" s="78"/>
-      <c r="DZ36" s="78"/>
-      <c r="EA36" s="78"/>
-      <c r="EB36" s="78"/>
-      <c r="EC36" s="78"/>
-      <c r="EE36" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="EF36" s="79"/>
-      <c r="EG36" s="79"/>
-      <c r="EH36" s="79"/>
-      <c r="EI36" s="79"/>
-      <c r="EJ36" s="79"/>
-      <c r="EK36" s="79"/>
-      <c r="EL36" s="79"/>
-      <c r="EM36" s="79"/>
-      <c r="EN36" s="79"/>
-      <c r="EO36" s="79"/>
-      <c r="EP36" s="79"/>
-      <c r="EQ36" s="79"/>
-      <c r="ER36" s="79"/>
-      <c r="ES36" s="79"/>
-      <c r="ET36" s="79"/>
-      <c r="EU36" s="79"/>
-      <c r="EV36" s="79"/>
-      <c r="EW36" s="79"/>
-      <c r="EX36" s="79"/>
-      <c r="EY36" s="79"/>
-      <c r="EZ36" s="79"/>
-      <c r="FA36" s="79"/>
-      <c r="FB36" s="79"/>
-      <c r="FC36" s="79"/>
-      <c r="FD36" s="79"/>
-      <c r="FE36" s="79"/>
-      <c r="FF36" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="FG36" s="14"/>
-      <c r="FH36" s="14"/>
-      <c r="FI36" s="14"/>
+      <c r="CG36" s="3"/>
+      <c r="CH36" s="3"/>
+      <c r="CI36" s="3"/>
+      <c r="CJ36" s="3"/>
+      <c r="CK36" s="3"/>
+      <c r="CL36" s="3"/>
+      <c r="CM36" s="3"/>
+      <c r="CN36" s="3"/>
+      <c r="CO36" s="3"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="3"/>
+      <c r="CT36" s="3"/>
+      <c r="CU36" s="3"/>
+      <c r="CV36" s="3"/>
+      <c r="CW36" s="3"/>
+      <c r="CX36" s="3"/>
+      <c r="CY36" s="3"/>
+      <c r="CZ36" s="3"/>
+      <c r="DA36" s="3"/>
+      <c r="DB36" s="3"/>
+      <c r="DC36" s="3"/>
+      <c r="DD36" s="3"/>
+      <c r="DE36" s="3"/>
+      <c r="DF36" s="3"/>
+      <c r="DG36" s="3"/>
+      <c r="DH36" s="3"/>
+      <c r="DI36" s="3"/>
+      <c r="DJ36" s="3"/>
+      <c r="DK36" s="3"/>
+      <c r="DL36" s="3"/>
+      <c r="DM36" s="3"/>
+      <c r="DN36" s="3"/>
+      <c r="DO36" s="3"/>
+      <c r="DP36" s="3"/>
+      <c r="DQ36" s="3"/>
+      <c r="DR36" s="3"/>
+      <c r="DS36" s="3"/>
+      <c r="DT36" s="3"/>
+      <c r="DU36" s="3"/>
+      <c r="DV36" s="3"/>
+      <c r="DW36" s="3"/>
+      <c r="DX36" s="3"/>
+      <c r="DY36" s="3"/>
+      <c r="DZ36" s="3"/>
+      <c r="EA36" s="3"/>
+      <c r="EB36" s="3"/>
+      <c r="EC36" s="3"/>
+      <c r="ED36" s="3"/>
+      <c r="EE36" s="3"/>
+      <c r="EF36" s="3"/>
+      <c r="EG36" s="3"/>
+      <c r="EH36" s="3"/>
+      <c r="EI36" s="3"/>
+      <c r="EJ36" s="3"/>
+      <c r="EK36" s="3"/>
+      <c r="EL36" s="3"/>
+      <c r="EM36" s="3"/>
+      <c r="EN36" s="3"/>
+      <c r="EO36" s="3"/>
+      <c r="EP36" s="3"/>
+      <c r="EQ36" s="3"/>
+      <c r="ER36" s="3"/>
+      <c r="ES36" s="3"/>
+      <c r="ET36" s="3"/>
+      <c r="EU36" s="3"/>
+      <c r="EV36" s="3"/>
+      <c r="EW36" s="3"/>
+      <c r="EX36" s="3"/>
+      <c r="EY36" s="3"/>
+      <c r="EZ36" s="3"/>
+      <c r="FA36" s="3"/>
+      <c r="FB36" s="3"/>
+      <c r="FC36" s="3"/>
+      <c r="FD36" s="3"/>
+      <c r="FE36" s="3"/>
+      <c r="FF36" s="3"/>
+      <c r="FG36" s="3"/>
+      <c r="FH36" s="3"/>
+      <c r="FI36" s="3"/>
       <c r="FK36" s="55"/>
       <c r="FL36" s="55"/>
       <c r="FM36" s="55"/>
@@ -26827,28 +26863,28 @@
       <c r="XB36" s="55"/>
       <c r="XC36" s="55"/>
       <c r="XD36" s="55"/>
-      <c r="XE36" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="XE36" s="55"/>
+      <c r="XF36" s="55"/>
       <c r="XG36" s="55"/>
       <c r="XH36" s="55"/>
+      <c r="XI36" s="55"/>
+      <c r="XJ36" s="55"/>
       <c r="XK36" s="55"/>
       <c r="XL36" s="55"/>
+      <c r="XM36" s="55"/>
       <c r="XN36" s="55"/>
       <c r="XO36" s="55"/>
       <c r="XP36" s="55"/>
       <c r="XQ36" s="55"/>
-      <c r="XR36" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="XT36" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="XR36" s="55"/>
+      <c r="XS36" s="55"/>
+      <c r="XT36" s="55"/>
+      <c r="XU36" s="55"/>
       <c r="XV36" s="55"/>
       <c r="XW36" s="55"/>
-      <c r="XY36" s="23" t="s">
-        <v>88</v>
-      </c>
+      <c r="XX36" s="55"/>
+      <c r="XY36" s="55"/>
+      <c r="XZ36" s="55"/>
       <c r="YA36" s="55"/>
       <c r="YB36" s="55"/>
       <c r="YC36" s="55"/>
@@ -26902,178 +26938,179 @@
       <c r="ZY36" s="55"/>
       <c r="ZZ36" s="55"/>
     </row>
-    <row r="37" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A37" s="51" t="s">
-        <v>90</v>
+    <row r="37" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A37" s="79" t="s">
+        <v>85</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AD37" s="51" t="s">
-        <v>70</v>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AD37" s="78"/>
+      <c r="AE37" s="78"/>
+      <c r="AF37" s="78"/>
+      <c r="AG37" s="78"/>
+      <c r="AH37" s="78"/>
+      <c r="AI37" s="78"/>
+      <c r="AJ37" s="78"/>
+      <c r="AK37" s="78"/>
+      <c r="AL37" s="78"/>
+      <c r="AM37" s="78"/>
+      <c r="AN37" s="78"/>
+      <c r="AO37" s="78"/>
+      <c r="AP37" s="78"/>
+      <c r="AQ37" s="78"/>
+      <c r="AR37" s="78"/>
+      <c r="AS37" s="78"/>
+      <c r="AT37" s="78"/>
+      <c r="AU37" s="78"/>
+      <c r="AV37" s="78"/>
+      <c r="AW37" s="78"/>
+      <c r="AX37" s="78"/>
+      <c r="AZ37" s="79" t="s">
+        <v>67</v>
       </c>
-      <c r="AE37" s="51"/>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="51"/>
-      <c r="AO37" s="51"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="51"/>
-      <c r="AV37" s="51"/>
-      <c r="AW37" s="51"/>
-      <c r="AX37" s="51"/>
-      <c r="AZ37" s="51" t="s">
-        <v>91</v>
+      <c r="BA37" s="79"/>
+      <c r="BB37" s="79"/>
+      <c r="BC37" s="79"/>
+      <c r="BD37" s="79"/>
+      <c r="BE37" s="79"/>
+      <c r="BF37" s="79"/>
+      <c r="BG37" s="79"/>
+      <c r="BH37" s="79"/>
+      <c r="BI37" s="79"/>
+      <c r="BJ37" s="79"/>
+      <c r="BK37" s="79"/>
+      <c r="BL37" s="79"/>
+      <c r="BM37" s="79"/>
+      <c r="BN37" s="79"/>
+      <c r="BO37" s="79"/>
+      <c r="BP37" s="79"/>
+      <c r="BQ37" s="79"/>
+      <c r="BR37" s="79"/>
+      <c r="BS37" s="79"/>
+      <c r="BT37" s="79"/>
+      <c r="BU37" s="79"/>
+      <c r="BV37" s="79"/>
+      <c r="BW37" s="79"/>
+      <c r="BX37" s="79"/>
+      <c r="BY37" s="79"/>
+      <c r="BZ37" s="79"/>
+      <c r="CA37" s="81" t="s">
+        <v>86</v>
       </c>
-      <c r="BA37" s="51"/>
-      <c r="BB37" s="51"/>
-      <c r="BC37" s="51"/>
-      <c r="BD37" s="51"/>
-      <c r="BE37" s="51"/>
-      <c r="BF37" s="51"/>
-      <c r="BG37" s="51"/>
-      <c r="BH37" s="51"/>
-      <c r="BI37" s="51"/>
-      <c r="BJ37" s="51"/>
-      <c r="BK37" s="51"/>
-      <c r="BL37" s="51"/>
-      <c r="BM37" s="51"/>
-      <c r="BN37" s="51"/>
-      <c r="BO37" s="51"/>
-      <c r="BP37" s="51"/>
-      <c r="BQ37" s="51"/>
-      <c r="BR37" s="51"/>
-      <c r="BS37" s="51"/>
-      <c r="BT37" s="51"/>
-      <c r="BU37" s="51"/>
-      <c r="BV37" s="51"/>
-      <c r="BW37" s="51"/>
-      <c r="BX37" s="51"/>
-      <c r="BY37" s="51"/>
-      <c r="BZ37" s="51"/>
-      <c r="CB37" s="55"/>
-      <c r="CC37" s="55"/>
-      <c r="CD37" s="2"/>
-      <c r="CF37" s="51" t="s">
-        <v>90</v>
+      <c r="CB37" s="81"/>
+      <c r="CC37" s="81"/>
+      <c r="CD37" s="81"/>
+      <c r="CF37" s="79" t="s">
+        <v>87</v>
       </c>
-      <c r="CG37" s="51"/>
-      <c r="CH37" s="51"/>
-      <c r="CI37" s="51"/>
-      <c r="CJ37" s="51"/>
-      <c r="CK37" s="51"/>
-      <c r="CL37" s="51"/>
-      <c r="CM37" s="51"/>
-      <c r="CN37" s="51"/>
-      <c r="CO37" s="51"/>
-      <c r="CP37" s="51"/>
-      <c r="CQ37" s="51"/>
-      <c r="CR37" s="51"/>
-      <c r="CS37" s="51"/>
-      <c r="CT37" s="51"/>
-      <c r="CU37" s="51"/>
-      <c r="CV37" s="51"/>
-      <c r="CW37" s="51"/>
-      <c r="CX37" s="51"/>
-      <c r="CY37" s="51"/>
-      <c r="CZ37" s="51"/>
-      <c r="DA37" s="51"/>
-      <c r="DB37" s="51"/>
-      <c r="DC37" s="51"/>
-      <c r="DD37" s="51"/>
-      <c r="DE37" s="51"/>
-      <c r="DF37" s="51"/>
-      <c r="DG37" s="51"/>
-      <c r="DI37" s="51" t="s">
-        <v>70</v>
+      <c r="CG37" s="79"/>
+      <c r="CH37" s="79"/>
+      <c r="CI37" s="79"/>
+      <c r="CJ37" s="79"/>
+      <c r="CK37" s="79"/>
+      <c r="CL37" s="79"/>
+      <c r="CM37" s="79"/>
+      <c r="CN37" s="79"/>
+      <c r="CO37" s="79"/>
+      <c r="CP37" s="79"/>
+      <c r="CQ37" s="79"/>
+      <c r="CR37" s="79"/>
+      <c r="CS37" s="79"/>
+      <c r="CT37" s="79"/>
+      <c r="CU37" s="79"/>
+      <c r="CV37" s="79"/>
+      <c r="CW37" s="79"/>
+      <c r="CX37" s="79"/>
+      <c r="CY37" s="79"/>
+      <c r="CZ37" s="79"/>
+      <c r="DA37" s="79"/>
+      <c r="DB37" s="79"/>
+      <c r="DC37" s="79"/>
+      <c r="DD37" s="79"/>
+      <c r="DE37" s="79"/>
+      <c r="DF37" s="79"/>
+      <c r="DG37" s="79"/>
+      <c r="DI37" s="78"/>
+      <c r="DJ37" s="78"/>
+      <c r="DK37" s="78"/>
+      <c r="DL37" s="78"/>
+      <c r="DM37" s="78"/>
+      <c r="DN37" s="78"/>
+      <c r="DO37" s="78"/>
+      <c r="DP37" s="78"/>
+      <c r="DQ37" s="78"/>
+      <c r="DR37" s="78"/>
+      <c r="DS37" s="78"/>
+      <c r="DT37" s="78"/>
+      <c r="DU37" s="78"/>
+      <c r="DV37" s="78"/>
+      <c r="DW37" s="78"/>
+      <c r="DX37" s="78"/>
+      <c r="DY37" s="78"/>
+      <c r="DZ37" s="78"/>
+      <c r="EA37" s="78"/>
+      <c r="EB37" s="78"/>
+      <c r="EC37" s="78"/>
+      <c r="EE37" s="79" t="s">
+        <v>88</v>
       </c>
-      <c r="DJ37" s="51"/>
-      <c r="DK37" s="51"/>
-      <c r="DL37" s="51"/>
-      <c r="DM37" s="51"/>
-      <c r="DN37" s="51"/>
-      <c r="DO37" s="51"/>
-      <c r="DP37" s="51"/>
-      <c r="DQ37" s="51"/>
-      <c r="DR37" s="51"/>
-      <c r="DS37" s="51"/>
-      <c r="DT37" s="51"/>
-      <c r="DU37" s="51"/>
-      <c r="DV37" s="51"/>
-      <c r="DW37" s="51"/>
-      <c r="DX37" s="51"/>
-      <c r="DY37" s="51"/>
-      <c r="DZ37" s="51"/>
-      <c r="EA37" s="51"/>
-      <c r="EB37" s="51"/>
-      <c r="EC37" s="51"/>
-      <c r="EE37" s="51" t="s">
-        <v>91</v>
+      <c r="EF37" s="79"/>
+      <c r="EG37" s="79"/>
+      <c r="EH37" s="79"/>
+      <c r="EI37" s="79"/>
+      <c r="EJ37" s="79"/>
+      <c r="EK37" s="79"/>
+      <c r="EL37" s="79"/>
+      <c r="EM37" s="79"/>
+      <c r="EN37" s="79"/>
+      <c r="EO37" s="79"/>
+      <c r="EP37" s="79"/>
+      <c r="EQ37" s="79"/>
+      <c r="ER37" s="79"/>
+      <c r="ES37" s="79"/>
+      <c r="ET37" s="79"/>
+      <c r="EU37" s="79"/>
+      <c r="EV37" s="79"/>
+      <c r="EW37" s="79"/>
+      <c r="EX37" s="79"/>
+      <c r="EY37" s="79"/>
+      <c r="EZ37" s="79"/>
+      <c r="FA37" s="79"/>
+      <c r="FB37" s="79"/>
+      <c r="FC37" s="79"/>
+      <c r="FD37" s="79"/>
+      <c r="FE37" s="79"/>
+      <c r="FF37" s="14" t="s">
+        <v>89</v>
       </c>
-      <c r="EF37" s="51"/>
-      <c r="EG37" s="51"/>
-      <c r="EH37" s="51"/>
-      <c r="EI37" s="51"/>
-      <c r="EJ37" s="51"/>
-      <c r="EK37" s="51"/>
-      <c r="EL37" s="51"/>
-      <c r="EM37" s="51"/>
-      <c r="EN37" s="51"/>
-      <c r="EO37" s="51"/>
-      <c r="EP37" s="51"/>
-      <c r="EQ37" s="51"/>
-      <c r="ER37" s="51"/>
-      <c r="ES37" s="51"/>
-      <c r="ET37" s="51"/>
-      <c r="EU37" s="51"/>
-      <c r="EV37" s="51"/>
-      <c r="EW37" s="51"/>
-      <c r="EX37" s="51"/>
-      <c r="EY37" s="51"/>
-      <c r="EZ37" s="51"/>
-      <c r="FA37" s="51"/>
-      <c r="FB37" s="51"/>
-      <c r="FC37" s="51"/>
-      <c r="FD37" s="51"/>
-      <c r="FE37" s="51"/>
-      <c r="FF37" s="51"/>
-      <c r="FH37" s="55"/>
-      <c r="FI37" s="55"/>
-      <c r="FJ37" s="55"/>
+      <c r="FG37" s="14"/>
+      <c r="FH37" s="14"/>
+      <c r="FI37" s="14"/>
       <c r="FK37" s="55"/>
       <c r="FL37" s="55"/>
       <c r="FM37" s="55"/>
@@ -27536,28 +27573,28 @@
       <c r="XB37" s="55"/>
       <c r="XC37" s="55"/>
       <c r="XD37" s="55"/>
-      <c r="XE37" s="55"/>
-      <c r="XF37" s="55"/>
+      <c r="XE37" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="XG37" s="55"/>
       <c r="XH37" s="55"/>
-      <c r="XI37" s="55"/>
-      <c r="XJ37" s="55"/>
       <c r="XK37" s="55"/>
       <c r="XL37" s="55"/>
-      <c r="XM37" s="55"/>
       <c r="XN37" s="55"/>
       <c r="XO37" s="55"/>
       <c r="XP37" s="55"/>
       <c r="XQ37" s="55"/>
-      <c r="XR37" s="55"/>
-      <c r="XS37" s="55"/>
-      <c r="XT37" s="55"/>
-      <c r="XU37" s="55"/>
+      <c r="XR37" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="XT37" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="XV37" s="55"/>
       <c r="XW37" s="55"/>
-      <c r="XX37" s="55"/>
-      <c r="XY37" s="55"/>
-      <c r="XZ37" s="55"/>
+      <c r="XY37" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="YA37" s="55"/>
       <c r="YB37" s="55"/>
       <c r="YC37" s="55"/>
@@ -27611,197 +27648,178 @@
       <c r="ZY37" s="55"/>
       <c r="ZZ37" s="55"/>
     </row>
-    <row r="38" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>92</v>
+    <row r="38" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A38" s="51" t="s">
+        <v>90</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AG38" s="55"/>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55"/>
-      <c r="AK38" s="23" t="s">
-        <v>93</v>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AD38" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="AL38" s="84">
-        <v>31</v>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="51"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="51"/>
+      <c r="AX38" s="51"/>
+      <c r="AZ38" s="51" t="s">
+        <v>91</v>
       </c>
-      <c r="AM38" s="79"/>
-      <c r="AN38" s="79"/>
-      <c r="AO38" s="79"/>
-      <c r="AP38" s="79"/>
-      <c r="AQ38" s="14" t="s">
-        <v>93</v>
+      <c r="BA38" s="51"/>
+      <c r="BB38" s="51"/>
+      <c r="BC38" s="51"/>
+      <c r="BD38" s="51"/>
+      <c r="BE38" s="51"/>
+      <c r="BF38" s="51"/>
+      <c r="BG38" s="51"/>
+      <c r="BH38" s="51"/>
+      <c r="BI38" s="51"/>
+      <c r="BJ38" s="51"/>
+      <c r="BK38" s="51"/>
+      <c r="BL38" s="51"/>
+      <c r="BM38" s="51"/>
+      <c r="BN38" s="51"/>
+      <c r="BO38" s="51"/>
+      <c r="BP38" s="51"/>
+      <c r="BQ38" s="51"/>
+      <c r="BR38" s="51"/>
+      <c r="BS38" s="51"/>
+      <c r="BT38" s="51"/>
+      <c r="BU38" s="51"/>
+      <c r="BV38" s="51"/>
+      <c r="BW38" s="51"/>
+      <c r="BX38" s="51"/>
+      <c r="BY38" s="51"/>
+      <c r="BZ38" s="51"/>
+      <c r="CB38" s="55"/>
+      <c r="CC38" s="55"/>
+      <c r="CD38" s="2"/>
+      <c r="CF38" s="51" t="s">
+        <v>90</v>
       </c>
-      <c r="AR38" s="79" t="s">
-        <v>94</v>
+      <c r="CG38" s="51"/>
+      <c r="CH38" s="51"/>
+      <c r="CI38" s="51"/>
+      <c r="CJ38" s="51"/>
+      <c r="CK38" s="51"/>
+      <c r="CL38" s="51"/>
+      <c r="CM38" s="51"/>
+      <c r="CN38" s="51"/>
+      <c r="CO38" s="51"/>
+      <c r="CP38" s="51"/>
+      <c r="CQ38" s="51"/>
+      <c r="CR38" s="51"/>
+      <c r="CS38" s="51"/>
+      <c r="CT38" s="51"/>
+      <c r="CU38" s="51"/>
+      <c r="CV38" s="51"/>
+      <c r="CW38" s="51"/>
+      <c r="CX38" s="51"/>
+      <c r="CY38" s="51"/>
+      <c r="CZ38" s="51"/>
+      <c r="DA38" s="51"/>
+      <c r="DB38" s="51"/>
+      <c r="DC38" s="51"/>
+      <c r="DD38" s="51"/>
+      <c r="DE38" s="51"/>
+      <c r="DF38" s="51"/>
+      <c r="DG38" s="51"/>
+      <c r="DI38" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="AS38" s="79"/>
-      <c r="AT38" s="79"/>
-      <c r="AU38" s="79"/>
-      <c r="AV38" s="79"/>
-      <c r="AW38" s="79"/>
-      <c r="AX38" s="79"/>
-      <c r="AY38" s="79"/>
-      <c r="AZ38" s="79"/>
-      <c r="BA38" s="79"/>
-      <c r="BB38" s="79"/>
-      <c r="BC38" s="79"/>
-      <c r="BD38" s="79"/>
-      <c r="BE38" s="79"/>
-      <c r="BF38" s="79"/>
-      <c r="BG38" s="79"/>
-      <c r="BH38" s="79"/>
-      <c r="BI38" s="79"/>
-      <c r="BJ38" s="79"/>
-      <c r="BK38" s="79"/>
-      <c r="BL38" s="79"/>
-      <c r="BM38" s="79"/>
-      <c r="BN38" s="79"/>
-      <c r="BP38" s="84">
-        <v>2025</v>
+      <c r="DJ38" s="51"/>
+      <c r="DK38" s="51"/>
+      <c r="DL38" s="51"/>
+      <c r="DM38" s="51"/>
+      <c r="DN38" s="51"/>
+      <c r="DO38" s="51"/>
+      <c r="DP38" s="51"/>
+      <c r="DQ38" s="51"/>
+      <c r="DR38" s="51"/>
+      <c r="DS38" s="51"/>
+      <c r="DT38" s="51"/>
+      <c r="DU38" s="51"/>
+      <c r="DV38" s="51"/>
+      <c r="DW38" s="51"/>
+      <c r="DX38" s="51"/>
+      <c r="DY38" s="51"/>
+      <c r="DZ38" s="51"/>
+      <c r="EA38" s="51"/>
+      <c r="EB38" s="51"/>
+      <c r="EC38" s="51"/>
+      <c r="EE38" s="51" t="s">
+        <v>91</v>
       </c>
-      <c r="BQ38" s="79"/>
-      <c r="BR38" s="79"/>
-      <c r="BS38" s="79"/>
-      <c r="BT38" s="79"/>
-      <c r="BU38" s="79"/>
-      <c r="BV38" s="79"/>
-      <c r="BW38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX38" s="14"/>
-      <c r="BY38" s="14"/>
-      <c r="CA38" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="CB38" s="81"/>
-      <c r="CC38" s="81"/>
-      <c r="CD38" s="81"/>
-      <c r="CF38" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG38" s="14"/>
-      <c r="CH38" s="14"/>
-      <c r="CI38" s="14"/>
-      <c r="CJ38" s="14"/>
-      <c r="CK38" s="14"/>
-      <c r="CL38" s="14"/>
-      <c r="CM38" s="14"/>
-      <c r="CN38" s="14"/>
-      <c r="CO38" s="14"/>
-      <c r="CP38" s="14"/>
-      <c r="CQ38" s="14"/>
-      <c r="CR38" s="14"/>
-      <c r="CS38" s="14"/>
-      <c r="CT38" s="14"/>
-      <c r="CU38" s="14"/>
-      <c r="CV38" s="14"/>
-      <c r="CW38" s="14"/>
-      <c r="CX38" s="14"/>
-      <c r="CY38" s="14"/>
-      <c r="CZ38" s="14"/>
-      <c r="DA38" s="14"/>
-      <c r="DB38" s="14"/>
-      <c r="DC38" s="14"/>
-      <c r="DD38" s="14"/>
-      <c r="DE38" s="14"/>
-      <c r="DF38" s="14"/>
-      <c r="DG38" s="14"/>
-      <c r="DH38" s="14"/>
-      <c r="DI38" s="14"/>
-      <c r="DJ38" s="14"/>
-      <c r="DL38" s="55"/>
-      <c r="DM38" s="55"/>
-      <c r="DN38" s="55"/>
-      <c r="DO38" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="DP38" s="84">
-        <v>31</v>
-      </c>
-      <c r="DQ38" s="79"/>
-      <c r="DR38" s="79"/>
-      <c r="DS38" s="79"/>
-      <c r="DT38" s="79"/>
-      <c r="DU38" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="DV38" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="DW38" s="79"/>
-      <c r="DX38" s="79"/>
-      <c r="DY38" s="79"/>
-      <c r="DZ38" s="79"/>
-      <c r="EA38" s="79"/>
-      <c r="EB38" s="79"/>
-      <c r="EC38" s="79"/>
-      <c r="ED38" s="79"/>
-      <c r="EE38" s="79"/>
-      <c r="EF38" s="79"/>
-      <c r="EG38" s="79"/>
-      <c r="EH38" s="79"/>
-      <c r="EI38" s="79"/>
-      <c r="EJ38" s="79"/>
-      <c r="EK38" s="79"/>
-      <c r="EL38" s="79"/>
-      <c r="EM38" s="79"/>
-      <c r="EN38" s="79"/>
-      <c r="EO38" s="79"/>
-      <c r="EP38" s="79"/>
-      <c r="EQ38" s="79"/>
-      <c r="ER38" s="79"/>
-      <c r="ET38" s="84">
-        <v>2025</v>
-      </c>
-      <c r="EU38" s="79"/>
-      <c r="EV38" s="79"/>
-      <c r="EW38" s="79"/>
-      <c r="EX38" s="79"/>
-      <c r="EY38" s="79"/>
-      <c r="EZ38" s="79"/>
-      <c r="FA38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="FB38" s="14"/>
-      <c r="FC38" s="14"/>
-      <c r="FE38" s="55"/>
-      <c r="FF38" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="FG38" s="14"/>
-      <c r="FH38" s="14"/>
-      <c r="FI38" s="14"/>
+      <c r="EF38" s="51"/>
+      <c r="EG38" s="51"/>
+      <c r="EH38" s="51"/>
+      <c r="EI38" s="51"/>
+      <c r="EJ38" s="51"/>
+      <c r="EK38" s="51"/>
+      <c r="EL38" s="51"/>
+      <c r="EM38" s="51"/>
+      <c r="EN38" s="51"/>
+      <c r="EO38" s="51"/>
+      <c r="EP38" s="51"/>
+      <c r="EQ38" s="51"/>
+      <c r="ER38" s="51"/>
+      <c r="ES38" s="51"/>
+      <c r="ET38" s="51"/>
+      <c r="EU38" s="51"/>
+      <c r="EV38" s="51"/>
+      <c r="EW38" s="51"/>
+      <c r="EX38" s="51"/>
+      <c r="EY38" s="51"/>
+      <c r="EZ38" s="51"/>
+      <c r="FA38" s="51"/>
+      <c r="FB38" s="51"/>
+      <c r="FC38" s="51"/>
+      <c r="FD38" s="51"/>
+      <c r="FE38" s="51"/>
+      <c r="FF38" s="51"/>
+      <c r="FH38" s="55"/>
+      <c r="FI38" s="55"/>
+      <c r="FJ38" s="55"/>
       <c r="FK38" s="55"/>
       <c r="FL38" s="55"/>
       <c r="FM38" s="55"/>
@@ -28340,173 +28358,196 @@
       <c r="ZZ38" s="55"/>
     </row>
     <row r="39" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>99</v>
+      <c r="A39" s="14" t="s">
+        <v>92</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
-      <c r="AN39" s="55"/>
-      <c r="AO39" s="55"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="55"/>
-      <c r="AT39" s="55"/>
-      <c r="AU39" s="55"/>
-      <c r="AV39" s="55"/>
-      <c r="AW39" s="55"/>
-      <c r="AX39" s="55"/>
-      <c r="AY39" s="55"/>
-      <c r="AZ39" s="55"/>
-      <c r="BA39" s="55"/>
-      <c r="BB39" s="55"/>
-      <c r="BC39" s="55"/>
-      <c r="BD39" s="55"/>
-      <c r="BE39" s="55"/>
-      <c r="BF39" s="55"/>
-      <c r="BG39" s="55"/>
-      <c r="BH39" s="55"/>
-      <c r="BI39" s="55"/>
-      <c r="BJ39" s="55"/>
-      <c r="BK39" s="55"/>
-      <c r="BL39" s="55"/>
-      <c r="BM39" s="55"/>
-      <c r="BN39" s="55"/>
-      <c r="BO39" s="55"/>
-      <c r="BP39" s="55"/>
-      <c r="BQ39" s="55"/>
-      <c r="BR39" s="55"/>
-      <c r="BS39" s="55"/>
-      <c r="BT39" s="55"/>
-      <c r="BU39" s="55"/>
-      <c r="BV39" s="55"/>
-      <c r="BW39" s="55"/>
-      <c r="BX39" s="55"/>
-      <c r="BY39" s="55"/>
-      <c r="BZ39" s="55"/>
-      <c r="CA39" s="55"/>
-      <c r="CB39" s="55"/>
-      <c r="CC39" s="55"/>
-      <c r="CD39" s="2"/>
-      <c r="CF39" s="3" t="s">
-        <v>100</v>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AG39" s="55"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="55"/>
+      <c r="AK39" s="23" t="s">
+        <v>93</v>
       </c>
-      <c r="CG39" s="3"/>
-      <c r="CH39" s="3"/>
-      <c r="CI39" s="3"/>
-      <c r="CJ39" s="3"/>
-      <c r="CK39" s="3"/>
-      <c r="CL39" s="3"/>
-      <c r="CM39" s="3"/>
-      <c r="CN39" s="3"/>
-      <c r="CO39" s="3"/>
-      <c r="CP39" s="3"/>
-      <c r="CQ39" s="3"/>
-      <c r="CR39" s="3"/>
-      <c r="CS39" s="3"/>
-      <c r="CT39" s="3"/>
-      <c r="CU39" s="3"/>
-      <c r="CV39" s="3"/>
-      <c r="CW39" s="3"/>
-      <c r="CX39" s="3"/>
-      <c r="CY39" s="3"/>
-      <c r="CZ39" s="3"/>
-      <c r="DA39" s="3"/>
-      <c r="DB39" s="3"/>
-      <c r="DC39" s="3"/>
-      <c r="DD39" s="3"/>
-      <c r="DE39" s="3"/>
-      <c r="DF39" s="3"/>
-      <c r="DG39" s="3"/>
-      <c r="DH39" s="3"/>
-      <c r="DI39" s="3"/>
-      <c r="DJ39" s="3"/>
-      <c r="DK39" s="3"/>
-      <c r="DL39" s="3"/>
-      <c r="DM39" s="3"/>
-      <c r="DN39" s="3"/>
-      <c r="DO39" s="3"/>
-      <c r="DP39" s="3"/>
-      <c r="DQ39" s="3"/>
-      <c r="DS39" s="55"/>
-      <c r="DT39" s="55"/>
-      <c r="DU39" s="55"/>
-      <c r="DV39" s="55"/>
-      <c r="DW39" s="55"/>
-      <c r="DX39" s="55"/>
-      <c r="DY39" s="55"/>
-      <c r="DZ39" s="55"/>
-      <c r="EA39" s="55"/>
-      <c r="EB39" s="55"/>
-      <c r="EC39" s="55"/>
-      <c r="ED39" s="55"/>
-      <c r="EE39" s="55"/>
-      <c r="EF39" s="55"/>
-      <c r="EG39" s="55"/>
-      <c r="EH39" s="55"/>
-      <c r="EI39" s="55"/>
-      <c r="EJ39" s="55"/>
-      <c r="EK39" s="55"/>
-      <c r="EL39" s="55"/>
-      <c r="EM39" s="55"/>
-      <c r="EN39" s="55"/>
-      <c r="EO39" s="55"/>
-      <c r="EP39" s="55"/>
-      <c r="EQ39" s="55"/>
-      <c r="ER39" s="55"/>
-      <c r="ES39" s="55"/>
-      <c r="ET39" s="55"/>
-      <c r="EU39" s="55"/>
-      <c r="EV39" s="55"/>
-      <c r="EW39" s="55"/>
-      <c r="EX39" s="55"/>
-      <c r="EY39" s="55"/>
-      <c r="EZ39" s="55"/>
-      <c r="FA39" s="55"/>
-      <c r="FB39" s="55"/>
-      <c r="FC39" s="55"/>
-      <c r="FD39" s="55"/>
+      <c r="AL39" s="84">
+        <v>31</v>
+      </c>
+      <c r="AM39" s="79"/>
+      <c r="AN39" s="79"/>
+      <c r="AO39" s="79"/>
+      <c r="AP39" s="79"/>
+      <c r="AQ39" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR39" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS39" s="79"/>
+      <c r="AT39" s="79"/>
+      <c r="AU39" s="79"/>
+      <c r="AV39" s="79"/>
+      <c r="AW39" s="79"/>
+      <c r="AX39" s="79"/>
+      <c r="AY39" s="79"/>
+      <c r="AZ39" s="79"/>
+      <c r="BA39" s="79"/>
+      <c r="BB39" s="79"/>
+      <c r="BC39" s="79"/>
+      <c r="BD39" s="79"/>
+      <c r="BE39" s="79"/>
+      <c r="BF39" s="79"/>
+      <c r="BG39" s="79"/>
+      <c r="BH39" s="79"/>
+      <c r="BI39" s="79"/>
+      <c r="BJ39" s="79"/>
+      <c r="BK39" s="79"/>
+      <c r="BL39" s="79"/>
+      <c r="BM39" s="79"/>
+      <c r="BN39" s="79"/>
+      <c r="BP39" s="84">
+        <v>2025</v>
+      </c>
+      <c r="BQ39" s="79"/>
+      <c r="BR39" s="79"/>
+      <c r="BS39" s="79"/>
+      <c r="BT39" s="79"/>
+      <c r="BU39" s="79"/>
+      <c r="BV39" s="79"/>
+      <c r="BW39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX39" s="14"/>
+      <c r="BY39" s="14"/>
+      <c r="CA39" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB39" s="81"/>
+      <c r="CC39" s="81"/>
+      <c r="CD39" s="81"/>
+      <c r="CF39" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG39" s="14"/>
+      <c r="CH39" s="14"/>
+      <c r="CI39" s="14"/>
+      <c r="CJ39" s="14"/>
+      <c r="CK39" s="14"/>
+      <c r="CL39" s="14"/>
+      <c r="CM39" s="14"/>
+      <c r="CN39" s="14"/>
+      <c r="CO39" s="14"/>
+      <c r="CP39" s="14"/>
+      <c r="CQ39" s="14"/>
+      <c r="CR39" s="14"/>
+      <c r="CS39" s="14"/>
+      <c r="CT39" s="14"/>
+      <c r="CU39" s="14"/>
+      <c r="CV39" s="14"/>
+      <c r="CW39" s="14"/>
+      <c r="CX39" s="14"/>
+      <c r="CY39" s="14"/>
+      <c r="CZ39" s="14"/>
+      <c r="DA39" s="14"/>
+      <c r="DB39" s="14"/>
+      <c r="DC39" s="14"/>
+      <c r="DD39" s="14"/>
+      <c r="DE39" s="14"/>
+      <c r="DF39" s="14"/>
+      <c r="DG39" s="14"/>
+      <c r="DH39" s="14"/>
+      <c r="DI39" s="14"/>
+      <c r="DJ39" s="14"/>
+      <c r="DL39" s="55"/>
+      <c r="DM39" s="55"/>
+      <c r="DN39" s="55"/>
+      <c r="DO39" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="DP39" s="84">
+        <v>31</v>
+      </c>
+      <c r="DQ39" s="79"/>
+      <c r="DR39" s="79"/>
+      <c r="DS39" s="79"/>
+      <c r="DT39" s="79"/>
+      <c r="DU39" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="DV39" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="DW39" s="79"/>
+      <c r="DX39" s="79"/>
+      <c r="DY39" s="79"/>
+      <c r="DZ39" s="79"/>
+      <c r="EA39" s="79"/>
+      <c r="EB39" s="79"/>
+      <c r="EC39" s="79"/>
+      <c r="ED39" s="79"/>
+      <c r="EE39" s="79"/>
+      <c r="EF39" s="79"/>
+      <c r="EG39" s="79"/>
+      <c r="EH39" s="79"/>
+      <c r="EI39" s="79"/>
+      <c r="EJ39" s="79"/>
+      <c r="EK39" s="79"/>
+      <c r="EL39" s="79"/>
+      <c r="EM39" s="79"/>
+      <c r="EN39" s="79"/>
+      <c r="EO39" s="79"/>
+      <c r="EP39" s="79"/>
+      <c r="EQ39" s="79"/>
+      <c r="ER39" s="79"/>
+      <c r="ET39" s="84">
+        <v>2025</v>
+      </c>
+      <c r="EU39" s="79"/>
+      <c r="EV39" s="79"/>
+      <c r="EW39" s="79"/>
+      <c r="EX39" s="79"/>
+      <c r="EY39" s="79"/>
+      <c r="EZ39" s="79"/>
+      <c r="FA39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="FB39" s="14"/>
+      <c r="FC39" s="14"/>
       <c r="FE39" s="55"/>
-      <c r="FF39" s="55"/>
-      <c r="FG39" s="55"/>
-      <c r="FH39" s="55"/>
-      <c r="FI39" s="55"/>
-      <c r="FJ39" s="55"/>
+      <c r="FF39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="FG39" s="14"/>
+      <c r="FH39" s="14"/>
+      <c r="FI39" s="14"/>
       <c r="FK39" s="55"/>
       <c r="FL39" s="55"/>
       <c r="FM39" s="55"/>
@@ -29045,174 +29086,173 @@
       <c r="ZZ39" s="55"/>
     </row>
     <row r="40" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="61"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="61"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="61"/>
-      <c r="Z40" s="61"/>
-      <c r="AA40" s="61"/>
-      <c r="AB40" s="61"/>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="61"/>
-      <c r="AE40" s="61"/>
-      <c r="AF40" s="61"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="61"/>
-      <c r="AK40" s="61"/>
-      <c r="AL40" s="61"/>
-      <c r="AM40" s="61"/>
-      <c r="AN40" s="61"/>
-      <c r="AO40" s="61"/>
-      <c r="AP40" s="61"/>
-      <c r="AQ40" s="61"/>
-      <c r="AR40" s="61"/>
-      <c r="AS40" s="61"/>
-      <c r="AT40" s="61"/>
-      <c r="AU40" s="61"/>
-      <c r="AV40" s="61"/>
-      <c r="AW40" s="61"/>
-      <c r="AX40" s="61"/>
-      <c r="AY40" s="61"/>
-      <c r="AZ40" s="61"/>
-      <c r="BA40" s="61"/>
-      <c r="BB40" s="61"/>
-      <c r="BC40" s="61"/>
-      <c r="BD40" s="61"/>
-      <c r="BE40" s="61"/>
-      <c r="BF40" s="61"/>
-      <c r="BG40" s="61"/>
-      <c r="BH40" s="61"/>
-      <c r="BI40" s="61"/>
-      <c r="BJ40" s="61"/>
-      <c r="BK40" s="61"/>
-      <c r="BL40" s="61"/>
-      <c r="BM40" s="61"/>
-      <c r="BN40" s="61"/>
-      <c r="BO40" s="61"/>
-      <c r="BP40" s="61"/>
-      <c r="BQ40" s="61"/>
-      <c r="BR40" s="61"/>
-      <c r="BS40" s="61"/>
-      <c r="BT40" s="61"/>
-      <c r="BU40" s="61"/>
-      <c r="BV40" s="61"/>
-      <c r="BW40" s="61"/>
-      <c r="BX40" s="61"/>
-      <c r="BY40" s="61"/>
-      <c r="BZ40" s="61"/>
-      <c r="CA40" s="81" t="s">
-        <v>101</v>
+      <c r="A40" s="3" t="s">
+        <v>99</v>
       </c>
-      <c r="CB40" s="81"/>
-      <c r="CC40" s="81"/>
-      <c r="CD40" s="81"/>
-      <c r="CF40" s="61"/>
-      <c r="CG40" s="61"/>
-      <c r="CH40" s="61"/>
-      <c r="CI40" s="61"/>
-      <c r="CJ40" s="61"/>
-      <c r="CK40" s="61"/>
-      <c r="CL40" s="61"/>
-      <c r="CM40" s="61"/>
-      <c r="CN40" s="61"/>
-      <c r="CO40" s="61"/>
-      <c r="CP40" s="61"/>
-      <c r="CQ40" s="61"/>
-      <c r="CR40" s="61"/>
-      <c r="CS40" s="61"/>
-      <c r="CT40" s="61"/>
-      <c r="CU40" s="61"/>
-      <c r="CV40" s="61"/>
-      <c r="CW40" s="61"/>
-      <c r="CX40" s="61"/>
-      <c r="CY40" s="61"/>
-      <c r="CZ40" s="61"/>
-      <c r="DA40" s="61"/>
-      <c r="DB40" s="61"/>
-      <c r="DC40" s="61"/>
-      <c r="DD40" s="61"/>
-      <c r="DE40" s="61"/>
-      <c r="DF40" s="61"/>
-      <c r="DG40" s="61"/>
-      <c r="DH40" s="61"/>
-      <c r="DI40" s="61"/>
-      <c r="DJ40" s="61"/>
-      <c r="DK40" s="61"/>
-      <c r="DL40" s="61"/>
-      <c r="DM40" s="61"/>
-      <c r="DN40" s="61"/>
-      <c r="DO40" s="61"/>
-      <c r="DP40" s="61"/>
-      <c r="DQ40" s="61"/>
-      <c r="DR40" s="61"/>
-      <c r="DS40" s="61"/>
-      <c r="DT40" s="61"/>
-      <c r="DU40" s="61"/>
-      <c r="DV40" s="61"/>
-      <c r="DW40" s="61"/>
-      <c r="DX40" s="61"/>
-      <c r="DY40" s="61"/>
-      <c r="DZ40" s="61"/>
-      <c r="EA40" s="61"/>
-      <c r="EB40" s="61"/>
-      <c r="EC40" s="61"/>
-      <c r="ED40" s="61"/>
-      <c r="EE40" s="61"/>
-      <c r="EF40" s="61"/>
-      <c r="EG40" s="61"/>
-      <c r="EH40" s="61"/>
-      <c r="EI40" s="61"/>
-      <c r="EJ40" s="61"/>
-      <c r="EK40" s="61"/>
-      <c r="EL40" s="61"/>
-      <c r="EM40" s="61"/>
-      <c r="EN40" s="61"/>
-      <c r="EO40" s="61"/>
-      <c r="EP40" s="61"/>
-      <c r="EQ40" s="61"/>
-      <c r="ER40" s="61"/>
-      <c r="ES40" s="61"/>
-      <c r="ET40" s="61"/>
-      <c r="EU40" s="61"/>
-      <c r="EV40" s="61"/>
-      <c r="EW40" s="61"/>
-      <c r="EX40" s="61"/>
-      <c r="EY40" s="61"/>
-      <c r="EZ40" s="61"/>
-      <c r="FA40" s="61"/>
-      <c r="FB40" s="61"/>
-      <c r="FC40" s="61"/>
-      <c r="FD40" s="61"/>
-      <c r="FE40" s="61"/>
-      <c r="FF40" s="14" t="s">
-        <v>102</v>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="55"/>
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55"/>
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="55"/>
+      <c r="AW40" s="55"/>
+      <c r="AX40" s="55"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BA40" s="55"/>
+      <c r="BB40" s="55"/>
+      <c r="BC40" s="55"/>
+      <c r="BD40" s="55"/>
+      <c r="BE40" s="55"/>
+      <c r="BF40" s="55"/>
+      <c r="BG40" s="55"/>
+      <c r="BH40" s="55"/>
+      <c r="BI40" s="55"/>
+      <c r="BJ40" s="55"/>
+      <c r="BK40" s="55"/>
+      <c r="BL40" s="55"/>
+      <c r="BM40" s="55"/>
+      <c r="BN40" s="55"/>
+      <c r="BO40" s="55"/>
+      <c r="BP40" s="55"/>
+      <c r="BQ40" s="55"/>
+      <c r="BR40" s="55"/>
+      <c r="BS40" s="55"/>
+      <c r="BT40" s="55"/>
+      <c r="BU40" s="55"/>
+      <c r="BV40" s="55"/>
+      <c r="BW40" s="55"/>
+      <c r="BX40" s="55"/>
+      <c r="BY40" s="55"/>
+      <c r="BZ40" s="55"/>
+      <c r="CA40" s="55"/>
+      <c r="CB40" s="55"/>
+      <c r="CC40" s="55"/>
+      <c r="CD40" s="2"/>
+      <c r="CF40" s="3" t="s">
+        <v>100</v>
       </c>
-      <c r="FG40" s="14"/>
-      <c r="FH40" s="14"/>
-      <c r="FI40" s="14"/>
+      <c r="CG40" s="3"/>
+      <c r="CH40" s="3"/>
+      <c r="CI40" s="3"/>
+      <c r="CJ40" s="3"/>
+      <c r="CK40" s="3"/>
+      <c r="CL40" s="3"/>
+      <c r="CM40" s="3"/>
+      <c r="CN40" s="3"/>
+      <c r="CO40" s="3"/>
+      <c r="CP40" s="3"/>
+      <c r="CQ40" s="3"/>
+      <c r="CR40" s="3"/>
+      <c r="CS40" s="3"/>
+      <c r="CT40" s="3"/>
+      <c r="CU40" s="3"/>
+      <c r="CV40" s="3"/>
+      <c r="CW40" s="3"/>
+      <c r="CX40" s="3"/>
+      <c r="CY40" s="3"/>
+      <c r="CZ40" s="3"/>
+      <c r="DA40" s="3"/>
+      <c r="DB40" s="3"/>
+      <c r="DC40" s="3"/>
+      <c r="DD40" s="3"/>
+      <c r="DE40" s="3"/>
+      <c r="DF40" s="3"/>
+      <c r="DG40" s="3"/>
+      <c r="DH40" s="3"/>
+      <c r="DI40" s="3"/>
+      <c r="DJ40" s="3"/>
+      <c r="DK40" s="3"/>
+      <c r="DL40" s="3"/>
+      <c r="DM40" s="3"/>
+      <c r="DN40" s="3"/>
+      <c r="DO40" s="3"/>
+      <c r="DP40" s="3"/>
+      <c r="DQ40" s="3"/>
+      <c r="DS40" s="55"/>
+      <c r="DT40" s="55"/>
+      <c r="DU40" s="55"/>
+      <c r="DV40" s="55"/>
+      <c r="DW40" s="55"/>
+      <c r="DX40" s="55"/>
+      <c r="DY40" s="55"/>
+      <c r="DZ40" s="55"/>
+      <c r="EA40" s="55"/>
+      <c r="EB40" s="55"/>
+      <c r="EC40" s="55"/>
+      <c r="ED40" s="55"/>
+      <c r="EE40" s="55"/>
+      <c r="EF40" s="55"/>
+      <c r="EG40" s="55"/>
+      <c r="EH40" s="55"/>
+      <c r="EI40" s="55"/>
+      <c r="EJ40" s="55"/>
+      <c r="EK40" s="55"/>
+      <c r="EL40" s="55"/>
+      <c r="EM40" s="55"/>
+      <c r="EN40" s="55"/>
+      <c r="EO40" s="55"/>
+      <c r="EP40" s="55"/>
+      <c r="EQ40" s="55"/>
+      <c r="ER40" s="55"/>
+      <c r="ES40" s="55"/>
+      <c r="ET40" s="55"/>
+      <c r="EU40" s="55"/>
+      <c r="EV40" s="55"/>
+      <c r="EW40" s="55"/>
+      <c r="EX40" s="55"/>
+      <c r="EY40" s="55"/>
+      <c r="EZ40" s="55"/>
+      <c r="FA40" s="55"/>
+      <c r="FB40" s="55"/>
+      <c r="FC40" s="55"/>
+      <c r="FD40" s="55"/>
+      <c r="FE40" s="55"/>
+      <c r="FF40" s="55"/>
+      <c r="FG40" s="55"/>
+      <c r="FH40" s="55"/>
+      <c r="FI40" s="55"/>
+      <c r="FJ40" s="55"/>
       <c r="FK40" s="55"/>
       <c r="FL40" s="55"/>
       <c r="FM40" s="55"/>
@@ -29672,19 +29712,28 @@
       <c r="WY40" s="55"/>
       <c r="WZ40" s="55"/>
       <c r="XA40" s="55"/>
-      <c r="XB40" s="23"/>
+      <c r="XB40" s="55"/>
+      <c r="XC40" s="55"/>
       <c r="XD40" s="55"/>
+      <c r="XE40" s="55"/>
+      <c r="XF40" s="55"/>
       <c r="XG40" s="55"/>
       <c r="XH40" s="55"/>
+      <c r="XI40" s="55"/>
+      <c r="XJ40" s="55"/>
       <c r="XK40" s="55"/>
       <c r="XL40" s="55"/>
+      <c r="XM40" s="55"/>
       <c r="XN40" s="55"/>
       <c r="XO40" s="55"/>
       <c r="XP40" s="55"/>
       <c r="XQ40" s="55"/>
       <c r="XR40" s="55"/>
+      <c r="XS40" s="55"/>
+      <c r="XT40" s="55"/>
       <c r="XU40" s="55"/>
       <c r="XV40" s="55"/>
+      <c r="XW40" s="55"/>
       <c r="XX40" s="55"/>
       <c r="XY40" s="55"/>
       <c r="XZ40" s="55"/>
@@ -29741,174 +29790,175 @@
       <c r="ZY40" s="55"/>
       <c r="ZZ40" s="55"/>
     </row>
-    <row r="41" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A41" s="51" t="s">
-        <v>103</v>
+    <row r="41" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="61"/>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="61"/>
+      <c r="AM41" s="61"/>
+      <c r="AN41" s="61"/>
+      <c r="AO41" s="61"/>
+      <c r="AP41" s="61"/>
+      <c r="AQ41" s="61"/>
+      <c r="AR41" s="61"/>
+      <c r="AS41" s="61"/>
+      <c r="AT41" s="61"/>
+      <c r="AU41" s="61"/>
+      <c r="AV41" s="61"/>
+      <c r="AW41" s="61"/>
+      <c r="AX41" s="61"/>
+      <c r="AY41" s="61"/>
+      <c r="AZ41" s="61"/>
+      <c r="BA41" s="61"/>
+      <c r="BB41" s="61"/>
+      <c r="BC41" s="61"/>
+      <c r="BD41" s="61"/>
+      <c r="BE41" s="61"/>
+      <c r="BF41" s="61"/>
+      <c r="BG41" s="61"/>
+      <c r="BH41" s="61"/>
+      <c r="BI41" s="61"/>
+      <c r="BJ41" s="61"/>
+      <c r="BK41" s="61"/>
+      <c r="BL41" s="61"/>
+      <c r="BM41" s="61"/>
+      <c r="BN41" s="61"/>
+      <c r="BO41" s="61"/>
+      <c r="BP41" s="61"/>
+      <c r="BQ41" s="61"/>
+      <c r="BR41" s="61"/>
+      <c r="BS41" s="61"/>
+      <c r="BT41" s="61"/>
+      <c r="BU41" s="61"/>
+      <c r="BV41" s="61"/>
+      <c r="BW41" s="61"/>
+      <c r="BX41" s="61"/>
+      <c r="BY41" s="61"/>
+      <c r="BZ41" s="61"/>
+      <c r="CA41" s="81" t="s">
+        <v>101</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="51"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="51"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="51"/>
-      <c r="AL41" s="51"/>
-      <c r="AM41" s="51"/>
-      <c r="AN41" s="51"/>
-      <c r="AO41" s="51"/>
-      <c r="AP41" s="51"/>
-      <c r="AQ41" s="51"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
-      <c r="AT41" s="51"/>
-      <c r="AU41" s="51"/>
-      <c r="AV41" s="51"/>
-      <c r="AW41" s="51"/>
-      <c r="AX41" s="51"/>
-      <c r="AY41" s="51"/>
-      <c r="AZ41" s="51"/>
-      <c r="BA41" s="51"/>
-      <c r="BB41" s="51"/>
-      <c r="BC41" s="51"/>
-      <c r="BD41" s="51"/>
-      <c r="BE41" s="51"/>
-      <c r="BF41" s="51"/>
-      <c r="BG41" s="51"/>
-      <c r="BH41" s="51"/>
-      <c r="BI41" s="51"/>
-      <c r="BJ41" s="51"/>
-      <c r="BK41" s="51"/>
-      <c r="BL41" s="51"/>
-      <c r="BM41" s="51"/>
-      <c r="BN41" s="51"/>
-      <c r="BO41" s="51"/>
-      <c r="BP41" s="51"/>
-      <c r="BQ41" s="51"/>
-      <c r="BR41" s="51"/>
-      <c r="BS41" s="51"/>
-      <c r="BT41" s="51"/>
-      <c r="BU41" s="51"/>
-      <c r="BV41" s="51"/>
-      <c r="BW41" s="51"/>
-      <c r="BX41" s="51"/>
-      <c r="BY41" s="51"/>
-      <c r="BZ41" s="51"/>
-      <c r="CB41" s="55"/>
-      <c r="CC41" s="55"/>
-      <c r="CD41" s="2"/>
-      <c r="CF41" s="51" t="s">
-        <v>104</v>
+      <c r="CB41" s="81"/>
+      <c r="CC41" s="81"/>
+      <c r="CD41" s="81"/>
+      <c r="CF41" s="61"/>
+      <c r="CG41" s="61"/>
+      <c r="CH41" s="61"/>
+      <c r="CI41" s="61"/>
+      <c r="CJ41" s="61"/>
+      <c r="CK41" s="61"/>
+      <c r="CL41" s="61"/>
+      <c r="CM41" s="61"/>
+      <c r="CN41" s="61"/>
+      <c r="CO41" s="61"/>
+      <c r="CP41" s="61"/>
+      <c r="CQ41" s="61"/>
+      <c r="CR41" s="61"/>
+      <c r="CS41" s="61"/>
+      <c r="CT41" s="61"/>
+      <c r="CU41" s="61"/>
+      <c r="CV41" s="61"/>
+      <c r="CW41" s="61"/>
+      <c r="CX41" s="61"/>
+      <c r="CY41" s="61"/>
+      <c r="CZ41" s="61"/>
+      <c r="DA41" s="61"/>
+      <c r="DB41" s="61"/>
+      <c r="DC41" s="61"/>
+      <c r="DD41" s="61"/>
+      <c r="DE41" s="61"/>
+      <c r="DF41" s="61"/>
+      <c r="DG41" s="61"/>
+      <c r="DH41" s="61"/>
+      <c r="DI41" s="61"/>
+      <c r="DJ41" s="61"/>
+      <c r="DK41" s="61"/>
+      <c r="DL41" s="61"/>
+      <c r="DM41" s="61"/>
+      <c r="DN41" s="61"/>
+      <c r="DO41" s="61"/>
+      <c r="DP41" s="61"/>
+      <c r="DQ41" s="61"/>
+      <c r="DR41" s="61"/>
+      <c r="DS41" s="61"/>
+      <c r="DT41" s="61"/>
+      <c r="DU41" s="61"/>
+      <c r="DV41" s="61"/>
+      <c r="DW41" s="61"/>
+      <c r="DX41" s="61"/>
+      <c r="DY41" s="61"/>
+      <c r="DZ41" s="61"/>
+      <c r="EA41" s="61"/>
+      <c r="EB41" s="61"/>
+      <c r="EC41" s="61"/>
+      <c r="ED41" s="61"/>
+      <c r="EE41" s="61"/>
+      <c r="EF41" s="61"/>
+      <c r="EG41" s="61"/>
+      <c r="EH41" s="61"/>
+      <c r="EI41" s="61"/>
+      <c r="EJ41" s="61"/>
+      <c r="EK41" s="61"/>
+      <c r="EL41" s="61"/>
+      <c r="EM41" s="61"/>
+      <c r="EN41" s="61"/>
+      <c r="EO41" s="61"/>
+      <c r="EP41" s="61"/>
+      <c r="EQ41" s="61"/>
+      <c r="ER41" s="61"/>
+      <c r="ES41" s="61"/>
+      <c r="ET41" s="61"/>
+      <c r="EU41" s="61"/>
+      <c r="EV41" s="61"/>
+      <c r="EW41" s="61"/>
+      <c r="EX41" s="61"/>
+      <c r="EY41" s="61"/>
+      <c r="EZ41" s="61"/>
+      <c r="FA41" s="61"/>
+      <c r="FB41" s="61"/>
+      <c r="FC41" s="61"/>
+      <c r="FD41" s="61"/>
+      <c r="FE41" s="61"/>
+      <c r="FF41" s="14" t="s">
+        <v>102</v>
       </c>
-      <c r="CG41" s="51"/>
-      <c r="CH41" s="51"/>
-      <c r="CI41" s="51"/>
-      <c r="CJ41" s="51"/>
-      <c r="CK41" s="51"/>
-      <c r="CL41" s="51"/>
-      <c r="CM41" s="51"/>
-      <c r="CN41" s="51"/>
-      <c r="CO41" s="51"/>
-      <c r="CP41" s="51"/>
-      <c r="CQ41" s="51"/>
-      <c r="CR41" s="51"/>
-      <c r="CS41" s="51"/>
-      <c r="CT41" s="51"/>
-      <c r="CU41" s="51"/>
-      <c r="CV41" s="51"/>
-      <c r="CW41" s="51"/>
-      <c r="CX41" s="51"/>
-      <c r="CY41" s="51"/>
-      <c r="CZ41" s="51"/>
-      <c r="DA41" s="51"/>
-      <c r="DB41" s="51"/>
-      <c r="DC41" s="51"/>
-      <c r="DD41" s="51"/>
-      <c r="DE41" s="51"/>
-      <c r="DF41" s="51"/>
-      <c r="DG41" s="51"/>
-      <c r="DH41" s="51"/>
-      <c r="DI41" s="51"/>
-      <c r="DJ41" s="51"/>
-      <c r="DK41" s="51"/>
-      <c r="DL41" s="51"/>
-      <c r="DM41" s="51"/>
-      <c r="DN41" s="51"/>
-      <c r="DO41" s="51"/>
-      <c r="DP41" s="51"/>
-      <c r="DQ41" s="51"/>
-      <c r="DR41" s="51"/>
-      <c r="DS41" s="51"/>
-      <c r="DT41" s="51"/>
-      <c r="DU41" s="51"/>
-      <c r="DV41" s="51"/>
-      <c r="DW41" s="51"/>
-      <c r="DX41" s="51"/>
-      <c r="DY41" s="51"/>
-      <c r="DZ41" s="51"/>
-      <c r="EA41" s="51"/>
-      <c r="EB41" s="51"/>
-      <c r="EC41" s="51"/>
-      <c r="ED41" s="51"/>
-      <c r="EE41" s="51"/>
-      <c r="EF41" s="51"/>
-      <c r="EG41" s="51"/>
-      <c r="EH41" s="51"/>
-      <c r="EI41" s="51"/>
-      <c r="EJ41" s="51"/>
-      <c r="EK41" s="51"/>
-      <c r="EL41" s="51"/>
-      <c r="EM41" s="51"/>
-      <c r="EN41" s="51"/>
-      <c r="EO41" s="51"/>
-      <c r="EP41" s="51"/>
-      <c r="EQ41" s="51"/>
-      <c r="ER41" s="51"/>
-      <c r="ES41" s="51"/>
-      <c r="ET41" s="51"/>
-      <c r="EU41" s="51"/>
-      <c r="EV41" s="51"/>
-      <c r="EW41" s="51"/>
-      <c r="EX41" s="51"/>
-      <c r="EY41" s="51"/>
-      <c r="EZ41" s="51"/>
-      <c r="FA41" s="51"/>
-      <c r="FB41" s="51"/>
-      <c r="FC41" s="51"/>
-      <c r="FD41" s="51"/>
-      <c r="FE41" s="51"/>
-      <c r="FG41" s="55"/>
-      <c r="FH41" s="55"/>
-      <c r="FI41" s="55"/>
-      <c r="FJ41" s="55"/>
+      <c r="FG41" s="14"/>
+      <c r="FH41" s="14"/>
+      <c r="FI41" s="14"/>
       <c r="FK41" s="55"/>
       <c r="FL41" s="55"/>
       <c r="FM41" s="55"/>
@@ -30368,28 +30418,19 @@
       <c r="WY41" s="55"/>
       <c r="WZ41" s="55"/>
       <c r="XA41" s="55"/>
-      <c r="XB41" s="55"/>
-      <c r="XC41" s="55"/>
+      <c r="XB41" s="23"/>
       <c r="XD41" s="55"/>
-      <c r="XE41" s="55"/>
-      <c r="XF41" s="55"/>
       <c r="XG41" s="55"/>
       <c r="XH41" s="55"/>
-      <c r="XI41" s="55"/>
-      <c r="XJ41" s="55"/>
       <c r="XK41" s="55"/>
       <c r="XL41" s="55"/>
-      <c r="XM41" s="55"/>
       <c r="XN41" s="55"/>
       <c r="XO41" s="55"/>
       <c r="XP41" s="55"/>
       <c r="XQ41" s="55"/>
       <c r="XR41" s="55"/>
-      <c r="XS41" s="55"/>
-      <c r="XT41" s="55"/>
       <c r="XU41" s="55"/>
       <c r="XV41" s="55"/>
-      <c r="XW41" s="55"/>
       <c r="XX41" s="55"/>
       <c r="XY41" s="55"/>
       <c r="XZ41" s="55"/>
@@ -30446,174 +30487,173 @@
       <c r="ZY41" s="55"/>
       <c r="ZZ41" s="55"/>
     </row>
-    <row r="42" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>105</v>
+    <row r="42" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A42" s="51" t="s">
+        <v>103</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
-      <c r="AR42" s="3"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
-      <c r="AW42" s="3"/>
-      <c r="AX42" s="3"/>
-      <c r="AY42" s="3"/>
-      <c r="AZ42" s="3"/>
-      <c r="BA42" s="3"/>
-      <c r="BB42" s="3"/>
-      <c r="BC42" s="3"/>
-      <c r="BD42" s="3"/>
-      <c r="BE42" s="3"/>
-      <c r="BF42" s="3"/>
-      <c r="BG42" s="3"/>
-      <c r="BH42" s="3"/>
-      <c r="BI42" s="3"/>
-      <c r="BJ42" s="3"/>
-      <c r="BK42" s="3"/>
-      <c r="BL42" s="3"/>
-      <c r="BM42" s="3"/>
-      <c r="BN42" s="3"/>
-      <c r="BO42" s="3"/>
-      <c r="BP42" s="3"/>
-      <c r="BQ42" s="3"/>
-      <c r="BR42" s="3"/>
-      <c r="BS42" s="3"/>
-      <c r="BT42" s="3"/>
-      <c r="BU42" s="3"/>
-      <c r="BV42" s="3"/>
-      <c r="BW42" s="3"/>
-      <c r="BX42" s="3"/>
-      <c r="BY42" s="3"/>
-      <c r="BZ42" s="3"/>
-      <c r="CA42" s="3"/>
-      <c r="CB42" s="3"/>
-      <c r="CC42" s="3"/>
-      <c r="CD42" s="83"/>
-      <c r="CF42" s="3" t="s">
-        <v>106</v>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="51"/>
+      <c r="AQ42" s="51"/>
+      <c r="AR42" s="51"/>
+      <c r="AS42" s="51"/>
+      <c r="AT42" s="51"/>
+      <c r="AU42" s="51"/>
+      <c r="AV42" s="51"/>
+      <c r="AW42" s="51"/>
+      <c r="AX42" s="51"/>
+      <c r="AY42" s="51"/>
+      <c r="AZ42" s="51"/>
+      <c r="BA42" s="51"/>
+      <c r="BB42" s="51"/>
+      <c r="BC42" s="51"/>
+      <c r="BD42" s="51"/>
+      <c r="BE42" s="51"/>
+      <c r="BF42" s="51"/>
+      <c r="BG42" s="51"/>
+      <c r="BH42" s="51"/>
+      <c r="BI42" s="51"/>
+      <c r="BJ42" s="51"/>
+      <c r="BK42" s="51"/>
+      <c r="BL42" s="51"/>
+      <c r="BM42" s="51"/>
+      <c r="BN42" s="51"/>
+      <c r="BO42" s="51"/>
+      <c r="BP42" s="51"/>
+      <c r="BQ42" s="51"/>
+      <c r="BR42" s="51"/>
+      <c r="BS42" s="51"/>
+      <c r="BT42" s="51"/>
+      <c r="BU42" s="51"/>
+      <c r="BV42" s="51"/>
+      <c r="BW42" s="51"/>
+      <c r="BX42" s="51"/>
+      <c r="BY42" s="51"/>
+      <c r="BZ42" s="51"/>
+      <c r="CB42" s="55"/>
+      <c r="CC42" s="55"/>
+      <c r="CD42" s="2"/>
+      <c r="CF42" s="51" t="s">
+        <v>104</v>
       </c>
-      <c r="CG42" s="3"/>
-      <c r="CH42" s="3"/>
-      <c r="CI42" s="3"/>
-      <c r="CJ42" s="3"/>
-      <c r="CK42" s="3"/>
-      <c r="CL42" s="3"/>
-      <c r="CM42" s="3"/>
-      <c r="CN42" s="3"/>
-      <c r="CO42" s="3"/>
-      <c r="CP42" s="3"/>
-      <c r="CQ42" s="3"/>
-      <c r="CR42" s="3"/>
-      <c r="CS42" s="3"/>
-      <c r="CT42" s="3"/>
-      <c r="CU42" s="3"/>
-      <c r="CV42" s="3"/>
-      <c r="CW42" s="3"/>
-      <c r="CX42" s="3"/>
-      <c r="CY42" s="3"/>
-      <c r="CZ42" s="3"/>
-      <c r="DA42" s="3"/>
-      <c r="DB42" s="3"/>
-      <c r="DC42" s="3"/>
-      <c r="DD42" s="3"/>
-      <c r="DE42" s="3"/>
-      <c r="DF42" s="3"/>
-      <c r="DG42" s="3"/>
-      <c r="DH42" s="3"/>
-      <c r="DI42" s="3"/>
-      <c r="DJ42" s="3"/>
-      <c r="DK42" s="3"/>
-      <c r="DL42" s="3"/>
-      <c r="DM42" s="3"/>
-      <c r="DN42" s="3"/>
-      <c r="DO42" s="3"/>
-      <c r="DP42" s="3"/>
-      <c r="DQ42" s="3"/>
-      <c r="DR42" s="3"/>
-      <c r="DS42" s="3"/>
-      <c r="DT42" s="3"/>
-      <c r="DU42" s="3"/>
-      <c r="DV42" s="3"/>
-      <c r="DW42" s="3"/>
-      <c r="DX42" s="3"/>
-      <c r="DY42" s="3"/>
-      <c r="DZ42" s="3"/>
-      <c r="EA42" s="3"/>
-      <c r="EB42" s="3"/>
-      <c r="EC42" s="3"/>
-      <c r="ED42" s="3"/>
-      <c r="EE42" s="3"/>
-      <c r="EF42" s="3"/>
-      <c r="EG42" s="3"/>
-      <c r="EH42" s="3"/>
-      <c r="EI42" s="3"/>
-      <c r="EJ42" s="3"/>
-      <c r="EK42" s="3"/>
-      <c r="EL42" s="3"/>
-      <c r="EM42" s="3"/>
-      <c r="EN42" s="3"/>
-      <c r="EO42" s="3"/>
-      <c r="EP42" s="3"/>
-      <c r="EQ42" s="3"/>
-      <c r="ER42" s="3"/>
-      <c r="ES42" s="3"/>
-      <c r="ET42" s="3"/>
-      <c r="EU42" s="3"/>
-      <c r="EV42" s="3"/>
-      <c r="EW42" s="3"/>
-      <c r="EX42" s="3"/>
-      <c r="EY42" s="3"/>
-      <c r="EZ42" s="3"/>
-      <c r="FA42" s="3"/>
-      <c r="FB42" s="3"/>
-      <c r="FC42" s="3"/>
-      <c r="FD42" s="3"/>
-      <c r="FE42" s="3"/>
-      <c r="FF42" s="3"/>
-      <c r="FG42" s="3"/>
-      <c r="FH42" s="3"/>
+      <c r="CG42" s="51"/>
+      <c r="CH42" s="51"/>
+      <c r="CI42" s="51"/>
+      <c r="CJ42" s="51"/>
+      <c r="CK42" s="51"/>
+      <c r="CL42" s="51"/>
+      <c r="CM42" s="51"/>
+      <c r="CN42" s="51"/>
+      <c r="CO42" s="51"/>
+      <c r="CP42" s="51"/>
+      <c r="CQ42" s="51"/>
+      <c r="CR42" s="51"/>
+      <c r="CS42" s="51"/>
+      <c r="CT42" s="51"/>
+      <c r="CU42" s="51"/>
+      <c r="CV42" s="51"/>
+      <c r="CW42" s="51"/>
+      <c r="CX42" s="51"/>
+      <c r="CY42" s="51"/>
+      <c r="CZ42" s="51"/>
+      <c r="DA42" s="51"/>
+      <c r="DB42" s="51"/>
+      <c r="DC42" s="51"/>
+      <c r="DD42" s="51"/>
+      <c r="DE42" s="51"/>
+      <c r="DF42" s="51"/>
+      <c r="DG42" s="51"/>
+      <c r="DH42" s="51"/>
+      <c r="DI42" s="51"/>
+      <c r="DJ42" s="51"/>
+      <c r="DK42" s="51"/>
+      <c r="DL42" s="51"/>
+      <c r="DM42" s="51"/>
+      <c r="DN42" s="51"/>
+      <c r="DO42" s="51"/>
+      <c r="DP42" s="51"/>
+      <c r="DQ42" s="51"/>
+      <c r="DR42" s="51"/>
+      <c r="DS42" s="51"/>
+      <c r="DT42" s="51"/>
+      <c r="DU42" s="51"/>
+      <c r="DV42" s="51"/>
+      <c r="DW42" s="51"/>
+      <c r="DX42" s="51"/>
+      <c r="DY42" s="51"/>
+      <c r="DZ42" s="51"/>
+      <c r="EA42" s="51"/>
+      <c r="EB42" s="51"/>
+      <c r="EC42" s="51"/>
+      <c r="ED42" s="51"/>
+      <c r="EE42" s="51"/>
+      <c r="EF42" s="51"/>
+      <c r="EG42" s="51"/>
+      <c r="EH42" s="51"/>
+      <c r="EI42" s="51"/>
+      <c r="EJ42" s="51"/>
+      <c r="EK42" s="51"/>
+      <c r="EL42" s="51"/>
+      <c r="EM42" s="51"/>
+      <c r="EN42" s="51"/>
+      <c r="EO42" s="51"/>
+      <c r="EP42" s="51"/>
+      <c r="EQ42" s="51"/>
+      <c r="ER42" s="51"/>
+      <c r="ES42" s="51"/>
+      <c r="ET42" s="51"/>
+      <c r="EU42" s="51"/>
+      <c r="EV42" s="51"/>
+      <c r="EW42" s="51"/>
+      <c r="EX42" s="51"/>
+      <c r="EY42" s="51"/>
+      <c r="EZ42" s="51"/>
+      <c r="FA42" s="51"/>
+      <c r="FB42" s="51"/>
+      <c r="FC42" s="51"/>
+      <c r="FD42" s="51"/>
+      <c r="FE42" s="51"/>
+      <c r="FG42" s="55"/>
+      <c r="FH42" s="55"/>
+      <c r="FI42" s="55"/>
       <c r="FJ42" s="55"/>
       <c r="FK42" s="55"/>
       <c r="FL42" s="55"/>
@@ -31153,178 +31193,174 @@
       <c r="ZZ42" s="55"/>
     </row>
     <row r="43" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A43" s="79" t="s">
-        <v>85</v>
+      <c r="A43" s="3" t="s">
+        <v>105</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="79"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="79"/>
-      <c r="V43" s="79"/>
-      <c r="W43" s="79"/>
-      <c r="X43" s="79"/>
-      <c r="Y43" s="79"/>
-      <c r="Z43" s="79"/>
-      <c r="AA43" s="79"/>
-      <c r="AB43" s="79"/>
-      <c r="AD43" s="78"/>
-      <c r="AE43" s="78"/>
-      <c r="AF43" s="78"/>
-      <c r="AG43" s="78"/>
-      <c r="AH43" s="78"/>
-      <c r="AI43" s="78"/>
-      <c r="AJ43" s="78"/>
-      <c r="AK43" s="78"/>
-      <c r="AL43" s="78"/>
-      <c r="AM43" s="78"/>
-      <c r="AN43" s="78"/>
-      <c r="AO43" s="78"/>
-      <c r="AP43" s="78"/>
-      <c r="AQ43" s="78"/>
-      <c r="AR43" s="78"/>
-      <c r="AS43" s="78"/>
-      <c r="AT43" s="78"/>
-      <c r="AU43" s="78"/>
-      <c r="AV43" s="78"/>
-      <c r="AW43" s="78"/>
-      <c r="AX43" s="78"/>
-      <c r="AZ43" s="79" t="s">
-        <v>67</v>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="3"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
+      <c r="BO43" s="3"/>
+      <c r="BP43" s="3"/>
+      <c r="BQ43" s="3"/>
+      <c r="BR43" s="3"/>
+      <c r="BS43" s="3"/>
+      <c r="BT43" s="3"/>
+      <c r="BU43" s="3"/>
+      <c r="BV43" s="3"/>
+      <c r="BW43" s="3"/>
+      <c r="BX43" s="3"/>
+      <c r="BY43" s="3"/>
+      <c r="BZ43" s="3"/>
+      <c r="CA43" s="3"/>
+      <c r="CB43" s="3"/>
+      <c r="CC43" s="3"/>
+      <c r="CD43" s="83"/>
+      <c r="CF43" s="3" t="s">
+        <v>106</v>
       </c>
-      <c r="BA43" s="79"/>
-      <c r="BB43" s="79"/>
-      <c r="BC43" s="79"/>
-      <c r="BD43" s="79"/>
-      <c r="BE43" s="79"/>
-      <c r="BF43" s="79"/>
-      <c r="BG43" s="79"/>
-      <c r="BH43" s="79"/>
-      <c r="BI43" s="79"/>
-      <c r="BJ43" s="79"/>
-      <c r="BK43" s="79"/>
-      <c r="BL43" s="79"/>
-      <c r="BM43" s="79"/>
-      <c r="BN43" s="79"/>
-      <c r="BO43" s="79"/>
-      <c r="BP43" s="79"/>
-      <c r="BQ43" s="79"/>
-      <c r="BR43" s="79"/>
-      <c r="BS43" s="79"/>
-      <c r="BT43" s="79"/>
-      <c r="BU43" s="79"/>
-      <c r="BV43" s="79"/>
-      <c r="BW43" s="79"/>
-      <c r="BX43" s="79"/>
-      <c r="BY43" s="79"/>
-      <c r="BZ43" s="79"/>
-      <c r="CA43" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB43" s="81"/>
-      <c r="CC43" s="81"/>
-      <c r="CD43" s="81"/>
-      <c r="CF43" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="CG43" s="79"/>
-      <c r="CH43" s="79"/>
-      <c r="CI43" s="79"/>
-      <c r="CJ43" s="79"/>
-      <c r="CK43" s="79"/>
-      <c r="CL43" s="79"/>
-      <c r="CM43" s="79"/>
-      <c r="CN43" s="79"/>
-      <c r="CO43" s="79"/>
-      <c r="CP43" s="79"/>
-      <c r="CQ43" s="79"/>
-      <c r="CR43" s="79"/>
-      <c r="CS43" s="79"/>
-      <c r="CT43" s="79"/>
-      <c r="CU43" s="79"/>
-      <c r="CV43" s="79"/>
-      <c r="CW43" s="79"/>
-      <c r="CX43" s="79"/>
-      <c r="CY43" s="79"/>
-      <c r="CZ43" s="79"/>
-      <c r="DA43" s="79"/>
-      <c r="DB43" s="79"/>
-      <c r="DC43" s="79"/>
-      <c r="DD43" s="79"/>
-      <c r="DE43" s="79"/>
-      <c r="DF43" s="79"/>
-      <c r="DG43" s="79"/>
-      <c r="DI43" s="78"/>
-      <c r="DJ43" s="78"/>
-      <c r="DK43" s="78"/>
-      <c r="DL43" s="78"/>
-      <c r="DM43" s="78"/>
-      <c r="DN43" s="78"/>
-      <c r="DO43" s="78"/>
-      <c r="DP43" s="78"/>
-      <c r="DQ43" s="78"/>
-      <c r="DR43" s="78"/>
-      <c r="DS43" s="78"/>
-      <c r="DT43" s="78"/>
-      <c r="DU43" s="78"/>
-      <c r="DV43" s="78"/>
-      <c r="DW43" s="78"/>
-      <c r="DX43" s="78"/>
-      <c r="DY43" s="78"/>
-      <c r="DZ43" s="78"/>
-      <c r="EA43" s="78"/>
-      <c r="EB43" s="78"/>
-      <c r="EC43" s="78"/>
-      <c r="EE43" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="EF43" s="79"/>
-      <c r="EG43" s="79"/>
-      <c r="EH43" s="79"/>
-      <c r="EI43" s="79"/>
-      <c r="EJ43" s="79"/>
-      <c r="EK43" s="79"/>
-      <c r="EL43" s="79"/>
-      <c r="EM43" s="79"/>
-      <c r="EN43" s="79"/>
-      <c r="EO43" s="79"/>
-      <c r="EP43" s="79"/>
-      <c r="EQ43" s="79"/>
-      <c r="ER43" s="79"/>
-      <c r="ES43" s="79"/>
-      <c r="ET43" s="79"/>
-      <c r="EU43" s="79"/>
-      <c r="EV43" s="79"/>
-      <c r="EW43" s="79"/>
-      <c r="EX43" s="79"/>
-      <c r="EY43" s="79"/>
-      <c r="EZ43" s="79"/>
-      <c r="FA43" s="79"/>
-      <c r="FB43" s="79"/>
-      <c r="FC43" s="79"/>
-      <c r="FD43" s="79"/>
-      <c r="FE43" s="79"/>
-      <c r="FF43" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="FG43" s="14"/>
-      <c r="FH43" s="14"/>
-      <c r="FI43" s="14"/>
+      <c r="CG43" s="3"/>
+      <c r="CH43" s="3"/>
+      <c r="CI43" s="3"/>
+      <c r="CJ43" s="3"/>
+      <c r="CK43" s="3"/>
+      <c r="CL43" s="3"/>
+      <c r="CM43" s="3"/>
+      <c r="CN43" s="3"/>
+      <c r="CO43" s="3"/>
+      <c r="CP43" s="3"/>
+      <c r="CQ43" s="3"/>
+      <c r="CR43" s="3"/>
+      <c r="CS43" s="3"/>
+      <c r="CT43" s="3"/>
+      <c r="CU43" s="3"/>
+      <c r="CV43" s="3"/>
+      <c r="CW43" s="3"/>
+      <c r="CX43" s="3"/>
+      <c r="CY43" s="3"/>
+      <c r="CZ43" s="3"/>
+      <c r="DA43" s="3"/>
+      <c r="DB43" s="3"/>
+      <c r="DC43" s="3"/>
+      <c r="DD43" s="3"/>
+      <c r="DE43" s="3"/>
+      <c r="DF43" s="3"/>
+      <c r="DG43" s="3"/>
+      <c r="DH43" s="3"/>
+      <c r="DI43" s="3"/>
+      <c r="DJ43" s="3"/>
+      <c r="DK43" s="3"/>
+      <c r="DL43" s="3"/>
+      <c r="DM43" s="3"/>
+      <c r="DN43" s="3"/>
+      <c r="DO43" s="3"/>
+      <c r="DP43" s="3"/>
+      <c r="DQ43" s="3"/>
+      <c r="DR43" s="3"/>
+      <c r="DS43" s="3"/>
+      <c r="DT43" s="3"/>
+      <c r="DU43" s="3"/>
+      <c r="DV43" s="3"/>
+      <c r="DW43" s="3"/>
+      <c r="DX43" s="3"/>
+      <c r="DY43" s="3"/>
+      <c r="DZ43" s="3"/>
+      <c r="EA43" s="3"/>
+      <c r="EB43" s="3"/>
+      <c r="EC43" s="3"/>
+      <c r="ED43" s="3"/>
+      <c r="EE43" s="3"/>
+      <c r="EF43" s="3"/>
+      <c r="EG43" s="3"/>
+      <c r="EH43" s="3"/>
+      <c r="EI43" s="3"/>
+      <c r="EJ43" s="3"/>
+      <c r="EK43" s="3"/>
+      <c r="EL43" s="3"/>
+      <c r="EM43" s="3"/>
+      <c r="EN43" s="3"/>
+      <c r="EO43" s="3"/>
+      <c r="EP43" s="3"/>
+      <c r="EQ43" s="3"/>
+      <c r="ER43" s="3"/>
+      <c r="ES43" s="3"/>
+      <c r="ET43" s="3"/>
+      <c r="EU43" s="3"/>
+      <c r="EV43" s="3"/>
+      <c r="EW43" s="3"/>
+      <c r="EX43" s="3"/>
+      <c r="EY43" s="3"/>
+      <c r="EZ43" s="3"/>
+      <c r="FA43" s="3"/>
+      <c r="FB43" s="3"/>
+      <c r="FC43" s="3"/>
+      <c r="FD43" s="3"/>
+      <c r="FE43" s="3"/>
+      <c r="FF43" s="3"/>
+      <c r="FG43" s="3"/>
+      <c r="FH43" s="3"/>
+      <c r="FJ43" s="55"/>
       <c r="FK43" s="55"/>
       <c r="FL43" s="55"/>
       <c r="FM43" s="55"/>
@@ -31791,23 +31827,20 @@
       <c r="XF43" s="55"/>
       <c r="XG43" s="55"/>
       <c r="XH43" s="55"/>
-      <c r="XI43" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="XI43" s="55"/>
+      <c r="XJ43" s="55"/>
       <c r="XK43" s="55"/>
       <c r="XL43" s="55"/>
-      <c r="XM43" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="XN43" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="XM43" s="55"/>
+      <c r="XN43" s="55"/>
+      <c r="XO43" s="55"/>
       <c r="XP43" s="55"/>
       <c r="XQ43" s="55"/>
       <c r="XR43" s="55"/>
-      <c r="XU43" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="XS43" s="55"/>
+      <c r="XT43" s="55"/>
+      <c r="XU43" s="55"/>
+      <c r="XV43" s="55"/>
       <c r="XW43" s="55"/>
       <c r="XX43" s="55"/>
       <c r="XY43" s="55"/>
@@ -31865,178 +31898,179 @@
       <c r="ZY43" s="55"/>
       <c r="ZZ43" s="55"/>
     </row>
-    <row r="44" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A44" s="51" t="s">
-        <v>90</v>
+    <row r="44" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A44" s="79" t="s">
+        <v>85</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="51"/>
-      <c r="AD44" s="51" t="s">
-        <v>70</v>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="79"/>
+      <c r="U44" s="79"/>
+      <c r="V44" s="79"/>
+      <c r="W44" s="79"/>
+      <c r="X44" s="79"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="79"/>
+      <c r="AA44" s="79"/>
+      <c r="AB44" s="79"/>
+      <c r="AD44" s="78"/>
+      <c r="AE44" s="78"/>
+      <c r="AF44" s="78"/>
+      <c r="AG44" s="78"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="78"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="78"/>
+      <c r="AQ44" s="78"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="78"/>
+      <c r="AT44" s="78"/>
+      <c r="AU44" s="78"/>
+      <c r="AV44" s="78"/>
+      <c r="AW44" s="78"/>
+      <c r="AX44" s="78"/>
+      <c r="AZ44" s="79" t="s">
+        <v>67</v>
       </c>
-      <c r="AE44" s="51"/>
-      <c r="AF44" s="51"/>
-      <c r="AG44" s="51"/>
-      <c r="AH44" s="51"/>
-      <c r="AI44" s="51"/>
-      <c r="AJ44" s="51"/>
-      <c r="AK44" s="51"/>
-      <c r="AL44" s="51"/>
-      <c r="AM44" s="51"/>
-      <c r="AN44" s="51"/>
-      <c r="AO44" s="51"/>
-      <c r="AP44" s="51"/>
-      <c r="AQ44" s="51"/>
-      <c r="AR44" s="51"/>
-      <c r="AS44" s="51"/>
-      <c r="AT44" s="51"/>
-      <c r="AU44" s="51"/>
-      <c r="AV44" s="51"/>
-      <c r="AW44" s="51"/>
-      <c r="AX44" s="51"/>
-      <c r="AZ44" s="51" t="s">
-        <v>91</v>
+      <c r="BA44" s="79"/>
+      <c r="BB44" s="79"/>
+      <c r="BC44" s="79"/>
+      <c r="BD44" s="79"/>
+      <c r="BE44" s="79"/>
+      <c r="BF44" s="79"/>
+      <c r="BG44" s="79"/>
+      <c r="BH44" s="79"/>
+      <c r="BI44" s="79"/>
+      <c r="BJ44" s="79"/>
+      <c r="BK44" s="79"/>
+      <c r="BL44" s="79"/>
+      <c r="BM44" s="79"/>
+      <c r="BN44" s="79"/>
+      <c r="BO44" s="79"/>
+      <c r="BP44" s="79"/>
+      <c r="BQ44" s="79"/>
+      <c r="BR44" s="79"/>
+      <c r="BS44" s="79"/>
+      <c r="BT44" s="79"/>
+      <c r="BU44" s="79"/>
+      <c r="BV44" s="79"/>
+      <c r="BW44" s="79"/>
+      <c r="BX44" s="79"/>
+      <c r="BY44" s="79"/>
+      <c r="BZ44" s="79"/>
+      <c r="CA44" s="81" t="s">
+        <v>107</v>
       </c>
-      <c r="BA44" s="51"/>
-      <c r="BB44" s="51"/>
-      <c r="BC44" s="51"/>
-      <c r="BD44" s="51"/>
-      <c r="BE44" s="51"/>
-      <c r="BF44" s="51"/>
-      <c r="BG44" s="51"/>
-      <c r="BH44" s="51"/>
-      <c r="BI44" s="51"/>
-      <c r="BJ44" s="51"/>
-      <c r="BK44" s="51"/>
-      <c r="BL44" s="51"/>
-      <c r="BM44" s="51"/>
-      <c r="BN44" s="51"/>
-      <c r="BO44" s="51"/>
-      <c r="BP44" s="51"/>
-      <c r="BQ44" s="51"/>
-      <c r="BR44" s="51"/>
-      <c r="BS44" s="51"/>
-      <c r="BT44" s="51"/>
-      <c r="BU44" s="51"/>
-      <c r="BV44" s="51"/>
-      <c r="BW44" s="51"/>
-      <c r="BX44" s="51"/>
-      <c r="BY44" s="51"/>
-      <c r="BZ44" s="51"/>
-      <c r="CB44" s="55"/>
-      <c r="CC44" s="55"/>
-      <c r="CD44" s="2"/>
-      <c r="CF44" s="51" t="s">
-        <v>90</v>
+      <c r="CB44" s="81"/>
+      <c r="CC44" s="81"/>
+      <c r="CD44" s="81"/>
+      <c r="CF44" s="79" t="s">
+        <v>87</v>
       </c>
-      <c r="CG44" s="51"/>
-      <c r="CH44" s="51"/>
-      <c r="CI44" s="51"/>
-      <c r="CJ44" s="51"/>
-      <c r="CK44" s="51"/>
-      <c r="CL44" s="51"/>
-      <c r="CM44" s="51"/>
-      <c r="CN44" s="51"/>
-      <c r="CO44" s="51"/>
-      <c r="CP44" s="51"/>
-      <c r="CQ44" s="51"/>
-      <c r="CR44" s="51"/>
-      <c r="CS44" s="51"/>
-      <c r="CT44" s="51"/>
-      <c r="CU44" s="51"/>
-      <c r="CV44" s="51"/>
-      <c r="CW44" s="51"/>
-      <c r="CX44" s="51"/>
-      <c r="CY44" s="51"/>
-      <c r="CZ44" s="51"/>
-      <c r="DA44" s="51"/>
-      <c r="DB44" s="51"/>
-      <c r="DC44" s="51"/>
-      <c r="DD44" s="51"/>
-      <c r="DE44" s="51"/>
-      <c r="DF44" s="51"/>
-      <c r="DG44" s="51"/>
-      <c r="DI44" s="51" t="s">
-        <v>70</v>
+      <c r="CG44" s="79"/>
+      <c r="CH44" s="79"/>
+      <c r="CI44" s="79"/>
+      <c r="CJ44" s="79"/>
+      <c r="CK44" s="79"/>
+      <c r="CL44" s="79"/>
+      <c r="CM44" s="79"/>
+      <c r="CN44" s="79"/>
+      <c r="CO44" s="79"/>
+      <c r="CP44" s="79"/>
+      <c r="CQ44" s="79"/>
+      <c r="CR44" s="79"/>
+      <c r="CS44" s="79"/>
+      <c r="CT44" s="79"/>
+      <c r="CU44" s="79"/>
+      <c r="CV44" s="79"/>
+      <c r="CW44" s="79"/>
+      <c r="CX44" s="79"/>
+      <c r="CY44" s="79"/>
+      <c r="CZ44" s="79"/>
+      <c r="DA44" s="79"/>
+      <c r="DB44" s="79"/>
+      <c r="DC44" s="79"/>
+      <c r="DD44" s="79"/>
+      <c r="DE44" s="79"/>
+      <c r="DF44" s="79"/>
+      <c r="DG44" s="79"/>
+      <c r="DI44" s="78"/>
+      <c r="DJ44" s="78"/>
+      <c r="DK44" s="78"/>
+      <c r="DL44" s="78"/>
+      <c r="DM44" s="78"/>
+      <c r="DN44" s="78"/>
+      <c r="DO44" s="78"/>
+      <c r="DP44" s="78"/>
+      <c r="DQ44" s="78"/>
+      <c r="DR44" s="78"/>
+      <c r="DS44" s="78"/>
+      <c r="DT44" s="78"/>
+      <c r="DU44" s="78"/>
+      <c r="DV44" s="78"/>
+      <c r="DW44" s="78"/>
+      <c r="DX44" s="78"/>
+      <c r="DY44" s="78"/>
+      <c r="DZ44" s="78"/>
+      <c r="EA44" s="78"/>
+      <c r="EB44" s="78"/>
+      <c r="EC44" s="78"/>
+      <c r="EE44" s="79" t="s">
+        <v>88</v>
       </c>
-      <c r="DJ44" s="51"/>
-      <c r="DK44" s="51"/>
-      <c r="DL44" s="51"/>
-      <c r="DM44" s="51"/>
-      <c r="DN44" s="51"/>
-      <c r="DO44" s="51"/>
-      <c r="DP44" s="51"/>
-      <c r="DQ44" s="51"/>
-      <c r="DR44" s="51"/>
-      <c r="DS44" s="51"/>
-      <c r="DT44" s="51"/>
-      <c r="DU44" s="51"/>
-      <c r="DV44" s="51"/>
-      <c r="DW44" s="51"/>
-      <c r="DX44" s="51"/>
-      <c r="DY44" s="51"/>
-      <c r="DZ44" s="51"/>
-      <c r="EA44" s="51"/>
-      <c r="EB44" s="51"/>
-      <c r="EC44" s="51"/>
-      <c r="EE44" s="51" t="s">
-        <v>91</v>
+      <c r="EF44" s="79"/>
+      <c r="EG44" s="79"/>
+      <c r="EH44" s="79"/>
+      <c r="EI44" s="79"/>
+      <c r="EJ44" s="79"/>
+      <c r="EK44" s="79"/>
+      <c r="EL44" s="79"/>
+      <c r="EM44" s="79"/>
+      <c r="EN44" s="79"/>
+      <c r="EO44" s="79"/>
+      <c r="EP44" s="79"/>
+      <c r="EQ44" s="79"/>
+      <c r="ER44" s="79"/>
+      <c r="ES44" s="79"/>
+      <c r="ET44" s="79"/>
+      <c r="EU44" s="79"/>
+      <c r="EV44" s="79"/>
+      <c r="EW44" s="79"/>
+      <c r="EX44" s="79"/>
+      <c r="EY44" s="79"/>
+      <c r="EZ44" s="79"/>
+      <c r="FA44" s="79"/>
+      <c r="FB44" s="79"/>
+      <c r="FC44" s="79"/>
+      <c r="FD44" s="79"/>
+      <c r="FE44" s="79"/>
+      <c r="FF44" s="14" t="s">
+        <v>108</v>
       </c>
-      <c r="EF44" s="51"/>
-      <c r="EG44" s="51"/>
-      <c r="EH44" s="51"/>
-      <c r="EI44" s="51"/>
-      <c r="EJ44" s="51"/>
-      <c r="EK44" s="51"/>
-      <c r="EL44" s="51"/>
-      <c r="EM44" s="51"/>
-      <c r="EN44" s="51"/>
-      <c r="EO44" s="51"/>
-      <c r="EP44" s="51"/>
-      <c r="EQ44" s="51"/>
-      <c r="ER44" s="51"/>
-      <c r="ES44" s="51"/>
-      <c r="ET44" s="51"/>
-      <c r="EU44" s="51"/>
-      <c r="EV44" s="51"/>
-      <c r="EW44" s="51"/>
-      <c r="EX44" s="51"/>
-      <c r="EY44" s="51"/>
-      <c r="EZ44" s="51"/>
-      <c r="FA44" s="51"/>
-      <c r="FB44" s="51"/>
-      <c r="FC44" s="51"/>
-      <c r="FD44" s="51"/>
-      <c r="FE44" s="51"/>
-      <c r="FG44" s="55"/>
-      <c r="FH44" s="55"/>
-      <c r="FI44" s="55"/>
-      <c r="FJ44" s="55"/>
+      <c r="FG44" s="14"/>
+      <c r="FH44" s="14"/>
+      <c r="FI44" s="14"/>
       <c r="FK44" s="55"/>
       <c r="FL44" s="55"/>
       <c r="FM44" s="55"/>
@@ -32503,20 +32537,23 @@
       <c r="XF44" s="55"/>
       <c r="XG44" s="55"/>
       <c r="XH44" s="55"/>
-      <c r="XI44" s="55"/>
-      <c r="XJ44" s="55"/>
+      <c r="XI44" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="XK44" s="55"/>
       <c r="XL44" s="55"/>
-      <c r="XM44" s="55"/>
-      <c r="XN44" s="55"/>
-      <c r="XO44" s="55"/>
+      <c r="XM44" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="XN44" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="XP44" s="55"/>
       <c r="XQ44" s="55"/>
       <c r="XR44" s="55"/>
-      <c r="XS44" s="55"/>
-      <c r="XT44" s="55"/>
-      <c r="XU44" s="55"/>
-      <c r="XV44" s="55"/>
+      <c r="XU44" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="XW44" s="55"/>
       <c r="XX44" s="55"/>
       <c r="XY44" s="55"/>
@@ -32574,174 +32611,177 @@
       <c r="ZY44" s="55"/>
       <c r="ZZ44" s="55"/>
     </row>
-    <row r="45" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>109</v>
+    <row r="45" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A45" s="51" t="s">
+        <v>90</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="6"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="6"/>
-      <c r="AR45" s="6"/>
-      <c r="AS45" s="6"/>
-      <c r="AT45" s="6"/>
-      <c r="AU45" s="6"/>
-      <c r="AV45" s="6"/>
-      <c r="AW45" s="6"/>
-      <c r="AX45" s="6"/>
-      <c r="AY45" s="6"/>
-      <c r="AZ45" s="6"/>
-      <c r="BA45" s="6"/>
-      <c r="BB45" s="6"/>
-      <c r="BC45" s="6"/>
-      <c r="BD45" s="6"/>
-      <c r="BE45" s="6"/>
-      <c r="BF45" s="6"/>
-      <c r="BG45" s="6"/>
-      <c r="BH45" s="6"/>
-      <c r="BI45" s="6"/>
-      <c r="BJ45" s="6"/>
-      <c r="BK45" s="6"/>
-      <c r="BL45" s="6"/>
-      <c r="BM45" s="6"/>
-      <c r="BN45" s="6"/>
-      <c r="BO45" s="6"/>
-      <c r="BP45" s="6"/>
-      <c r="BQ45" s="6"/>
-      <c r="BR45" s="6"/>
-      <c r="BS45" s="6"/>
-      <c r="BT45" s="6"/>
-      <c r="BU45" s="6"/>
-      <c r="BV45" s="6"/>
-      <c r="BW45" s="6"/>
-      <c r="BX45" s="6"/>
-      <c r="BY45" s="6"/>
-      <c r="BZ45" s="6"/>
-      <c r="CA45" s="6"/>
-      <c r="CB45" s="6"/>
-      <c r="CC45" s="6"/>
-      <c r="CD45" s="83"/>
-      <c r="CF45" s="6" t="s">
-        <v>110</v>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
+      <c r="AD45" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="CG45" s="6"/>
-      <c r="CH45" s="6"/>
-      <c r="CI45" s="6"/>
-      <c r="CJ45" s="6"/>
-      <c r="CK45" s="6"/>
-      <c r="CL45" s="6"/>
-      <c r="CM45" s="6"/>
-      <c r="CN45" s="6"/>
-      <c r="CO45" s="6"/>
-      <c r="CP45" s="6"/>
-      <c r="CQ45" s="6"/>
-      <c r="CR45" s="6"/>
-      <c r="CS45" s="6"/>
-      <c r="CT45" s="6"/>
-      <c r="CU45" s="6"/>
-      <c r="CV45" s="6"/>
-      <c r="CW45" s="6"/>
-      <c r="CX45" s="6"/>
-      <c r="CY45" s="6"/>
-      <c r="CZ45" s="6"/>
-      <c r="DA45" s="6"/>
-      <c r="DB45" s="6"/>
-      <c r="DC45" s="6"/>
-      <c r="DD45" s="6"/>
-      <c r="DE45" s="6"/>
-      <c r="DF45" s="6"/>
-      <c r="DG45" s="6"/>
-      <c r="DH45" s="6"/>
-      <c r="DI45" s="6"/>
-      <c r="DJ45" s="6"/>
-      <c r="DK45" s="6"/>
-      <c r="DL45" s="6"/>
-      <c r="DM45" s="6"/>
-      <c r="DN45" s="6"/>
-      <c r="DO45" s="6"/>
-      <c r="DP45" s="6"/>
-      <c r="DQ45" s="6"/>
-      <c r="DR45" s="6"/>
-      <c r="DS45" s="6"/>
-      <c r="DT45" s="6"/>
-      <c r="DU45" s="6"/>
-      <c r="DV45" s="6"/>
-      <c r="DW45" s="6"/>
-      <c r="DX45" s="6"/>
-      <c r="DY45" s="6"/>
-      <c r="DZ45" s="6"/>
-      <c r="EA45" s="6"/>
-      <c r="EB45" s="6"/>
-      <c r="EC45" s="6"/>
-      <c r="ED45" s="6"/>
-      <c r="EE45" s="6"/>
-      <c r="EF45" s="6"/>
-      <c r="EG45" s="6"/>
-      <c r="EH45" s="6"/>
-      <c r="EI45" s="6"/>
-      <c r="EJ45" s="6"/>
-      <c r="EK45" s="6"/>
-      <c r="EL45" s="6"/>
-      <c r="EM45" s="6"/>
-      <c r="EN45" s="6"/>
-      <c r="EO45" s="6"/>
-      <c r="EP45" s="6"/>
-      <c r="EQ45" s="6"/>
-      <c r="ER45" s="6"/>
-      <c r="ES45" s="6"/>
-      <c r="ET45" s="6"/>
-      <c r="EU45" s="6"/>
-      <c r="EV45" s="6"/>
-      <c r="EW45" s="6"/>
-      <c r="EX45" s="6"/>
-      <c r="EY45" s="6"/>
-      <c r="EZ45" s="6"/>
-      <c r="FA45" s="6"/>
-      <c r="FB45" s="6"/>
-      <c r="FC45" s="6"/>
-      <c r="FD45" s="6"/>
-      <c r="FE45" s="6"/>
-      <c r="FF45" s="6"/>
-      <c r="FG45" s="6"/>
-      <c r="FH45" s="6"/>
+      <c r="AE45" s="51"/>
+      <c r="AF45" s="51"/>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="51"/>
+      <c r="AJ45" s="51"/>
+      <c r="AK45" s="51"/>
+      <c r="AL45" s="51"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="51"/>
+      <c r="AO45" s="51"/>
+      <c r="AP45" s="51"/>
+      <c r="AQ45" s="51"/>
+      <c r="AR45" s="51"/>
+      <c r="AS45" s="51"/>
+      <c r="AT45" s="51"/>
+      <c r="AU45" s="51"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AZ45" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA45" s="51"/>
+      <c r="BB45" s="51"/>
+      <c r="BC45" s="51"/>
+      <c r="BD45" s="51"/>
+      <c r="BE45" s="51"/>
+      <c r="BF45" s="51"/>
+      <c r="BG45" s="51"/>
+      <c r="BH45" s="51"/>
+      <c r="BI45" s="51"/>
+      <c r="BJ45" s="51"/>
+      <c r="BK45" s="51"/>
+      <c r="BL45" s="51"/>
+      <c r="BM45" s="51"/>
+      <c r="BN45" s="51"/>
+      <c r="BO45" s="51"/>
+      <c r="BP45" s="51"/>
+      <c r="BQ45" s="51"/>
+      <c r="BR45" s="51"/>
+      <c r="BS45" s="51"/>
+      <c r="BT45" s="51"/>
+      <c r="BU45" s="51"/>
+      <c r="BV45" s="51"/>
+      <c r="BW45" s="51"/>
+      <c r="BX45" s="51"/>
+      <c r="BY45" s="51"/>
+      <c r="BZ45" s="51"/>
+      <c r="CB45" s="55"/>
+      <c r="CC45" s="55"/>
+      <c r="CD45" s="2"/>
+      <c r="CF45" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="CG45" s="51"/>
+      <c r="CH45" s="51"/>
+      <c r="CI45" s="51"/>
+      <c r="CJ45" s="51"/>
+      <c r="CK45" s="51"/>
+      <c r="CL45" s="51"/>
+      <c r="CM45" s="51"/>
+      <c r="CN45" s="51"/>
+      <c r="CO45" s="51"/>
+      <c r="CP45" s="51"/>
+      <c r="CQ45" s="51"/>
+      <c r="CR45" s="51"/>
+      <c r="CS45" s="51"/>
+      <c r="CT45" s="51"/>
+      <c r="CU45" s="51"/>
+      <c r="CV45" s="51"/>
+      <c r="CW45" s="51"/>
+      <c r="CX45" s="51"/>
+      <c r="CY45" s="51"/>
+      <c r="CZ45" s="51"/>
+      <c r="DA45" s="51"/>
+      <c r="DB45" s="51"/>
+      <c r="DC45" s="51"/>
+      <c r="DD45" s="51"/>
+      <c r="DE45" s="51"/>
+      <c r="DF45" s="51"/>
+      <c r="DG45" s="51"/>
+      <c r="DI45" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="DJ45" s="51"/>
+      <c r="DK45" s="51"/>
+      <c r="DL45" s="51"/>
+      <c r="DM45" s="51"/>
+      <c r="DN45" s="51"/>
+      <c r="DO45" s="51"/>
+      <c r="DP45" s="51"/>
+      <c r="DQ45" s="51"/>
+      <c r="DR45" s="51"/>
+      <c r="DS45" s="51"/>
+      <c r="DT45" s="51"/>
+      <c r="DU45" s="51"/>
+      <c r="DV45" s="51"/>
+      <c r="DW45" s="51"/>
+      <c r="DX45" s="51"/>
+      <c r="DY45" s="51"/>
+      <c r="DZ45" s="51"/>
+      <c r="EA45" s="51"/>
+      <c r="EB45" s="51"/>
+      <c r="EC45" s="51"/>
+      <c r="EE45" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="EF45" s="51"/>
+      <c r="EG45" s="51"/>
+      <c r="EH45" s="51"/>
+      <c r="EI45" s="51"/>
+      <c r="EJ45" s="51"/>
+      <c r="EK45" s="51"/>
+      <c r="EL45" s="51"/>
+      <c r="EM45" s="51"/>
+      <c r="EN45" s="51"/>
+      <c r="EO45" s="51"/>
+      <c r="EP45" s="51"/>
+      <c r="EQ45" s="51"/>
+      <c r="ER45" s="51"/>
+      <c r="ES45" s="51"/>
+      <c r="ET45" s="51"/>
+      <c r="EU45" s="51"/>
+      <c r="EV45" s="51"/>
+      <c r="EW45" s="51"/>
+      <c r="EX45" s="51"/>
+      <c r="EY45" s="51"/>
+      <c r="EZ45" s="51"/>
+      <c r="FA45" s="51"/>
+      <c r="FB45" s="51"/>
+      <c r="FC45" s="51"/>
+      <c r="FD45" s="51"/>
+      <c r="FE45" s="51"/>
+      <c r="FG45" s="55"/>
+      <c r="FH45" s="55"/>
+      <c r="FI45" s="55"/>
       <c r="FJ45" s="55"/>
       <c r="FK45" s="55"/>
       <c r="FL45" s="55"/>
@@ -33281,178 +33321,174 @@
       <c r="ZZ45" s="55"/>
     </row>
     <row r="46" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A46" s="85" t="s">
-        <v>111</v>
+      <c r="A46" s="6" t="s">
+        <v>109</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="85"/>
-      <c r="X46" s="85"/>
-      <c r="Y46" s="85"/>
-      <c r="Z46" s="85"/>
-      <c r="AA46" s="85"/>
-      <c r="AB46" s="85"/>
-      <c r="AC46" s="85"/>
-      <c r="AD46" s="85"/>
-      <c r="AE46" s="85"/>
-      <c r="AF46" s="85"/>
-      <c r="AG46" s="85"/>
-      <c r="AH46" s="85"/>
-      <c r="AI46" s="85"/>
-      <c r="AJ46" s="85"/>
-      <c r="AK46" s="85"/>
-      <c r="AL46" s="85"/>
-      <c r="AM46" s="85"/>
-      <c r="AN46" s="85"/>
-      <c r="AO46" s="85"/>
-      <c r="AP46" s="85"/>
-      <c r="AQ46" s="85"/>
-      <c r="AR46" s="85"/>
-      <c r="AS46" s="85"/>
-      <c r="AT46" s="85"/>
-      <c r="AU46" s="85"/>
-      <c r="AV46" s="85"/>
-      <c r="AW46" s="85"/>
-      <c r="AX46" s="85"/>
-      <c r="AY46" s="85"/>
-      <c r="AZ46" s="85"/>
-      <c r="BA46" s="85"/>
-      <c r="BB46" s="85"/>
-      <c r="BC46" s="85"/>
-      <c r="BD46" s="85"/>
-      <c r="BE46" s="85"/>
-      <c r="BF46" s="85"/>
-      <c r="BG46" s="85"/>
-      <c r="BH46" s="85"/>
-      <c r="BI46" s="85"/>
-      <c r="BJ46" s="85"/>
-      <c r="BK46" s="85"/>
-      <c r="BL46" s="85"/>
-      <c r="BM46" s="85"/>
-      <c r="BN46" s="85"/>
-      <c r="BO46" s="85"/>
-      <c r="BP46" s="85"/>
-      <c r="BQ46" s="85"/>
-      <c r="BR46" s="85"/>
-      <c r="BS46" s="85"/>
-      <c r="BT46" s="85"/>
-      <c r="BU46" s="85"/>
-      <c r="BV46" s="85"/>
-      <c r="BW46" s="85"/>
-      <c r="BX46" s="85"/>
-      <c r="BY46" s="85"/>
-      <c r="BZ46" s="85"/>
-      <c r="CA46" s="81" t="s">
-        <v>112</v>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="6"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="6"/>
+      <c r="AT46" s="6"/>
+      <c r="AU46" s="6"/>
+      <c r="AV46" s="6"/>
+      <c r="AW46" s="6"/>
+      <c r="AX46" s="6"/>
+      <c r="AY46" s="6"/>
+      <c r="AZ46" s="6"/>
+      <c r="BA46" s="6"/>
+      <c r="BB46" s="6"/>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="6"/>
+      <c r="BF46" s="6"/>
+      <c r="BG46" s="6"/>
+      <c r="BH46" s="6"/>
+      <c r="BI46" s="6"/>
+      <c r="BJ46" s="6"/>
+      <c r="BK46" s="6"/>
+      <c r="BL46" s="6"/>
+      <c r="BM46" s="6"/>
+      <c r="BN46" s="6"/>
+      <c r="BO46" s="6"/>
+      <c r="BP46" s="6"/>
+      <c r="BQ46" s="6"/>
+      <c r="BR46" s="6"/>
+      <c r="BS46" s="6"/>
+      <c r="BT46" s="6"/>
+      <c r="BU46" s="6"/>
+      <c r="BV46" s="6"/>
+      <c r="BW46" s="6"/>
+      <c r="BX46" s="6"/>
+      <c r="BY46" s="6"/>
+      <c r="BZ46" s="6"/>
+      <c r="CA46" s="6"/>
+      <c r="CB46" s="6"/>
+      <c r="CC46" s="6"/>
+      <c r="CD46" s="83"/>
+      <c r="CF46" s="6" t="s">
+        <v>110</v>
       </c>
-      <c r="CB46" s="81"/>
-      <c r="CC46" s="81"/>
-      <c r="CD46" s="81"/>
-      <c r="CF46" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="CG46" s="79"/>
-      <c r="CH46" s="79"/>
-      <c r="CI46" s="79"/>
-      <c r="CJ46" s="79"/>
-      <c r="CK46" s="79"/>
-      <c r="CL46" s="79"/>
-      <c r="CM46" s="79"/>
-      <c r="CN46" s="79"/>
-      <c r="CO46" s="79"/>
-      <c r="CP46" s="79"/>
-      <c r="CQ46" s="79"/>
-      <c r="CR46" s="79"/>
-      <c r="CS46" s="79"/>
-      <c r="CT46" s="79"/>
-      <c r="CU46" s="79"/>
-      <c r="CV46" s="79"/>
-      <c r="CW46" s="79"/>
-      <c r="CX46" s="79"/>
-      <c r="CY46" s="79"/>
-      <c r="CZ46" s="79"/>
-      <c r="DA46" s="79"/>
-      <c r="DB46" s="79"/>
-      <c r="DC46" s="79"/>
-      <c r="DD46" s="79"/>
-      <c r="DE46" s="79"/>
-      <c r="DF46" s="79"/>
-      <c r="DG46" s="79"/>
-      <c r="DH46" s="79"/>
-      <c r="DI46" s="79"/>
-      <c r="DJ46" s="79"/>
-      <c r="DK46" s="79"/>
-      <c r="DL46" s="79"/>
-      <c r="DM46" s="79"/>
-      <c r="DN46" s="79"/>
-      <c r="DO46" s="79"/>
-      <c r="DP46" s="79"/>
-      <c r="DQ46" s="79"/>
-      <c r="DR46" s="79"/>
-      <c r="DS46" s="79"/>
-      <c r="DT46" s="79"/>
-      <c r="DU46" s="79"/>
-      <c r="DV46" s="79"/>
-      <c r="DW46" s="79"/>
-      <c r="DX46" s="79"/>
-      <c r="DY46" s="79"/>
-      <c r="DZ46" s="79"/>
-      <c r="EA46" s="79"/>
-      <c r="EB46" s="79"/>
-      <c r="EC46" s="79"/>
-      <c r="ED46" s="79"/>
-      <c r="EE46" s="79"/>
-      <c r="EF46" s="79"/>
-      <c r="EG46" s="79"/>
-      <c r="EH46" s="79"/>
-      <c r="EI46" s="79"/>
-      <c r="EJ46" s="79"/>
-      <c r="EK46" s="79"/>
-      <c r="EL46" s="79"/>
-      <c r="EM46" s="79"/>
-      <c r="EN46" s="79"/>
-      <c r="EO46" s="79"/>
-      <c r="EP46" s="79"/>
-      <c r="EQ46" s="79"/>
-      <c r="ER46" s="79"/>
-      <c r="ES46" s="79"/>
-      <c r="ET46" s="79"/>
-      <c r="EU46" s="79"/>
-      <c r="EV46" s="79"/>
-      <c r="EW46" s="79"/>
-      <c r="EX46" s="79"/>
-      <c r="EY46" s="79"/>
-      <c r="EZ46" s="79"/>
-      <c r="FA46" s="79"/>
-      <c r="FB46" s="79"/>
-      <c r="FC46" s="79"/>
-      <c r="FD46" s="79"/>
-      <c r="FE46" s="79"/>
-      <c r="FF46" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="FG46" s="14"/>
-      <c r="FH46" s="14"/>
-      <c r="FI46" s="14"/>
+      <c r="CG46" s="6"/>
+      <c r="CH46" s="6"/>
+      <c r="CI46" s="6"/>
+      <c r="CJ46" s="6"/>
+      <c r="CK46" s="6"/>
+      <c r="CL46" s="6"/>
+      <c r="CM46" s="6"/>
+      <c r="CN46" s="6"/>
+      <c r="CO46" s="6"/>
+      <c r="CP46" s="6"/>
+      <c r="CQ46" s="6"/>
+      <c r="CR46" s="6"/>
+      <c r="CS46" s="6"/>
+      <c r="CT46" s="6"/>
+      <c r="CU46" s="6"/>
+      <c r="CV46" s="6"/>
+      <c r="CW46" s="6"/>
+      <c r="CX46" s="6"/>
+      <c r="CY46" s="6"/>
+      <c r="CZ46" s="6"/>
+      <c r="DA46" s="6"/>
+      <c r="DB46" s="6"/>
+      <c r="DC46" s="6"/>
+      <c r="DD46" s="6"/>
+      <c r="DE46" s="6"/>
+      <c r="DF46" s="6"/>
+      <c r="DG46" s="6"/>
+      <c r="DH46" s="6"/>
+      <c r="DI46" s="6"/>
+      <c r="DJ46" s="6"/>
+      <c r="DK46" s="6"/>
+      <c r="DL46" s="6"/>
+      <c r="DM46" s="6"/>
+      <c r="DN46" s="6"/>
+      <c r="DO46" s="6"/>
+      <c r="DP46" s="6"/>
+      <c r="DQ46" s="6"/>
+      <c r="DR46" s="6"/>
+      <c r="DS46" s="6"/>
+      <c r="DT46" s="6"/>
+      <c r="DU46" s="6"/>
+      <c r="DV46" s="6"/>
+      <c r="DW46" s="6"/>
+      <c r="DX46" s="6"/>
+      <c r="DY46" s="6"/>
+      <c r="DZ46" s="6"/>
+      <c r="EA46" s="6"/>
+      <c r="EB46" s="6"/>
+      <c r="EC46" s="6"/>
+      <c r="ED46" s="6"/>
+      <c r="EE46" s="6"/>
+      <c r="EF46" s="6"/>
+      <c r="EG46" s="6"/>
+      <c r="EH46" s="6"/>
+      <c r="EI46" s="6"/>
+      <c r="EJ46" s="6"/>
+      <c r="EK46" s="6"/>
+      <c r="EL46" s="6"/>
+      <c r="EM46" s="6"/>
+      <c r="EN46" s="6"/>
+      <c r="EO46" s="6"/>
+      <c r="EP46" s="6"/>
+      <c r="EQ46" s="6"/>
+      <c r="ER46" s="6"/>
+      <c r="ES46" s="6"/>
+      <c r="ET46" s="6"/>
+      <c r="EU46" s="6"/>
+      <c r="EV46" s="6"/>
+      <c r="EW46" s="6"/>
+      <c r="EX46" s="6"/>
+      <c r="EY46" s="6"/>
+      <c r="EZ46" s="6"/>
+      <c r="FA46" s="6"/>
+      <c r="FB46" s="6"/>
+      <c r="FC46" s="6"/>
+      <c r="FD46" s="6"/>
+      <c r="FE46" s="6"/>
+      <c r="FF46" s="6"/>
+      <c r="FG46" s="6"/>
+      <c r="FH46" s="6"/>
+      <c r="FJ46" s="55"/>
       <c r="FK46" s="55"/>
       <c r="FL46" s="55"/>
       <c r="FM46" s="55"/>
@@ -33925,12 +33961,9 @@
       <c r="XL46" s="55"/>
       <c r="XM46" s="55"/>
       <c r="XN46" s="55"/>
-      <c r="XO46" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="XP46" s="23" t="s">
-        <v>113</v>
-      </c>
+      <c r="XO46" s="55"/>
+      <c r="XP46" s="55"/>
+      <c r="XQ46" s="55"/>
       <c r="XR46" s="55"/>
       <c r="XS46" s="55"/>
       <c r="XT46" s="55"/>
@@ -33993,174 +34026,179 @@
       <c r="ZY46" s="55"/>
       <c r="ZZ46" s="55"/>
     </row>
-    <row r="47" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A47" s="51" t="s">
-        <v>115</v>
+    <row r="47" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A47" s="85" t="s">
+        <v>111</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="51"/>
-      <c r="AD47" s="51"/>
-      <c r="AE47" s="51"/>
-      <c r="AF47" s="51"/>
-      <c r="AG47" s="51"/>
-      <c r="AH47" s="51"/>
-      <c r="AI47" s="51"/>
-      <c r="AJ47" s="51"/>
-      <c r="AK47" s="51"/>
-      <c r="AL47" s="51"/>
-      <c r="AM47" s="51"/>
-      <c r="AN47" s="51"/>
-      <c r="AO47" s="51"/>
-      <c r="AP47" s="51"/>
-      <c r="AQ47" s="51"/>
-      <c r="AR47" s="51"/>
-      <c r="AS47" s="51"/>
-      <c r="AT47" s="51"/>
-      <c r="AU47" s="51"/>
-      <c r="AV47" s="51"/>
-      <c r="AW47" s="51"/>
-      <c r="AX47" s="51"/>
-      <c r="AY47" s="51"/>
-      <c r="AZ47" s="51"/>
-      <c r="BA47" s="51"/>
-      <c r="BB47" s="51"/>
-      <c r="BC47" s="51"/>
-      <c r="BD47" s="51"/>
-      <c r="BE47" s="51"/>
-      <c r="BF47" s="51"/>
-      <c r="BG47" s="51"/>
-      <c r="BH47" s="51"/>
-      <c r="BI47" s="51"/>
-      <c r="BJ47" s="51"/>
-      <c r="BK47" s="51"/>
-      <c r="BL47" s="51"/>
-      <c r="BM47" s="51"/>
-      <c r="BN47" s="51"/>
-      <c r="BO47" s="51"/>
-      <c r="BP47" s="51"/>
-      <c r="BQ47" s="51"/>
-      <c r="BR47" s="51"/>
-      <c r="BS47" s="51"/>
-      <c r="BT47" s="51"/>
-      <c r="BU47" s="51"/>
-      <c r="BV47" s="51"/>
-      <c r="BW47" s="51"/>
-      <c r="BX47" s="51"/>
-      <c r="BY47" s="51"/>
-      <c r="BZ47" s="51"/>
-      <c r="CB47" s="55"/>
-      <c r="CC47" s="55"/>
-      <c r="CD47" s="2"/>
-      <c r="CF47" s="51" t="s">
-        <v>115</v>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="85"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="85"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="85"/>
+      <c r="AC47" s="85"/>
+      <c r="AD47" s="85"/>
+      <c r="AE47" s="85"/>
+      <c r="AF47" s="85"/>
+      <c r="AG47" s="85"/>
+      <c r="AH47" s="85"/>
+      <c r="AI47" s="85"/>
+      <c r="AJ47" s="85"/>
+      <c r="AK47" s="85"/>
+      <c r="AL47" s="85"/>
+      <c r="AM47" s="85"/>
+      <c r="AN47" s="85"/>
+      <c r="AO47" s="85"/>
+      <c r="AP47" s="85"/>
+      <c r="AQ47" s="85"/>
+      <c r="AR47" s="85"/>
+      <c r="AS47" s="85"/>
+      <c r="AT47" s="85"/>
+      <c r="AU47" s="85"/>
+      <c r="AV47" s="85"/>
+      <c r="AW47" s="85"/>
+      <c r="AX47" s="85"/>
+      <c r="AY47" s="85"/>
+      <c r="AZ47" s="85"/>
+      <c r="BA47" s="85"/>
+      <c r="BB47" s="85"/>
+      <c r="BC47" s="85"/>
+      <c r="BD47" s="85"/>
+      <c r="BE47" s="85"/>
+      <c r="BF47" s="85"/>
+      <c r="BG47" s="85"/>
+      <c r="BH47" s="85"/>
+      <c r="BI47" s="85"/>
+      <c r="BJ47" s="85"/>
+      <c r="BK47" s="85"/>
+      <c r="BL47" s="85"/>
+      <c r="BM47" s="85"/>
+      <c r="BN47" s="85"/>
+      <c r="BO47" s="85"/>
+      <c r="BP47" s="85"/>
+      <c r="BQ47" s="85"/>
+      <c r="BR47" s="85"/>
+      <c r="BS47" s="85"/>
+      <c r="BT47" s="85"/>
+      <c r="BU47" s="85"/>
+      <c r="BV47" s="85"/>
+      <c r="BW47" s="85"/>
+      <c r="BX47" s="85"/>
+      <c r="BY47" s="85"/>
+      <c r="BZ47" s="85"/>
+      <c r="CA47" s="81" t="s">
+        <v>112</v>
       </c>
-      <c r="CG47" s="51"/>
-      <c r="CH47" s="51"/>
-      <c r="CI47" s="51"/>
-      <c r="CJ47" s="51"/>
-      <c r="CK47" s="51"/>
-      <c r="CL47" s="51"/>
-      <c r="CM47" s="51"/>
-      <c r="CN47" s="51"/>
-      <c r="CO47" s="51"/>
-      <c r="CP47" s="51"/>
-      <c r="CQ47" s="51"/>
-      <c r="CR47" s="51"/>
-      <c r="CS47" s="51"/>
-      <c r="CT47" s="51"/>
-      <c r="CU47" s="51"/>
-      <c r="CV47" s="51"/>
-      <c r="CW47" s="51"/>
-      <c r="CX47" s="51"/>
-      <c r="CY47" s="51"/>
-      <c r="CZ47" s="51"/>
-      <c r="DA47" s="51"/>
-      <c r="DB47" s="51"/>
-      <c r="DC47" s="51"/>
-      <c r="DD47" s="51"/>
-      <c r="DE47" s="51"/>
-      <c r="DF47" s="51"/>
-      <c r="DG47" s="51"/>
-      <c r="DH47" s="51"/>
-      <c r="DI47" s="51"/>
-      <c r="DJ47" s="51"/>
-      <c r="DK47" s="51"/>
-      <c r="DL47" s="51"/>
-      <c r="DM47" s="51"/>
-      <c r="DN47" s="51"/>
-      <c r="DO47" s="51"/>
-      <c r="DP47" s="51"/>
-      <c r="DQ47" s="51"/>
-      <c r="DR47" s="51"/>
-      <c r="DS47" s="51"/>
-      <c r="DT47" s="51"/>
-      <c r="DU47" s="51"/>
-      <c r="DV47" s="51"/>
-      <c r="DW47" s="51"/>
-      <c r="DX47" s="51"/>
-      <c r="DY47" s="51"/>
-      <c r="DZ47" s="51"/>
-      <c r="EA47" s="51"/>
-      <c r="EB47" s="51"/>
-      <c r="EC47" s="51"/>
-      <c r="ED47" s="51"/>
-      <c r="EE47" s="51"/>
-      <c r="EF47" s="51"/>
-      <c r="EG47" s="51"/>
-      <c r="EH47" s="51"/>
-      <c r="EI47" s="51"/>
-      <c r="EJ47" s="51"/>
-      <c r="EK47" s="51"/>
-      <c r="EL47" s="51"/>
-      <c r="EM47" s="51"/>
-      <c r="EN47" s="51"/>
-      <c r="EO47" s="51"/>
-      <c r="EP47" s="51"/>
-      <c r="EQ47" s="51"/>
-      <c r="ER47" s="51"/>
-      <c r="ES47" s="51"/>
-      <c r="ET47" s="51"/>
-      <c r="EU47" s="51"/>
-      <c r="EV47" s="51"/>
-      <c r="EW47" s="51"/>
-      <c r="EX47" s="51"/>
-      <c r="EY47" s="51"/>
-      <c r="EZ47" s="51"/>
-      <c r="FA47" s="51"/>
-      <c r="FB47" s="51"/>
-      <c r="FC47" s="51"/>
-      <c r="FD47" s="51"/>
-      <c r="FE47" s="51"/>
-      <c r="FG47" s="55"/>
-      <c r="FH47" s="55"/>
-      <c r="FI47" s="55"/>
-      <c r="FJ47" s="55"/>
+      <c r="CB47" s="81"/>
+      <c r="CC47" s="81"/>
+      <c r="CD47" s="81"/>
+      <c r="CF47" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG47" s="79"/>
+      <c r="CH47" s="79"/>
+      <c r="CI47" s="79"/>
+      <c r="CJ47" s="79"/>
+      <c r="CK47" s="79"/>
+      <c r="CL47" s="79"/>
+      <c r="CM47" s="79"/>
+      <c r="CN47" s="79"/>
+      <c r="CO47" s="79"/>
+      <c r="CP47" s="79"/>
+      <c r="CQ47" s="79"/>
+      <c r="CR47" s="79"/>
+      <c r="CS47" s="79"/>
+      <c r="CT47" s="79"/>
+      <c r="CU47" s="79"/>
+      <c r="CV47" s="79"/>
+      <c r="CW47" s="79"/>
+      <c r="CX47" s="79"/>
+      <c r="CY47" s="79"/>
+      <c r="CZ47" s="79"/>
+      <c r="DA47" s="79"/>
+      <c r="DB47" s="79"/>
+      <c r="DC47" s="79"/>
+      <c r="DD47" s="79"/>
+      <c r="DE47" s="79"/>
+      <c r="DF47" s="79"/>
+      <c r="DG47" s="79"/>
+      <c r="DH47" s="79"/>
+      <c r="DI47" s="79"/>
+      <c r="DJ47" s="79"/>
+      <c r="DK47" s="79"/>
+      <c r="DL47" s="79"/>
+      <c r="DM47" s="79"/>
+      <c r="DN47" s="79"/>
+      <c r="DO47" s="79"/>
+      <c r="DP47" s="79"/>
+      <c r="DQ47" s="79"/>
+      <c r="DR47" s="79"/>
+      <c r="DS47" s="79"/>
+      <c r="DT47" s="79"/>
+      <c r="DU47" s="79"/>
+      <c r="DV47" s="79"/>
+      <c r="DW47" s="79"/>
+      <c r="DX47" s="79"/>
+      <c r="DY47" s="79"/>
+      <c r="DZ47" s="79"/>
+      <c r="EA47" s="79"/>
+      <c r="EB47" s="79"/>
+      <c r="EC47" s="79"/>
+      <c r="ED47" s="79"/>
+      <c r="EE47" s="79"/>
+      <c r="EF47" s="79"/>
+      <c r="EG47" s="79"/>
+      <c r="EH47" s="79"/>
+      <c r="EI47" s="79"/>
+      <c r="EJ47" s="79"/>
+      <c r="EK47" s="79"/>
+      <c r="EL47" s="79"/>
+      <c r="EM47" s="79"/>
+      <c r="EN47" s="79"/>
+      <c r="EO47" s="79"/>
+      <c r="EP47" s="79"/>
+      <c r="EQ47" s="79"/>
+      <c r="ER47" s="79"/>
+      <c r="ES47" s="79"/>
+      <c r="ET47" s="79"/>
+      <c r="EU47" s="79"/>
+      <c r="EV47" s="79"/>
+      <c r="EW47" s="79"/>
+      <c r="EX47" s="79"/>
+      <c r="EY47" s="79"/>
+      <c r="EZ47" s="79"/>
+      <c r="FA47" s="79"/>
+      <c r="FB47" s="79"/>
+      <c r="FC47" s="79"/>
+      <c r="FD47" s="79"/>
+      <c r="FE47" s="79"/>
+      <c r="FF47" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="FG47" s="14"/>
+      <c r="FH47" s="14"/>
+      <c r="FI47" s="14"/>
       <c r="FK47" s="55"/>
       <c r="FL47" s="55"/>
       <c r="FM47" s="55"/>
@@ -34633,9 +34671,12 @@
       <c r="XL47" s="55"/>
       <c r="XM47" s="55"/>
       <c r="XN47" s="55"/>
-      <c r="XO47" s="55"/>
-      <c r="XP47" s="55"/>
-      <c r="XQ47" s="55"/>
+      <c r="XO47" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="XP47" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="XR47" s="55"/>
       <c r="XS47" s="55"/>
       <c r="XT47" s="55"/>
@@ -34698,169 +34739,170 @@
       <c r="ZY47" s="55"/>
       <c r="ZZ47" s="55"/>
     </row>
-    <row r="48" spans="1:702" ht="14.25" customHeight="1">
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="7" t="s">
-        <v>116</v>
+    <row r="48" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A48" s="51" t="s">
+        <v>115</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="55"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="55"/>
-      <c r="AE48" s="55"/>
-      <c r="AF48" s="55"/>
-      <c r="AG48" s="55"/>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="55"/>
-      <c r="AJ48" s="55"/>
-      <c r="AK48" s="55"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="55"/>
-      <c r="AN48" s="55"/>
-      <c r="AO48" s="55"/>
-      <c r="AP48" s="55"/>
-      <c r="AQ48" s="55"/>
-      <c r="AR48" s="55"/>
-      <c r="AS48" s="55"/>
-      <c r="AT48" s="55"/>
-      <c r="AU48" s="55"/>
-      <c r="AV48" s="55"/>
-      <c r="AW48" s="55"/>
-      <c r="AX48" s="55"/>
-      <c r="AY48" s="55"/>
-      <c r="AZ48" s="55"/>
-      <c r="BA48" s="55"/>
-      <c r="BB48" s="55"/>
-      <c r="BC48" s="55"/>
-      <c r="BD48" s="55"/>
-      <c r="BE48" s="55"/>
-      <c r="BF48" s="55"/>
-      <c r="BG48" s="55"/>
-      <c r="BH48" s="55"/>
-      <c r="BI48" s="55"/>
-      <c r="BJ48" s="55"/>
-      <c r="BK48" s="55"/>
-      <c r="BL48" s="55"/>
-      <c r="BM48" s="55"/>
-      <c r="BN48" s="55"/>
-      <c r="BO48" s="55"/>
-      <c r="BP48" s="55"/>
-      <c r="BQ48" s="55"/>
-      <c r="BR48" s="55"/>
-      <c r="BS48" s="55"/>
-      <c r="BT48" s="55"/>
-      <c r="BU48" s="55"/>
-      <c r="BV48" s="55"/>
-      <c r="BW48" s="55"/>
-      <c r="BX48" s="55"/>
-      <c r="BY48" s="55"/>
-      <c r="BZ48" s="55"/>
-      <c r="CA48" s="55"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="51"/>
+      <c r="AQ48" s="51"/>
+      <c r="AR48" s="51"/>
+      <c r="AS48" s="51"/>
+      <c r="AT48" s="51"/>
+      <c r="AU48" s="51"/>
+      <c r="AV48" s="51"/>
+      <c r="AW48" s="51"/>
+      <c r="AX48" s="51"/>
+      <c r="AY48" s="51"/>
+      <c r="AZ48" s="51"/>
+      <c r="BA48" s="51"/>
+      <c r="BB48" s="51"/>
+      <c r="BC48" s="51"/>
+      <c r="BD48" s="51"/>
+      <c r="BE48" s="51"/>
+      <c r="BF48" s="51"/>
+      <c r="BG48" s="51"/>
+      <c r="BH48" s="51"/>
+      <c r="BI48" s="51"/>
+      <c r="BJ48" s="51"/>
+      <c r="BK48" s="51"/>
+      <c r="BL48" s="51"/>
+      <c r="BM48" s="51"/>
+      <c r="BN48" s="51"/>
+      <c r="BO48" s="51"/>
+      <c r="BP48" s="51"/>
+      <c r="BQ48" s="51"/>
+      <c r="BR48" s="51"/>
+      <c r="BS48" s="51"/>
+      <c r="BT48" s="51"/>
+      <c r="BU48" s="51"/>
+      <c r="BV48" s="51"/>
+      <c r="BW48" s="51"/>
+      <c r="BX48" s="51"/>
+      <c r="BY48" s="51"/>
+      <c r="BZ48" s="51"/>
       <c r="CB48" s="55"/>
       <c r="CC48" s="55"/>
       <c r="CD48" s="2"/>
-      <c r="CF48" s="55"/>
-      <c r="CG48" s="55"/>
-      <c r="CH48" s="55"/>
-      <c r="CI48" s="7" t="s">
-        <v>116</v>
+      <c r="CF48" s="51" t="s">
+        <v>115</v>
       </c>
-      <c r="CJ48" s="7"/>
-      <c r="CK48" s="7"/>
-      <c r="CL48" s="7"/>
-      <c r="CM48" s="7"/>
-      <c r="CO48" s="55"/>
-      <c r="CP48" s="55"/>
-      <c r="CQ48" s="55"/>
-      <c r="CR48" s="55"/>
-      <c r="CS48" s="55"/>
-      <c r="CT48" s="55"/>
-      <c r="CU48" s="55"/>
-      <c r="CV48" s="55"/>
-      <c r="CW48" s="55"/>
-      <c r="CX48" s="55"/>
-      <c r="CY48" s="55"/>
-      <c r="CZ48" s="55"/>
-      <c r="DA48" s="55"/>
-      <c r="DB48" s="55"/>
-      <c r="DC48" s="55"/>
-      <c r="DD48" s="55"/>
-      <c r="DE48" s="55"/>
-      <c r="DF48" s="55"/>
-      <c r="DG48" s="55"/>
-      <c r="DH48" s="55"/>
-      <c r="DI48" s="55"/>
-      <c r="DJ48" s="55"/>
-      <c r="DK48" s="55"/>
-      <c r="DL48" s="55"/>
-      <c r="DM48" s="55"/>
-      <c r="DN48" s="55"/>
-      <c r="DO48" s="55"/>
-      <c r="DP48" s="55"/>
-      <c r="DQ48" s="55"/>
-      <c r="DR48" s="55"/>
-      <c r="DS48" s="55"/>
-      <c r="DT48" s="55"/>
-      <c r="DU48" s="55"/>
-      <c r="DV48" s="55"/>
-      <c r="DW48" s="55"/>
-      <c r="DX48" s="55"/>
-      <c r="DY48" s="55"/>
-      <c r="DZ48" s="55"/>
-      <c r="EA48" s="55"/>
-      <c r="EB48" s="55"/>
-      <c r="EC48" s="55"/>
-      <c r="ED48" s="55"/>
-      <c r="EE48" s="55"/>
-      <c r="EF48" s="55"/>
-      <c r="EG48" s="55"/>
-      <c r="EH48" s="55"/>
-      <c r="EI48" s="55"/>
-      <c r="EJ48" s="55"/>
-      <c r="EK48" s="55"/>
-      <c r="EL48" s="55"/>
-      <c r="EM48" s="55"/>
-      <c r="EN48" s="55"/>
-      <c r="EO48" s="55"/>
-      <c r="EP48" s="55"/>
-      <c r="EQ48" s="55"/>
-      <c r="ER48" s="55"/>
-      <c r="ES48" s="55"/>
-      <c r="ET48" s="55"/>
-      <c r="EU48" s="55"/>
-      <c r="EV48" s="55"/>
-      <c r="EW48" s="55"/>
-      <c r="EX48" s="55"/>
-      <c r="EY48" s="55"/>
-      <c r="EZ48" s="55"/>
-      <c r="FA48" s="55"/>
-      <c r="FB48" s="55"/>
-      <c r="FC48" s="55"/>
-      <c r="FD48" s="55"/>
-      <c r="FE48" s="55"/>
-      <c r="FF48" s="55"/>
+      <c r="CG48" s="51"/>
+      <c r="CH48" s="51"/>
+      <c r="CI48" s="51"/>
+      <c r="CJ48" s="51"/>
+      <c r="CK48" s="51"/>
+      <c r="CL48" s="51"/>
+      <c r="CM48" s="51"/>
+      <c r="CN48" s="51"/>
+      <c r="CO48" s="51"/>
+      <c r="CP48" s="51"/>
+      <c r="CQ48" s="51"/>
+      <c r="CR48" s="51"/>
+      <c r="CS48" s="51"/>
+      <c r="CT48" s="51"/>
+      <c r="CU48" s="51"/>
+      <c r="CV48" s="51"/>
+      <c r="CW48" s="51"/>
+      <c r="CX48" s="51"/>
+      <c r="CY48" s="51"/>
+      <c r="CZ48" s="51"/>
+      <c r="DA48" s="51"/>
+      <c r="DB48" s="51"/>
+      <c r="DC48" s="51"/>
+      <c r="DD48" s="51"/>
+      <c r="DE48" s="51"/>
+      <c r="DF48" s="51"/>
+      <c r="DG48" s="51"/>
+      <c r="DH48" s="51"/>
+      <c r="DI48" s="51"/>
+      <c r="DJ48" s="51"/>
+      <c r="DK48" s="51"/>
+      <c r="DL48" s="51"/>
+      <c r="DM48" s="51"/>
+      <c r="DN48" s="51"/>
+      <c r="DO48" s="51"/>
+      <c r="DP48" s="51"/>
+      <c r="DQ48" s="51"/>
+      <c r="DR48" s="51"/>
+      <c r="DS48" s="51"/>
+      <c r="DT48" s="51"/>
+      <c r="DU48" s="51"/>
+      <c r="DV48" s="51"/>
+      <c r="DW48" s="51"/>
+      <c r="DX48" s="51"/>
+      <c r="DY48" s="51"/>
+      <c r="DZ48" s="51"/>
+      <c r="EA48" s="51"/>
+      <c r="EB48" s="51"/>
+      <c r="EC48" s="51"/>
+      <c r="ED48" s="51"/>
+      <c r="EE48" s="51"/>
+      <c r="EF48" s="51"/>
+      <c r="EG48" s="51"/>
+      <c r="EH48" s="51"/>
+      <c r="EI48" s="51"/>
+      <c r="EJ48" s="51"/>
+      <c r="EK48" s="51"/>
+      <c r="EL48" s="51"/>
+      <c r="EM48" s="51"/>
+      <c r="EN48" s="51"/>
+      <c r="EO48" s="51"/>
+      <c r="EP48" s="51"/>
+      <c r="EQ48" s="51"/>
+      <c r="ER48" s="51"/>
+      <c r="ES48" s="51"/>
+      <c r="ET48" s="51"/>
+      <c r="EU48" s="51"/>
+      <c r="EV48" s="51"/>
+      <c r="EW48" s="51"/>
+      <c r="EX48" s="51"/>
+      <c r="EY48" s="51"/>
+      <c r="EZ48" s="51"/>
+      <c r="FA48" s="51"/>
+      <c r="FB48" s="51"/>
+      <c r="FC48" s="51"/>
+      <c r="FD48" s="51"/>
+      <c r="FE48" s="51"/>
       <c r="FG48" s="55"/>
       <c r="FH48" s="55"/>
       <c r="FI48" s="55"/>
@@ -35402,17 +35444,18 @@
       <c r="ZY48" s="55"/>
       <c r="ZZ48" s="55"/>
     </row>
-    <row r="49" spans="1:702" ht="11.25" hidden="1">
+    <row r="49" spans="1:702" ht="14.25" customHeight="1">
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
+      <c r="E49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
       <c r="L49" s="55"/>
       <c r="M49" s="55"/>
       <c r="N49" s="55"/>
@@ -35483,17 +35526,17 @@
       <c r="CA49" s="55"/>
       <c r="CB49" s="55"/>
       <c r="CC49" s="55"/>
-      <c r="CD49" s="55"/>
-      <c r="CE49" s="55"/>
+      <c r="CD49" s="2"/>
       <c r="CF49" s="55"/>
       <c r="CG49" s="55"/>
       <c r="CH49" s="55"/>
-      <c r="CI49" s="55"/>
-      <c r="CJ49" s="55"/>
-      <c r="CK49" s="55"/>
-      <c r="CL49" s="55"/>
-      <c r="CM49" s="55"/>
-      <c r="CN49" s="55"/>
+      <c r="CI49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ49" s="7"/>
+      <c r="CK49" s="7"/>
+      <c r="CL49" s="7"/>
+      <c r="CM49" s="7"/>
       <c r="CO49" s="55"/>
       <c r="CP49" s="55"/>
       <c r="CQ49" s="55"/>
@@ -35567,6 +35610,7 @@
       <c r="FG49" s="55"/>
       <c r="FH49" s="55"/>
       <c r="FI49" s="55"/>
+      <c r="FJ49" s="55"/>
       <c r="FK49" s="55"/>
       <c r="FL49" s="55"/>
       <c r="FM49" s="55"/>
@@ -36026,20 +36070,32 @@
       <c r="WY49" s="55"/>
       <c r="WZ49" s="55"/>
       <c r="XA49" s="55"/>
+      <c r="XB49" s="55"/>
+      <c r="XC49" s="55"/>
       <c r="XD49" s="55"/>
+      <c r="XE49" s="55"/>
+      <c r="XF49" s="55"/>
       <c r="XG49" s="55"/>
       <c r="XH49" s="55"/>
+      <c r="XI49" s="55"/>
+      <c r="XJ49" s="55"/>
       <c r="XK49" s="55"/>
       <c r="XL49" s="55"/>
+      <c r="XM49" s="55"/>
       <c r="XN49" s="55"/>
       <c r="XO49" s="55"/>
       <c r="XP49" s="55"/>
       <c r="XQ49" s="55"/>
       <c r="XR49" s="55"/>
+      <c r="XS49" s="55"/>
+      <c r="XT49" s="55"/>
       <c r="XU49" s="55"/>
       <c r="XV49" s="55"/>
       <c r="XW49" s="55"/>
+      <c r="XX49" s="55"/>
+      <c r="XY49" s="55"/>
       <c r="XZ49" s="55"/>
+      <c r="YA49" s="55"/>
       <c r="YB49" s="55"/>
       <c r="YC49" s="55"/>
       <c r="YD49" s="55"/>
@@ -36065,22 +36121,712 @@
       <c r="YX49" s="55"/>
       <c r="YY49" s="55"/>
       <c r="YZ49" s="55"/>
+      <c r="ZA49" s="55"/>
       <c r="ZB49" s="55"/>
+      <c r="ZC49" s="55"/>
+      <c r="ZD49" s="55"/>
       <c r="ZE49" s="55"/>
       <c r="ZF49" s="55"/>
       <c r="ZG49" s="55"/>
       <c r="ZH49" s="55"/>
+      <c r="ZI49" s="55"/>
+      <c r="ZJ49" s="55"/>
+      <c r="ZK49" s="55"/>
+      <c r="ZL49" s="55"/>
       <c r="ZM49" s="55"/>
       <c r="ZN49" s="55"/>
       <c r="ZO49" s="55"/>
       <c r="ZP49" s="55"/>
       <c r="ZQ49" s="55"/>
       <c r="ZR49" s="55"/>
+      <c r="ZS49" s="55"/>
+      <c r="ZT49" s="55"/>
+      <c r="ZU49" s="55"/>
+      <c r="ZV49" s="55"/>
       <c r="ZW49" s="55"/>
       <c r="ZX49" s="55"/>
+      <c r="ZY49" s="55"/>
+      <c r="ZZ49" s="55"/>
+    </row>
+    <row r="50" spans="1:702" ht="11.25" hidden="1">
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="55"/>
+      <c r="AK50" s="55"/>
+      <c r="AL50" s="55"/>
+      <c r="AM50" s="55"/>
+      <c r="AN50" s="55"/>
+      <c r="AO50" s="55"/>
+      <c r="AP50" s="55"/>
+      <c r="AQ50" s="55"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="55"/>
+      <c r="AT50" s="55"/>
+      <c r="AU50" s="55"/>
+      <c r="AV50" s="55"/>
+      <c r="AW50" s="55"/>
+      <c r="AX50" s="55"/>
+      <c r="AY50" s="55"/>
+      <c r="AZ50" s="55"/>
+      <c r="BA50" s="55"/>
+      <c r="BB50" s="55"/>
+      <c r="BC50" s="55"/>
+      <c r="BD50" s="55"/>
+      <c r="BE50" s="55"/>
+      <c r="BF50" s="55"/>
+      <c r="BG50" s="55"/>
+      <c r="BH50" s="55"/>
+      <c r="BI50" s="55"/>
+      <c r="BJ50" s="55"/>
+      <c r="BK50" s="55"/>
+      <c r="BL50" s="55"/>
+      <c r="BM50" s="55"/>
+      <c r="BN50" s="55"/>
+      <c r="BO50" s="55"/>
+      <c r="BP50" s="55"/>
+      <c r="BQ50" s="55"/>
+      <c r="BR50" s="55"/>
+      <c r="BS50" s="55"/>
+      <c r="BT50" s="55"/>
+      <c r="BU50" s="55"/>
+      <c r="BV50" s="55"/>
+      <c r="BW50" s="55"/>
+      <c r="BX50" s="55"/>
+      <c r="BY50" s="55"/>
+      <c r="BZ50" s="55"/>
+      <c r="CA50" s="55"/>
+      <c r="CB50" s="55"/>
+      <c r="CC50" s="55"/>
+      <c r="CD50" s="55"/>
+      <c r="CE50" s="55"/>
+      <c r="CF50" s="55"/>
+      <c r="CG50" s="55"/>
+      <c r="CH50" s="55"/>
+      <c r="CI50" s="55"/>
+      <c r="CJ50" s="55"/>
+      <c r="CK50" s="55"/>
+      <c r="CL50" s="55"/>
+      <c r="CM50" s="55"/>
+      <c r="CN50" s="55"/>
+      <c r="CO50" s="55"/>
+      <c r="CP50" s="55"/>
+      <c r="CQ50" s="55"/>
+      <c r="CR50" s="55"/>
+      <c r="CS50" s="55"/>
+      <c r="CT50" s="55"/>
+      <c r="CU50" s="55"/>
+      <c r="CV50" s="55"/>
+      <c r="CW50" s="55"/>
+      <c r="CX50" s="55"/>
+      <c r="CY50" s="55"/>
+      <c r="CZ50" s="55"/>
+      <c r="DA50" s="55"/>
+      <c r="DB50" s="55"/>
+      <c r="DC50" s="55"/>
+      <c r="DD50" s="55"/>
+      <c r="DE50" s="55"/>
+      <c r="DF50" s="55"/>
+      <c r="DG50" s="55"/>
+      <c r="DH50" s="55"/>
+      <c r="DI50" s="55"/>
+      <c r="DJ50" s="55"/>
+      <c r="DK50" s="55"/>
+      <c r="DL50" s="55"/>
+      <c r="DM50" s="55"/>
+      <c r="DN50" s="55"/>
+      <c r="DO50" s="55"/>
+      <c r="DP50" s="55"/>
+      <c r="DQ50" s="55"/>
+      <c r="DR50" s="55"/>
+      <c r="DS50" s="55"/>
+      <c r="DT50" s="55"/>
+      <c r="DU50" s="55"/>
+      <c r="DV50" s="55"/>
+      <c r="DW50" s="55"/>
+      <c r="DX50" s="55"/>
+      <c r="DY50" s="55"/>
+      <c r="DZ50" s="55"/>
+      <c r="EA50" s="55"/>
+      <c r="EB50" s="55"/>
+      <c r="EC50" s="55"/>
+      <c r="ED50" s="55"/>
+      <c r="EE50" s="55"/>
+      <c r="EF50" s="55"/>
+      <c r="EG50" s="55"/>
+      <c r="EH50" s="55"/>
+      <c r="EI50" s="55"/>
+      <c r="EJ50" s="55"/>
+      <c r="EK50" s="55"/>
+      <c r="EL50" s="55"/>
+      <c r="EM50" s="55"/>
+      <c r="EN50" s="55"/>
+      <c r="EO50" s="55"/>
+      <c r="EP50" s="55"/>
+      <c r="EQ50" s="55"/>
+      <c r="ER50" s="55"/>
+      <c r="ES50" s="55"/>
+      <c r="ET50" s="55"/>
+      <c r="EU50" s="55"/>
+      <c r="EV50" s="55"/>
+      <c r="EW50" s="55"/>
+      <c r="EX50" s="55"/>
+      <c r="EY50" s="55"/>
+      <c r="EZ50" s="55"/>
+      <c r="FA50" s="55"/>
+      <c r="FB50" s="55"/>
+      <c r="FC50" s="55"/>
+      <c r="FD50" s="55"/>
+      <c r="FE50" s="55"/>
+      <c r="FF50" s="55"/>
+      <c r="FG50" s="55"/>
+      <c r="FH50" s="55"/>
+      <c r="FI50" s="55"/>
+      <c r="FK50" s="55"/>
+      <c r="FL50" s="55"/>
+      <c r="FM50" s="55"/>
+      <c r="FN50" s="55"/>
+      <c r="FO50" s="55"/>
+      <c r="FP50" s="55"/>
+      <c r="FQ50" s="55"/>
+      <c r="FR50" s="55"/>
+      <c r="FS50" s="55"/>
+      <c r="FT50" s="55"/>
+      <c r="FU50" s="55"/>
+      <c r="FV50" s="55"/>
+      <c r="FW50" s="55"/>
+      <c r="FX50" s="55"/>
+      <c r="FY50" s="55"/>
+      <c r="FZ50" s="55"/>
+      <c r="GA50" s="55"/>
+      <c r="GB50" s="55"/>
+      <c r="GC50" s="55"/>
+      <c r="GD50" s="55"/>
+      <c r="GE50" s="55"/>
+      <c r="GF50" s="55"/>
+      <c r="GG50" s="55"/>
+      <c r="GH50" s="55"/>
+      <c r="GI50" s="55"/>
+      <c r="GJ50" s="55"/>
+      <c r="GK50" s="55"/>
+      <c r="GL50" s="55"/>
+      <c r="GM50" s="55"/>
+      <c r="GN50" s="55"/>
+      <c r="GO50" s="55"/>
+      <c r="GP50" s="55"/>
+      <c r="GQ50" s="55"/>
+      <c r="GR50" s="55"/>
+      <c r="GS50" s="55"/>
+      <c r="GT50" s="55"/>
+      <c r="GU50" s="55"/>
+      <c r="GV50" s="55"/>
+      <c r="GW50" s="55"/>
+      <c r="GX50" s="55"/>
+      <c r="GY50" s="55"/>
+      <c r="GZ50" s="55"/>
+      <c r="HA50" s="55"/>
+      <c r="HB50" s="55"/>
+      <c r="HC50" s="55"/>
+      <c r="HD50" s="55"/>
+      <c r="HE50" s="55"/>
+      <c r="HF50" s="55"/>
+      <c r="HG50" s="55"/>
+      <c r="HH50" s="55"/>
+      <c r="HI50" s="55"/>
+      <c r="HJ50" s="55"/>
+      <c r="HK50" s="55"/>
+      <c r="HL50" s="55"/>
+      <c r="HM50" s="55"/>
+      <c r="HN50" s="55"/>
+      <c r="HO50" s="55"/>
+      <c r="HP50" s="55"/>
+      <c r="HQ50" s="55"/>
+      <c r="HR50" s="55"/>
+      <c r="HS50" s="55"/>
+      <c r="HT50" s="55"/>
+      <c r="HU50" s="55"/>
+      <c r="HV50" s="55"/>
+      <c r="HW50" s="55"/>
+      <c r="HX50" s="55"/>
+      <c r="HY50" s="55"/>
+      <c r="HZ50" s="55"/>
+      <c r="IA50" s="55"/>
+      <c r="IB50" s="55"/>
+      <c r="IC50" s="55"/>
+      <c r="ID50" s="55"/>
+      <c r="IE50" s="55"/>
+      <c r="IF50" s="55"/>
+      <c r="IG50" s="55"/>
+      <c r="IH50" s="55"/>
+      <c r="II50" s="55"/>
+      <c r="IJ50" s="55"/>
+      <c r="IK50" s="55"/>
+      <c r="IL50" s="55"/>
+      <c r="IM50" s="55"/>
+      <c r="IN50" s="55"/>
+      <c r="IO50" s="55"/>
+      <c r="IP50" s="55"/>
+      <c r="IQ50" s="55"/>
+      <c r="IR50" s="55"/>
+      <c r="IS50" s="55"/>
+      <c r="IT50" s="55"/>
+      <c r="IU50" s="55"/>
+      <c r="IV50" s="55"/>
+      <c r="IW50" s="55"/>
+      <c r="IX50" s="55"/>
+      <c r="IY50" s="55"/>
+      <c r="IZ50" s="55"/>
+      <c r="JA50" s="55"/>
+      <c r="JB50" s="55"/>
+      <c r="JC50" s="55"/>
+      <c r="JD50" s="55"/>
+      <c r="JE50" s="55"/>
+      <c r="JF50" s="55"/>
+      <c r="JG50" s="55"/>
+      <c r="JH50" s="55"/>
+      <c r="JI50" s="55"/>
+      <c r="JJ50" s="55"/>
+      <c r="JK50" s="55"/>
+      <c r="JL50" s="55"/>
+      <c r="JM50" s="55"/>
+      <c r="JN50" s="55"/>
+      <c r="JO50" s="55"/>
+      <c r="JP50" s="55"/>
+      <c r="JQ50" s="55"/>
+      <c r="JR50" s="55"/>
+      <c r="JS50" s="55"/>
+      <c r="JT50" s="55"/>
+      <c r="JU50" s="55"/>
+      <c r="JV50" s="55"/>
+      <c r="JW50" s="55"/>
+      <c r="JX50" s="55"/>
+      <c r="JY50" s="55"/>
+      <c r="JZ50" s="55"/>
+      <c r="KA50" s="55"/>
+      <c r="KB50" s="55"/>
+      <c r="KC50" s="55"/>
+      <c r="KD50" s="55"/>
+      <c r="KE50" s="55"/>
+      <c r="KF50" s="55"/>
+      <c r="KG50" s="55"/>
+      <c r="KH50" s="55"/>
+      <c r="KI50" s="55"/>
+      <c r="KJ50" s="55"/>
+      <c r="KK50" s="55"/>
+      <c r="KL50" s="55"/>
+      <c r="KM50" s="55"/>
+      <c r="KN50" s="55"/>
+      <c r="KO50" s="55"/>
+      <c r="KP50" s="55"/>
+      <c r="KQ50" s="55"/>
+      <c r="KR50" s="55"/>
+      <c r="KS50" s="55"/>
+      <c r="KT50" s="55"/>
+      <c r="KU50" s="55"/>
+      <c r="KV50" s="55"/>
+      <c r="KW50" s="55"/>
+      <c r="KX50" s="55"/>
+      <c r="KY50" s="55"/>
+      <c r="KZ50" s="55"/>
+      <c r="LA50" s="55"/>
+      <c r="LB50" s="55"/>
+      <c r="LC50" s="55"/>
+      <c r="LD50" s="55"/>
+      <c r="LE50" s="55"/>
+      <c r="LF50" s="55"/>
+      <c r="LG50" s="55"/>
+      <c r="LH50" s="55"/>
+      <c r="LI50" s="55"/>
+      <c r="LJ50" s="55"/>
+      <c r="LK50" s="55"/>
+      <c r="LL50" s="55"/>
+      <c r="LM50" s="55"/>
+      <c r="LN50" s="55"/>
+      <c r="LO50" s="55"/>
+      <c r="LP50" s="55"/>
+      <c r="LQ50" s="55"/>
+      <c r="LR50" s="55"/>
+      <c r="LS50" s="55"/>
+      <c r="LT50" s="55"/>
+      <c r="LU50" s="55"/>
+      <c r="LV50" s="55"/>
+      <c r="LW50" s="55"/>
+      <c r="LX50" s="55"/>
+      <c r="LY50" s="55"/>
+      <c r="LZ50" s="55"/>
+      <c r="MA50" s="55"/>
+      <c r="MB50" s="55"/>
+      <c r="MC50" s="55"/>
+      <c r="MD50" s="55"/>
+      <c r="ME50" s="55"/>
+      <c r="MF50" s="55"/>
+      <c r="MG50" s="55"/>
+      <c r="MH50" s="55"/>
+      <c r="MI50" s="55"/>
+      <c r="MJ50" s="55"/>
+      <c r="MK50" s="55"/>
+      <c r="ML50" s="55"/>
+      <c r="MM50" s="55"/>
+      <c r="MN50" s="55"/>
+      <c r="MO50" s="55"/>
+      <c r="MP50" s="55"/>
+      <c r="MQ50" s="55"/>
+      <c r="MR50" s="55"/>
+      <c r="MS50" s="55"/>
+      <c r="MT50" s="55"/>
+      <c r="MU50" s="55"/>
+      <c r="MV50" s="55"/>
+      <c r="MW50" s="55"/>
+      <c r="MX50" s="55"/>
+      <c r="MY50" s="55"/>
+      <c r="MZ50" s="55"/>
+      <c r="NA50" s="55"/>
+      <c r="NB50" s="55"/>
+      <c r="NC50" s="55"/>
+      <c r="ND50" s="55"/>
+      <c r="NE50" s="55"/>
+      <c r="NF50" s="55"/>
+      <c r="NG50" s="55"/>
+      <c r="NH50" s="55"/>
+      <c r="NI50" s="55"/>
+      <c r="NJ50" s="55"/>
+      <c r="NK50" s="55"/>
+      <c r="NL50" s="55"/>
+      <c r="NM50" s="55"/>
+      <c r="NN50" s="55"/>
+      <c r="NO50" s="55"/>
+      <c r="NP50" s="55"/>
+      <c r="NQ50" s="55"/>
+      <c r="NR50" s="55"/>
+      <c r="NS50" s="55"/>
+      <c r="NT50" s="55"/>
+      <c r="NU50" s="55"/>
+      <c r="NV50" s="55"/>
+      <c r="NW50" s="55"/>
+      <c r="NX50" s="55"/>
+      <c r="NY50" s="55"/>
+      <c r="NZ50" s="55"/>
+      <c r="OA50" s="55"/>
+      <c r="OB50" s="55"/>
+      <c r="OC50" s="55"/>
+      <c r="OD50" s="55"/>
+      <c r="OE50" s="55"/>
+      <c r="OF50" s="55"/>
+      <c r="OG50" s="55"/>
+      <c r="OH50" s="55"/>
+      <c r="OI50" s="55"/>
+      <c r="OJ50" s="55"/>
+      <c r="OK50" s="55"/>
+      <c r="OL50" s="55"/>
+      <c r="OM50" s="55"/>
+      <c r="ON50" s="55"/>
+      <c r="OO50" s="55"/>
+      <c r="OP50" s="55"/>
+      <c r="OQ50" s="55"/>
+      <c r="OR50" s="55"/>
+      <c r="OS50" s="55"/>
+      <c r="OT50" s="55"/>
+      <c r="OU50" s="55"/>
+      <c r="OV50" s="55"/>
+      <c r="OW50" s="55"/>
+      <c r="OX50" s="55"/>
+      <c r="OY50" s="55"/>
+      <c r="OZ50" s="55"/>
+      <c r="PA50" s="55"/>
+      <c r="PB50" s="55"/>
+      <c r="PC50" s="55"/>
+      <c r="PD50" s="55"/>
+      <c r="PE50" s="55"/>
+      <c r="PF50" s="55"/>
+      <c r="PG50" s="55"/>
+      <c r="PH50" s="55"/>
+      <c r="PI50" s="55"/>
+      <c r="PJ50" s="55"/>
+      <c r="PK50" s="55"/>
+      <c r="PL50" s="55"/>
+      <c r="PM50" s="55"/>
+      <c r="PN50" s="55"/>
+      <c r="PO50" s="55"/>
+      <c r="PP50" s="55"/>
+      <c r="PQ50" s="55"/>
+      <c r="PR50" s="55"/>
+      <c r="PS50" s="55"/>
+      <c r="PT50" s="55"/>
+      <c r="PU50" s="55"/>
+      <c r="PV50" s="55"/>
+      <c r="PW50" s="55"/>
+      <c r="PX50" s="55"/>
+      <c r="PY50" s="55"/>
+      <c r="PZ50" s="55"/>
+      <c r="QA50" s="55"/>
+      <c r="QB50" s="55"/>
+      <c r="QC50" s="55"/>
+      <c r="QD50" s="55"/>
+      <c r="QE50" s="55"/>
+      <c r="QF50" s="55"/>
+      <c r="QG50" s="55"/>
+      <c r="QH50" s="55"/>
+      <c r="QI50" s="55"/>
+      <c r="QJ50" s="55"/>
+      <c r="QK50" s="55"/>
+      <c r="QL50" s="55"/>
+      <c r="QM50" s="55"/>
+      <c r="QN50" s="55"/>
+      <c r="QO50" s="55"/>
+      <c r="QP50" s="55"/>
+      <c r="QQ50" s="55"/>
+      <c r="QR50" s="55"/>
+      <c r="QS50" s="55"/>
+      <c r="QT50" s="55"/>
+      <c r="QU50" s="55"/>
+      <c r="QV50" s="55"/>
+      <c r="QW50" s="55"/>
+      <c r="QX50" s="55"/>
+      <c r="QY50" s="55"/>
+      <c r="QZ50" s="55"/>
+      <c r="RA50" s="55"/>
+      <c r="RB50" s="55"/>
+      <c r="RC50" s="55"/>
+      <c r="RD50" s="55"/>
+      <c r="RE50" s="55"/>
+      <c r="RF50" s="55"/>
+      <c r="RG50" s="55"/>
+      <c r="RH50" s="55"/>
+      <c r="RI50" s="55"/>
+      <c r="RJ50" s="55"/>
+      <c r="RK50" s="55"/>
+      <c r="RL50" s="55"/>
+      <c r="RM50" s="55"/>
+      <c r="RN50" s="55"/>
+      <c r="RO50" s="55"/>
+      <c r="RP50" s="55"/>
+      <c r="RQ50" s="55"/>
+      <c r="RR50" s="55"/>
+      <c r="RS50" s="55"/>
+      <c r="RT50" s="55"/>
+      <c r="RU50" s="55"/>
+      <c r="RV50" s="55"/>
+      <c r="RW50" s="55"/>
+      <c r="RX50" s="55"/>
+      <c r="RY50" s="55"/>
+      <c r="RZ50" s="55"/>
+      <c r="SA50" s="55"/>
+      <c r="SB50" s="55"/>
+      <c r="SC50" s="55"/>
+      <c r="SD50" s="55"/>
+      <c r="SE50" s="55"/>
+      <c r="SF50" s="55"/>
+      <c r="SG50" s="55"/>
+      <c r="SH50" s="55"/>
+      <c r="SI50" s="55"/>
+      <c r="SJ50" s="55"/>
+      <c r="SK50" s="55"/>
+      <c r="SL50" s="55"/>
+      <c r="SM50" s="55"/>
+      <c r="SN50" s="55"/>
+      <c r="SO50" s="55"/>
+      <c r="SP50" s="55"/>
+      <c r="SQ50" s="55"/>
+      <c r="SR50" s="55"/>
+      <c r="SS50" s="55"/>
+      <c r="ST50" s="55"/>
+      <c r="SU50" s="55"/>
+      <c r="SV50" s="55"/>
+      <c r="SW50" s="55"/>
+      <c r="SX50" s="55"/>
+      <c r="SY50" s="55"/>
+      <c r="SZ50" s="55"/>
+      <c r="TA50" s="55"/>
+      <c r="TB50" s="55"/>
+      <c r="TC50" s="55"/>
+      <c r="TD50" s="55"/>
+      <c r="TE50" s="55"/>
+      <c r="TF50" s="55"/>
+      <c r="TG50" s="55"/>
+      <c r="TH50" s="55"/>
+      <c r="TI50" s="55"/>
+      <c r="TJ50" s="55"/>
+      <c r="TK50" s="55"/>
+      <c r="TL50" s="55"/>
+      <c r="TM50" s="55"/>
+      <c r="TN50" s="55"/>
+      <c r="TO50" s="55"/>
+      <c r="TP50" s="55"/>
+      <c r="TQ50" s="55"/>
+      <c r="TR50" s="55"/>
+      <c r="TS50" s="55"/>
+      <c r="TT50" s="55"/>
+      <c r="TU50" s="55"/>
+      <c r="TV50" s="55"/>
+      <c r="TW50" s="55"/>
+      <c r="TX50" s="55"/>
+      <c r="TY50" s="55"/>
+      <c r="TZ50" s="55"/>
+      <c r="UA50" s="55"/>
+      <c r="UB50" s="55"/>
+      <c r="UC50" s="55"/>
+      <c r="UD50" s="55"/>
+      <c r="UE50" s="55"/>
+      <c r="UF50" s="55"/>
+      <c r="UG50" s="55"/>
+      <c r="UH50" s="55"/>
+      <c r="UI50" s="55"/>
+      <c r="UJ50" s="55"/>
+      <c r="UK50" s="55"/>
+      <c r="UL50" s="55"/>
+      <c r="UM50" s="55"/>
+      <c r="UN50" s="55"/>
+      <c r="UO50" s="55"/>
+      <c r="UP50" s="55"/>
+      <c r="UQ50" s="55"/>
+      <c r="UR50" s="55"/>
+      <c r="US50" s="55"/>
+      <c r="UT50" s="55"/>
+      <c r="UU50" s="55"/>
+      <c r="UV50" s="55"/>
+      <c r="UW50" s="55"/>
+      <c r="UX50" s="55"/>
+      <c r="UY50" s="55"/>
+      <c r="UZ50" s="55"/>
+      <c r="VA50" s="55"/>
+      <c r="VB50" s="55"/>
+      <c r="VC50" s="55"/>
+      <c r="VD50" s="55"/>
+      <c r="VE50" s="55"/>
+      <c r="VF50" s="55"/>
+      <c r="VG50" s="55"/>
+      <c r="VH50" s="55"/>
+      <c r="VI50" s="55"/>
+      <c r="VJ50" s="55"/>
+      <c r="VK50" s="55"/>
+      <c r="VL50" s="55"/>
+      <c r="VM50" s="55"/>
+      <c r="VN50" s="55"/>
+      <c r="VO50" s="55"/>
+      <c r="VP50" s="55"/>
+      <c r="VQ50" s="55"/>
+      <c r="VR50" s="55"/>
+      <c r="VS50" s="55"/>
+      <c r="VT50" s="55"/>
+      <c r="VU50" s="55"/>
+      <c r="VV50" s="55"/>
+      <c r="VW50" s="55"/>
+      <c r="VX50" s="55"/>
+      <c r="VY50" s="55"/>
+      <c r="VZ50" s="55"/>
+      <c r="WA50" s="55"/>
+      <c r="WB50" s="55"/>
+      <c r="WC50" s="55"/>
+      <c r="WD50" s="55"/>
+      <c r="WE50" s="55"/>
+      <c r="WF50" s="55"/>
+      <c r="WG50" s="55"/>
+      <c r="WH50" s="55"/>
+      <c r="WI50" s="55"/>
+      <c r="WJ50" s="55"/>
+      <c r="WK50" s="55"/>
+      <c r="WL50" s="55"/>
+      <c r="WM50" s="55"/>
+      <c r="WN50" s="55"/>
+      <c r="WO50" s="55"/>
+      <c r="WP50" s="55"/>
+      <c r="WQ50" s="55"/>
+      <c r="WR50" s="55"/>
+      <c r="WS50" s="55"/>
+      <c r="WT50" s="55"/>
+      <c r="WU50" s="55"/>
+      <c r="WV50" s="55"/>
+      <c r="WW50" s="55"/>
+      <c r="WX50" s="55"/>
+      <c r="WY50" s="55"/>
+      <c r="WZ50" s="55"/>
+      <c r="XA50" s="55"/>
+      <c r="XD50" s="55"/>
+      <c r="XG50" s="55"/>
+      <c r="XH50" s="55"/>
+      <c r="XK50" s="55"/>
+      <c r="XL50" s="55"/>
+      <c r="XN50" s="55"/>
+      <c r="XO50" s="55"/>
+      <c r="XP50" s="55"/>
+      <c r="XQ50" s="55"/>
+      <c r="XR50" s="55"/>
+      <c r="XU50" s="55"/>
+      <c r="XV50" s="55"/>
+      <c r="XW50" s="55"/>
+      <c r="XZ50" s="55"/>
+      <c r="YB50" s="55"/>
+      <c r="YC50" s="55"/>
+      <c r="YD50" s="55"/>
+      <c r="YE50" s="55"/>
+      <c r="YF50" s="55"/>
+      <c r="YG50" s="55"/>
+      <c r="YH50" s="55"/>
+      <c r="YI50" s="55"/>
+      <c r="YJ50" s="55"/>
+      <c r="YK50" s="55"/>
+      <c r="YL50" s="55"/>
+      <c r="YM50" s="55"/>
+      <c r="YN50" s="55"/>
+      <c r="YO50" s="55"/>
+      <c r="YP50" s="55"/>
+      <c r="YQ50" s="55"/>
+      <c r="YR50" s="55"/>
+      <c r="YS50" s="55"/>
+      <c r="YT50" s="55"/>
+      <c r="YU50" s="55"/>
+      <c r="YV50" s="55"/>
+      <c r="YW50" s="55"/>
+      <c r="YX50" s="55"/>
+      <c r="YY50" s="55"/>
+      <c r="YZ50" s="55"/>
+      <c r="ZB50" s="55"/>
+      <c r="ZE50" s="55"/>
+      <c r="ZF50" s="55"/>
+      <c r="ZG50" s="55"/>
+      <c r="ZH50" s="55"/>
+      <c r="ZM50" s="55"/>
+      <c r="ZN50" s="55"/>
+      <c r="ZO50" s="55"/>
+      <c r="ZP50" s="55"/>
+      <c r="ZQ50" s="55"/>
+      <c r="ZR50" s="55"/>
+      <c r="ZW50" s="55"/>
+      <c r="ZX50" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="216">
     <mergeCell ref="CP1:FI4"/>
     <mergeCell ref="A2:M5"/>
     <mergeCell ref="O2:AO2"/>
@@ -36183,104 +36929,120 @@
     <mergeCell ref="EJ22:ES22"/>
     <mergeCell ref="ET22:FI22"/>
     <mergeCell ref="A23:M23"/>
-    <mergeCell ref="N23:CD23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:AP23"/>
+    <mergeCell ref="AQ23:AV23"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="BA23:BM23"/>
+    <mergeCell ref="BN23:BT23"/>
+    <mergeCell ref="BU23:CD23"/>
     <mergeCell ref="CE23:CQ23"/>
-    <mergeCell ref="CR23:DC23"/>
+    <mergeCell ref="CR23:CW23"/>
+    <mergeCell ref="CX23:DC23"/>
     <mergeCell ref="DD23:DP23"/>
     <mergeCell ref="DQ23:EC23"/>
     <mergeCell ref="ED23:EI23"/>
     <mergeCell ref="EJ23:ES23"/>
     <mergeCell ref="ET23:FI23"/>
-    <mergeCell ref="A25:M26"/>
-    <mergeCell ref="O25:AY27"/>
-    <mergeCell ref="AZ25:BQ25"/>
-    <mergeCell ref="BS25:CO25"/>
-    <mergeCell ref="CQ25:DR27"/>
-    <mergeCell ref="DS25:EJ25"/>
-    <mergeCell ref="EL25:FH25"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="N24:CD24"/>
+    <mergeCell ref="CE24:CQ24"/>
+    <mergeCell ref="CR24:DC24"/>
+    <mergeCell ref="DD24:DP24"/>
+    <mergeCell ref="DQ24:EC24"/>
+    <mergeCell ref="ED24:EI24"/>
+    <mergeCell ref="EJ24:ES24"/>
+    <mergeCell ref="ET24:FI24"/>
+    <mergeCell ref="A26:M27"/>
+    <mergeCell ref="O26:AY28"/>
     <mergeCell ref="AZ26:BQ26"/>
     <mergeCell ref="BS26:CO26"/>
+    <mergeCell ref="CQ26:DR28"/>
     <mergeCell ref="DS26:EJ26"/>
     <mergeCell ref="EL26:FH26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="O28:AY30"/>
-    <mergeCell ref="AZ28:BQ28"/>
-    <mergeCell ref="BS28:CO28"/>
-    <mergeCell ref="CQ28:FH28"/>
+    <mergeCell ref="AZ27:BQ27"/>
+    <mergeCell ref="BS27:CO27"/>
+    <mergeCell ref="DS27:EJ27"/>
+    <mergeCell ref="EL27:FH27"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="O29:AY31"/>
     <mergeCell ref="AZ29:BQ29"/>
     <mergeCell ref="BS29:CO29"/>
     <mergeCell ref="CQ29:FH29"/>
-    <mergeCell ref="A31:AU31"/>
-    <mergeCell ref="AW31:FE31"/>
-    <mergeCell ref="FF31:FI31"/>
+    <mergeCell ref="AZ30:BQ30"/>
+    <mergeCell ref="BS30:CO30"/>
+    <mergeCell ref="CQ30:FH30"/>
+    <mergeCell ref="A32:AU32"/>
     <mergeCell ref="AW32:FE32"/>
-    <mergeCell ref="A33:AI33"/>
-    <mergeCell ref="AJ33:FE33"/>
-    <mergeCell ref="FF33:FI33"/>
+    <mergeCell ref="FF32:FI32"/>
+    <mergeCell ref="AW33:FE33"/>
+    <mergeCell ref="A34:AI34"/>
     <mergeCell ref="AJ34:FE34"/>
-    <mergeCell ref="A35:CC35"/>
-    <mergeCell ref="CF35:FI35"/>
-    <mergeCell ref="A36:AB36"/>
-    <mergeCell ref="AD36:AX36"/>
-    <mergeCell ref="AZ36:BZ36"/>
-    <mergeCell ref="CA36:CD36"/>
-    <mergeCell ref="CF36:DG36"/>
-    <mergeCell ref="DI36:EC36"/>
-    <mergeCell ref="EE36:FE36"/>
-    <mergeCell ref="FF36:FI36"/>
+    <mergeCell ref="FF34:FI34"/>
+    <mergeCell ref="AJ35:FE35"/>
+    <mergeCell ref="A36:CC36"/>
+    <mergeCell ref="CF36:FI36"/>
     <mergeCell ref="A37:AB37"/>
     <mergeCell ref="AD37:AX37"/>
     <mergeCell ref="AZ37:BZ37"/>
+    <mergeCell ref="CA37:CD37"/>
     <mergeCell ref="CF37:DG37"/>
     <mergeCell ref="DI37:EC37"/>
-    <mergeCell ref="EE37:FF37"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="AL38:AP38"/>
-    <mergeCell ref="AR38:BN38"/>
-    <mergeCell ref="BP38:BV38"/>
-    <mergeCell ref="BW38:BY38"/>
-    <mergeCell ref="CA38:CD38"/>
-    <mergeCell ref="CF38:DJ38"/>
-    <mergeCell ref="DP38:DT38"/>
-    <mergeCell ref="DV38:ER38"/>
-    <mergeCell ref="ET38:EZ38"/>
-    <mergeCell ref="FA38:FC38"/>
-    <mergeCell ref="FF38:FI38"/>
-    <mergeCell ref="A39:AI39"/>
-    <mergeCell ref="CF39:DQ39"/>
-    <mergeCell ref="A40:BZ40"/>
-    <mergeCell ref="CA40:CD40"/>
-    <mergeCell ref="CF40:FE40"/>
-    <mergeCell ref="FF40:FI40"/>
+    <mergeCell ref="EE37:FE37"/>
+    <mergeCell ref="FF37:FI37"/>
+    <mergeCell ref="A38:AB38"/>
+    <mergeCell ref="AD38:AX38"/>
+    <mergeCell ref="AZ38:BZ38"/>
+    <mergeCell ref="CF38:DG38"/>
+    <mergeCell ref="DI38:EC38"/>
+    <mergeCell ref="EE38:FF38"/>
+    <mergeCell ref="A39:AE39"/>
+    <mergeCell ref="AL39:AP39"/>
+    <mergeCell ref="AR39:BN39"/>
+    <mergeCell ref="BP39:BV39"/>
+    <mergeCell ref="BW39:BY39"/>
+    <mergeCell ref="CA39:CD39"/>
+    <mergeCell ref="CF39:DJ39"/>
+    <mergeCell ref="DP39:DT39"/>
+    <mergeCell ref="DV39:ER39"/>
+    <mergeCell ref="ET39:EZ39"/>
+    <mergeCell ref="FA39:FC39"/>
+    <mergeCell ref="FF39:FI39"/>
+    <mergeCell ref="A40:AI40"/>
+    <mergeCell ref="CF40:DQ40"/>
     <mergeCell ref="A41:BZ41"/>
+    <mergeCell ref="CA41:CD41"/>
     <mergeCell ref="CF41:FE41"/>
-    <mergeCell ref="A42:CC42"/>
-    <mergeCell ref="CF42:FH42"/>
-    <mergeCell ref="A43:AB43"/>
-    <mergeCell ref="AD43:AX43"/>
-    <mergeCell ref="AZ43:BZ43"/>
-    <mergeCell ref="CA43:CD43"/>
-    <mergeCell ref="CF43:DG43"/>
-    <mergeCell ref="DI43:EC43"/>
-    <mergeCell ref="EE43:FE43"/>
-    <mergeCell ref="FF43:FI43"/>
+    <mergeCell ref="FF41:FI41"/>
+    <mergeCell ref="A42:BZ42"/>
+    <mergeCell ref="CF42:FE42"/>
+    <mergeCell ref="A43:CC43"/>
+    <mergeCell ref="CF43:FH43"/>
     <mergeCell ref="A44:AB44"/>
     <mergeCell ref="AD44:AX44"/>
     <mergeCell ref="AZ44:BZ44"/>
+    <mergeCell ref="CA44:CD44"/>
     <mergeCell ref="CF44:DG44"/>
     <mergeCell ref="DI44:EC44"/>
     <mergeCell ref="EE44:FE44"/>
-    <mergeCell ref="A45:CC45"/>
-    <mergeCell ref="CF45:FH45"/>
-    <mergeCell ref="A46:BZ46"/>
-    <mergeCell ref="CA46:CD46"/>
-    <mergeCell ref="CF46:FE46"/>
-    <mergeCell ref="FF46:FI46"/>
+    <mergeCell ref="FF44:FI44"/>
+    <mergeCell ref="A45:AB45"/>
+    <mergeCell ref="AD45:AX45"/>
+    <mergeCell ref="AZ45:BZ45"/>
+    <mergeCell ref="CF45:DG45"/>
+    <mergeCell ref="DI45:EC45"/>
+    <mergeCell ref="EE45:FE45"/>
+    <mergeCell ref="A46:CC46"/>
+    <mergeCell ref="CF46:FH46"/>
     <mergeCell ref="A47:BZ47"/>
+    <mergeCell ref="CA47:CD47"/>
     <mergeCell ref="CF47:FE47"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="CI48:CM48"/>
+    <mergeCell ref="FF47:FI47"/>
+    <mergeCell ref="A48:BZ48"/>
+    <mergeCell ref="CF48:FE48"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="CI49:CM49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -36289,7 +37051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f208a3b0-9b7f-49ac-a26c-82c70324708c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eb5f3bfd-9401-4ca2-9d77-ef1b16c04651}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8908869b-cfb5-456a-a522-ebf7e0eb037a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8afc2edd-957e-4bdc-a70d-6ed614adbecf}">
   <dimension ref="A1:ZZ50"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -37051,7 +37051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eb5f3bfd-9401-4ca2-9d77-ef1b16c04651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29261bd4-4c69-4cb4-b8f6-be009aebf102}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
   <si>
     <t>Приложение № 1 к постановлению Правительства Российской Федерации от 26 декабря 2011 г. № 1137
 (в редакции постановления Правительства Российской Федерации от 16 августа 2024 г. № 1096)</t>
@@ -1315,8 +1315,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8afc2edd-957e-4bdc-a70d-6ed614adbecf}">
-  <dimension ref="A1:ZZ50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1b92b08d-9b91-421a-9c4c-fe6bf0f7388d}">
+  <dimension ref="A1:ZZ49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -17020,104 +17020,90 @@
       </c>
     </row>
     <row r="23" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A23" s="64">
-        <v>1</v>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="76" t="s">
+        <v>63</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="64">
-        <v>1</v>
-      </c>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="67"/>
-      <c r="AN23" s="67"/>
-      <c r="AO23" s="67"/>
-      <c r="AP23" s="67"/>
-      <c r="AQ23" s="64">
-        <v>1</v>
-      </c>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="63"/>
-      <c r="AT23" s="63"/>
-      <c r="AU23" s="63"/>
-      <c r="AV23" s="63"/>
-      <c r="AW23" s="64">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="63"/>
-      <c r="AY23" s="63"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="64">
-        <v>1</v>
-      </c>
-      <c r="BB23" s="63"/>
-      <c r="BC23" s="63"/>
-      <c r="BD23" s="63"/>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="63"/>
-      <c r="BG23" s="63"/>
-      <c r="BH23" s="63"/>
-      <c r="BI23" s="63"/>
-      <c r="BJ23" s="63"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="63"/>
-      <c r="BN23" s="70">
-        <v>36526</v>
-      </c>
-      <c r="BO23" s="69"/>
-      <c r="BP23" s="69"/>
-      <c r="BQ23" s="69"/>
-      <c r="BR23" s="69"/>
-      <c r="BS23" s="69"/>
-      <c r="BT23" s="69"/>
-      <c r="BU23" s="70">
-        <v>36526</v>
-      </c>
-      <c r="BV23" s="69"/>
-      <c r="BW23" s="69"/>
-      <c r="BX23" s="69"/>
-      <c r="BY23" s="69"/>
-      <c r="BZ23" s="69"/>
-      <c r="CA23" s="69"/>
-      <c r="CB23" s="69"/>
-      <c r="CC23" s="69"/>
-      <c r="CD23" s="69"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="76"/>
+      <c r="AZ23" s="76"/>
+      <c r="BA23" s="76"/>
+      <c r="BB23" s="76"/>
+      <c r="BC23" s="76"/>
+      <c r="BD23" s="76"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="76"/>
+      <c r="BH23" s="76"/>
+      <c r="BI23" s="76"/>
+      <c r="BJ23" s="76"/>
+      <c r="BK23" s="76"/>
+      <c r="BL23" s="76"/>
+      <c r="BM23" s="76"/>
+      <c r="BN23" s="76"/>
+      <c r="BO23" s="76"/>
+      <c r="BP23" s="76"/>
+      <c r="BQ23" s="76"/>
+      <c r="BR23" s="76"/>
+      <c r="BS23" s="76"/>
+      <c r="BT23" s="76"/>
+      <c r="BU23" s="76"/>
+      <c r="BV23" s="76"/>
+      <c r="BW23" s="76"/>
+      <c r="BX23" s="76"/>
+      <c r="BY23" s="76"/>
+      <c r="BZ23" s="76"/>
+      <c r="CA23" s="76"/>
+      <c r="CB23" s="76"/>
+      <c r="CC23" s="76"/>
+      <c r="CD23" s="76"/>
       <c r="CE23" s="70">
         <v>36526</v>
       </c>
@@ -17133,17 +17119,15 @@
       <c r="CO23" s="69"/>
       <c r="CP23" s="69"/>
       <c r="CQ23" s="69"/>
-      <c r="CR23" s="64">
-        <v>1</v>
+      <c r="CR23" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="CS23" s="63"/>
       <c r="CT23" s="63"/>
       <c r="CU23" s="63"/>
       <c r="CV23" s="63"/>
       <c r="CW23" s="63"/>
-      <c r="CX23" s="63" t="s">
-        <v>61</v>
-      </c>
+      <c r="CX23" s="63"/>
       <c r="CY23" s="63"/>
       <c r="CZ23" s="63"/>
       <c r="DA23" s="63"/>
@@ -17179,16 +17163,16 @@
       <c r="EA23" s="69"/>
       <c r="EB23" s="69"/>
       <c r="EC23" s="69"/>
-      <c r="ED23" s="64">
-        <v>1</v>
+      <c r="ED23" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="EE23" s="63"/>
       <c r="EF23" s="63"/>
       <c r="EG23" s="63"/>
       <c r="EH23" s="63"/>
       <c r="EI23" s="63"/>
-      <c r="EJ23" s="64">
-        <v>1</v>
+      <c r="EJ23" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="EK23" s="63"/>
       <c r="EL23" s="63"/>
@@ -17199,8 +17183,8 @@
       <c r="EQ23" s="63"/>
       <c r="ER23" s="63"/>
       <c r="ES23" s="63"/>
-      <c r="ET23" s="64">
-        <v>1</v>
+      <c r="ET23" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="EU23" s="63"/>
       <c r="EV23" s="63"/>
@@ -17736,217 +17720,189 @@
       <c r="ZG23" s="55"/>
       <c r="ZH23" s="55"/>
       <c r="ZI23" s="55"/>
-      <c r="ZJ23" s="72">
-        <v>1</v>
-      </c>
-      <c r="ZL23" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="ZM23" s="72">
-        <v>1</v>
-      </c>
-      <c r="ZN23" s="72">
-        <v>1</v>
-      </c>
+      <c r="ZJ23" s="55"/>
+      <c r="ZK23" s="55"/>
+      <c r="ZL23" s="55"/>
+      <c r="ZM23" s="55"/>
+      <c r="ZN23" s="55"/>
+      <c r="ZO23" s="55"/>
       <c r="ZP23" s="55"/>
-      <c r="ZQ23" s="72">
-        <v>1</v>
-      </c>
-      <c r="ZV23" s="72">
-        <v>1</v>
-      </c>
-      <c r="ZW23" s="72">
-        <v>1</v>
-      </c>
-      <c r="ZX23" s="72">
-        <v>1</v>
-      </c>
-      <c r="ZZ23" s="72">
-        <v>1</v>
-      </c>
+      <c r="ZQ23" s="55"/>
+      <c r="ZR23" s="55"/>
+      <c r="ZS23" s="55"/>
+      <c r="ZT23" s="55"/>
+      <c r="ZU23" s="55"/>
+      <c r="ZV23" s="55"/>
+      <c r="ZW23" s="55"/>
+      <c r="ZX23" s="55"/>
+      <c r="ZY23" s="55"/>
+      <c r="ZZ23" s="55"/>
     </row>
-    <row r="24" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="76"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="76"/>
-      <c r="AR24" s="76"/>
-      <c r="AS24" s="76"/>
-      <c r="AT24" s="76"/>
-      <c r="AU24" s="76"/>
-      <c r="AV24" s="76"/>
-      <c r="AW24" s="76"/>
-      <c r="AX24" s="76"/>
-      <c r="AY24" s="76"/>
-      <c r="AZ24" s="76"/>
-      <c r="BA24" s="76"/>
-      <c r="BB24" s="76"/>
-      <c r="BC24" s="76"/>
-      <c r="BD24" s="76"/>
-      <c r="BE24" s="76"/>
-      <c r="BF24" s="76"/>
-      <c r="BG24" s="76"/>
-      <c r="BH24" s="76"/>
-      <c r="BI24" s="76"/>
-      <c r="BJ24" s="76"/>
-      <c r="BK24" s="76"/>
-      <c r="BL24" s="76"/>
-      <c r="BM24" s="76"/>
-      <c r="BN24" s="76"/>
-      <c r="BO24" s="76"/>
-      <c r="BP24" s="76"/>
-      <c r="BQ24" s="76"/>
-      <c r="BR24" s="76"/>
-      <c r="BS24" s="76"/>
-      <c r="BT24" s="76"/>
-      <c r="BU24" s="76"/>
-      <c r="BV24" s="76"/>
-      <c r="BW24" s="76"/>
-      <c r="BX24" s="76"/>
-      <c r="BY24" s="76"/>
-      <c r="BZ24" s="76"/>
-      <c r="CA24" s="76"/>
-      <c r="CB24" s="76"/>
-      <c r="CC24" s="76"/>
-      <c r="CD24" s="76"/>
-      <c r="CE24" s="70">
-        <v>36526</v>
-      </c>
-      <c r="CF24" s="69"/>
-      <c r="CG24" s="69"/>
-      <c r="CH24" s="69"/>
-      <c r="CI24" s="69"/>
-      <c r="CJ24" s="69"/>
-      <c r="CK24" s="69"/>
-      <c r="CL24" s="69"/>
-      <c r="CM24" s="69"/>
-      <c r="CN24" s="69"/>
-      <c r="CO24" s="69"/>
-      <c r="CP24" s="69"/>
-      <c r="CQ24" s="69"/>
-      <c r="CR24" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="CS24" s="63"/>
-      <c r="CT24" s="63"/>
-      <c r="CU24" s="63"/>
-      <c r="CV24" s="63"/>
-      <c r="CW24" s="63"/>
-      <c r="CX24" s="63"/>
-      <c r="CY24" s="63"/>
-      <c r="CZ24" s="63"/>
-      <c r="DA24" s="63"/>
-      <c r="DB24" s="63"/>
-      <c r="DC24" s="63"/>
-      <c r="DD24" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="DE24" s="69"/>
-      <c r="DF24" s="69"/>
-      <c r="DG24" s="69"/>
-      <c r="DH24" s="69"/>
-      <c r="DI24" s="69"/>
-      <c r="DJ24" s="69"/>
-      <c r="DK24" s="69"/>
-      <c r="DL24" s="69"/>
-      <c r="DM24" s="69"/>
-      <c r="DN24" s="69"/>
-      <c r="DO24" s="69"/>
-      <c r="DP24" s="69"/>
-      <c r="DQ24" s="70">
-        <v>36526</v>
-      </c>
-      <c r="DR24" s="69"/>
-      <c r="DS24" s="69"/>
-      <c r="DT24" s="69"/>
-      <c r="DU24" s="69"/>
-      <c r="DV24" s="69"/>
-      <c r="DW24" s="69"/>
-      <c r="DX24" s="69"/>
-      <c r="DY24" s="69"/>
-      <c r="DZ24" s="69"/>
-      <c r="EA24" s="69"/>
-      <c r="EB24" s="69"/>
-      <c r="EC24" s="69"/>
-      <c r="ED24" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="EE24" s="63"/>
-      <c r="EF24" s="63"/>
-      <c r="EG24" s="63"/>
-      <c r="EH24" s="63"/>
-      <c r="EI24" s="63"/>
-      <c r="EJ24" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="EK24" s="63"/>
-      <c r="EL24" s="63"/>
-      <c r="EM24" s="63"/>
-      <c r="EN24" s="63"/>
-      <c r="EO24" s="63"/>
-      <c r="EP24" s="63"/>
-      <c r="EQ24" s="63"/>
-      <c r="ER24" s="63"/>
-      <c r="ES24" s="63"/>
-      <c r="ET24" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="EU24" s="63"/>
-      <c r="EV24" s="63"/>
-      <c r="EW24" s="63"/>
-      <c r="EX24" s="63"/>
-      <c r="EY24" s="63"/>
-      <c r="EZ24" s="63"/>
-      <c r="FA24" s="63"/>
-      <c r="FB24" s="63"/>
-      <c r="FC24" s="63"/>
-      <c r="FD24" s="63"/>
-      <c r="FE24" s="63"/>
-      <c r="FF24" s="63"/>
-      <c r="FG24" s="63"/>
-      <c r="FH24" s="63"/>
-      <c r="FI24" s="63"/>
+    <row r="24" spans="1:702" ht="1.5" customHeight="1">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="55"/>
+      <c r="BC24" s="55"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="55"/>
+      <c r="BF24" s="55"/>
+      <c r="BG24" s="55"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="55"/>
+      <c r="BJ24" s="55"/>
+      <c r="BK24" s="55"/>
+      <c r="BL24" s="55"/>
+      <c r="BM24" s="55"/>
+      <c r="BN24" s="55"/>
+      <c r="BO24" s="55"/>
+      <c r="BP24" s="55"/>
+      <c r="BQ24" s="55"/>
+      <c r="BR24" s="55"/>
+      <c r="BS24" s="55"/>
+      <c r="BT24" s="55"/>
+      <c r="BU24" s="55"/>
+      <c r="BV24" s="55"/>
+      <c r="BW24" s="55"/>
+      <c r="BX24" s="55"/>
+      <c r="BY24" s="55"/>
+      <c r="BZ24" s="55"/>
+      <c r="CA24" s="55"/>
+      <c r="CB24" s="55"/>
+      <c r="CC24" s="55"/>
+      <c r="CD24" s="55"/>
+      <c r="CE24" s="55"/>
+      <c r="CF24" s="55"/>
+      <c r="CG24" s="55"/>
+      <c r="CH24" s="55"/>
+      <c r="CI24" s="55"/>
+      <c r="CJ24" s="55"/>
+      <c r="CK24" s="55"/>
+      <c r="CL24" s="55"/>
+      <c r="CM24" s="55"/>
+      <c r="CN24" s="55"/>
+      <c r="CO24" s="55"/>
+      <c r="CP24" s="55"/>
+      <c r="CQ24" s="55"/>
+      <c r="CR24" s="55"/>
+      <c r="CS24" s="55"/>
+      <c r="CT24" s="55"/>
+      <c r="CU24" s="55"/>
+      <c r="CV24" s="55"/>
+      <c r="CW24" s="55"/>
+      <c r="CX24" s="55"/>
+      <c r="CY24" s="55"/>
+      <c r="CZ24" s="55"/>
+      <c r="DA24" s="55"/>
+      <c r="DB24" s="55"/>
+      <c r="DC24" s="55"/>
+      <c r="DD24" s="55"/>
+      <c r="DE24" s="55"/>
+      <c r="DF24" s="55"/>
+      <c r="DG24" s="55"/>
+      <c r="DH24" s="55"/>
+      <c r="DI24" s="55"/>
+      <c r="DJ24" s="55"/>
+      <c r="DK24" s="55"/>
+      <c r="DL24" s="55"/>
+      <c r="DM24" s="55"/>
+      <c r="DN24" s="55"/>
+      <c r="DO24" s="55"/>
+      <c r="DP24" s="55"/>
+      <c r="DQ24" s="55"/>
+      <c r="DR24" s="55"/>
+      <c r="DS24" s="55"/>
+      <c r="DT24" s="55"/>
+      <c r="DU24" s="55"/>
+      <c r="DV24" s="55"/>
+      <c r="DW24" s="55"/>
+      <c r="DX24" s="55"/>
+      <c r="DY24" s="55"/>
+      <c r="DZ24" s="55"/>
+      <c r="EA24" s="55"/>
+      <c r="EB24" s="55"/>
+      <c r="EC24" s="55"/>
+      <c r="ED24" s="55"/>
+      <c r="EE24" s="55"/>
+      <c r="EF24" s="55"/>
+      <c r="EG24" s="55"/>
+      <c r="EH24" s="55"/>
+      <c r="EI24" s="55"/>
+      <c r="EJ24" s="55"/>
+      <c r="EK24" s="55"/>
+      <c r="EL24" s="55"/>
+      <c r="EM24" s="55"/>
+      <c r="EN24" s="55"/>
+      <c r="EO24" s="55"/>
+      <c r="EP24" s="55"/>
+      <c r="EQ24" s="55"/>
+      <c r="ER24" s="55"/>
+      <c r="ES24" s="55"/>
+      <c r="ET24" s="55"/>
+      <c r="EU24" s="55"/>
+      <c r="EV24" s="55"/>
+      <c r="EW24" s="55"/>
+      <c r="EX24" s="55"/>
+      <c r="EY24" s="55"/>
+      <c r="EZ24" s="55"/>
+      <c r="FA24" s="55"/>
+      <c r="FB24" s="55"/>
+      <c r="FC24" s="55"/>
+      <c r="FD24" s="55"/>
+      <c r="FE24" s="55"/>
+      <c r="FF24" s="55"/>
+      <c r="FG24" s="55"/>
+      <c r="FH24" s="55"/>
+      <c r="FI24" s="55"/>
+      <c r="FJ24" s="55"/>
       <c r="FK24" s="55"/>
       <c r="FL24" s="55"/>
       <c r="FM24" s="55"/>
@@ -18484,170 +18440,177 @@
       <c r="ZY24" s="55"/>
       <c r="ZZ24" s="55"/>
     </row>
-    <row r="25" spans="1:702" ht="1.5" customHeight="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="2"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="55"/>
-      <c r="AO25" s="55"/>
-      <c r="AP25" s="55"/>
-      <c r="AQ25" s="55"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="55"/>
-      <c r="AT25" s="55"/>
-      <c r="AU25" s="55"/>
-      <c r="AV25" s="55"/>
-      <c r="AW25" s="55"/>
-      <c r="AX25" s="55"/>
-      <c r="AY25" s="55"/>
-      <c r="AZ25" s="55"/>
-      <c r="BA25" s="55"/>
-      <c r="BB25" s="55"/>
-      <c r="BC25" s="55"/>
-      <c r="BD25" s="55"/>
-      <c r="BE25" s="55"/>
-      <c r="BF25" s="55"/>
-      <c r="BG25" s="55"/>
-      <c r="BH25" s="55"/>
-      <c r="BI25" s="55"/>
-      <c r="BJ25" s="55"/>
-      <c r="BK25" s="55"/>
-      <c r="BL25" s="55"/>
-      <c r="BM25" s="55"/>
-      <c r="BN25" s="55"/>
-      <c r="BO25" s="55"/>
-      <c r="BP25" s="55"/>
-      <c r="BQ25" s="55"/>
-      <c r="BR25" s="55"/>
-      <c r="BS25" s="55"/>
-      <c r="BT25" s="55"/>
-      <c r="BU25" s="55"/>
-      <c r="BV25" s="55"/>
-      <c r="BW25" s="55"/>
-      <c r="BX25" s="55"/>
-      <c r="BY25" s="55"/>
-      <c r="BZ25" s="55"/>
-      <c r="CA25" s="55"/>
-      <c r="CB25" s="55"/>
-      <c r="CC25" s="55"/>
-      <c r="CD25" s="55"/>
-      <c r="CE25" s="55"/>
-      <c r="CF25" s="55"/>
-      <c r="CG25" s="55"/>
-      <c r="CH25" s="55"/>
-      <c r="CI25" s="55"/>
-      <c r="CJ25" s="55"/>
-      <c r="CK25" s="55"/>
-      <c r="CL25" s="55"/>
-      <c r="CM25" s="55"/>
-      <c r="CN25" s="55"/>
-      <c r="CO25" s="55"/>
-      <c r="CP25" s="55"/>
-      <c r="CQ25" s="55"/>
-      <c r="CR25" s="55"/>
-      <c r="CS25" s="55"/>
-      <c r="CT25" s="55"/>
-      <c r="CU25" s="55"/>
-      <c r="CV25" s="55"/>
-      <c r="CW25" s="55"/>
-      <c r="CX25" s="55"/>
-      <c r="CY25" s="55"/>
-      <c r="CZ25" s="55"/>
-      <c r="DA25" s="55"/>
-      <c r="DB25" s="55"/>
-      <c r="DC25" s="55"/>
-      <c r="DD25" s="55"/>
-      <c r="DE25" s="55"/>
-      <c r="DF25" s="55"/>
-      <c r="DG25" s="55"/>
-      <c r="DH25" s="55"/>
-      <c r="DI25" s="55"/>
-      <c r="DJ25" s="55"/>
-      <c r="DK25" s="55"/>
-      <c r="DL25" s="55"/>
-      <c r="DM25" s="55"/>
-      <c r="DN25" s="55"/>
-      <c r="DO25" s="55"/>
-      <c r="DP25" s="55"/>
-      <c r="DQ25" s="55"/>
-      <c r="DR25" s="55"/>
-      <c r="DS25" s="55"/>
-      <c r="DT25" s="55"/>
-      <c r="DU25" s="55"/>
-      <c r="DV25" s="55"/>
-      <c r="DW25" s="55"/>
-      <c r="DX25" s="55"/>
-      <c r="DY25" s="55"/>
-      <c r="DZ25" s="55"/>
-      <c r="EA25" s="55"/>
-      <c r="EB25" s="55"/>
-      <c r="EC25" s="55"/>
-      <c r="ED25" s="55"/>
-      <c r="EE25" s="55"/>
-      <c r="EF25" s="55"/>
-      <c r="EG25" s="55"/>
-      <c r="EH25" s="55"/>
-      <c r="EI25" s="55"/>
-      <c r="EJ25" s="55"/>
-      <c r="EK25" s="55"/>
-      <c r="EL25" s="55"/>
-      <c r="EM25" s="55"/>
-      <c r="EN25" s="55"/>
-      <c r="EO25" s="55"/>
-      <c r="EP25" s="55"/>
-      <c r="EQ25" s="55"/>
-      <c r="ER25" s="55"/>
-      <c r="ES25" s="55"/>
-      <c r="ET25" s="55"/>
-      <c r="EU25" s="55"/>
-      <c r="EV25" s="55"/>
-      <c r="EW25" s="55"/>
-      <c r="EX25" s="55"/>
-      <c r="EY25" s="55"/>
-      <c r="EZ25" s="55"/>
-      <c r="FA25" s="55"/>
-      <c r="FB25" s="55"/>
-      <c r="FC25" s="55"/>
-      <c r="FD25" s="55"/>
-      <c r="FE25" s="55"/>
-      <c r="FF25" s="55"/>
-      <c r="FG25" s="55"/>
-      <c r="FH25" s="55"/>
-      <c r="FI25" s="55"/>
+    <row r="25" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A25" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="O25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="78"/>
+      <c r="BA25" s="78"/>
+      <c r="BB25" s="78"/>
+      <c r="BC25" s="78"/>
+      <c r="BD25" s="78"/>
+      <c r="BE25" s="78"/>
+      <c r="BF25" s="78"/>
+      <c r="BG25" s="78"/>
+      <c r="BH25" s="78"/>
+      <c r="BI25" s="78"/>
+      <c r="BJ25" s="78"/>
+      <c r="BK25" s="78"/>
+      <c r="BL25" s="78"/>
+      <c r="BM25" s="78"/>
+      <c r="BN25" s="78"/>
+      <c r="BO25" s="78"/>
+      <c r="BP25" s="78"/>
+      <c r="BQ25" s="78"/>
+      <c r="BS25" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT25" s="79"/>
+      <c r="BU25" s="79"/>
+      <c r="BV25" s="79"/>
+      <c r="BW25" s="79"/>
+      <c r="BX25" s="79"/>
+      <c r="BY25" s="79"/>
+      <c r="BZ25" s="79"/>
+      <c r="CA25" s="79"/>
+      <c r="CB25" s="79"/>
+      <c r="CC25" s="79"/>
+      <c r="CD25" s="79"/>
+      <c r="CE25" s="79"/>
+      <c r="CF25" s="79"/>
+      <c r="CG25" s="79"/>
+      <c r="CH25" s="79"/>
+      <c r="CI25" s="79"/>
+      <c r="CJ25" s="79"/>
+      <c r="CK25" s="79"/>
+      <c r="CL25" s="79"/>
+      <c r="CM25" s="79"/>
+      <c r="CN25" s="79"/>
+      <c r="CO25" s="79"/>
+      <c r="CQ25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="CR25" s="3"/>
+      <c r="CS25" s="3"/>
+      <c r="CT25" s="3"/>
+      <c r="CU25" s="3"/>
+      <c r="CV25" s="3"/>
+      <c r="CW25" s="3"/>
+      <c r="CX25" s="3"/>
+      <c r="CY25" s="3"/>
+      <c r="CZ25" s="3"/>
+      <c r="DA25" s="3"/>
+      <c r="DB25" s="3"/>
+      <c r="DC25" s="3"/>
+      <c r="DD25" s="3"/>
+      <c r="DE25" s="3"/>
+      <c r="DF25" s="3"/>
+      <c r="DG25" s="3"/>
+      <c r="DH25" s="3"/>
+      <c r="DI25" s="3"/>
+      <c r="DJ25" s="3"/>
+      <c r="DK25" s="3"/>
+      <c r="DL25" s="3"/>
+      <c r="DM25" s="3"/>
+      <c r="DN25" s="3"/>
+      <c r="DO25" s="3"/>
+      <c r="DP25" s="3"/>
+      <c r="DQ25" s="3"/>
+      <c r="DR25" s="3"/>
+      <c r="DS25" s="78"/>
+      <c r="DT25" s="78"/>
+      <c r="DU25" s="78"/>
+      <c r="DV25" s="78"/>
+      <c r="DW25" s="78"/>
+      <c r="DX25" s="78"/>
+      <c r="DY25" s="78"/>
+      <c r="DZ25" s="78"/>
+      <c r="EA25" s="78"/>
+      <c r="EB25" s="78"/>
+      <c r="EC25" s="78"/>
+      <c r="ED25" s="78"/>
+      <c r="EE25" s="78"/>
+      <c r="EF25" s="78"/>
+      <c r="EG25" s="78"/>
+      <c r="EH25" s="78"/>
+      <c r="EI25" s="78"/>
+      <c r="EJ25" s="78"/>
+      <c r="EL25" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="EM25" s="79"/>
+      <c r="EN25" s="79"/>
+      <c r="EO25" s="79"/>
+      <c r="EP25" s="79"/>
+      <c r="EQ25" s="79"/>
+      <c r="ER25" s="79"/>
+      <c r="ES25" s="79"/>
+      <c r="ET25" s="79"/>
+      <c r="EU25" s="79"/>
+      <c r="EV25" s="79"/>
+      <c r="EW25" s="79"/>
+      <c r="EX25" s="79"/>
+      <c r="EY25" s="79"/>
+      <c r="EZ25" s="79"/>
+      <c r="FA25" s="79"/>
+      <c r="FB25" s="79"/>
+      <c r="FC25" s="79"/>
+      <c r="FD25" s="79"/>
+      <c r="FE25" s="79"/>
+      <c r="FF25" s="79"/>
+      <c r="FG25" s="79"/>
+      <c r="FH25" s="79"/>
       <c r="FJ25" s="55"/>
       <c r="FK25" s="55"/>
       <c r="FL25" s="55"/>
@@ -19173,23 +19136,18 @@
       <c r="ZL25" s="55"/>
       <c r="ZM25" s="55"/>
       <c r="ZN25" s="55"/>
-      <c r="ZO25" s="55"/>
-      <c r="ZP25" s="55"/>
-      <c r="ZQ25" s="55"/>
+      <c r="ZO25" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="ZP25" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="ZR25" s="55"/>
-      <c r="ZS25" s="55"/>
-      <c r="ZT25" s="55"/>
-      <c r="ZU25" s="55"/>
-      <c r="ZV25" s="55"/>
       <c r="ZW25" s="55"/>
       <c r="ZX25" s="55"/>
-      <c r="ZY25" s="55"/>
-      <c r="ZZ25" s="55"/>
     </row>
     <row r="26" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A26" s="77" t="s">
-        <v>65</v>
-      </c>
+      <c r="A26" s="77"/>
       <c r="B26" s="77"/>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
@@ -19202,9 +19160,7 @@
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
       <c r="M26" s="77"/>
-      <c r="O26" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -19241,52 +19197,52 @@
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
       <c r="AY26" s="3"/>
-      <c r="AZ26" s="78"/>
-      <c r="BA26" s="78"/>
-      <c r="BB26" s="78"/>
-      <c r="BC26" s="78"/>
-      <c r="BD26" s="78"/>
-      <c r="BE26" s="78"/>
-      <c r="BF26" s="78"/>
-      <c r="BG26" s="78"/>
-      <c r="BH26" s="78"/>
-      <c r="BI26" s="78"/>
-      <c r="BJ26" s="78"/>
-      <c r="BK26" s="78"/>
-      <c r="BL26" s="78"/>
-      <c r="BM26" s="78"/>
-      <c r="BN26" s="78"/>
-      <c r="BO26" s="78"/>
-      <c r="BP26" s="78"/>
-      <c r="BQ26" s="78"/>
-      <c r="BS26" s="79" t="s">
-        <v>67</v>
+      <c r="AZ26" s="47" t="s">
+        <v>70</v>
       </c>
-      <c r="BT26" s="79"/>
-      <c r="BU26" s="79"/>
-      <c r="BV26" s="79"/>
-      <c r="BW26" s="79"/>
-      <c r="BX26" s="79"/>
-      <c r="BY26" s="79"/>
-      <c r="BZ26" s="79"/>
-      <c r="CA26" s="79"/>
-      <c r="CB26" s="79"/>
-      <c r="CC26" s="79"/>
-      <c r="CD26" s="79"/>
-      <c r="CE26" s="79"/>
-      <c r="CF26" s="79"/>
-      <c r="CG26" s="79"/>
-      <c r="CH26" s="79"/>
-      <c r="CI26" s="79"/>
-      <c r="CJ26" s="79"/>
-      <c r="CK26" s="79"/>
-      <c r="CL26" s="79"/>
-      <c r="CM26" s="79"/>
-      <c r="CN26" s="79"/>
-      <c r="CO26" s="79"/>
-      <c r="CQ26" s="3" t="s">
-        <v>68</v>
+      <c r="BA26" s="47"/>
+      <c r="BB26" s="47"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="47"/>
+      <c r="BE26" s="47"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="47"/>
+      <c r="BI26" s="47"/>
+      <c r="BJ26" s="47"/>
+      <c r="BK26" s="47"/>
+      <c r="BL26" s="47"/>
+      <c r="BM26" s="47"/>
+      <c r="BN26" s="47"/>
+      <c r="BO26" s="47"/>
+      <c r="BP26" s="47"/>
+      <c r="BQ26" s="47"/>
+      <c r="BS26" s="47" t="s">
+        <v>71</v>
       </c>
+      <c r="BT26" s="47"/>
+      <c r="BU26" s="47"/>
+      <c r="BV26" s="47"/>
+      <c r="BW26" s="47"/>
+      <c r="BX26" s="47"/>
+      <c r="BY26" s="47"/>
+      <c r="BZ26" s="47"/>
+      <c r="CA26" s="47"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="47"/>
+      <c r="CD26" s="47"/>
+      <c r="CE26" s="47"/>
+      <c r="CF26" s="47"/>
+      <c r="CG26" s="47"/>
+      <c r="CH26" s="47"/>
+      <c r="CI26" s="47"/>
+      <c r="CJ26" s="47"/>
+      <c r="CK26" s="47"/>
+      <c r="CL26" s="47"/>
+      <c r="CM26" s="47"/>
+      <c r="CN26" s="47"/>
+      <c r="CO26" s="47"/>
+      <c r="CQ26" s="3"/>
       <c r="CR26" s="3"/>
       <c r="CS26" s="3"/>
       <c r="CT26" s="3"/>
@@ -19314,49 +19270,51 @@
       <c r="DP26" s="3"/>
       <c r="DQ26" s="3"/>
       <c r="DR26" s="3"/>
-      <c r="DS26" s="78"/>
-      <c r="DT26" s="78"/>
-      <c r="DU26" s="78"/>
-      <c r="DV26" s="78"/>
-      <c r="DW26" s="78"/>
-      <c r="DX26" s="78"/>
-      <c r="DY26" s="78"/>
-      <c r="DZ26" s="78"/>
-      <c r="EA26" s="78"/>
-      <c r="EB26" s="78"/>
-      <c r="EC26" s="78"/>
-      <c r="ED26" s="78"/>
-      <c r="EE26" s="78"/>
-      <c r="EF26" s="78"/>
-      <c r="EG26" s="78"/>
-      <c r="EH26" s="78"/>
-      <c r="EI26" s="78"/>
-      <c r="EJ26" s="78"/>
-      <c r="EL26" s="79" t="s">
-        <v>69</v>
+      <c r="DS26" s="47" t="s">
+        <v>70</v>
       </c>
-      <c r="EM26" s="79"/>
-      <c r="EN26" s="79"/>
-      <c r="EO26" s="79"/>
-      <c r="EP26" s="79"/>
-      <c r="EQ26" s="79"/>
-      <c r="ER26" s="79"/>
-      <c r="ES26" s="79"/>
-      <c r="ET26" s="79"/>
-      <c r="EU26" s="79"/>
-      <c r="EV26" s="79"/>
-      <c r="EW26" s="79"/>
-      <c r="EX26" s="79"/>
-      <c r="EY26" s="79"/>
-      <c r="EZ26" s="79"/>
-      <c r="FA26" s="79"/>
-      <c r="FB26" s="79"/>
-      <c r="FC26" s="79"/>
-      <c r="FD26" s="79"/>
-      <c r="FE26" s="79"/>
-      <c r="FF26" s="79"/>
-      <c r="FG26" s="79"/>
-      <c r="FH26" s="79"/>
+      <c r="DT26" s="47"/>
+      <c r="DU26" s="47"/>
+      <c r="DV26" s="47"/>
+      <c r="DW26" s="47"/>
+      <c r="DX26" s="47"/>
+      <c r="DY26" s="47"/>
+      <c r="DZ26" s="47"/>
+      <c r="EA26" s="47"/>
+      <c r="EB26" s="47"/>
+      <c r="EC26" s="47"/>
+      <c r="ED26" s="47"/>
+      <c r="EE26" s="47"/>
+      <c r="EF26" s="47"/>
+      <c r="EG26" s="47"/>
+      <c r="EH26" s="47"/>
+      <c r="EI26" s="47"/>
+      <c r="EJ26" s="47"/>
+      <c r="EL26" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="EM26" s="47"/>
+      <c r="EN26" s="47"/>
+      <c r="EO26" s="47"/>
+      <c r="EP26" s="47"/>
+      <c r="EQ26" s="47"/>
+      <c r="ER26" s="47"/>
+      <c r="ES26" s="47"/>
+      <c r="ET26" s="47"/>
+      <c r="EU26" s="47"/>
+      <c r="EV26" s="47"/>
+      <c r="EW26" s="47"/>
+      <c r="EX26" s="47"/>
+      <c r="EY26" s="47"/>
+      <c r="EZ26" s="47"/>
+      <c r="FA26" s="47"/>
+      <c r="FB26" s="47"/>
+      <c r="FC26" s="47"/>
+      <c r="FD26" s="47"/>
+      <c r="FE26" s="47"/>
+      <c r="FF26" s="47"/>
+      <c r="FG26" s="47"/>
+      <c r="FH26" s="47"/>
       <c r="FJ26" s="55"/>
       <c r="FK26" s="55"/>
       <c r="FL26" s="55"/>
@@ -19882,30 +19840,32 @@
       <c r="ZL26" s="55"/>
       <c r="ZM26" s="55"/>
       <c r="ZN26" s="55"/>
-      <c r="ZO26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="ZP26" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="ZO26" s="55"/>
+      <c r="ZP26" s="55"/>
+      <c r="ZQ26" s="55"/>
       <c r="ZR26" s="55"/>
+      <c r="ZS26" s="55"/>
+      <c r="ZT26" s="55"/>
+      <c r="ZU26" s="55"/>
+      <c r="ZV26" s="55"/>
       <c r="ZW26" s="55"/>
       <c r="ZX26" s="55"/>
+      <c r="ZY26" s="55"/>
+      <c r="ZZ26" s="55"/>
     </row>
-    <row r="27" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
+    <row r="27" spans="1:702" ht="1.5" customHeight="1">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="2"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -19943,51 +19903,48 @@
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
-      <c r="AZ27" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA27" s="47"/>
-      <c r="BB27" s="47"/>
-      <c r="BC27" s="47"/>
-      <c r="BD27" s="47"/>
-      <c r="BE27" s="47"/>
-      <c r="BF27" s="47"/>
-      <c r="BG27" s="47"/>
-      <c r="BH27" s="47"/>
-      <c r="BI27" s="47"/>
-      <c r="BJ27" s="47"/>
-      <c r="BK27" s="47"/>
-      <c r="BL27" s="47"/>
-      <c r="BM27" s="47"/>
-      <c r="BN27" s="47"/>
-      <c r="BO27" s="47"/>
-      <c r="BP27" s="47"/>
-      <c r="BQ27" s="47"/>
-      <c r="BS27" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT27" s="47"/>
-      <c r="BU27" s="47"/>
-      <c r="BV27" s="47"/>
-      <c r="BW27" s="47"/>
-      <c r="BX27" s="47"/>
-      <c r="BY27" s="47"/>
-      <c r="BZ27" s="47"/>
-      <c r="CA27" s="47"/>
-      <c r="CB27" s="47"/>
-      <c r="CC27" s="47"/>
-      <c r="CD27" s="47"/>
-      <c r="CE27" s="47"/>
-      <c r="CF27" s="47"/>
-      <c r="CG27" s="47"/>
-      <c r="CH27" s="47"/>
-      <c r="CI27" s="47"/>
-      <c r="CJ27" s="47"/>
-      <c r="CK27" s="47"/>
-      <c r="CL27" s="47"/>
-      <c r="CM27" s="47"/>
-      <c r="CN27" s="47"/>
-      <c r="CO27" s="47"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="55"/>
+      <c r="BC27" s="55"/>
+      <c r="BD27" s="55"/>
+      <c r="BE27" s="55"/>
+      <c r="BF27" s="55"/>
+      <c r="BG27" s="55"/>
+      <c r="BH27" s="55"/>
+      <c r="BI27" s="55"/>
+      <c r="BJ27" s="55"/>
+      <c r="BK27" s="55"/>
+      <c r="BL27" s="55"/>
+      <c r="BM27" s="55"/>
+      <c r="BN27" s="55"/>
+      <c r="BO27" s="55"/>
+      <c r="BP27" s="55"/>
+      <c r="BQ27" s="55"/>
+      <c r="BR27" s="55"/>
+      <c r="BS27" s="55"/>
+      <c r="BT27" s="55"/>
+      <c r="BU27" s="55"/>
+      <c r="BV27" s="55"/>
+      <c r="BW27" s="55"/>
+      <c r="BX27" s="55"/>
+      <c r="BY27" s="55"/>
+      <c r="BZ27" s="55"/>
+      <c r="CA27" s="55"/>
+      <c r="CB27" s="55"/>
+      <c r="CC27" s="55"/>
+      <c r="CD27" s="55"/>
+      <c r="CE27" s="55"/>
+      <c r="CF27" s="55"/>
+      <c r="CG27" s="55"/>
+      <c r="CH27" s="55"/>
+      <c r="CI27" s="55"/>
+      <c r="CJ27" s="55"/>
+      <c r="CK27" s="55"/>
+      <c r="CL27" s="55"/>
+      <c r="CM27" s="55"/>
+      <c r="CN27" s="55"/>
+      <c r="CO27" s="55"/>
+      <c r="CP27" s="55"/>
       <c r="CQ27" s="3"/>
       <c r="CR27" s="3"/>
       <c r="CS27" s="3"/>
@@ -20016,51 +19973,48 @@
       <c r="DP27" s="3"/>
       <c r="DQ27" s="3"/>
       <c r="DR27" s="3"/>
-      <c r="DS27" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="DT27" s="47"/>
-      <c r="DU27" s="47"/>
-      <c r="DV27" s="47"/>
-      <c r="DW27" s="47"/>
-      <c r="DX27" s="47"/>
-      <c r="DY27" s="47"/>
-      <c r="DZ27" s="47"/>
-      <c r="EA27" s="47"/>
-      <c r="EB27" s="47"/>
-      <c r="EC27" s="47"/>
-      <c r="ED27" s="47"/>
-      <c r="EE27" s="47"/>
-      <c r="EF27" s="47"/>
-      <c r="EG27" s="47"/>
-      <c r="EH27" s="47"/>
-      <c r="EI27" s="47"/>
-      <c r="EJ27" s="47"/>
-      <c r="EL27" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="EM27" s="47"/>
-      <c r="EN27" s="47"/>
-      <c r="EO27" s="47"/>
-      <c r="EP27" s="47"/>
-      <c r="EQ27" s="47"/>
-      <c r="ER27" s="47"/>
-      <c r="ES27" s="47"/>
-      <c r="ET27" s="47"/>
-      <c r="EU27" s="47"/>
-      <c r="EV27" s="47"/>
-      <c r="EW27" s="47"/>
-      <c r="EX27" s="47"/>
-      <c r="EY27" s="47"/>
-      <c r="EZ27" s="47"/>
-      <c r="FA27" s="47"/>
-      <c r="FB27" s="47"/>
-      <c r="FC27" s="47"/>
-      <c r="FD27" s="47"/>
-      <c r="FE27" s="47"/>
-      <c r="FF27" s="47"/>
-      <c r="FG27" s="47"/>
-      <c r="FH27" s="47"/>
+      <c r="DT27" s="55"/>
+      <c r="DU27" s="55"/>
+      <c r="DV27" s="55"/>
+      <c r="DW27" s="55"/>
+      <c r="DX27" s="55"/>
+      <c r="DY27" s="55"/>
+      <c r="DZ27" s="55"/>
+      <c r="EA27" s="55"/>
+      <c r="EB27" s="55"/>
+      <c r="EC27" s="55"/>
+      <c r="ED27" s="55"/>
+      <c r="EE27" s="55"/>
+      <c r="EF27" s="55"/>
+      <c r="EG27" s="55"/>
+      <c r="EH27" s="55"/>
+      <c r="EI27" s="55"/>
+      <c r="EJ27" s="55"/>
+      <c r="EK27" s="55"/>
+      <c r="EL27" s="55"/>
+      <c r="EM27" s="55"/>
+      <c r="EN27" s="55"/>
+      <c r="EO27" s="55"/>
+      <c r="EP27" s="55"/>
+      <c r="EQ27" s="55"/>
+      <c r="ER27" s="55"/>
+      <c r="ES27" s="55"/>
+      <c r="ET27" s="55"/>
+      <c r="EU27" s="55"/>
+      <c r="EV27" s="55"/>
+      <c r="EW27" s="55"/>
+      <c r="EX27" s="55"/>
+      <c r="EY27" s="55"/>
+      <c r="EZ27" s="55"/>
+      <c r="FA27" s="55"/>
+      <c r="FB27" s="55"/>
+      <c r="FC27" s="55"/>
+      <c r="FD27" s="55"/>
+      <c r="FE27" s="55"/>
+      <c r="FF27" s="55"/>
+      <c r="FG27" s="55"/>
+      <c r="FH27" s="55"/>
+      <c r="FI27" s="55"/>
       <c r="FJ27" s="55"/>
       <c r="FK27" s="55"/>
       <c r="FL27" s="55"/>
@@ -20599,168 +20553,172 @@
       <c r="ZY27" s="55"/>
       <c r="ZZ27" s="55"/>
     </row>
-    <row r="28" spans="1:702" ht="1.5" customHeight="1">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="2"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="BA28" s="55"/>
-      <c r="BB28" s="55"/>
-      <c r="BC28" s="55"/>
-      <c r="BD28" s="55"/>
-      <c r="BE28" s="55"/>
-      <c r="BF28" s="55"/>
-      <c r="BG28" s="55"/>
-      <c r="BH28" s="55"/>
-      <c r="BI28" s="55"/>
-      <c r="BJ28" s="55"/>
-      <c r="BK28" s="55"/>
-      <c r="BL28" s="55"/>
-      <c r="BM28" s="55"/>
-      <c r="BN28" s="55"/>
-      <c r="BO28" s="55"/>
-      <c r="BP28" s="55"/>
-      <c r="BQ28" s="55"/>
-      <c r="BR28" s="55"/>
-      <c r="BS28" s="55"/>
-      <c r="BT28" s="55"/>
-      <c r="BU28" s="55"/>
-      <c r="BV28" s="55"/>
-      <c r="BW28" s="55"/>
-      <c r="BX28" s="55"/>
-      <c r="BY28" s="55"/>
-      <c r="BZ28" s="55"/>
-      <c r="CA28" s="55"/>
-      <c r="CB28" s="55"/>
-      <c r="CC28" s="55"/>
-      <c r="CD28" s="55"/>
-      <c r="CE28" s="55"/>
-      <c r="CF28" s="55"/>
-      <c r="CG28" s="55"/>
-      <c r="CH28" s="55"/>
-      <c r="CI28" s="55"/>
-      <c r="CJ28" s="55"/>
-      <c r="CK28" s="55"/>
-      <c r="CL28" s="55"/>
-      <c r="CM28" s="55"/>
-      <c r="CN28" s="55"/>
-      <c r="CO28" s="55"/>
-      <c r="CP28" s="55"/>
-      <c r="CQ28" s="3"/>
-      <c r="CR28" s="3"/>
-      <c r="CS28" s="3"/>
-      <c r="CT28" s="3"/>
-      <c r="CU28" s="3"/>
-      <c r="CV28" s="3"/>
-      <c r="CW28" s="3"/>
-      <c r="CX28" s="3"/>
-      <c r="CY28" s="3"/>
-      <c r="CZ28" s="3"/>
-      <c r="DA28" s="3"/>
-      <c r="DB28" s="3"/>
-      <c r="DC28" s="3"/>
-      <c r="DD28" s="3"/>
-      <c r="DE28" s="3"/>
-      <c r="DF28" s="3"/>
-      <c r="DG28" s="3"/>
-      <c r="DH28" s="3"/>
-      <c r="DI28" s="3"/>
-      <c r="DJ28" s="3"/>
-      <c r="DK28" s="3"/>
-      <c r="DL28" s="3"/>
-      <c r="DM28" s="3"/>
-      <c r="DN28" s="3"/>
-      <c r="DO28" s="3"/>
-      <c r="DP28" s="3"/>
-      <c r="DQ28" s="3"/>
-      <c r="DR28" s="3"/>
-      <c r="DT28" s="55"/>
-      <c r="DU28" s="55"/>
-      <c r="DV28" s="55"/>
-      <c r="DW28" s="55"/>
-      <c r="DX28" s="55"/>
-      <c r="DY28" s="55"/>
-      <c r="DZ28" s="55"/>
-      <c r="EA28" s="55"/>
-      <c r="EB28" s="55"/>
-      <c r="EC28" s="55"/>
-      <c r="ED28" s="55"/>
-      <c r="EE28" s="55"/>
-      <c r="EF28" s="55"/>
-      <c r="EG28" s="55"/>
-      <c r="EH28" s="55"/>
-      <c r="EI28" s="55"/>
-      <c r="EJ28" s="55"/>
-      <c r="EK28" s="55"/>
-      <c r="EL28" s="55"/>
-      <c r="EM28" s="55"/>
-      <c r="EN28" s="55"/>
-      <c r="EO28" s="55"/>
-      <c r="EP28" s="55"/>
-      <c r="EQ28" s="55"/>
-      <c r="ER28" s="55"/>
-      <c r="ES28" s="55"/>
-      <c r="ET28" s="55"/>
-      <c r="EU28" s="55"/>
-      <c r="EV28" s="55"/>
-      <c r="EW28" s="55"/>
-      <c r="EX28" s="55"/>
-      <c r="EY28" s="55"/>
-      <c r="EZ28" s="55"/>
-      <c r="FA28" s="55"/>
-      <c r="FB28" s="55"/>
-      <c r="FC28" s="55"/>
-      <c r="FD28" s="55"/>
-      <c r="FE28" s="55"/>
-      <c r="FF28" s="55"/>
-      <c r="FG28" s="55"/>
-      <c r="FH28" s="55"/>
-      <c r="FI28" s="55"/>
+    <row r="28" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="O28" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="82"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="82"/>
+      <c r="AS28" s="82"/>
+      <c r="AT28" s="82"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="78"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="78"/>
+      <c r="BI28" s="78"/>
+      <c r="BJ28" s="78"/>
+      <c r="BK28" s="78"/>
+      <c r="BL28" s="78"/>
+      <c r="BM28" s="78"/>
+      <c r="BN28" s="78"/>
+      <c r="BO28" s="78"/>
+      <c r="BP28" s="78"/>
+      <c r="BQ28" s="78"/>
+      <c r="BS28" s="79"/>
+      <c r="BT28" s="79"/>
+      <c r="BU28" s="79"/>
+      <c r="BV28" s="79"/>
+      <c r="BW28" s="79"/>
+      <c r="BX28" s="79"/>
+      <c r="BY28" s="79"/>
+      <c r="BZ28" s="79"/>
+      <c r="CA28" s="79"/>
+      <c r="CB28" s="79"/>
+      <c r="CC28" s="79"/>
+      <c r="CD28" s="79"/>
+      <c r="CE28" s="79"/>
+      <c r="CF28" s="79"/>
+      <c r="CG28" s="79"/>
+      <c r="CH28" s="79"/>
+      <c r="CI28" s="79"/>
+      <c r="CJ28" s="79"/>
+      <c r="CK28" s="79"/>
+      <c r="CL28" s="79"/>
+      <c r="CM28" s="79"/>
+      <c r="CN28" s="79"/>
+      <c r="CO28" s="79"/>
+      <c r="CQ28" s="79"/>
+      <c r="CR28" s="79"/>
+      <c r="CS28" s="79"/>
+      <c r="CT28" s="79"/>
+      <c r="CU28" s="79"/>
+      <c r="CV28" s="79"/>
+      <c r="CW28" s="79"/>
+      <c r="CX28" s="79"/>
+      <c r="CY28" s="79"/>
+      <c r="CZ28" s="79"/>
+      <c r="DA28" s="79"/>
+      <c r="DB28" s="79"/>
+      <c r="DC28" s="79"/>
+      <c r="DD28" s="79"/>
+      <c r="DE28" s="79"/>
+      <c r="DF28" s="79"/>
+      <c r="DG28" s="79"/>
+      <c r="DH28" s="79"/>
+      <c r="DI28" s="79"/>
+      <c r="DJ28" s="79"/>
+      <c r="DK28" s="79"/>
+      <c r="DL28" s="79"/>
+      <c r="DM28" s="79"/>
+      <c r="DN28" s="79"/>
+      <c r="DO28" s="79"/>
+      <c r="DP28" s="79"/>
+      <c r="DQ28" s="79"/>
+      <c r="DR28" s="79"/>
+      <c r="DS28" s="79"/>
+      <c r="DT28" s="79"/>
+      <c r="DU28" s="79"/>
+      <c r="DV28" s="79"/>
+      <c r="DW28" s="79"/>
+      <c r="DX28" s="79"/>
+      <c r="DY28" s="79"/>
+      <c r="DZ28" s="79"/>
+      <c r="EA28" s="79"/>
+      <c r="EB28" s="79"/>
+      <c r="EC28" s="79"/>
+      <c r="ED28" s="79"/>
+      <c r="EE28" s="79"/>
+      <c r="EF28" s="79"/>
+      <c r="EG28" s="79"/>
+      <c r="EH28" s="79"/>
+      <c r="EI28" s="79"/>
+      <c r="EJ28" s="79"/>
+      <c r="EK28" s="79"/>
+      <c r="EL28" s="79"/>
+      <c r="EM28" s="79"/>
+      <c r="EN28" s="79"/>
+      <c r="EO28" s="79"/>
+      <c r="EP28" s="79"/>
+      <c r="EQ28" s="79"/>
+      <c r="ER28" s="79"/>
+      <c r="ES28" s="79"/>
+      <c r="ET28" s="79"/>
+      <c r="EU28" s="79"/>
+      <c r="EV28" s="79"/>
+      <c r="EW28" s="79"/>
+      <c r="EX28" s="79"/>
+      <c r="EY28" s="79"/>
+      <c r="EZ28" s="79"/>
+      <c r="FA28" s="79"/>
+      <c r="FB28" s="79"/>
+      <c r="FC28" s="79"/>
+      <c r="FD28" s="79"/>
+      <c r="FE28" s="79"/>
+      <c r="FF28" s="79"/>
+      <c r="FG28" s="79"/>
+      <c r="FH28" s="79"/>
       <c r="FJ28" s="55"/>
       <c r="FK28" s="55"/>
       <c r="FL28" s="55"/>
@@ -21289,35 +21247,25 @@
       <c r="ZO28" s="55"/>
       <c r="ZP28" s="55"/>
       <c r="ZQ28" s="55"/>
-      <c r="ZR28" s="55"/>
-      <c r="ZS28" s="55"/>
-      <c r="ZT28" s="55"/>
-      <c r="ZU28" s="55"/>
-      <c r="ZV28" s="55"/>
+      <c r="ZR28" s="23"/>
+      <c r="ZT28" s="23"/>
       <c r="ZW28" s="55"/>
       <c r="ZX28" s="55"/>
-      <c r="ZY28" s="55"/>
-      <c r="ZZ28" s="55"/>
     </row>
     <row r="29" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="O29" s="82" t="s">
-        <v>73</v>
-      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="2"/>
+      <c r="O29" s="82"/>
       <c r="P29" s="82"/>
       <c r="Q29" s="82"/>
       <c r="R29" s="82"/>
@@ -21354,117 +21302,123 @@
       <c r="AW29" s="82"/>
       <c r="AX29" s="82"/>
       <c r="AY29" s="82"/>
-      <c r="AZ29" s="78"/>
-      <c r="BA29" s="78"/>
-      <c r="BB29" s="78"/>
-      <c r="BC29" s="78"/>
-      <c r="BD29" s="78"/>
-      <c r="BE29" s="78"/>
-      <c r="BF29" s="78"/>
-      <c r="BG29" s="78"/>
-      <c r="BH29" s="78"/>
-      <c r="BI29" s="78"/>
-      <c r="BJ29" s="78"/>
-      <c r="BK29" s="78"/>
-      <c r="BL29" s="78"/>
-      <c r="BM29" s="78"/>
-      <c r="BN29" s="78"/>
-      <c r="BO29" s="78"/>
-      <c r="BP29" s="78"/>
-      <c r="BQ29" s="78"/>
-      <c r="BS29" s="79"/>
-      <c r="BT29" s="79"/>
-      <c r="BU29" s="79"/>
-      <c r="BV29" s="79"/>
-      <c r="BW29" s="79"/>
-      <c r="BX29" s="79"/>
-      <c r="BY29" s="79"/>
-      <c r="BZ29" s="79"/>
-      <c r="CA29" s="79"/>
-      <c r="CB29" s="79"/>
-      <c r="CC29" s="79"/>
-      <c r="CD29" s="79"/>
-      <c r="CE29" s="79"/>
-      <c r="CF29" s="79"/>
-      <c r="CG29" s="79"/>
-      <c r="CH29" s="79"/>
-      <c r="CI29" s="79"/>
-      <c r="CJ29" s="79"/>
-      <c r="CK29" s="79"/>
-      <c r="CL29" s="79"/>
-      <c r="CM29" s="79"/>
-      <c r="CN29" s="79"/>
-      <c r="CO29" s="79"/>
-      <c r="CQ29" s="79"/>
-      <c r="CR29" s="79"/>
-      <c r="CS29" s="79"/>
-      <c r="CT29" s="79"/>
-      <c r="CU29" s="79"/>
-      <c r="CV29" s="79"/>
-      <c r="CW29" s="79"/>
-      <c r="CX29" s="79"/>
-      <c r="CY29" s="79"/>
-      <c r="CZ29" s="79"/>
-      <c r="DA29" s="79"/>
-      <c r="DB29" s="79"/>
-      <c r="DC29" s="79"/>
-      <c r="DD29" s="79"/>
-      <c r="DE29" s="79"/>
-      <c r="DF29" s="79"/>
-      <c r="DG29" s="79"/>
-      <c r="DH29" s="79"/>
-      <c r="DI29" s="79"/>
-      <c r="DJ29" s="79"/>
-      <c r="DK29" s="79"/>
-      <c r="DL29" s="79"/>
-      <c r="DM29" s="79"/>
-      <c r="DN29" s="79"/>
-      <c r="DO29" s="79"/>
-      <c r="DP29" s="79"/>
-      <c r="DQ29" s="79"/>
-      <c r="DR29" s="79"/>
-      <c r="DS29" s="79"/>
-      <c r="DT29" s="79"/>
-      <c r="DU29" s="79"/>
-      <c r="DV29" s="79"/>
-      <c r="DW29" s="79"/>
-      <c r="DX29" s="79"/>
-      <c r="DY29" s="79"/>
-      <c r="DZ29" s="79"/>
-      <c r="EA29" s="79"/>
-      <c r="EB29" s="79"/>
-      <c r="EC29" s="79"/>
-      <c r="ED29" s="79"/>
-      <c r="EE29" s="79"/>
-      <c r="EF29" s="79"/>
-      <c r="EG29" s="79"/>
-      <c r="EH29" s="79"/>
-      <c r="EI29" s="79"/>
-      <c r="EJ29" s="79"/>
-      <c r="EK29" s="79"/>
-      <c r="EL29" s="79"/>
-      <c r="EM29" s="79"/>
-      <c r="EN29" s="79"/>
-      <c r="EO29" s="79"/>
-      <c r="EP29" s="79"/>
-      <c r="EQ29" s="79"/>
-      <c r="ER29" s="79"/>
-      <c r="ES29" s="79"/>
-      <c r="ET29" s="79"/>
-      <c r="EU29" s="79"/>
-      <c r="EV29" s="79"/>
-      <c r="EW29" s="79"/>
-      <c r="EX29" s="79"/>
-      <c r="EY29" s="79"/>
-      <c r="EZ29" s="79"/>
-      <c r="FA29" s="79"/>
-      <c r="FB29" s="79"/>
-      <c r="FC29" s="79"/>
-      <c r="FD29" s="79"/>
-      <c r="FE29" s="79"/>
-      <c r="FF29" s="79"/>
-      <c r="FG29" s="79"/>
-      <c r="FH29" s="79"/>
+      <c r="AZ29" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA29" s="47"/>
+      <c r="BB29" s="47"/>
+      <c r="BC29" s="47"/>
+      <c r="BD29" s="47"/>
+      <c r="BE29" s="47"/>
+      <c r="BF29" s="47"/>
+      <c r="BG29" s="47"/>
+      <c r="BH29" s="47"/>
+      <c r="BI29" s="47"/>
+      <c r="BJ29" s="47"/>
+      <c r="BK29" s="47"/>
+      <c r="BL29" s="47"/>
+      <c r="BM29" s="47"/>
+      <c r="BN29" s="47"/>
+      <c r="BO29" s="47"/>
+      <c r="BP29" s="47"/>
+      <c r="BQ29" s="47"/>
+      <c r="BS29" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT29" s="47"/>
+      <c r="BU29" s="47"/>
+      <c r="BV29" s="47"/>
+      <c r="BW29" s="47"/>
+      <c r="BX29" s="47"/>
+      <c r="BY29" s="47"/>
+      <c r="BZ29" s="47"/>
+      <c r="CA29" s="47"/>
+      <c r="CB29" s="47"/>
+      <c r="CC29" s="47"/>
+      <c r="CD29" s="47"/>
+      <c r="CE29" s="47"/>
+      <c r="CF29" s="47"/>
+      <c r="CG29" s="47"/>
+      <c r="CH29" s="47"/>
+      <c r="CI29" s="47"/>
+      <c r="CJ29" s="47"/>
+      <c r="CK29" s="47"/>
+      <c r="CL29" s="47"/>
+      <c r="CM29" s="47"/>
+      <c r="CN29" s="47"/>
+      <c r="CO29" s="47"/>
+      <c r="CQ29" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR29" s="47"/>
+      <c r="CS29" s="47"/>
+      <c r="CT29" s="47"/>
+      <c r="CU29" s="47"/>
+      <c r="CV29" s="47"/>
+      <c r="CW29" s="47"/>
+      <c r="CX29" s="47"/>
+      <c r="CY29" s="47"/>
+      <c r="CZ29" s="47"/>
+      <c r="DA29" s="47"/>
+      <c r="DB29" s="47"/>
+      <c r="DC29" s="47"/>
+      <c r="DD29" s="47"/>
+      <c r="DE29" s="47"/>
+      <c r="DF29" s="47"/>
+      <c r="DG29" s="47"/>
+      <c r="DH29" s="47"/>
+      <c r="DI29" s="47"/>
+      <c r="DJ29" s="47"/>
+      <c r="DK29" s="47"/>
+      <c r="DL29" s="47"/>
+      <c r="DM29" s="47"/>
+      <c r="DN29" s="47"/>
+      <c r="DO29" s="47"/>
+      <c r="DP29" s="47"/>
+      <c r="DQ29" s="47"/>
+      <c r="DR29" s="47"/>
+      <c r="DS29" s="47"/>
+      <c r="DT29" s="47"/>
+      <c r="DU29" s="47"/>
+      <c r="DV29" s="47"/>
+      <c r="DW29" s="47"/>
+      <c r="DX29" s="47"/>
+      <c r="DY29" s="47"/>
+      <c r="DZ29" s="47"/>
+      <c r="EA29" s="47"/>
+      <c r="EB29" s="47"/>
+      <c r="EC29" s="47"/>
+      <c r="ED29" s="47"/>
+      <c r="EE29" s="47"/>
+      <c r="EF29" s="47"/>
+      <c r="EG29" s="47"/>
+      <c r="EH29" s="47"/>
+      <c r="EI29" s="47"/>
+      <c r="EJ29" s="47"/>
+      <c r="EK29" s="47"/>
+      <c r="EL29" s="47"/>
+      <c r="EM29" s="47"/>
+      <c r="EN29" s="47"/>
+      <c r="EO29" s="47"/>
+      <c r="EP29" s="47"/>
+      <c r="EQ29" s="47"/>
+      <c r="ER29" s="47"/>
+      <c r="ES29" s="47"/>
+      <c r="ET29" s="47"/>
+      <c r="EU29" s="47"/>
+      <c r="EV29" s="47"/>
+      <c r="EW29" s="47"/>
+      <c r="EX29" s="47"/>
+      <c r="EY29" s="47"/>
+      <c r="EZ29" s="47"/>
+      <c r="FA29" s="47"/>
+      <c r="FB29" s="47"/>
+      <c r="FC29" s="47"/>
+      <c r="FD29" s="47"/>
+      <c r="FE29" s="47"/>
+      <c r="FF29" s="47"/>
+      <c r="FG29" s="47"/>
+      <c r="FH29" s="47"/>
       <c r="FJ29" s="55"/>
       <c r="FK29" s="55"/>
       <c r="FL29" s="55"/>
@@ -21993,12 +21947,17 @@
       <c r="ZO29" s="55"/>
       <c r="ZP29" s="55"/>
       <c r="ZQ29" s="55"/>
-      <c r="ZR29" s="23"/>
-      <c r="ZT29" s="23"/>
+      <c r="ZR29" s="55"/>
+      <c r="ZS29" s="55"/>
+      <c r="ZT29" s="55"/>
+      <c r="ZU29" s="55"/>
+      <c r="ZV29" s="55"/>
       <c r="ZW29" s="55"/>
       <c r="ZX29" s="55"/>
+      <c r="ZY29" s="55"/>
+      <c r="ZZ29" s="55"/>
     </row>
-    <row r="30" spans="1:702" ht="14.25" customHeight="1">
+    <row r="30" spans="1:702" ht="1.5" customHeight="1">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
@@ -22011,6 +21970,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="55"/>
       <c r="M30" s="2"/>
+      <c r="N30" s="78"/>
       <c r="O30" s="82"/>
       <c r="P30" s="82"/>
       <c r="Q30" s="82"/>
@@ -22048,124 +22008,120 @@
       <c r="AW30" s="82"/>
       <c r="AX30" s="82"/>
       <c r="AY30" s="82"/>
-      <c r="AZ30" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA30" s="47"/>
-      <c r="BB30" s="47"/>
-      <c r="BC30" s="47"/>
-      <c r="BD30" s="47"/>
-      <c r="BE30" s="47"/>
-      <c r="BF30" s="47"/>
-      <c r="BG30" s="47"/>
-      <c r="BH30" s="47"/>
-      <c r="BI30" s="47"/>
-      <c r="BJ30" s="47"/>
-      <c r="BK30" s="47"/>
-      <c r="BL30" s="47"/>
-      <c r="BM30" s="47"/>
-      <c r="BN30" s="47"/>
-      <c r="BO30" s="47"/>
-      <c r="BP30" s="47"/>
-      <c r="BQ30" s="47"/>
-      <c r="BS30" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT30" s="47"/>
-      <c r="BU30" s="47"/>
-      <c r="BV30" s="47"/>
-      <c r="BW30" s="47"/>
-      <c r="BX30" s="47"/>
-      <c r="BY30" s="47"/>
-      <c r="BZ30" s="47"/>
-      <c r="CA30" s="47"/>
-      <c r="CB30" s="47"/>
-      <c r="CC30" s="47"/>
-      <c r="CD30" s="47"/>
-      <c r="CE30" s="47"/>
-      <c r="CF30" s="47"/>
-      <c r="CG30" s="47"/>
-      <c r="CH30" s="47"/>
-      <c r="CI30" s="47"/>
-      <c r="CJ30" s="47"/>
-      <c r="CK30" s="47"/>
-      <c r="CL30" s="47"/>
-      <c r="CM30" s="47"/>
-      <c r="CN30" s="47"/>
-      <c r="CO30" s="47"/>
-      <c r="CQ30" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR30" s="47"/>
-      <c r="CS30" s="47"/>
-      <c r="CT30" s="47"/>
-      <c r="CU30" s="47"/>
-      <c r="CV30" s="47"/>
-      <c r="CW30" s="47"/>
-      <c r="CX30" s="47"/>
-      <c r="CY30" s="47"/>
-      <c r="CZ30" s="47"/>
-      <c r="DA30" s="47"/>
-      <c r="DB30" s="47"/>
-      <c r="DC30" s="47"/>
-      <c r="DD30" s="47"/>
-      <c r="DE30" s="47"/>
-      <c r="DF30" s="47"/>
-      <c r="DG30" s="47"/>
-      <c r="DH30" s="47"/>
-      <c r="DI30" s="47"/>
-      <c r="DJ30" s="47"/>
-      <c r="DK30" s="47"/>
-      <c r="DL30" s="47"/>
-      <c r="DM30" s="47"/>
-      <c r="DN30" s="47"/>
-      <c r="DO30" s="47"/>
-      <c r="DP30" s="47"/>
-      <c r="DQ30" s="47"/>
-      <c r="DR30" s="47"/>
-      <c r="DS30" s="47"/>
-      <c r="DT30" s="47"/>
-      <c r="DU30" s="47"/>
-      <c r="DV30" s="47"/>
-      <c r="DW30" s="47"/>
-      <c r="DX30" s="47"/>
-      <c r="DY30" s="47"/>
-      <c r="DZ30" s="47"/>
-      <c r="EA30" s="47"/>
-      <c r="EB30" s="47"/>
-      <c r="EC30" s="47"/>
-      <c r="ED30" s="47"/>
-      <c r="EE30" s="47"/>
-      <c r="EF30" s="47"/>
-      <c r="EG30" s="47"/>
-      <c r="EH30" s="47"/>
-      <c r="EI30" s="47"/>
-      <c r="EJ30" s="47"/>
-      <c r="EK30" s="47"/>
-      <c r="EL30" s="47"/>
-      <c r="EM30" s="47"/>
-      <c r="EN30" s="47"/>
-      <c r="EO30" s="47"/>
-      <c r="EP30" s="47"/>
-      <c r="EQ30" s="47"/>
-      <c r="ER30" s="47"/>
-      <c r="ES30" s="47"/>
-      <c r="ET30" s="47"/>
-      <c r="EU30" s="47"/>
-      <c r="EV30" s="47"/>
-      <c r="EW30" s="47"/>
-      <c r="EX30" s="47"/>
-      <c r="EY30" s="47"/>
-      <c r="EZ30" s="47"/>
-      <c r="FA30" s="47"/>
-      <c r="FB30" s="47"/>
-      <c r="FC30" s="47"/>
-      <c r="FD30" s="47"/>
-      <c r="FE30" s="47"/>
-      <c r="FF30" s="47"/>
-      <c r="FG30" s="47"/>
-      <c r="FH30" s="47"/>
-      <c r="FJ30" s="55"/>
+      <c r="AZ30" s="78"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="16"/>
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
+      <c r="BE30" s="16"/>
+      <c r="BF30" s="16"/>
+      <c r="BG30" s="16"/>
+      <c r="BH30" s="16"/>
+      <c r="BI30" s="16"/>
+      <c r="BJ30" s="16"/>
+      <c r="BK30" s="16"/>
+      <c r="BL30" s="16"/>
+      <c r="BM30" s="16"/>
+      <c r="BN30" s="16"/>
+      <c r="BO30" s="16"/>
+      <c r="BP30" s="16"/>
+      <c r="BQ30" s="16"/>
+      <c r="BR30" s="16"/>
+      <c r="BS30" s="16"/>
+      <c r="BT30" s="16"/>
+      <c r="BU30" s="16"/>
+      <c r="BV30" s="16"/>
+      <c r="BW30" s="16"/>
+      <c r="BX30" s="16"/>
+      <c r="BY30" s="16"/>
+      <c r="BZ30" s="16"/>
+      <c r="CA30" s="16"/>
+      <c r="CB30" s="16"/>
+      <c r="CC30" s="16"/>
+      <c r="CD30" s="16"/>
+      <c r="CE30" s="16"/>
+      <c r="CF30" s="16"/>
+      <c r="CG30" s="16"/>
+      <c r="CH30" s="16"/>
+      <c r="CI30" s="16"/>
+      <c r="CJ30" s="16"/>
+      <c r="CK30" s="16"/>
+      <c r="CL30" s="16"/>
+      <c r="CM30" s="16"/>
+      <c r="CN30" s="16"/>
+      <c r="CO30" s="16"/>
+      <c r="CP30" s="16"/>
+      <c r="CQ30" s="16"/>
+      <c r="CR30" s="16"/>
+      <c r="CS30" s="16"/>
+      <c r="CT30" s="16"/>
+      <c r="CU30" s="16"/>
+      <c r="CV30" s="16"/>
+      <c r="CW30" s="16"/>
+      <c r="CX30" s="16"/>
+      <c r="CY30" s="16"/>
+      <c r="CZ30" s="16"/>
+      <c r="DA30" s="16"/>
+      <c r="DB30" s="16"/>
+      <c r="DC30" s="16"/>
+      <c r="DD30" s="16"/>
+      <c r="DE30" s="16"/>
+      <c r="DF30" s="16"/>
+      <c r="DG30" s="16"/>
+      <c r="DH30" s="16"/>
+      <c r="DI30" s="16"/>
+      <c r="DJ30" s="16"/>
+      <c r="DK30" s="16"/>
+      <c r="DL30" s="16"/>
+      <c r="DM30" s="16"/>
+      <c r="DN30" s="16"/>
+      <c r="DO30" s="16"/>
+      <c r="DP30" s="16"/>
+      <c r="DQ30" s="16"/>
+      <c r="DR30" s="16"/>
+      <c r="DS30" s="16"/>
+      <c r="DT30" s="16"/>
+      <c r="DU30" s="16"/>
+      <c r="DV30" s="16"/>
+      <c r="DW30" s="16"/>
+      <c r="DX30" s="16"/>
+      <c r="DY30" s="16"/>
+      <c r="DZ30" s="16"/>
+      <c r="EA30" s="16"/>
+      <c r="EB30" s="16"/>
+      <c r="EC30" s="16"/>
+      <c r="ED30" s="16"/>
+      <c r="EE30" s="16"/>
+      <c r="EF30" s="16"/>
+      <c r="EG30" s="16"/>
+      <c r="EH30" s="16"/>
+      <c r="EI30" s="16"/>
+      <c r="EJ30" s="16"/>
+      <c r="EK30" s="16"/>
+      <c r="EL30" s="16"/>
+      <c r="EM30" s="16"/>
+      <c r="EN30" s="16"/>
+      <c r="EO30" s="16"/>
+      <c r="EP30" s="16"/>
+      <c r="EQ30" s="16"/>
+      <c r="ER30" s="16"/>
+      <c r="ES30" s="16"/>
+      <c r="ET30" s="16"/>
+      <c r="EU30" s="16"/>
+      <c r="EV30" s="16"/>
+      <c r="EW30" s="16"/>
+      <c r="EX30" s="16"/>
+      <c r="EY30" s="16"/>
+      <c r="EZ30" s="16"/>
+      <c r="FA30" s="16"/>
+      <c r="FB30" s="16"/>
+      <c r="FC30" s="16"/>
+      <c r="FD30" s="16"/>
+      <c r="FE30" s="16"/>
+      <c r="FF30" s="16"/>
+      <c r="FG30" s="16"/>
+      <c r="FH30" s="16"/>
+      <c r="FI30" s="16"/>
       <c r="FK30" s="55"/>
       <c r="FL30" s="55"/>
       <c r="FM30" s="55"/>
@@ -22703,171 +22659,177 @@
       <c r="ZY30" s="55"/>
       <c r="ZZ30" s="55"/>
     </row>
-    <row r="31" spans="1:702" ht="1.5" customHeight="1">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-      <c r="AR31" s="82"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="82"/>
-      <c r="AU31" s="82"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
-      <c r="AY31" s="82"/>
-      <c r="AZ31" s="78"/>
-      <c r="BA31" s="16"/>
-      <c r="BB31" s="16"/>
-      <c r="BC31" s="16"/>
-      <c r="BD31" s="16"/>
-      <c r="BE31" s="16"/>
-      <c r="BF31" s="16"/>
-      <c r="BG31" s="16"/>
-      <c r="BH31" s="16"/>
-      <c r="BI31" s="16"/>
-      <c r="BJ31" s="16"/>
-      <c r="BK31" s="16"/>
-      <c r="BL31" s="16"/>
-      <c r="BM31" s="16"/>
-      <c r="BN31" s="16"/>
-      <c r="BO31" s="16"/>
-      <c r="BP31" s="16"/>
-      <c r="BQ31" s="16"/>
-      <c r="BR31" s="16"/>
-      <c r="BS31" s="16"/>
-      <c r="BT31" s="16"/>
-      <c r="BU31" s="16"/>
-      <c r="BV31" s="16"/>
-      <c r="BW31" s="16"/>
-      <c r="BX31" s="16"/>
-      <c r="BY31" s="16"/>
-      <c r="BZ31" s="16"/>
-      <c r="CA31" s="16"/>
-      <c r="CB31" s="16"/>
-      <c r="CC31" s="16"/>
-      <c r="CD31" s="16"/>
-      <c r="CE31" s="16"/>
-      <c r="CF31" s="16"/>
-      <c r="CG31" s="16"/>
-      <c r="CH31" s="16"/>
-      <c r="CI31" s="16"/>
-      <c r="CJ31" s="16"/>
-      <c r="CK31" s="16"/>
-      <c r="CL31" s="16"/>
-      <c r="CM31" s="16"/>
-      <c r="CN31" s="16"/>
-      <c r="CO31" s="16"/>
-      <c r="CP31" s="16"/>
-      <c r="CQ31" s="16"/>
-      <c r="CR31" s="16"/>
-      <c r="CS31" s="16"/>
-      <c r="CT31" s="16"/>
-      <c r="CU31" s="16"/>
-      <c r="CV31" s="16"/>
-      <c r="CW31" s="16"/>
-      <c r="CX31" s="16"/>
-      <c r="CY31" s="16"/>
-      <c r="CZ31" s="16"/>
-      <c r="DA31" s="16"/>
-      <c r="DB31" s="16"/>
-      <c r="DC31" s="16"/>
-      <c r="DD31" s="16"/>
-      <c r="DE31" s="16"/>
-      <c r="DF31" s="16"/>
-      <c r="DG31" s="16"/>
-      <c r="DH31" s="16"/>
-      <c r="DI31" s="16"/>
-      <c r="DJ31" s="16"/>
-      <c r="DK31" s="16"/>
-      <c r="DL31" s="16"/>
-      <c r="DM31" s="16"/>
-      <c r="DN31" s="16"/>
-      <c r="DO31" s="16"/>
-      <c r="DP31" s="16"/>
-      <c r="DQ31" s="16"/>
-      <c r="DR31" s="16"/>
-      <c r="DS31" s="16"/>
-      <c r="DT31" s="16"/>
-      <c r="DU31" s="16"/>
-      <c r="DV31" s="16"/>
-      <c r="DW31" s="16"/>
-      <c r="DX31" s="16"/>
-      <c r="DY31" s="16"/>
-      <c r="DZ31" s="16"/>
-      <c r="EA31" s="16"/>
-      <c r="EB31" s="16"/>
-      <c r="EC31" s="16"/>
-      <c r="ED31" s="16"/>
-      <c r="EE31" s="16"/>
-      <c r="EF31" s="16"/>
-      <c r="EG31" s="16"/>
-      <c r="EH31" s="16"/>
-      <c r="EI31" s="16"/>
-      <c r="EJ31" s="16"/>
-      <c r="EK31" s="16"/>
-      <c r="EL31" s="16"/>
-      <c r="EM31" s="16"/>
-      <c r="EN31" s="16"/>
-      <c r="EO31" s="16"/>
-      <c r="EP31" s="16"/>
-      <c r="EQ31" s="16"/>
-      <c r="ER31" s="16"/>
-      <c r="ES31" s="16"/>
-      <c r="ET31" s="16"/>
-      <c r="EU31" s="16"/>
-      <c r="EV31" s="16"/>
-      <c r="EW31" s="16"/>
-      <c r="EX31" s="16"/>
-      <c r="EY31" s="16"/>
-      <c r="EZ31" s="16"/>
-      <c r="FA31" s="16"/>
-      <c r="FB31" s="16"/>
-      <c r="FC31" s="16"/>
-      <c r="FD31" s="16"/>
-      <c r="FE31" s="16"/>
-      <c r="FF31" s="16"/>
-      <c r="FG31" s="16"/>
-      <c r="FH31" s="16"/>
-      <c r="FI31" s="16"/>
+    <row r="31" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AW31" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX31" s="61"/>
+      <c r="AY31" s="61"/>
+      <c r="AZ31" s="61"/>
+      <c r="BA31" s="61"/>
+      <c r="BB31" s="61"/>
+      <c r="BC31" s="61"/>
+      <c r="BD31" s="61"/>
+      <c r="BE31" s="61"/>
+      <c r="BF31" s="61"/>
+      <c r="BG31" s="61"/>
+      <c r="BH31" s="61"/>
+      <c r="BI31" s="61"/>
+      <c r="BJ31" s="61"/>
+      <c r="BK31" s="61"/>
+      <c r="BL31" s="61"/>
+      <c r="BM31" s="61"/>
+      <c r="BN31" s="61"/>
+      <c r="BO31" s="61"/>
+      <c r="BP31" s="61"/>
+      <c r="BQ31" s="61"/>
+      <c r="BR31" s="61"/>
+      <c r="BS31" s="61"/>
+      <c r="BT31" s="61"/>
+      <c r="BU31" s="61"/>
+      <c r="BV31" s="61"/>
+      <c r="BW31" s="61"/>
+      <c r="BX31" s="61"/>
+      <c r="BY31" s="61"/>
+      <c r="BZ31" s="61"/>
+      <c r="CA31" s="61"/>
+      <c r="CB31" s="61"/>
+      <c r="CC31" s="61"/>
+      <c r="CD31" s="61"/>
+      <c r="CE31" s="61"/>
+      <c r="CF31" s="61"/>
+      <c r="CG31" s="61"/>
+      <c r="CH31" s="61"/>
+      <c r="CI31" s="61"/>
+      <c r="CJ31" s="61"/>
+      <c r="CK31" s="61"/>
+      <c r="CL31" s="61"/>
+      <c r="CM31" s="61"/>
+      <c r="CN31" s="61"/>
+      <c r="CO31" s="61"/>
+      <c r="CP31" s="61"/>
+      <c r="CQ31" s="61"/>
+      <c r="CR31" s="61"/>
+      <c r="CS31" s="61"/>
+      <c r="CT31" s="61"/>
+      <c r="CU31" s="61"/>
+      <c r="CV31" s="61"/>
+      <c r="CW31" s="61"/>
+      <c r="CX31" s="61"/>
+      <c r="CY31" s="61"/>
+      <c r="CZ31" s="61"/>
+      <c r="DA31" s="61"/>
+      <c r="DB31" s="61"/>
+      <c r="DC31" s="61"/>
+      <c r="DD31" s="61"/>
+      <c r="DE31" s="61"/>
+      <c r="DF31" s="61"/>
+      <c r="DG31" s="61"/>
+      <c r="DH31" s="61"/>
+      <c r="DI31" s="61"/>
+      <c r="DJ31" s="61"/>
+      <c r="DK31" s="61"/>
+      <c r="DL31" s="61"/>
+      <c r="DM31" s="61"/>
+      <c r="DN31" s="61"/>
+      <c r="DO31" s="61"/>
+      <c r="DP31" s="61"/>
+      <c r="DQ31" s="61"/>
+      <c r="DR31" s="61"/>
+      <c r="DS31" s="61"/>
+      <c r="DT31" s="61"/>
+      <c r="DU31" s="61"/>
+      <c r="DV31" s="61"/>
+      <c r="DW31" s="61"/>
+      <c r="DX31" s="61"/>
+      <c r="DY31" s="61"/>
+      <c r="DZ31" s="61"/>
+      <c r="EA31" s="61"/>
+      <c r="EB31" s="61"/>
+      <c r="EC31" s="61"/>
+      <c r="ED31" s="61"/>
+      <c r="EE31" s="61"/>
+      <c r="EF31" s="61"/>
+      <c r="EG31" s="61"/>
+      <c r="EH31" s="61"/>
+      <c r="EI31" s="61"/>
+      <c r="EJ31" s="61"/>
+      <c r="EK31" s="61"/>
+      <c r="EL31" s="61"/>
+      <c r="EM31" s="61"/>
+      <c r="EN31" s="61"/>
+      <c r="EO31" s="61"/>
+      <c r="EP31" s="61"/>
+      <c r="EQ31" s="61"/>
+      <c r="ER31" s="61"/>
+      <c r="ES31" s="61"/>
+      <c r="ET31" s="61"/>
+      <c r="EU31" s="61"/>
+      <c r="EV31" s="61"/>
+      <c r="EW31" s="61"/>
+      <c r="EX31" s="61"/>
+      <c r="EY31" s="61"/>
+      <c r="EZ31" s="61"/>
+      <c r="FA31" s="61"/>
+      <c r="FB31" s="61"/>
+      <c r="FC31" s="61"/>
+      <c r="FD31" s="61"/>
+      <c r="FE31" s="61"/>
+      <c r="FF31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="FG31" s="14"/>
+      <c r="FH31" s="14"/>
+      <c r="FI31" s="14"/>
       <c r="FK31" s="55"/>
       <c r="FL31" s="55"/>
       <c r="FM31" s="55"/>
@@ -23342,8 +23304,9 @@
       <c r="XN31" s="55"/>
       <c r="XO31" s="55"/>
       <c r="XP31" s="55"/>
-      <c r="XQ31" s="55"/>
-      <c r="XR31" s="55"/>
+      <c r="XQ31" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="XS31" s="55"/>
       <c r="XT31" s="55"/>
       <c r="XU31" s="55"/>
@@ -23405,177 +23368,173 @@
       <c r="ZY31" s="55"/>
       <c r="ZZ31" s="55"/>
     </row>
-    <row r="32" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>75</v>
+    <row r="32" spans="1:702" ht="6.75" customHeight="1">
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="55"/>
+      <c r="AV32" s="55"/>
+      <c r="AW32" s="51" t="s">
+        <v>78</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
-      <c r="AW32" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX32" s="61"/>
-      <c r="AY32" s="61"/>
-      <c r="AZ32" s="61"/>
-      <c r="BA32" s="61"/>
-      <c r="BB32" s="61"/>
-      <c r="BC32" s="61"/>
-      <c r="BD32" s="61"/>
-      <c r="BE32" s="61"/>
-      <c r="BF32" s="61"/>
-      <c r="BG32" s="61"/>
-      <c r="BH32" s="61"/>
-      <c r="BI32" s="61"/>
-      <c r="BJ32" s="61"/>
-      <c r="BK32" s="61"/>
-      <c r="BL32" s="61"/>
-      <c r="BM32" s="61"/>
-      <c r="BN32" s="61"/>
-      <c r="BO32" s="61"/>
-      <c r="BP32" s="61"/>
-      <c r="BQ32" s="61"/>
-      <c r="BR32" s="61"/>
-      <c r="BS32" s="61"/>
-      <c r="BT32" s="61"/>
-      <c r="BU32" s="61"/>
-      <c r="BV32" s="61"/>
-      <c r="BW32" s="61"/>
-      <c r="BX32" s="61"/>
-      <c r="BY32" s="61"/>
-      <c r="BZ32" s="61"/>
-      <c r="CA32" s="61"/>
-      <c r="CB32" s="61"/>
-      <c r="CC32" s="61"/>
-      <c r="CD32" s="61"/>
-      <c r="CE32" s="61"/>
-      <c r="CF32" s="61"/>
-      <c r="CG32" s="61"/>
-      <c r="CH32" s="61"/>
-      <c r="CI32" s="61"/>
-      <c r="CJ32" s="61"/>
-      <c r="CK32" s="61"/>
-      <c r="CL32" s="61"/>
-      <c r="CM32" s="61"/>
-      <c r="CN32" s="61"/>
-      <c r="CO32" s="61"/>
-      <c r="CP32" s="61"/>
-      <c r="CQ32" s="61"/>
-      <c r="CR32" s="61"/>
-      <c r="CS32" s="61"/>
-      <c r="CT32" s="61"/>
-      <c r="CU32" s="61"/>
-      <c r="CV32" s="61"/>
-      <c r="CW32" s="61"/>
-      <c r="CX32" s="61"/>
-      <c r="CY32" s="61"/>
-      <c r="CZ32" s="61"/>
-      <c r="DA32" s="61"/>
-      <c r="DB32" s="61"/>
-      <c r="DC32" s="61"/>
-      <c r="DD32" s="61"/>
-      <c r="DE32" s="61"/>
-      <c r="DF32" s="61"/>
-      <c r="DG32" s="61"/>
-      <c r="DH32" s="61"/>
-      <c r="DI32" s="61"/>
-      <c r="DJ32" s="61"/>
-      <c r="DK32" s="61"/>
-      <c r="DL32" s="61"/>
-      <c r="DM32" s="61"/>
-      <c r="DN32" s="61"/>
-      <c r="DO32" s="61"/>
-      <c r="DP32" s="61"/>
-      <c r="DQ32" s="61"/>
-      <c r="DR32" s="61"/>
-      <c r="DS32" s="61"/>
-      <c r="DT32" s="61"/>
-      <c r="DU32" s="61"/>
-      <c r="DV32" s="61"/>
-      <c r="DW32" s="61"/>
-      <c r="DX32" s="61"/>
-      <c r="DY32" s="61"/>
-      <c r="DZ32" s="61"/>
-      <c r="EA32" s="61"/>
-      <c r="EB32" s="61"/>
-      <c r="EC32" s="61"/>
-      <c r="ED32" s="61"/>
-      <c r="EE32" s="61"/>
-      <c r="EF32" s="61"/>
-      <c r="EG32" s="61"/>
-      <c r="EH32" s="61"/>
-      <c r="EI32" s="61"/>
-      <c r="EJ32" s="61"/>
-      <c r="EK32" s="61"/>
-      <c r="EL32" s="61"/>
-      <c r="EM32" s="61"/>
-      <c r="EN32" s="61"/>
-      <c r="EO32" s="61"/>
-      <c r="EP32" s="61"/>
-      <c r="EQ32" s="61"/>
-      <c r="ER32" s="61"/>
-      <c r="ES32" s="61"/>
-      <c r="ET32" s="61"/>
-      <c r="EU32" s="61"/>
-      <c r="EV32" s="61"/>
-      <c r="EW32" s="61"/>
-      <c r="EX32" s="61"/>
-      <c r="EY32" s="61"/>
-      <c r="EZ32" s="61"/>
-      <c r="FA32" s="61"/>
-      <c r="FB32" s="61"/>
-      <c r="FC32" s="61"/>
-      <c r="FD32" s="61"/>
-      <c r="FE32" s="61"/>
-      <c r="FF32" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="FG32" s="14"/>
-      <c r="FH32" s="14"/>
-      <c r="FI32" s="14"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="51"/>
+      <c r="AZ32" s="51"/>
+      <c r="BA32" s="51"/>
+      <c r="BB32" s="51"/>
+      <c r="BC32" s="51"/>
+      <c r="BD32" s="51"/>
+      <c r="BE32" s="51"/>
+      <c r="BF32" s="51"/>
+      <c r="BG32" s="51"/>
+      <c r="BH32" s="51"/>
+      <c r="BI32" s="51"/>
+      <c r="BJ32" s="51"/>
+      <c r="BK32" s="51"/>
+      <c r="BL32" s="51"/>
+      <c r="BM32" s="51"/>
+      <c r="BN32" s="51"/>
+      <c r="BO32" s="51"/>
+      <c r="BP32" s="51"/>
+      <c r="BQ32" s="51"/>
+      <c r="BR32" s="51"/>
+      <c r="BS32" s="51"/>
+      <c r="BT32" s="51"/>
+      <c r="BU32" s="51"/>
+      <c r="BV32" s="51"/>
+      <c r="BW32" s="51"/>
+      <c r="BX32" s="51"/>
+      <c r="BY32" s="51"/>
+      <c r="BZ32" s="51"/>
+      <c r="CA32" s="51"/>
+      <c r="CB32" s="51"/>
+      <c r="CC32" s="51"/>
+      <c r="CD32" s="51"/>
+      <c r="CE32" s="51"/>
+      <c r="CF32" s="51"/>
+      <c r="CG32" s="51"/>
+      <c r="CH32" s="51"/>
+      <c r="CI32" s="51"/>
+      <c r="CJ32" s="51"/>
+      <c r="CK32" s="51"/>
+      <c r="CL32" s="51"/>
+      <c r="CM32" s="51"/>
+      <c r="CN32" s="51"/>
+      <c r="CO32" s="51"/>
+      <c r="CP32" s="51"/>
+      <c r="CQ32" s="51"/>
+      <c r="CR32" s="51"/>
+      <c r="CS32" s="51"/>
+      <c r="CT32" s="51"/>
+      <c r="CU32" s="51"/>
+      <c r="CV32" s="51"/>
+      <c r="CW32" s="51"/>
+      <c r="CX32" s="51"/>
+      <c r="CY32" s="51"/>
+      <c r="CZ32" s="51"/>
+      <c r="DA32" s="51"/>
+      <c r="DB32" s="51"/>
+      <c r="DC32" s="51"/>
+      <c r="DD32" s="51"/>
+      <c r="DE32" s="51"/>
+      <c r="DF32" s="51"/>
+      <c r="DG32" s="51"/>
+      <c r="DH32" s="51"/>
+      <c r="DI32" s="51"/>
+      <c r="DJ32" s="51"/>
+      <c r="DK32" s="51"/>
+      <c r="DL32" s="51"/>
+      <c r="DM32" s="51"/>
+      <c r="DN32" s="51"/>
+      <c r="DO32" s="51"/>
+      <c r="DP32" s="51"/>
+      <c r="DQ32" s="51"/>
+      <c r="DR32" s="51"/>
+      <c r="DS32" s="51"/>
+      <c r="DT32" s="51"/>
+      <c r="DU32" s="51"/>
+      <c r="DV32" s="51"/>
+      <c r="DW32" s="51"/>
+      <c r="DX32" s="51"/>
+      <c r="DY32" s="51"/>
+      <c r="DZ32" s="51"/>
+      <c r="EA32" s="51"/>
+      <c r="EB32" s="51"/>
+      <c r="EC32" s="51"/>
+      <c r="ED32" s="51"/>
+      <c r="EE32" s="51"/>
+      <c r="EF32" s="51"/>
+      <c r="EG32" s="51"/>
+      <c r="EH32" s="51"/>
+      <c r="EI32" s="51"/>
+      <c r="EJ32" s="51"/>
+      <c r="EK32" s="51"/>
+      <c r="EL32" s="51"/>
+      <c r="EM32" s="51"/>
+      <c r="EN32" s="51"/>
+      <c r="EO32" s="51"/>
+      <c r="EP32" s="51"/>
+      <c r="EQ32" s="51"/>
+      <c r="ER32" s="51"/>
+      <c r="ES32" s="51"/>
+      <c r="ET32" s="51"/>
+      <c r="EU32" s="51"/>
+      <c r="EV32" s="51"/>
+      <c r="EW32" s="51"/>
+      <c r="EX32" s="51"/>
+      <c r="EY32" s="51"/>
+      <c r="EZ32" s="51"/>
+      <c r="FA32" s="51"/>
+      <c r="FB32" s="51"/>
+      <c r="FC32" s="51"/>
+      <c r="FD32" s="51"/>
+      <c r="FE32" s="51"/>
+      <c r="FG32" s="55"/>
+      <c r="FH32" s="55"/>
+      <c r="FI32" s="55"/>
+      <c r="FJ32" s="55"/>
       <c r="FK32" s="55"/>
       <c r="FL32" s="55"/>
       <c r="FM32" s="55"/>
@@ -24050,9 +24009,8 @@
       <c r="XN32" s="55"/>
       <c r="XO32" s="55"/>
       <c r="XP32" s="55"/>
-      <c r="XQ32" s="23" t="s">
-        <v>76</v>
-      </c>
+      <c r="XQ32" s="55"/>
+      <c r="XR32" s="55"/>
       <c r="XS32" s="55"/>
       <c r="XT32" s="55"/>
       <c r="XU32" s="55"/>
@@ -24114,173 +24072,178 @@
       <c r="ZY32" s="55"/>
       <c r="ZZ32" s="55"/>
     </row>
-    <row r="33" spans="1:702" ht="6.75" customHeight="1">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="55"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="55"/>
-      <c r="AO33" s="55"/>
-      <c r="AP33" s="55"/>
-      <c r="AQ33" s="55"/>
-      <c r="AR33" s="55"/>
-      <c r="AS33" s="55"/>
-      <c r="AT33" s="55"/>
-      <c r="AU33" s="55"/>
-      <c r="AV33" s="55"/>
-      <c r="AW33" s="51" t="s">
-        <v>78</v>
+    <row r="33" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>79</v>
       </c>
-      <c r="AX33" s="51"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="51"/>
-      <c r="BA33" s="51"/>
-      <c r="BB33" s="51"/>
-      <c r="BC33" s="51"/>
-      <c r="BD33" s="51"/>
-      <c r="BE33" s="51"/>
-      <c r="BF33" s="51"/>
-      <c r="BG33" s="51"/>
-      <c r="BH33" s="51"/>
-      <c r="BI33" s="51"/>
-      <c r="BJ33" s="51"/>
-      <c r="BK33" s="51"/>
-      <c r="BL33" s="51"/>
-      <c r="BM33" s="51"/>
-      <c r="BN33" s="51"/>
-      <c r="BO33" s="51"/>
-      <c r="BP33" s="51"/>
-      <c r="BQ33" s="51"/>
-      <c r="BR33" s="51"/>
-      <c r="BS33" s="51"/>
-      <c r="BT33" s="51"/>
-      <c r="BU33" s="51"/>
-      <c r="BV33" s="51"/>
-      <c r="BW33" s="51"/>
-      <c r="BX33" s="51"/>
-      <c r="BY33" s="51"/>
-      <c r="BZ33" s="51"/>
-      <c r="CA33" s="51"/>
-      <c r="CB33" s="51"/>
-      <c r="CC33" s="51"/>
-      <c r="CD33" s="51"/>
-      <c r="CE33" s="51"/>
-      <c r="CF33" s="51"/>
-      <c r="CG33" s="51"/>
-      <c r="CH33" s="51"/>
-      <c r="CI33" s="51"/>
-      <c r="CJ33" s="51"/>
-      <c r="CK33" s="51"/>
-      <c r="CL33" s="51"/>
-      <c r="CM33" s="51"/>
-      <c r="CN33" s="51"/>
-      <c r="CO33" s="51"/>
-      <c r="CP33" s="51"/>
-      <c r="CQ33" s="51"/>
-      <c r="CR33" s="51"/>
-      <c r="CS33" s="51"/>
-      <c r="CT33" s="51"/>
-      <c r="CU33" s="51"/>
-      <c r="CV33" s="51"/>
-      <c r="CW33" s="51"/>
-      <c r="CX33" s="51"/>
-      <c r="CY33" s="51"/>
-      <c r="CZ33" s="51"/>
-      <c r="DA33" s="51"/>
-      <c r="DB33" s="51"/>
-      <c r="DC33" s="51"/>
-      <c r="DD33" s="51"/>
-      <c r="DE33" s="51"/>
-      <c r="DF33" s="51"/>
-      <c r="DG33" s="51"/>
-      <c r="DH33" s="51"/>
-      <c r="DI33" s="51"/>
-      <c r="DJ33" s="51"/>
-      <c r="DK33" s="51"/>
-      <c r="DL33" s="51"/>
-      <c r="DM33" s="51"/>
-      <c r="DN33" s="51"/>
-      <c r="DO33" s="51"/>
-      <c r="DP33" s="51"/>
-      <c r="DQ33" s="51"/>
-      <c r="DR33" s="51"/>
-      <c r="DS33" s="51"/>
-      <c r="DT33" s="51"/>
-      <c r="DU33" s="51"/>
-      <c r="DV33" s="51"/>
-      <c r="DW33" s="51"/>
-      <c r="DX33" s="51"/>
-      <c r="DY33" s="51"/>
-      <c r="DZ33" s="51"/>
-      <c r="EA33" s="51"/>
-      <c r="EB33" s="51"/>
-      <c r="EC33" s="51"/>
-      <c r="ED33" s="51"/>
-      <c r="EE33" s="51"/>
-      <c r="EF33" s="51"/>
-      <c r="EG33" s="51"/>
-      <c r="EH33" s="51"/>
-      <c r="EI33" s="51"/>
-      <c r="EJ33" s="51"/>
-      <c r="EK33" s="51"/>
-      <c r="EL33" s="51"/>
-      <c r="EM33" s="51"/>
-      <c r="EN33" s="51"/>
-      <c r="EO33" s="51"/>
-      <c r="EP33" s="51"/>
-      <c r="EQ33" s="51"/>
-      <c r="ER33" s="51"/>
-      <c r="ES33" s="51"/>
-      <c r="ET33" s="51"/>
-      <c r="EU33" s="51"/>
-      <c r="EV33" s="51"/>
-      <c r="EW33" s="51"/>
-      <c r="EX33" s="51"/>
-      <c r="EY33" s="51"/>
-      <c r="EZ33" s="51"/>
-      <c r="FA33" s="51"/>
-      <c r="FB33" s="51"/>
-      <c r="FC33" s="51"/>
-      <c r="FD33" s="51"/>
-      <c r="FE33" s="51"/>
-      <c r="FG33" s="55"/>
-      <c r="FH33" s="55"/>
-      <c r="FI33" s="55"/>
-      <c r="FJ33" s="55"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="61"/>
+      <c r="AV33" s="61"/>
+      <c r="AW33" s="61"/>
+      <c r="AX33" s="61"/>
+      <c r="AY33" s="61"/>
+      <c r="AZ33" s="61"/>
+      <c r="BA33" s="61"/>
+      <c r="BB33" s="61"/>
+      <c r="BC33" s="61"/>
+      <c r="BD33" s="61"/>
+      <c r="BE33" s="61"/>
+      <c r="BF33" s="61"/>
+      <c r="BG33" s="61"/>
+      <c r="BH33" s="61"/>
+      <c r="BI33" s="61"/>
+      <c r="BJ33" s="61"/>
+      <c r="BK33" s="61"/>
+      <c r="BL33" s="61"/>
+      <c r="BM33" s="61"/>
+      <c r="BN33" s="61"/>
+      <c r="BO33" s="61"/>
+      <c r="BP33" s="61"/>
+      <c r="BQ33" s="61"/>
+      <c r="BR33" s="61"/>
+      <c r="BS33" s="61"/>
+      <c r="BT33" s="61"/>
+      <c r="BU33" s="61"/>
+      <c r="BV33" s="61"/>
+      <c r="BW33" s="61"/>
+      <c r="BX33" s="61"/>
+      <c r="BY33" s="61"/>
+      <c r="BZ33" s="61"/>
+      <c r="CA33" s="61"/>
+      <c r="CB33" s="61"/>
+      <c r="CC33" s="61"/>
+      <c r="CD33" s="61"/>
+      <c r="CE33" s="61"/>
+      <c r="CF33" s="61"/>
+      <c r="CG33" s="61"/>
+      <c r="CH33" s="61"/>
+      <c r="CI33" s="61"/>
+      <c r="CJ33" s="61"/>
+      <c r="CK33" s="61"/>
+      <c r="CL33" s="61"/>
+      <c r="CM33" s="61"/>
+      <c r="CN33" s="61"/>
+      <c r="CO33" s="61"/>
+      <c r="CP33" s="61"/>
+      <c r="CQ33" s="61"/>
+      <c r="CR33" s="61"/>
+      <c r="CS33" s="61"/>
+      <c r="CT33" s="61"/>
+      <c r="CU33" s="61"/>
+      <c r="CV33" s="61"/>
+      <c r="CW33" s="61"/>
+      <c r="CX33" s="61"/>
+      <c r="CY33" s="61"/>
+      <c r="CZ33" s="61"/>
+      <c r="DA33" s="61"/>
+      <c r="DB33" s="61"/>
+      <c r="DC33" s="61"/>
+      <c r="DD33" s="61"/>
+      <c r="DE33" s="61"/>
+      <c r="DF33" s="61"/>
+      <c r="DG33" s="61"/>
+      <c r="DH33" s="61"/>
+      <c r="DI33" s="61"/>
+      <c r="DJ33" s="61"/>
+      <c r="DK33" s="61"/>
+      <c r="DL33" s="61"/>
+      <c r="DM33" s="61"/>
+      <c r="DN33" s="61"/>
+      <c r="DO33" s="61"/>
+      <c r="DP33" s="61"/>
+      <c r="DQ33" s="61"/>
+      <c r="DR33" s="61"/>
+      <c r="DS33" s="61"/>
+      <c r="DT33" s="61"/>
+      <c r="DU33" s="61"/>
+      <c r="DV33" s="61"/>
+      <c r="DW33" s="61"/>
+      <c r="DX33" s="61"/>
+      <c r="DY33" s="61"/>
+      <c r="DZ33" s="61"/>
+      <c r="EA33" s="61"/>
+      <c r="EB33" s="61"/>
+      <c r="EC33" s="61"/>
+      <c r="ED33" s="61"/>
+      <c r="EE33" s="61"/>
+      <c r="EF33" s="61"/>
+      <c r="EG33" s="61"/>
+      <c r="EH33" s="61"/>
+      <c r="EI33" s="61"/>
+      <c r="EJ33" s="61"/>
+      <c r="EK33" s="61"/>
+      <c r="EL33" s="61"/>
+      <c r="EM33" s="61"/>
+      <c r="EN33" s="61"/>
+      <c r="EO33" s="61"/>
+      <c r="EP33" s="61"/>
+      <c r="EQ33" s="61"/>
+      <c r="ER33" s="61"/>
+      <c r="ES33" s="61"/>
+      <c r="ET33" s="61"/>
+      <c r="EU33" s="61"/>
+      <c r="EV33" s="61"/>
+      <c r="EW33" s="61"/>
+      <c r="EX33" s="61"/>
+      <c r="EY33" s="61"/>
+      <c r="EZ33" s="61"/>
+      <c r="FA33" s="61"/>
+      <c r="FB33" s="61"/>
+      <c r="FC33" s="61"/>
+      <c r="FD33" s="61"/>
+      <c r="FE33" s="61"/>
+      <c r="FF33" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="FG33" s="14"/>
+      <c r="FH33" s="14"/>
+      <c r="FI33" s="14"/>
       <c r="FK33" s="55"/>
       <c r="FL33" s="55"/>
       <c r="FM33" s="55"/>
@@ -24761,8 +24724,9 @@
       <c r="XT33" s="55"/>
       <c r="XU33" s="55"/>
       <c r="XV33" s="55"/>
-      <c r="XW33" s="55"/>
-      <c r="XX33" s="55"/>
+      <c r="XW33" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="XY33" s="55"/>
       <c r="XZ33" s="55"/>
       <c r="YA33" s="55"/>
@@ -24818,178 +24782,173 @@
       <c r="ZY33" s="55"/>
       <c r="ZZ33" s="55"/>
     </row>
-    <row r="34" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>79</v>
+    <row r="34" spans="1:702" ht="6.75" customHeight="1">
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="51" t="s">
+        <v>82</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="61"/>
-      <c r="AN34" s="61"/>
-      <c r="AO34" s="61"/>
-      <c r="AP34" s="61"/>
-      <c r="AQ34" s="61"/>
-      <c r="AR34" s="61"/>
-      <c r="AS34" s="61"/>
-      <c r="AT34" s="61"/>
-      <c r="AU34" s="61"/>
-      <c r="AV34" s="61"/>
-      <c r="AW34" s="61"/>
-      <c r="AX34" s="61"/>
-      <c r="AY34" s="61"/>
-      <c r="AZ34" s="61"/>
-      <c r="BA34" s="61"/>
-      <c r="BB34" s="61"/>
-      <c r="BC34" s="61"/>
-      <c r="BD34" s="61"/>
-      <c r="BE34" s="61"/>
-      <c r="BF34" s="61"/>
-      <c r="BG34" s="61"/>
-      <c r="BH34" s="61"/>
-      <c r="BI34" s="61"/>
-      <c r="BJ34" s="61"/>
-      <c r="BK34" s="61"/>
-      <c r="BL34" s="61"/>
-      <c r="BM34" s="61"/>
-      <c r="BN34" s="61"/>
-      <c r="BO34" s="61"/>
-      <c r="BP34" s="61"/>
-      <c r="BQ34" s="61"/>
-      <c r="BR34" s="61"/>
-      <c r="BS34" s="61"/>
-      <c r="BT34" s="61"/>
-      <c r="BU34" s="61"/>
-      <c r="BV34" s="61"/>
-      <c r="BW34" s="61"/>
-      <c r="BX34" s="61"/>
-      <c r="BY34" s="61"/>
-      <c r="BZ34" s="61"/>
-      <c r="CA34" s="61"/>
-      <c r="CB34" s="61"/>
-      <c r="CC34" s="61"/>
-      <c r="CD34" s="61"/>
-      <c r="CE34" s="61"/>
-      <c r="CF34" s="61"/>
-      <c r="CG34" s="61"/>
-      <c r="CH34" s="61"/>
-      <c r="CI34" s="61"/>
-      <c r="CJ34" s="61"/>
-      <c r="CK34" s="61"/>
-      <c r="CL34" s="61"/>
-      <c r="CM34" s="61"/>
-      <c r="CN34" s="61"/>
-      <c r="CO34" s="61"/>
-      <c r="CP34" s="61"/>
-      <c r="CQ34" s="61"/>
-      <c r="CR34" s="61"/>
-      <c r="CS34" s="61"/>
-      <c r="CT34" s="61"/>
-      <c r="CU34" s="61"/>
-      <c r="CV34" s="61"/>
-      <c r="CW34" s="61"/>
-      <c r="CX34" s="61"/>
-      <c r="CY34" s="61"/>
-      <c r="CZ34" s="61"/>
-      <c r="DA34" s="61"/>
-      <c r="DB34" s="61"/>
-      <c r="DC34" s="61"/>
-      <c r="DD34" s="61"/>
-      <c r="DE34" s="61"/>
-      <c r="DF34" s="61"/>
-      <c r="DG34" s="61"/>
-      <c r="DH34" s="61"/>
-      <c r="DI34" s="61"/>
-      <c r="DJ34" s="61"/>
-      <c r="DK34" s="61"/>
-      <c r="DL34" s="61"/>
-      <c r="DM34" s="61"/>
-      <c r="DN34" s="61"/>
-      <c r="DO34" s="61"/>
-      <c r="DP34" s="61"/>
-      <c r="DQ34" s="61"/>
-      <c r="DR34" s="61"/>
-      <c r="DS34" s="61"/>
-      <c r="DT34" s="61"/>
-      <c r="DU34" s="61"/>
-      <c r="DV34" s="61"/>
-      <c r="DW34" s="61"/>
-      <c r="DX34" s="61"/>
-      <c r="DY34" s="61"/>
-      <c r="DZ34" s="61"/>
-      <c r="EA34" s="61"/>
-      <c r="EB34" s="61"/>
-      <c r="EC34" s="61"/>
-      <c r="ED34" s="61"/>
-      <c r="EE34" s="61"/>
-      <c r="EF34" s="61"/>
-      <c r="EG34" s="61"/>
-      <c r="EH34" s="61"/>
-      <c r="EI34" s="61"/>
-      <c r="EJ34" s="61"/>
-      <c r="EK34" s="61"/>
-      <c r="EL34" s="61"/>
-      <c r="EM34" s="61"/>
-      <c r="EN34" s="61"/>
-      <c r="EO34" s="61"/>
-      <c r="EP34" s="61"/>
-      <c r="EQ34" s="61"/>
-      <c r="ER34" s="61"/>
-      <c r="ES34" s="61"/>
-      <c r="ET34" s="61"/>
-      <c r="EU34" s="61"/>
-      <c r="EV34" s="61"/>
-      <c r="EW34" s="61"/>
-      <c r="EX34" s="61"/>
-      <c r="EY34" s="61"/>
-      <c r="EZ34" s="61"/>
-      <c r="FA34" s="61"/>
-      <c r="FB34" s="61"/>
-      <c r="FC34" s="61"/>
-      <c r="FD34" s="61"/>
-      <c r="FE34" s="61"/>
-      <c r="FF34" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="FG34" s="14"/>
-      <c r="FH34" s="14"/>
-      <c r="FI34" s="14"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="51"/>
+      <c r="BD34" s="51"/>
+      <c r="BE34" s="51"/>
+      <c r="BF34" s="51"/>
+      <c r="BG34" s="51"/>
+      <c r="BH34" s="51"/>
+      <c r="BI34" s="51"/>
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51"/>
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51"/>
+      <c r="BN34" s="51"/>
+      <c r="BO34" s="51"/>
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="51"/>
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="51"/>
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="51"/>
+      <c r="BV34" s="51"/>
+      <c r="BW34" s="51"/>
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="51"/>
+      <c r="BZ34" s="51"/>
+      <c r="CA34" s="51"/>
+      <c r="CB34" s="51"/>
+      <c r="CC34" s="51"/>
+      <c r="CD34" s="51"/>
+      <c r="CE34" s="51"/>
+      <c r="CF34" s="51"/>
+      <c r="CG34" s="51"/>
+      <c r="CH34" s="51"/>
+      <c r="CI34" s="51"/>
+      <c r="CJ34" s="51"/>
+      <c r="CK34" s="51"/>
+      <c r="CL34" s="51"/>
+      <c r="CM34" s="51"/>
+      <c r="CN34" s="51"/>
+      <c r="CO34" s="51"/>
+      <c r="CP34" s="51"/>
+      <c r="CQ34" s="51"/>
+      <c r="CR34" s="51"/>
+      <c r="CS34" s="51"/>
+      <c r="CT34" s="51"/>
+      <c r="CU34" s="51"/>
+      <c r="CV34" s="51"/>
+      <c r="CW34" s="51"/>
+      <c r="CX34" s="51"/>
+      <c r="CY34" s="51"/>
+      <c r="CZ34" s="51"/>
+      <c r="DA34" s="51"/>
+      <c r="DB34" s="51"/>
+      <c r="DC34" s="51"/>
+      <c r="DD34" s="51"/>
+      <c r="DE34" s="51"/>
+      <c r="DF34" s="51"/>
+      <c r="DG34" s="51"/>
+      <c r="DH34" s="51"/>
+      <c r="DI34" s="51"/>
+      <c r="DJ34" s="51"/>
+      <c r="DK34" s="51"/>
+      <c r="DL34" s="51"/>
+      <c r="DM34" s="51"/>
+      <c r="DN34" s="51"/>
+      <c r="DO34" s="51"/>
+      <c r="DP34" s="51"/>
+      <c r="DQ34" s="51"/>
+      <c r="DR34" s="51"/>
+      <c r="DS34" s="51"/>
+      <c r="DT34" s="51"/>
+      <c r="DU34" s="51"/>
+      <c r="DV34" s="51"/>
+      <c r="DW34" s="51"/>
+      <c r="DX34" s="51"/>
+      <c r="DY34" s="51"/>
+      <c r="DZ34" s="51"/>
+      <c r="EA34" s="51"/>
+      <c r="EB34" s="51"/>
+      <c r="EC34" s="51"/>
+      <c r="ED34" s="51"/>
+      <c r="EE34" s="51"/>
+      <c r="EF34" s="51"/>
+      <c r="EG34" s="51"/>
+      <c r="EH34" s="51"/>
+      <c r="EI34" s="51"/>
+      <c r="EJ34" s="51"/>
+      <c r="EK34" s="51"/>
+      <c r="EL34" s="51"/>
+      <c r="EM34" s="51"/>
+      <c r="EN34" s="51"/>
+      <c r="EO34" s="51"/>
+      <c r="EP34" s="51"/>
+      <c r="EQ34" s="51"/>
+      <c r="ER34" s="51"/>
+      <c r="ES34" s="51"/>
+      <c r="ET34" s="51"/>
+      <c r="EU34" s="51"/>
+      <c r="EV34" s="51"/>
+      <c r="EW34" s="51"/>
+      <c r="EX34" s="51"/>
+      <c r="EY34" s="51"/>
+      <c r="EZ34" s="51"/>
+      <c r="FA34" s="51"/>
+      <c r="FB34" s="51"/>
+      <c r="FC34" s="51"/>
+      <c r="FD34" s="51"/>
+      <c r="FE34" s="51"/>
+      <c r="FG34" s="55"/>
+      <c r="FH34" s="55"/>
+      <c r="FI34" s="55"/>
+      <c r="FJ34" s="55"/>
       <c r="FK34" s="55"/>
       <c r="FL34" s="55"/>
       <c r="FM34" s="55"/>
@@ -25470,9 +25429,8 @@
       <c r="XT34" s="55"/>
       <c r="XU34" s="55"/>
       <c r="XV34" s="55"/>
-      <c r="XW34" s="23" t="s">
-        <v>80</v>
-      </c>
+      <c r="XW34" s="55"/>
+      <c r="XX34" s="55"/>
       <c r="XY34" s="55"/>
       <c r="XZ34" s="55"/>
       <c r="YA34" s="55"/>
@@ -25528,173 +25486,175 @@
       <c r="ZY34" s="55"/>
       <c r="ZZ34" s="55"/>
     </row>
-    <row r="35" spans="1:702" ht="6.75" customHeight="1">
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="51" t="s">
-        <v>82</v>
+    <row r="35" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
       </c>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="51"/>
-      <c r="AM35" s="51"/>
-      <c r="AN35" s="51"/>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="51"/>
-      <c r="BA35" s="51"/>
-      <c r="BB35" s="51"/>
-      <c r="BC35" s="51"/>
-      <c r="BD35" s="51"/>
-      <c r="BE35" s="51"/>
-      <c r="BF35" s="51"/>
-      <c r="BG35" s="51"/>
-      <c r="BH35" s="51"/>
-      <c r="BI35" s="51"/>
-      <c r="BJ35" s="51"/>
-      <c r="BK35" s="51"/>
-      <c r="BL35" s="51"/>
-      <c r="BM35" s="51"/>
-      <c r="BN35" s="51"/>
-      <c r="BO35" s="51"/>
-      <c r="BP35" s="51"/>
-      <c r="BQ35" s="51"/>
-      <c r="BR35" s="51"/>
-      <c r="BS35" s="51"/>
-      <c r="BT35" s="51"/>
-      <c r="BU35" s="51"/>
-      <c r="BV35" s="51"/>
-      <c r="BW35" s="51"/>
-      <c r="BX35" s="51"/>
-      <c r="BY35" s="51"/>
-      <c r="BZ35" s="51"/>
-      <c r="CA35" s="51"/>
-      <c r="CB35" s="51"/>
-      <c r="CC35" s="51"/>
-      <c r="CD35" s="51"/>
-      <c r="CE35" s="51"/>
-      <c r="CF35" s="51"/>
-      <c r="CG35" s="51"/>
-      <c r="CH35" s="51"/>
-      <c r="CI35" s="51"/>
-      <c r="CJ35" s="51"/>
-      <c r="CK35" s="51"/>
-      <c r="CL35" s="51"/>
-      <c r="CM35" s="51"/>
-      <c r="CN35" s="51"/>
-      <c r="CO35" s="51"/>
-      <c r="CP35" s="51"/>
-      <c r="CQ35" s="51"/>
-      <c r="CR35" s="51"/>
-      <c r="CS35" s="51"/>
-      <c r="CT35" s="51"/>
-      <c r="CU35" s="51"/>
-      <c r="CV35" s="51"/>
-      <c r="CW35" s="51"/>
-      <c r="CX35" s="51"/>
-      <c r="CY35" s="51"/>
-      <c r="CZ35" s="51"/>
-      <c r="DA35" s="51"/>
-      <c r="DB35" s="51"/>
-      <c r="DC35" s="51"/>
-      <c r="DD35" s="51"/>
-      <c r="DE35" s="51"/>
-      <c r="DF35" s="51"/>
-      <c r="DG35" s="51"/>
-      <c r="DH35" s="51"/>
-      <c r="DI35" s="51"/>
-      <c r="DJ35" s="51"/>
-      <c r="DK35" s="51"/>
-      <c r="DL35" s="51"/>
-      <c r="DM35" s="51"/>
-      <c r="DN35" s="51"/>
-      <c r="DO35" s="51"/>
-      <c r="DP35" s="51"/>
-      <c r="DQ35" s="51"/>
-      <c r="DR35" s="51"/>
-      <c r="DS35" s="51"/>
-      <c r="DT35" s="51"/>
-      <c r="DU35" s="51"/>
-      <c r="DV35" s="51"/>
-      <c r="DW35" s="51"/>
-      <c r="DX35" s="51"/>
-      <c r="DY35" s="51"/>
-      <c r="DZ35" s="51"/>
-      <c r="EA35" s="51"/>
-      <c r="EB35" s="51"/>
-      <c r="EC35" s="51"/>
-      <c r="ED35" s="51"/>
-      <c r="EE35" s="51"/>
-      <c r="EF35" s="51"/>
-      <c r="EG35" s="51"/>
-      <c r="EH35" s="51"/>
-      <c r="EI35" s="51"/>
-      <c r="EJ35" s="51"/>
-      <c r="EK35" s="51"/>
-      <c r="EL35" s="51"/>
-      <c r="EM35" s="51"/>
-      <c r="EN35" s="51"/>
-      <c r="EO35" s="51"/>
-      <c r="EP35" s="51"/>
-      <c r="EQ35" s="51"/>
-      <c r="ER35" s="51"/>
-      <c r="ES35" s="51"/>
-      <c r="ET35" s="51"/>
-      <c r="EU35" s="51"/>
-      <c r="EV35" s="51"/>
-      <c r="EW35" s="51"/>
-      <c r="EX35" s="51"/>
-      <c r="EY35" s="51"/>
-      <c r="EZ35" s="51"/>
-      <c r="FA35" s="51"/>
-      <c r="FB35" s="51"/>
-      <c r="FC35" s="51"/>
-      <c r="FD35" s="51"/>
-      <c r="FE35" s="51"/>
-      <c r="FG35" s="55"/>
-      <c r="FH35" s="55"/>
-      <c r="FI35" s="55"/>
-      <c r="FJ35" s="55"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+      <c r="BJ35" s="3"/>
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="3"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3"/>
+      <c r="BQ35" s="3"/>
+      <c r="BR35" s="3"/>
+      <c r="BS35" s="3"/>
+      <c r="BT35" s="3"/>
+      <c r="BU35" s="3"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="3"/>
+      <c r="BY35" s="3"/>
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="83"/>
+      <c r="CF35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG35" s="3"/>
+      <c r="CH35" s="3"/>
+      <c r="CI35" s="3"/>
+      <c r="CJ35" s="3"/>
+      <c r="CK35" s="3"/>
+      <c r="CL35" s="3"/>
+      <c r="CM35" s="3"/>
+      <c r="CN35" s="3"/>
+      <c r="CO35" s="3"/>
+      <c r="CP35" s="3"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="3"/>
+      <c r="CS35" s="3"/>
+      <c r="CT35" s="3"/>
+      <c r="CU35" s="3"/>
+      <c r="CV35" s="3"/>
+      <c r="CW35" s="3"/>
+      <c r="CX35" s="3"/>
+      <c r="CY35" s="3"/>
+      <c r="CZ35" s="3"/>
+      <c r="DA35" s="3"/>
+      <c r="DB35" s="3"/>
+      <c r="DC35" s="3"/>
+      <c r="DD35" s="3"/>
+      <c r="DE35" s="3"/>
+      <c r="DF35" s="3"/>
+      <c r="DG35" s="3"/>
+      <c r="DH35" s="3"/>
+      <c r="DI35" s="3"/>
+      <c r="DJ35" s="3"/>
+      <c r="DK35" s="3"/>
+      <c r="DL35" s="3"/>
+      <c r="DM35" s="3"/>
+      <c r="DN35" s="3"/>
+      <c r="DO35" s="3"/>
+      <c r="DP35" s="3"/>
+      <c r="DQ35" s="3"/>
+      <c r="DR35" s="3"/>
+      <c r="DS35" s="3"/>
+      <c r="DT35" s="3"/>
+      <c r="DU35" s="3"/>
+      <c r="DV35" s="3"/>
+      <c r="DW35" s="3"/>
+      <c r="DX35" s="3"/>
+      <c r="DY35" s="3"/>
+      <c r="DZ35" s="3"/>
+      <c r="EA35" s="3"/>
+      <c r="EB35" s="3"/>
+      <c r="EC35" s="3"/>
+      <c r="ED35" s="3"/>
+      <c r="EE35" s="3"/>
+      <c r="EF35" s="3"/>
+      <c r="EG35" s="3"/>
+      <c r="EH35" s="3"/>
+      <c r="EI35" s="3"/>
+      <c r="EJ35" s="3"/>
+      <c r="EK35" s="3"/>
+      <c r="EL35" s="3"/>
+      <c r="EM35" s="3"/>
+      <c r="EN35" s="3"/>
+      <c r="EO35" s="3"/>
+      <c r="EP35" s="3"/>
+      <c r="EQ35" s="3"/>
+      <c r="ER35" s="3"/>
+      <c r="ES35" s="3"/>
+      <c r="ET35" s="3"/>
+      <c r="EU35" s="3"/>
+      <c r="EV35" s="3"/>
+      <c r="EW35" s="3"/>
+      <c r="EX35" s="3"/>
+      <c r="EY35" s="3"/>
+      <c r="EZ35" s="3"/>
+      <c r="FA35" s="3"/>
+      <c r="FB35" s="3"/>
+      <c r="FC35" s="3"/>
+      <c r="FD35" s="3"/>
+      <c r="FE35" s="3"/>
+      <c r="FF35" s="3"/>
+      <c r="FG35" s="3"/>
+      <c r="FH35" s="3"/>
+      <c r="FI35" s="3"/>
       <c r="FK35" s="55"/>
       <c r="FL35" s="55"/>
       <c r="FM35" s="55"/>
@@ -26233,174 +26193,178 @@
       <c r="ZZ35" s="55"/>
     </row>
     <row r="36" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>83</v>
+      <c r="A36" s="79" t="s">
+        <v>85</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
-      <c r="AW36" s="3"/>
-      <c r="AX36" s="3"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="3"/>
-      <c r="BD36" s="3"/>
-      <c r="BE36" s="3"/>
-      <c r="BF36" s="3"/>
-      <c r="BG36" s="3"/>
-      <c r="BH36" s="3"/>
-      <c r="BI36" s="3"/>
-      <c r="BJ36" s="3"/>
-      <c r="BK36" s="3"/>
-      <c r="BL36" s="3"/>
-      <c r="BM36" s="3"/>
-      <c r="BN36" s="3"/>
-      <c r="BO36" s="3"/>
-      <c r="BP36" s="3"/>
-      <c r="BQ36" s="3"/>
-      <c r="BR36" s="3"/>
-      <c r="BS36" s="3"/>
-      <c r="BT36" s="3"/>
-      <c r="BU36" s="3"/>
-      <c r="BV36" s="3"/>
-      <c r="BW36" s="3"/>
-      <c r="BX36" s="3"/>
-      <c r="BY36" s="3"/>
-      <c r="BZ36" s="3"/>
-      <c r="CA36" s="3"/>
-      <c r="CB36" s="3"/>
-      <c r="CC36" s="3"/>
-      <c r="CD36" s="83"/>
-      <c r="CF36" s="3" t="s">
-        <v>84</v>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="79"/>
+      <c r="AD36" s="78"/>
+      <c r="AE36" s="78"/>
+      <c r="AF36" s="78"/>
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="78"/>
+      <c r="AI36" s="78"/>
+      <c r="AJ36" s="78"/>
+      <c r="AK36" s="78"/>
+      <c r="AL36" s="78"/>
+      <c r="AM36" s="78"/>
+      <c r="AN36" s="78"/>
+      <c r="AO36" s="78"/>
+      <c r="AP36" s="78"/>
+      <c r="AQ36" s="78"/>
+      <c r="AR36" s="78"/>
+      <c r="AS36" s="78"/>
+      <c r="AT36" s="78"/>
+      <c r="AU36" s="78"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="78"/>
+      <c r="AX36" s="78"/>
+      <c r="AZ36" s="79" t="s">
+        <v>67</v>
       </c>
-      <c r="CG36" s="3"/>
-      <c r="CH36" s="3"/>
-      <c r="CI36" s="3"/>
-      <c r="CJ36" s="3"/>
-      <c r="CK36" s="3"/>
-      <c r="CL36" s="3"/>
-      <c r="CM36" s="3"/>
-      <c r="CN36" s="3"/>
-      <c r="CO36" s="3"/>
-      <c r="CP36" s="3"/>
-      <c r="CQ36" s="3"/>
-      <c r="CR36" s="3"/>
-      <c r="CS36" s="3"/>
-      <c r="CT36" s="3"/>
-      <c r="CU36" s="3"/>
-      <c r="CV36" s="3"/>
-      <c r="CW36" s="3"/>
-      <c r="CX36" s="3"/>
-      <c r="CY36" s="3"/>
-      <c r="CZ36" s="3"/>
-      <c r="DA36" s="3"/>
-      <c r="DB36" s="3"/>
-      <c r="DC36" s="3"/>
-      <c r="DD36" s="3"/>
-      <c r="DE36" s="3"/>
-      <c r="DF36" s="3"/>
-      <c r="DG36" s="3"/>
-      <c r="DH36" s="3"/>
-      <c r="DI36" s="3"/>
-      <c r="DJ36" s="3"/>
-      <c r="DK36" s="3"/>
-      <c r="DL36" s="3"/>
-      <c r="DM36" s="3"/>
-      <c r="DN36" s="3"/>
-      <c r="DO36" s="3"/>
-      <c r="DP36" s="3"/>
-      <c r="DQ36" s="3"/>
-      <c r="DR36" s="3"/>
-      <c r="DS36" s="3"/>
-      <c r="DT36" s="3"/>
-      <c r="DU36" s="3"/>
-      <c r="DV36" s="3"/>
-      <c r="DW36" s="3"/>
-      <c r="DX36" s="3"/>
-      <c r="DY36" s="3"/>
-      <c r="DZ36" s="3"/>
-      <c r="EA36" s="3"/>
-      <c r="EB36" s="3"/>
-      <c r="EC36" s="3"/>
-      <c r="ED36" s="3"/>
-      <c r="EE36" s="3"/>
-      <c r="EF36" s="3"/>
-      <c r="EG36" s="3"/>
-      <c r="EH36" s="3"/>
-      <c r="EI36" s="3"/>
-      <c r="EJ36" s="3"/>
-      <c r="EK36" s="3"/>
-      <c r="EL36" s="3"/>
-      <c r="EM36" s="3"/>
-      <c r="EN36" s="3"/>
-      <c r="EO36" s="3"/>
-      <c r="EP36" s="3"/>
-      <c r="EQ36" s="3"/>
-      <c r="ER36" s="3"/>
-      <c r="ES36" s="3"/>
-      <c r="ET36" s="3"/>
-      <c r="EU36" s="3"/>
-      <c r="EV36" s="3"/>
-      <c r="EW36" s="3"/>
-      <c r="EX36" s="3"/>
-      <c r="EY36" s="3"/>
-      <c r="EZ36" s="3"/>
-      <c r="FA36" s="3"/>
-      <c r="FB36" s="3"/>
-      <c r="FC36" s="3"/>
-      <c r="FD36" s="3"/>
-      <c r="FE36" s="3"/>
-      <c r="FF36" s="3"/>
-      <c r="FG36" s="3"/>
-      <c r="FH36" s="3"/>
-      <c r="FI36" s="3"/>
+      <c r="BA36" s="79"/>
+      <c r="BB36" s="79"/>
+      <c r="BC36" s="79"/>
+      <c r="BD36" s="79"/>
+      <c r="BE36" s="79"/>
+      <c r="BF36" s="79"/>
+      <c r="BG36" s="79"/>
+      <c r="BH36" s="79"/>
+      <c r="BI36" s="79"/>
+      <c r="BJ36" s="79"/>
+      <c r="BK36" s="79"/>
+      <c r="BL36" s="79"/>
+      <c r="BM36" s="79"/>
+      <c r="BN36" s="79"/>
+      <c r="BO36" s="79"/>
+      <c r="BP36" s="79"/>
+      <c r="BQ36" s="79"/>
+      <c r="BR36" s="79"/>
+      <c r="BS36" s="79"/>
+      <c r="BT36" s="79"/>
+      <c r="BU36" s="79"/>
+      <c r="BV36" s="79"/>
+      <c r="BW36" s="79"/>
+      <c r="BX36" s="79"/>
+      <c r="BY36" s="79"/>
+      <c r="BZ36" s="79"/>
+      <c r="CA36" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB36" s="81"/>
+      <c r="CC36" s="81"/>
+      <c r="CD36" s="81"/>
+      <c r="CF36" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG36" s="79"/>
+      <c r="CH36" s="79"/>
+      <c r="CI36" s="79"/>
+      <c r="CJ36" s="79"/>
+      <c r="CK36" s="79"/>
+      <c r="CL36" s="79"/>
+      <c r="CM36" s="79"/>
+      <c r="CN36" s="79"/>
+      <c r="CO36" s="79"/>
+      <c r="CP36" s="79"/>
+      <c r="CQ36" s="79"/>
+      <c r="CR36" s="79"/>
+      <c r="CS36" s="79"/>
+      <c r="CT36" s="79"/>
+      <c r="CU36" s="79"/>
+      <c r="CV36" s="79"/>
+      <c r="CW36" s="79"/>
+      <c r="CX36" s="79"/>
+      <c r="CY36" s="79"/>
+      <c r="CZ36" s="79"/>
+      <c r="DA36" s="79"/>
+      <c r="DB36" s="79"/>
+      <c r="DC36" s="79"/>
+      <c r="DD36" s="79"/>
+      <c r="DE36" s="79"/>
+      <c r="DF36" s="79"/>
+      <c r="DG36" s="79"/>
+      <c r="DI36" s="78"/>
+      <c r="DJ36" s="78"/>
+      <c r="DK36" s="78"/>
+      <c r="DL36" s="78"/>
+      <c r="DM36" s="78"/>
+      <c r="DN36" s="78"/>
+      <c r="DO36" s="78"/>
+      <c r="DP36" s="78"/>
+      <c r="DQ36" s="78"/>
+      <c r="DR36" s="78"/>
+      <c r="DS36" s="78"/>
+      <c r="DT36" s="78"/>
+      <c r="DU36" s="78"/>
+      <c r="DV36" s="78"/>
+      <c r="DW36" s="78"/>
+      <c r="DX36" s="78"/>
+      <c r="DY36" s="78"/>
+      <c r="DZ36" s="78"/>
+      <c r="EA36" s="78"/>
+      <c r="EB36" s="78"/>
+      <c r="EC36" s="78"/>
+      <c r="EE36" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF36" s="79"/>
+      <c r="EG36" s="79"/>
+      <c r="EH36" s="79"/>
+      <c r="EI36" s="79"/>
+      <c r="EJ36" s="79"/>
+      <c r="EK36" s="79"/>
+      <c r="EL36" s="79"/>
+      <c r="EM36" s="79"/>
+      <c r="EN36" s="79"/>
+      <c r="EO36" s="79"/>
+      <c r="EP36" s="79"/>
+      <c r="EQ36" s="79"/>
+      <c r="ER36" s="79"/>
+      <c r="ES36" s="79"/>
+      <c r="ET36" s="79"/>
+      <c r="EU36" s="79"/>
+      <c r="EV36" s="79"/>
+      <c r="EW36" s="79"/>
+      <c r="EX36" s="79"/>
+      <c r="EY36" s="79"/>
+      <c r="EZ36" s="79"/>
+      <c r="FA36" s="79"/>
+      <c r="FB36" s="79"/>
+      <c r="FC36" s="79"/>
+      <c r="FD36" s="79"/>
+      <c r="FE36" s="79"/>
+      <c r="FF36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="FG36" s="14"/>
+      <c r="FH36" s="14"/>
+      <c r="FI36" s="14"/>
       <c r="FK36" s="55"/>
       <c r="FL36" s="55"/>
       <c r="FM36" s="55"/>
@@ -26863,28 +26827,28 @@
       <c r="XB36" s="55"/>
       <c r="XC36" s="55"/>
       <c r="XD36" s="55"/>
-      <c r="XE36" s="55"/>
-      <c r="XF36" s="55"/>
+      <c r="XE36" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="XG36" s="55"/>
       <c r="XH36" s="55"/>
-      <c r="XI36" s="55"/>
-      <c r="XJ36" s="55"/>
       <c r="XK36" s="55"/>
       <c r="XL36" s="55"/>
-      <c r="XM36" s="55"/>
       <c r="XN36" s="55"/>
       <c r="XO36" s="55"/>
       <c r="XP36" s="55"/>
       <c r="XQ36" s="55"/>
-      <c r="XR36" s="55"/>
-      <c r="XS36" s="55"/>
-      <c r="XT36" s="55"/>
-      <c r="XU36" s="55"/>
+      <c r="XR36" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="XT36" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="XV36" s="55"/>
       <c r="XW36" s="55"/>
-      <c r="XX36" s="55"/>
-      <c r="XY36" s="55"/>
-      <c r="XZ36" s="55"/>
+      <c r="XY36" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="YA36" s="55"/>
       <c r="YB36" s="55"/>
       <c r="YC36" s="55"/>
@@ -26938,179 +26902,178 @@
       <c r="ZY36" s="55"/>
       <c r="ZZ36" s="55"/>
     </row>
-    <row r="37" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A37" s="79" t="s">
-        <v>85</v>
+    <row r="37" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A37" s="51" t="s">
+        <v>90</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="79"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="78"/>
-      <c r="AF37" s="78"/>
-      <c r="AG37" s="78"/>
-      <c r="AH37" s="78"/>
-      <c r="AI37" s="78"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="78"/>
-      <c r="AL37" s="78"/>
-      <c r="AM37" s="78"/>
-      <c r="AN37" s="78"/>
-      <c r="AO37" s="78"/>
-      <c r="AP37" s="78"/>
-      <c r="AQ37" s="78"/>
-      <c r="AR37" s="78"/>
-      <c r="AS37" s="78"/>
-      <c r="AT37" s="78"/>
-      <c r="AU37" s="78"/>
-      <c r="AV37" s="78"/>
-      <c r="AW37" s="78"/>
-      <c r="AX37" s="78"/>
-      <c r="AZ37" s="79" t="s">
-        <v>67</v>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AD37" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="BA37" s="79"/>
-      <c r="BB37" s="79"/>
-      <c r="BC37" s="79"/>
-      <c r="BD37" s="79"/>
-      <c r="BE37" s="79"/>
-      <c r="BF37" s="79"/>
-      <c r="BG37" s="79"/>
-      <c r="BH37" s="79"/>
-      <c r="BI37" s="79"/>
-      <c r="BJ37" s="79"/>
-      <c r="BK37" s="79"/>
-      <c r="BL37" s="79"/>
-      <c r="BM37" s="79"/>
-      <c r="BN37" s="79"/>
-      <c r="BO37" s="79"/>
-      <c r="BP37" s="79"/>
-      <c r="BQ37" s="79"/>
-      <c r="BR37" s="79"/>
-      <c r="BS37" s="79"/>
-      <c r="BT37" s="79"/>
-      <c r="BU37" s="79"/>
-      <c r="BV37" s="79"/>
-      <c r="BW37" s="79"/>
-      <c r="BX37" s="79"/>
-      <c r="BY37" s="79"/>
-      <c r="BZ37" s="79"/>
-      <c r="CA37" s="81" t="s">
-        <v>86</v>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
+      <c r="AW37" s="51"/>
+      <c r="AX37" s="51"/>
+      <c r="AZ37" s="51" t="s">
+        <v>91</v>
       </c>
-      <c r="CB37" s="81"/>
-      <c r="CC37" s="81"/>
-      <c r="CD37" s="81"/>
-      <c r="CF37" s="79" t="s">
-        <v>87</v>
+      <c r="BA37" s="51"/>
+      <c r="BB37" s="51"/>
+      <c r="BC37" s="51"/>
+      <c r="BD37" s="51"/>
+      <c r="BE37" s="51"/>
+      <c r="BF37" s="51"/>
+      <c r="BG37" s="51"/>
+      <c r="BH37" s="51"/>
+      <c r="BI37" s="51"/>
+      <c r="BJ37" s="51"/>
+      <c r="BK37" s="51"/>
+      <c r="BL37" s="51"/>
+      <c r="BM37" s="51"/>
+      <c r="BN37" s="51"/>
+      <c r="BO37" s="51"/>
+      <c r="BP37" s="51"/>
+      <c r="BQ37" s="51"/>
+      <c r="BR37" s="51"/>
+      <c r="BS37" s="51"/>
+      <c r="BT37" s="51"/>
+      <c r="BU37" s="51"/>
+      <c r="BV37" s="51"/>
+      <c r="BW37" s="51"/>
+      <c r="BX37" s="51"/>
+      <c r="BY37" s="51"/>
+      <c r="BZ37" s="51"/>
+      <c r="CB37" s="55"/>
+      <c r="CC37" s="55"/>
+      <c r="CD37" s="2"/>
+      <c r="CF37" s="51" t="s">
+        <v>90</v>
       </c>
-      <c r="CG37" s="79"/>
-      <c r="CH37" s="79"/>
-      <c r="CI37" s="79"/>
-      <c r="CJ37" s="79"/>
-      <c r="CK37" s="79"/>
-      <c r="CL37" s="79"/>
-      <c r="CM37" s="79"/>
-      <c r="CN37" s="79"/>
-      <c r="CO37" s="79"/>
-      <c r="CP37" s="79"/>
-      <c r="CQ37" s="79"/>
-      <c r="CR37" s="79"/>
-      <c r="CS37" s="79"/>
-      <c r="CT37" s="79"/>
-      <c r="CU37" s="79"/>
-      <c r="CV37" s="79"/>
-      <c r="CW37" s="79"/>
-      <c r="CX37" s="79"/>
-      <c r="CY37" s="79"/>
-      <c r="CZ37" s="79"/>
-      <c r="DA37" s="79"/>
-      <c r="DB37" s="79"/>
-      <c r="DC37" s="79"/>
-      <c r="DD37" s="79"/>
-      <c r="DE37" s="79"/>
-      <c r="DF37" s="79"/>
-      <c r="DG37" s="79"/>
-      <c r="DI37" s="78"/>
-      <c r="DJ37" s="78"/>
-      <c r="DK37" s="78"/>
-      <c r="DL37" s="78"/>
-      <c r="DM37" s="78"/>
-      <c r="DN37" s="78"/>
-      <c r="DO37" s="78"/>
-      <c r="DP37" s="78"/>
-      <c r="DQ37" s="78"/>
-      <c r="DR37" s="78"/>
-      <c r="DS37" s="78"/>
-      <c r="DT37" s="78"/>
-      <c r="DU37" s="78"/>
-      <c r="DV37" s="78"/>
-      <c r="DW37" s="78"/>
-      <c r="DX37" s="78"/>
-      <c r="DY37" s="78"/>
-      <c r="DZ37" s="78"/>
-      <c r="EA37" s="78"/>
-      <c r="EB37" s="78"/>
-      <c r="EC37" s="78"/>
-      <c r="EE37" s="79" t="s">
-        <v>88</v>
+      <c r="CG37" s="51"/>
+      <c r="CH37" s="51"/>
+      <c r="CI37" s="51"/>
+      <c r="CJ37" s="51"/>
+      <c r="CK37" s="51"/>
+      <c r="CL37" s="51"/>
+      <c r="CM37" s="51"/>
+      <c r="CN37" s="51"/>
+      <c r="CO37" s="51"/>
+      <c r="CP37" s="51"/>
+      <c r="CQ37" s="51"/>
+      <c r="CR37" s="51"/>
+      <c r="CS37" s="51"/>
+      <c r="CT37" s="51"/>
+      <c r="CU37" s="51"/>
+      <c r="CV37" s="51"/>
+      <c r="CW37" s="51"/>
+      <c r="CX37" s="51"/>
+      <c r="CY37" s="51"/>
+      <c r="CZ37" s="51"/>
+      <c r="DA37" s="51"/>
+      <c r="DB37" s="51"/>
+      <c r="DC37" s="51"/>
+      <c r="DD37" s="51"/>
+      <c r="DE37" s="51"/>
+      <c r="DF37" s="51"/>
+      <c r="DG37" s="51"/>
+      <c r="DI37" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="EF37" s="79"/>
-      <c r="EG37" s="79"/>
-      <c r="EH37" s="79"/>
-      <c r="EI37" s="79"/>
-      <c r="EJ37" s="79"/>
-      <c r="EK37" s="79"/>
-      <c r="EL37" s="79"/>
-      <c r="EM37" s="79"/>
-      <c r="EN37" s="79"/>
-      <c r="EO37" s="79"/>
-      <c r="EP37" s="79"/>
-      <c r="EQ37" s="79"/>
-      <c r="ER37" s="79"/>
-      <c r="ES37" s="79"/>
-      <c r="ET37" s="79"/>
-      <c r="EU37" s="79"/>
-      <c r="EV37" s="79"/>
-      <c r="EW37" s="79"/>
-      <c r="EX37" s="79"/>
-      <c r="EY37" s="79"/>
-      <c r="EZ37" s="79"/>
-      <c r="FA37" s="79"/>
-      <c r="FB37" s="79"/>
-      <c r="FC37" s="79"/>
-      <c r="FD37" s="79"/>
-      <c r="FE37" s="79"/>
-      <c r="FF37" s="14" t="s">
-        <v>89</v>
+      <c r="DJ37" s="51"/>
+      <c r="DK37" s="51"/>
+      <c r="DL37" s="51"/>
+      <c r="DM37" s="51"/>
+      <c r="DN37" s="51"/>
+      <c r="DO37" s="51"/>
+      <c r="DP37" s="51"/>
+      <c r="DQ37" s="51"/>
+      <c r="DR37" s="51"/>
+      <c r="DS37" s="51"/>
+      <c r="DT37" s="51"/>
+      <c r="DU37" s="51"/>
+      <c r="DV37" s="51"/>
+      <c r="DW37" s="51"/>
+      <c r="DX37" s="51"/>
+      <c r="DY37" s="51"/>
+      <c r="DZ37" s="51"/>
+      <c r="EA37" s="51"/>
+      <c r="EB37" s="51"/>
+      <c r="EC37" s="51"/>
+      <c r="EE37" s="51" t="s">
+        <v>91</v>
       </c>
-      <c r="FG37" s="14"/>
-      <c r="FH37" s="14"/>
-      <c r="FI37" s="14"/>
+      <c r="EF37" s="51"/>
+      <c r="EG37" s="51"/>
+      <c r="EH37" s="51"/>
+      <c r="EI37" s="51"/>
+      <c r="EJ37" s="51"/>
+      <c r="EK37" s="51"/>
+      <c r="EL37" s="51"/>
+      <c r="EM37" s="51"/>
+      <c r="EN37" s="51"/>
+      <c r="EO37" s="51"/>
+      <c r="EP37" s="51"/>
+      <c r="EQ37" s="51"/>
+      <c r="ER37" s="51"/>
+      <c r="ES37" s="51"/>
+      <c r="ET37" s="51"/>
+      <c r="EU37" s="51"/>
+      <c r="EV37" s="51"/>
+      <c r="EW37" s="51"/>
+      <c r="EX37" s="51"/>
+      <c r="EY37" s="51"/>
+      <c r="EZ37" s="51"/>
+      <c r="FA37" s="51"/>
+      <c r="FB37" s="51"/>
+      <c r="FC37" s="51"/>
+      <c r="FD37" s="51"/>
+      <c r="FE37" s="51"/>
+      <c r="FF37" s="51"/>
+      <c r="FH37" s="55"/>
+      <c r="FI37" s="55"/>
+      <c r="FJ37" s="55"/>
       <c r="FK37" s="55"/>
       <c r="FL37" s="55"/>
       <c r="FM37" s="55"/>
@@ -27573,28 +27536,28 @@
       <c r="XB37" s="55"/>
       <c r="XC37" s="55"/>
       <c r="XD37" s="55"/>
-      <c r="XE37" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="XE37" s="55"/>
+      <c r="XF37" s="55"/>
       <c r="XG37" s="55"/>
       <c r="XH37" s="55"/>
+      <c r="XI37" s="55"/>
+      <c r="XJ37" s="55"/>
       <c r="XK37" s="55"/>
       <c r="XL37" s="55"/>
+      <c r="XM37" s="55"/>
       <c r="XN37" s="55"/>
       <c r="XO37" s="55"/>
       <c r="XP37" s="55"/>
       <c r="XQ37" s="55"/>
-      <c r="XR37" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="XT37" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="XR37" s="55"/>
+      <c r="XS37" s="55"/>
+      <c r="XT37" s="55"/>
+      <c r="XU37" s="55"/>
       <c r="XV37" s="55"/>
       <c r="XW37" s="55"/>
-      <c r="XY37" s="23" t="s">
-        <v>88</v>
-      </c>
+      <c r="XX37" s="55"/>
+      <c r="XY37" s="55"/>
+      <c r="XZ37" s="55"/>
       <c r="YA37" s="55"/>
       <c r="YB37" s="55"/>
       <c r="YC37" s="55"/>
@@ -27648,178 +27611,197 @@
       <c r="ZY37" s="55"/>
       <c r="ZZ37" s="55"/>
     </row>
-    <row r="38" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A38" s="51" t="s">
-        <v>90</v>
+    <row r="38" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>92</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AD38" s="51" t="s">
-        <v>70</v>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AG38" s="55"/>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="55"/>
+      <c r="AJ38" s="55"/>
+      <c r="AK38" s="23" t="s">
+        <v>93</v>
       </c>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AL38" s="51"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="51"/>
-      <c r="AO38" s="51"/>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="51"/>
-      <c r="AR38" s="51"/>
-      <c r="AS38" s="51"/>
-      <c r="AT38" s="51"/>
-      <c r="AU38" s="51"/>
-      <c r="AV38" s="51"/>
-      <c r="AW38" s="51"/>
-      <c r="AX38" s="51"/>
-      <c r="AZ38" s="51" t="s">
-        <v>91</v>
+      <c r="AL38" s="84">
+        <v>31</v>
       </c>
-      <c r="BA38" s="51"/>
-      <c r="BB38" s="51"/>
-      <c r="BC38" s="51"/>
-      <c r="BD38" s="51"/>
-      <c r="BE38" s="51"/>
-      <c r="BF38" s="51"/>
-      <c r="BG38" s="51"/>
-      <c r="BH38" s="51"/>
-      <c r="BI38" s="51"/>
-      <c r="BJ38" s="51"/>
-      <c r="BK38" s="51"/>
-      <c r="BL38" s="51"/>
-      <c r="BM38" s="51"/>
-      <c r="BN38" s="51"/>
-      <c r="BO38" s="51"/>
-      <c r="BP38" s="51"/>
-      <c r="BQ38" s="51"/>
-      <c r="BR38" s="51"/>
-      <c r="BS38" s="51"/>
-      <c r="BT38" s="51"/>
-      <c r="BU38" s="51"/>
-      <c r="BV38" s="51"/>
-      <c r="BW38" s="51"/>
-      <c r="BX38" s="51"/>
-      <c r="BY38" s="51"/>
-      <c r="BZ38" s="51"/>
-      <c r="CB38" s="55"/>
-      <c r="CC38" s="55"/>
-      <c r="CD38" s="2"/>
-      <c r="CF38" s="51" t="s">
-        <v>90</v>
+      <c r="AM38" s="79"/>
+      <c r="AN38" s="79"/>
+      <c r="AO38" s="79"/>
+      <c r="AP38" s="79"/>
+      <c r="AQ38" s="14" t="s">
+        <v>93</v>
       </c>
-      <c r="CG38" s="51"/>
-      <c r="CH38" s="51"/>
-      <c r="CI38" s="51"/>
-      <c r="CJ38" s="51"/>
-      <c r="CK38" s="51"/>
-      <c r="CL38" s="51"/>
-      <c r="CM38" s="51"/>
-      <c r="CN38" s="51"/>
-      <c r="CO38" s="51"/>
-      <c r="CP38" s="51"/>
-      <c r="CQ38" s="51"/>
-      <c r="CR38" s="51"/>
-      <c r="CS38" s="51"/>
-      <c r="CT38" s="51"/>
-      <c r="CU38" s="51"/>
-      <c r="CV38" s="51"/>
-      <c r="CW38" s="51"/>
-      <c r="CX38" s="51"/>
-      <c r="CY38" s="51"/>
-      <c r="CZ38" s="51"/>
-      <c r="DA38" s="51"/>
-      <c r="DB38" s="51"/>
-      <c r="DC38" s="51"/>
-      <c r="DD38" s="51"/>
-      <c r="DE38" s="51"/>
-      <c r="DF38" s="51"/>
-      <c r="DG38" s="51"/>
-      <c r="DI38" s="51" t="s">
-        <v>70</v>
+      <c r="AR38" s="79" t="s">
+        <v>94</v>
       </c>
-      <c r="DJ38" s="51"/>
-      <c r="DK38" s="51"/>
-      <c r="DL38" s="51"/>
-      <c r="DM38" s="51"/>
-      <c r="DN38" s="51"/>
-      <c r="DO38" s="51"/>
-      <c r="DP38" s="51"/>
-      <c r="DQ38" s="51"/>
-      <c r="DR38" s="51"/>
-      <c r="DS38" s="51"/>
-      <c r="DT38" s="51"/>
-      <c r="DU38" s="51"/>
-      <c r="DV38" s="51"/>
-      <c r="DW38" s="51"/>
-      <c r="DX38" s="51"/>
-      <c r="DY38" s="51"/>
-      <c r="DZ38" s="51"/>
-      <c r="EA38" s="51"/>
-      <c r="EB38" s="51"/>
-      <c r="EC38" s="51"/>
-      <c r="EE38" s="51" t="s">
-        <v>91</v>
+      <c r="AS38" s="79"/>
+      <c r="AT38" s="79"/>
+      <c r="AU38" s="79"/>
+      <c r="AV38" s="79"/>
+      <c r="AW38" s="79"/>
+      <c r="AX38" s="79"/>
+      <c r="AY38" s="79"/>
+      <c r="AZ38" s="79"/>
+      <c r="BA38" s="79"/>
+      <c r="BB38" s="79"/>
+      <c r="BC38" s="79"/>
+      <c r="BD38" s="79"/>
+      <c r="BE38" s="79"/>
+      <c r="BF38" s="79"/>
+      <c r="BG38" s="79"/>
+      <c r="BH38" s="79"/>
+      <c r="BI38" s="79"/>
+      <c r="BJ38" s="79"/>
+      <c r="BK38" s="79"/>
+      <c r="BL38" s="79"/>
+      <c r="BM38" s="79"/>
+      <c r="BN38" s="79"/>
+      <c r="BP38" s="84">
+        <v>2025</v>
       </c>
-      <c r="EF38" s="51"/>
-      <c r="EG38" s="51"/>
-      <c r="EH38" s="51"/>
-      <c r="EI38" s="51"/>
-      <c r="EJ38" s="51"/>
-      <c r="EK38" s="51"/>
-      <c r="EL38" s="51"/>
-      <c r="EM38" s="51"/>
-      <c r="EN38" s="51"/>
-      <c r="EO38" s="51"/>
-      <c r="EP38" s="51"/>
-      <c r="EQ38" s="51"/>
-      <c r="ER38" s="51"/>
-      <c r="ES38" s="51"/>
-      <c r="ET38" s="51"/>
-      <c r="EU38" s="51"/>
-      <c r="EV38" s="51"/>
-      <c r="EW38" s="51"/>
-      <c r="EX38" s="51"/>
-      <c r="EY38" s="51"/>
-      <c r="EZ38" s="51"/>
-      <c r="FA38" s="51"/>
-      <c r="FB38" s="51"/>
-      <c r="FC38" s="51"/>
-      <c r="FD38" s="51"/>
-      <c r="FE38" s="51"/>
-      <c r="FF38" s="51"/>
-      <c r="FH38" s="55"/>
-      <c r="FI38" s="55"/>
-      <c r="FJ38" s="55"/>
+      <c r="BQ38" s="79"/>
+      <c r="BR38" s="79"/>
+      <c r="BS38" s="79"/>
+      <c r="BT38" s="79"/>
+      <c r="BU38" s="79"/>
+      <c r="BV38" s="79"/>
+      <c r="BW38" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX38" s="14"/>
+      <c r="BY38" s="14"/>
+      <c r="CA38" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB38" s="81"/>
+      <c r="CC38" s="81"/>
+      <c r="CD38" s="81"/>
+      <c r="CF38" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG38" s="14"/>
+      <c r="CH38" s="14"/>
+      <c r="CI38" s="14"/>
+      <c r="CJ38" s="14"/>
+      <c r="CK38" s="14"/>
+      <c r="CL38" s="14"/>
+      <c r="CM38" s="14"/>
+      <c r="CN38" s="14"/>
+      <c r="CO38" s="14"/>
+      <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
+      <c r="CR38" s="14"/>
+      <c r="CS38" s="14"/>
+      <c r="CT38" s="14"/>
+      <c r="CU38" s="14"/>
+      <c r="CV38" s="14"/>
+      <c r="CW38" s="14"/>
+      <c r="CX38" s="14"/>
+      <c r="CY38" s="14"/>
+      <c r="CZ38" s="14"/>
+      <c r="DA38" s="14"/>
+      <c r="DB38" s="14"/>
+      <c r="DC38" s="14"/>
+      <c r="DD38" s="14"/>
+      <c r="DE38" s="14"/>
+      <c r="DF38" s="14"/>
+      <c r="DG38" s="14"/>
+      <c r="DH38" s="14"/>
+      <c r="DI38" s="14"/>
+      <c r="DJ38" s="14"/>
+      <c r="DL38" s="55"/>
+      <c r="DM38" s="55"/>
+      <c r="DN38" s="55"/>
+      <c r="DO38" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="DP38" s="84">
+        <v>31</v>
+      </c>
+      <c r="DQ38" s="79"/>
+      <c r="DR38" s="79"/>
+      <c r="DS38" s="79"/>
+      <c r="DT38" s="79"/>
+      <c r="DU38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="DV38" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="DW38" s="79"/>
+      <c r="DX38" s="79"/>
+      <c r="DY38" s="79"/>
+      <c r="DZ38" s="79"/>
+      <c r="EA38" s="79"/>
+      <c r="EB38" s="79"/>
+      <c r="EC38" s="79"/>
+      <c r="ED38" s="79"/>
+      <c r="EE38" s="79"/>
+      <c r="EF38" s="79"/>
+      <c r="EG38" s="79"/>
+      <c r="EH38" s="79"/>
+      <c r="EI38" s="79"/>
+      <c r="EJ38" s="79"/>
+      <c r="EK38" s="79"/>
+      <c r="EL38" s="79"/>
+      <c r="EM38" s="79"/>
+      <c r="EN38" s="79"/>
+      <c r="EO38" s="79"/>
+      <c r="EP38" s="79"/>
+      <c r="EQ38" s="79"/>
+      <c r="ER38" s="79"/>
+      <c r="ET38" s="84">
+        <v>2025</v>
+      </c>
+      <c r="EU38" s="79"/>
+      <c r="EV38" s="79"/>
+      <c r="EW38" s="79"/>
+      <c r="EX38" s="79"/>
+      <c r="EY38" s="79"/>
+      <c r="EZ38" s="79"/>
+      <c r="FA38" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="FB38" s="14"/>
+      <c r="FC38" s="14"/>
+      <c r="FE38" s="55"/>
+      <c r="FF38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="FG38" s="14"/>
+      <c r="FH38" s="14"/>
+      <c r="FI38" s="14"/>
       <c r="FK38" s="55"/>
       <c r="FL38" s="55"/>
       <c r="FM38" s="55"/>
@@ -28358,196 +28340,173 @@
       <c r="ZZ38" s="55"/>
     </row>
     <row r="39" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>92</v>
+      <c r="A39" s="3" t="s">
+        <v>99</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AG39" s="55"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="23" t="s">
-        <v>93</v>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="55"/>
+      <c r="AS39" s="55"/>
+      <c r="AT39" s="55"/>
+      <c r="AU39" s="55"/>
+      <c r="AV39" s="55"/>
+      <c r="AW39" s="55"/>
+      <c r="AX39" s="55"/>
+      <c r="AY39" s="55"/>
+      <c r="AZ39" s="55"/>
+      <c r="BA39" s="55"/>
+      <c r="BB39" s="55"/>
+      <c r="BC39" s="55"/>
+      <c r="BD39" s="55"/>
+      <c r="BE39" s="55"/>
+      <c r="BF39" s="55"/>
+      <c r="BG39" s="55"/>
+      <c r="BH39" s="55"/>
+      <c r="BI39" s="55"/>
+      <c r="BJ39" s="55"/>
+      <c r="BK39" s="55"/>
+      <c r="BL39" s="55"/>
+      <c r="BM39" s="55"/>
+      <c r="BN39" s="55"/>
+      <c r="BO39" s="55"/>
+      <c r="BP39" s="55"/>
+      <c r="BQ39" s="55"/>
+      <c r="BR39" s="55"/>
+      <c r="BS39" s="55"/>
+      <c r="BT39" s="55"/>
+      <c r="BU39" s="55"/>
+      <c r="BV39" s="55"/>
+      <c r="BW39" s="55"/>
+      <c r="BX39" s="55"/>
+      <c r="BY39" s="55"/>
+      <c r="BZ39" s="55"/>
+      <c r="CA39" s="55"/>
+      <c r="CB39" s="55"/>
+      <c r="CC39" s="55"/>
+      <c r="CD39" s="2"/>
+      <c r="CF39" s="3" t="s">
+        <v>100</v>
       </c>
-      <c r="AL39" s="84">
-        <v>31</v>
-      </c>
-      <c r="AM39" s="79"/>
-      <c r="AN39" s="79"/>
-      <c r="AO39" s="79"/>
-      <c r="AP39" s="79"/>
-      <c r="AQ39" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR39" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS39" s="79"/>
-      <c r="AT39" s="79"/>
-      <c r="AU39" s="79"/>
-      <c r="AV39" s="79"/>
-      <c r="AW39" s="79"/>
-      <c r="AX39" s="79"/>
-      <c r="AY39" s="79"/>
-      <c r="AZ39" s="79"/>
-      <c r="BA39" s="79"/>
-      <c r="BB39" s="79"/>
-      <c r="BC39" s="79"/>
-      <c r="BD39" s="79"/>
-      <c r="BE39" s="79"/>
-      <c r="BF39" s="79"/>
-      <c r="BG39" s="79"/>
-      <c r="BH39" s="79"/>
-      <c r="BI39" s="79"/>
-      <c r="BJ39" s="79"/>
-      <c r="BK39" s="79"/>
-      <c r="BL39" s="79"/>
-      <c r="BM39" s="79"/>
-      <c r="BN39" s="79"/>
-      <c r="BP39" s="84">
-        <v>2025</v>
-      </c>
-      <c r="BQ39" s="79"/>
-      <c r="BR39" s="79"/>
-      <c r="BS39" s="79"/>
-      <c r="BT39" s="79"/>
-      <c r="BU39" s="79"/>
-      <c r="BV39" s="79"/>
-      <c r="BW39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX39" s="14"/>
-      <c r="BY39" s="14"/>
-      <c r="CA39" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="CB39" s="81"/>
-      <c r="CC39" s="81"/>
-      <c r="CD39" s="81"/>
-      <c r="CF39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG39" s="14"/>
-      <c r="CH39" s="14"/>
-      <c r="CI39" s="14"/>
-      <c r="CJ39" s="14"/>
-      <c r="CK39" s="14"/>
-      <c r="CL39" s="14"/>
-      <c r="CM39" s="14"/>
-      <c r="CN39" s="14"/>
-      <c r="CO39" s="14"/>
-      <c r="CP39" s="14"/>
-      <c r="CQ39" s="14"/>
-      <c r="CR39" s="14"/>
-      <c r="CS39" s="14"/>
-      <c r="CT39" s="14"/>
-      <c r="CU39" s="14"/>
-      <c r="CV39" s="14"/>
-      <c r="CW39" s="14"/>
-      <c r="CX39" s="14"/>
-      <c r="CY39" s="14"/>
-      <c r="CZ39" s="14"/>
-      <c r="DA39" s="14"/>
-      <c r="DB39" s="14"/>
-      <c r="DC39" s="14"/>
-      <c r="DD39" s="14"/>
-      <c r="DE39" s="14"/>
-      <c r="DF39" s="14"/>
-      <c r="DG39" s="14"/>
-      <c r="DH39" s="14"/>
-      <c r="DI39" s="14"/>
-      <c r="DJ39" s="14"/>
-      <c r="DL39" s="55"/>
-      <c r="DM39" s="55"/>
-      <c r="DN39" s="55"/>
-      <c r="DO39" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="DP39" s="84">
-        <v>31</v>
-      </c>
-      <c r="DQ39" s="79"/>
-      <c r="DR39" s="79"/>
-      <c r="DS39" s="79"/>
-      <c r="DT39" s="79"/>
-      <c r="DU39" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="DV39" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="DW39" s="79"/>
-      <c r="DX39" s="79"/>
-      <c r="DY39" s="79"/>
-      <c r="DZ39" s="79"/>
-      <c r="EA39" s="79"/>
-      <c r="EB39" s="79"/>
-      <c r="EC39" s="79"/>
-      <c r="ED39" s="79"/>
-      <c r="EE39" s="79"/>
-      <c r="EF39" s="79"/>
-      <c r="EG39" s="79"/>
-      <c r="EH39" s="79"/>
-      <c r="EI39" s="79"/>
-      <c r="EJ39" s="79"/>
-      <c r="EK39" s="79"/>
-      <c r="EL39" s="79"/>
-      <c r="EM39" s="79"/>
-      <c r="EN39" s="79"/>
-      <c r="EO39" s="79"/>
-      <c r="EP39" s="79"/>
-      <c r="EQ39" s="79"/>
-      <c r="ER39" s="79"/>
-      <c r="ET39" s="84">
-        <v>2025</v>
-      </c>
-      <c r="EU39" s="79"/>
-      <c r="EV39" s="79"/>
-      <c r="EW39" s="79"/>
-      <c r="EX39" s="79"/>
-      <c r="EY39" s="79"/>
-      <c r="EZ39" s="79"/>
-      <c r="FA39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="FB39" s="14"/>
-      <c r="FC39" s="14"/>
+      <c r="CG39" s="3"/>
+      <c r="CH39" s="3"/>
+      <c r="CI39" s="3"/>
+      <c r="CJ39" s="3"/>
+      <c r="CK39" s="3"/>
+      <c r="CL39" s="3"/>
+      <c r="CM39" s="3"/>
+      <c r="CN39" s="3"/>
+      <c r="CO39" s="3"/>
+      <c r="CP39" s="3"/>
+      <c r="CQ39" s="3"/>
+      <c r="CR39" s="3"/>
+      <c r="CS39" s="3"/>
+      <c r="CT39" s="3"/>
+      <c r="CU39" s="3"/>
+      <c r="CV39" s="3"/>
+      <c r="CW39" s="3"/>
+      <c r="CX39" s="3"/>
+      <c r="CY39" s="3"/>
+      <c r="CZ39" s="3"/>
+      <c r="DA39" s="3"/>
+      <c r="DB39" s="3"/>
+      <c r="DC39" s="3"/>
+      <c r="DD39" s="3"/>
+      <c r="DE39" s="3"/>
+      <c r="DF39" s="3"/>
+      <c r="DG39" s="3"/>
+      <c r="DH39" s="3"/>
+      <c r="DI39" s="3"/>
+      <c r="DJ39" s="3"/>
+      <c r="DK39" s="3"/>
+      <c r="DL39" s="3"/>
+      <c r="DM39" s="3"/>
+      <c r="DN39" s="3"/>
+      <c r="DO39" s="3"/>
+      <c r="DP39" s="3"/>
+      <c r="DQ39" s="3"/>
+      <c r="DS39" s="55"/>
+      <c r="DT39" s="55"/>
+      <c r="DU39" s="55"/>
+      <c r="DV39" s="55"/>
+      <c r="DW39" s="55"/>
+      <c r="DX39" s="55"/>
+      <c r="DY39" s="55"/>
+      <c r="DZ39" s="55"/>
+      <c r="EA39" s="55"/>
+      <c r="EB39" s="55"/>
+      <c r="EC39" s="55"/>
+      <c r="ED39" s="55"/>
+      <c r="EE39" s="55"/>
+      <c r="EF39" s="55"/>
+      <c r="EG39" s="55"/>
+      <c r="EH39" s="55"/>
+      <c r="EI39" s="55"/>
+      <c r="EJ39" s="55"/>
+      <c r="EK39" s="55"/>
+      <c r="EL39" s="55"/>
+      <c r="EM39" s="55"/>
+      <c r="EN39" s="55"/>
+      <c r="EO39" s="55"/>
+      <c r="EP39" s="55"/>
+      <c r="EQ39" s="55"/>
+      <c r="ER39" s="55"/>
+      <c r="ES39" s="55"/>
+      <c r="ET39" s="55"/>
+      <c r="EU39" s="55"/>
+      <c r="EV39" s="55"/>
+      <c r="EW39" s="55"/>
+      <c r="EX39" s="55"/>
+      <c r="EY39" s="55"/>
+      <c r="EZ39" s="55"/>
+      <c r="FA39" s="55"/>
+      <c r="FB39" s="55"/>
+      <c r="FC39" s="55"/>
+      <c r="FD39" s="55"/>
       <c r="FE39" s="55"/>
-      <c r="FF39" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="FG39" s="14"/>
-      <c r="FH39" s="14"/>
-      <c r="FI39" s="14"/>
+      <c r="FF39" s="55"/>
+      <c r="FG39" s="55"/>
+      <c r="FH39" s="55"/>
+      <c r="FI39" s="55"/>
+      <c r="FJ39" s="55"/>
       <c r="FK39" s="55"/>
       <c r="FL39" s="55"/>
       <c r="FM39" s="55"/>
@@ -29086,173 +29045,174 @@
       <c r="ZZ39" s="55"/>
     </row>
     <row r="40" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>99</v>
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="61"/>
+      <c r="AT40" s="61"/>
+      <c r="AU40" s="61"/>
+      <c r="AV40" s="61"/>
+      <c r="AW40" s="61"/>
+      <c r="AX40" s="61"/>
+      <c r="AY40" s="61"/>
+      <c r="AZ40" s="61"/>
+      <c r="BA40" s="61"/>
+      <c r="BB40" s="61"/>
+      <c r="BC40" s="61"/>
+      <c r="BD40" s="61"/>
+      <c r="BE40" s="61"/>
+      <c r="BF40" s="61"/>
+      <c r="BG40" s="61"/>
+      <c r="BH40" s="61"/>
+      <c r="BI40" s="61"/>
+      <c r="BJ40" s="61"/>
+      <c r="BK40" s="61"/>
+      <c r="BL40" s="61"/>
+      <c r="BM40" s="61"/>
+      <c r="BN40" s="61"/>
+      <c r="BO40" s="61"/>
+      <c r="BP40" s="61"/>
+      <c r="BQ40" s="61"/>
+      <c r="BR40" s="61"/>
+      <c r="BS40" s="61"/>
+      <c r="BT40" s="61"/>
+      <c r="BU40" s="61"/>
+      <c r="BV40" s="61"/>
+      <c r="BW40" s="61"/>
+      <c r="BX40" s="61"/>
+      <c r="BY40" s="61"/>
+      <c r="BZ40" s="61"/>
+      <c r="CA40" s="81" t="s">
+        <v>101</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55"/>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55"/>
-      <c r="AT40" s="55"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="55"/>
-      <c r="AW40" s="55"/>
-      <c r="AX40" s="55"/>
-      <c r="AY40" s="55"/>
-      <c r="AZ40" s="55"/>
-      <c r="BA40" s="55"/>
-      <c r="BB40" s="55"/>
-      <c r="BC40" s="55"/>
-      <c r="BD40" s="55"/>
-      <c r="BE40" s="55"/>
-      <c r="BF40" s="55"/>
-      <c r="BG40" s="55"/>
-      <c r="BH40" s="55"/>
-      <c r="BI40" s="55"/>
-      <c r="BJ40" s="55"/>
-      <c r="BK40" s="55"/>
-      <c r="BL40" s="55"/>
-      <c r="BM40" s="55"/>
-      <c r="BN40" s="55"/>
-      <c r="BO40" s="55"/>
-      <c r="BP40" s="55"/>
-      <c r="BQ40" s="55"/>
-      <c r="BR40" s="55"/>
-      <c r="BS40" s="55"/>
-      <c r="BT40" s="55"/>
-      <c r="BU40" s="55"/>
-      <c r="BV40" s="55"/>
-      <c r="BW40" s="55"/>
-      <c r="BX40" s="55"/>
-      <c r="BY40" s="55"/>
-      <c r="BZ40" s="55"/>
-      <c r="CA40" s="55"/>
-      <c r="CB40" s="55"/>
-      <c r="CC40" s="55"/>
-      <c r="CD40" s="2"/>
-      <c r="CF40" s="3" t="s">
-        <v>100</v>
+      <c r="CB40" s="81"/>
+      <c r="CC40" s="81"/>
+      <c r="CD40" s="81"/>
+      <c r="CF40" s="61"/>
+      <c r="CG40" s="61"/>
+      <c r="CH40" s="61"/>
+      <c r="CI40" s="61"/>
+      <c r="CJ40" s="61"/>
+      <c r="CK40" s="61"/>
+      <c r="CL40" s="61"/>
+      <c r="CM40" s="61"/>
+      <c r="CN40" s="61"/>
+      <c r="CO40" s="61"/>
+      <c r="CP40" s="61"/>
+      <c r="CQ40" s="61"/>
+      <c r="CR40" s="61"/>
+      <c r="CS40" s="61"/>
+      <c r="CT40" s="61"/>
+      <c r="CU40" s="61"/>
+      <c r="CV40" s="61"/>
+      <c r="CW40" s="61"/>
+      <c r="CX40" s="61"/>
+      <c r="CY40" s="61"/>
+      <c r="CZ40" s="61"/>
+      <c r="DA40" s="61"/>
+      <c r="DB40" s="61"/>
+      <c r="DC40" s="61"/>
+      <c r="DD40" s="61"/>
+      <c r="DE40" s="61"/>
+      <c r="DF40" s="61"/>
+      <c r="DG40" s="61"/>
+      <c r="DH40" s="61"/>
+      <c r="DI40" s="61"/>
+      <c r="DJ40" s="61"/>
+      <c r="DK40" s="61"/>
+      <c r="DL40" s="61"/>
+      <c r="DM40" s="61"/>
+      <c r="DN40" s="61"/>
+      <c r="DO40" s="61"/>
+      <c r="DP40" s="61"/>
+      <c r="DQ40" s="61"/>
+      <c r="DR40" s="61"/>
+      <c r="DS40" s="61"/>
+      <c r="DT40" s="61"/>
+      <c r="DU40" s="61"/>
+      <c r="DV40" s="61"/>
+      <c r="DW40" s="61"/>
+      <c r="DX40" s="61"/>
+      <c r="DY40" s="61"/>
+      <c r="DZ40" s="61"/>
+      <c r="EA40" s="61"/>
+      <c r="EB40" s="61"/>
+      <c r="EC40" s="61"/>
+      <c r="ED40" s="61"/>
+      <c r="EE40" s="61"/>
+      <c r="EF40" s="61"/>
+      <c r="EG40" s="61"/>
+      <c r="EH40" s="61"/>
+      <c r="EI40" s="61"/>
+      <c r="EJ40" s="61"/>
+      <c r="EK40" s="61"/>
+      <c r="EL40" s="61"/>
+      <c r="EM40" s="61"/>
+      <c r="EN40" s="61"/>
+      <c r="EO40" s="61"/>
+      <c r="EP40" s="61"/>
+      <c r="EQ40" s="61"/>
+      <c r="ER40" s="61"/>
+      <c r="ES40" s="61"/>
+      <c r="ET40" s="61"/>
+      <c r="EU40" s="61"/>
+      <c r="EV40" s="61"/>
+      <c r="EW40" s="61"/>
+      <c r="EX40" s="61"/>
+      <c r="EY40" s="61"/>
+      <c r="EZ40" s="61"/>
+      <c r="FA40" s="61"/>
+      <c r="FB40" s="61"/>
+      <c r="FC40" s="61"/>
+      <c r="FD40" s="61"/>
+      <c r="FE40" s="61"/>
+      <c r="FF40" s="14" t="s">
+        <v>102</v>
       </c>
-      <c r="CG40" s="3"/>
-      <c r="CH40" s="3"/>
-      <c r="CI40" s="3"/>
-      <c r="CJ40" s="3"/>
-      <c r="CK40" s="3"/>
-      <c r="CL40" s="3"/>
-      <c r="CM40" s="3"/>
-      <c r="CN40" s="3"/>
-      <c r="CO40" s="3"/>
-      <c r="CP40" s="3"/>
-      <c r="CQ40" s="3"/>
-      <c r="CR40" s="3"/>
-      <c r="CS40" s="3"/>
-      <c r="CT40" s="3"/>
-      <c r="CU40" s="3"/>
-      <c r="CV40" s="3"/>
-      <c r="CW40" s="3"/>
-      <c r="CX40" s="3"/>
-      <c r="CY40" s="3"/>
-      <c r="CZ40" s="3"/>
-      <c r="DA40" s="3"/>
-      <c r="DB40" s="3"/>
-      <c r="DC40" s="3"/>
-      <c r="DD40" s="3"/>
-      <c r="DE40" s="3"/>
-      <c r="DF40" s="3"/>
-      <c r="DG40" s="3"/>
-      <c r="DH40" s="3"/>
-      <c r="DI40" s="3"/>
-      <c r="DJ40" s="3"/>
-      <c r="DK40" s="3"/>
-      <c r="DL40" s="3"/>
-      <c r="DM40" s="3"/>
-      <c r="DN40" s="3"/>
-      <c r="DO40" s="3"/>
-      <c r="DP40" s="3"/>
-      <c r="DQ40" s="3"/>
-      <c r="DS40" s="55"/>
-      <c r="DT40" s="55"/>
-      <c r="DU40" s="55"/>
-      <c r="DV40" s="55"/>
-      <c r="DW40" s="55"/>
-      <c r="DX40" s="55"/>
-      <c r="DY40" s="55"/>
-      <c r="DZ40" s="55"/>
-      <c r="EA40" s="55"/>
-      <c r="EB40" s="55"/>
-      <c r="EC40" s="55"/>
-      <c r="ED40" s="55"/>
-      <c r="EE40" s="55"/>
-      <c r="EF40" s="55"/>
-      <c r="EG40" s="55"/>
-      <c r="EH40" s="55"/>
-      <c r="EI40" s="55"/>
-      <c r="EJ40" s="55"/>
-      <c r="EK40" s="55"/>
-      <c r="EL40" s="55"/>
-      <c r="EM40" s="55"/>
-      <c r="EN40" s="55"/>
-      <c r="EO40" s="55"/>
-      <c r="EP40" s="55"/>
-      <c r="EQ40" s="55"/>
-      <c r="ER40" s="55"/>
-      <c r="ES40" s="55"/>
-      <c r="ET40" s="55"/>
-      <c r="EU40" s="55"/>
-      <c r="EV40" s="55"/>
-      <c r="EW40" s="55"/>
-      <c r="EX40" s="55"/>
-      <c r="EY40" s="55"/>
-      <c r="EZ40" s="55"/>
-      <c r="FA40" s="55"/>
-      <c r="FB40" s="55"/>
-      <c r="FC40" s="55"/>
-      <c r="FD40" s="55"/>
-      <c r="FE40" s="55"/>
-      <c r="FF40" s="55"/>
-      <c r="FG40" s="55"/>
-      <c r="FH40" s="55"/>
-      <c r="FI40" s="55"/>
-      <c r="FJ40" s="55"/>
+      <c r="FG40" s="14"/>
+      <c r="FH40" s="14"/>
+      <c r="FI40" s="14"/>
       <c r="FK40" s="55"/>
       <c r="FL40" s="55"/>
       <c r="FM40" s="55"/>
@@ -29712,28 +29672,19 @@
       <c r="WY40" s="55"/>
       <c r="WZ40" s="55"/>
       <c r="XA40" s="55"/>
-      <c r="XB40" s="55"/>
-      <c r="XC40" s="55"/>
+      <c r="XB40" s="23"/>
       <c r="XD40" s="55"/>
-      <c r="XE40" s="55"/>
-      <c r="XF40" s="55"/>
       <c r="XG40" s="55"/>
       <c r="XH40" s="55"/>
-      <c r="XI40" s="55"/>
-      <c r="XJ40" s="55"/>
       <c r="XK40" s="55"/>
       <c r="XL40" s="55"/>
-      <c r="XM40" s="55"/>
       <c r="XN40" s="55"/>
       <c r="XO40" s="55"/>
       <c r="XP40" s="55"/>
       <c r="XQ40" s="55"/>
       <c r="XR40" s="55"/>
-      <c r="XS40" s="55"/>
-      <c r="XT40" s="55"/>
       <c r="XU40" s="55"/>
       <c r="XV40" s="55"/>
-      <c r="XW40" s="55"/>
       <c r="XX40" s="55"/>
       <c r="XY40" s="55"/>
       <c r="XZ40" s="55"/>
@@ -29790,175 +29741,174 @@
       <c r="ZY40" s="55"/>
       <c r="ZZ40" s="55"/>
     </row>
-    <row r="41" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="61"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="61"/>
-      <c r="X41" s="61"/>
-      <c r="Y41" s="61"/>
-      <c r="Z41" s="61"/>
-      <c r="AA41" s="61"/>
-      <c r="AB41" s="61"/>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="61"/>
-      <c r="AE41" s="61"/>
-      <c r="AF41" s="61"/>
-      <c r="AG41" s="61"/>
-      <c r="AH41" s="61"/>
-      <c r="AI41" s="61"/>
-      <c r="AJ41" s="61"/>
-      <c r="AK41" s="61"/>
-      <c r="AL41" s="61"/>
-      <c r="AM41" s="61"/>
-      <c r="AN41" s="61"/>
-      <c r="AO41" s="61"/>
-      <c r="AP41" s="61"/>
-      <c r="AQ41" s="61"/>
-      <c r="AR41" s="61"/>
-      <c r="AS41" s="61"/>
-      <c r="AT41" s="61"/>
-      <c r="AU41" s="61"/>
-      <c r="AV41" s="61"/>
-      <c r="AW41" s="61"/>
-      <c r="AX41" s="61"/>
-      <c r="AY41" s="61"/>
-      <c r="AZ41" s="61"/>
-      <c r="BA41" s="61"/>
-      <c r="BB41" s="61"/>
-      <c r="BC41" s="61"/>
-      <c r="BD41" s="61"/>
-      <c r="BE41" s="61"/>
-      <c r="BF41" s="61"/>
-      <c r="BG41" s="61"/>
-      <c r="BH41" s="61"/>
-      <c r="BI41" s="61"/>
-      <c r="BJ41" s="61"/>
-      <c r="BK41" s="61"/>
-      <c r="BL41" s="61"/>
-      <c r="BM41" s="61"/>
-      <c r="BN41" s="61"/>
-      <c r="BO41" s="61"/>
-      <c r="BP41" s="61"/>
-      <c r="BQ41" s="61"/>
-      <c r="BR41" s="61"/>
-      <c r="BS41" s="61"/>
-      <c r="BT41" s="61"/>
-      <c r="BU41" s="61"/>
-      <c r="BV41" s="61"/>
-      <c r="BW41" s="61"/>
-      <c r="BX41" s="61"/>
-      <c r="BY41" s="61"/>
-      <c r="BZ41" s="61"/>
-      <c r="CA41" s="81" t="s">
-        <v>101</v>
+    <row r="41" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A41" s="51" t="s">
+        <v>103</v>
       </c>
-      <c r="CB41" s="81"/>
-      <c r="CC41" s="81"/>
-      <c r="CD41" s="81"/>
-      <c r="CF41" s="61"/>
-      <c r="CG41" s="61"/>
-      <c r="CH41" s="61"/>
-      <c r="CI41" s="61"/>
-      <c r="CJ41" s="61"/>
-      <c r="CK41" s="61"/>
-      <c r="CL41" s="61"/>
-      <c r="CM41" s="61"/>
-      <c r="CN41" s="61"/>
-      <c r="CO41" s="61"/>
-      <c r="CP41" s="61"/>
-      <c r="CQ41" s="61"/>
-      <c r="CR41" s="61"/>
-      <c r="CS41" s="61"/>
-      <c r="CT41" s="61"/>
-      <c r="CU41" s="61"/>
-      <c r="CV41" s="61"/>
-      <c r="CW41" s="61"/>
-      <c r="CX41" s="61"/>
-      <c r="CY41" s="61"/>
-      <c r="CZ41" s="61"/>
-      <c r="DA41" s="61"/>
-      <c r="DB41" s="61"/>
-      <c r="DC41" s="61"/>
-      <c r="DD41" s="61"/>
-      <c r="DE41" s="61"/>
-      <c r="DF41" s="61"/>
-      <c r="DG41" s="61"/>
-      <c r="DH41" s="61"/>
-      <c r="DI41" s="61"/>
-      <c r="DJ41" s="61"/>
-      <c r="DK41" s="61"/>
-      <c r="DL41" s="61"/>
-      <c r="DM41" s="61"/>
-      <c r="DN41" s="61"/>
-      <c r="DO41" s="61"/>
-      <c r="DP41" s="61"/>
-      <c r="DQ41" s="61"/>
-      <c r="DR41" s="61"/>
-      <c r="DS41" s="61"/>
-      <c r="DT41" s="61"/>
-      <c r="DU41" s="61"/>
-      <c r="DV41" s="61"/>
-      <c r="DW41" s="61"/>
-      <c r="DX41" s="61"/>
-      <c r="DY41" s="61"/>
-      <c r="DZ41" s="61"/>
-      <c r="EA41" s="61"/>
-      <c r="EB41" s="61"/>
-      <c r="EC41" s="61"/>
-      <c r="ED41" s="61"/>
-      <c r="EE41" s="61"/>
-      <c r="EF41" s="61"/>
-      <c r="EG41" s="61"/>
-      <c r="EH41" s="61"/>
-      <c r="EI41" s="61"/>
-      <c r="EJ41" s="61"/>
-      <c r="EK41" s="61"/>
-      <c r="EL41" s="61"/>
-      <c r="EM41" s="61"/>
-      <c r="EN41" s="61"/>
-      <c r="EO41" s="61"/>
-      <c r="EP41" s="61"/>
-      <c r="EQ41" s="61"/>
-      <c r="ER41" s="61"/>
-      <c r="ES41" s="61"/>
-      <c r="ET41" s="61"/>
-      <c r="EU41" s="61"/>
-      <c r="EV41" s="61"/>
-      <c r="EW41" s="61"/>
-      <c r="EX41" s="61"/>
-      <c r="EY41" s="61"/>
-      <c r="EZ41" s="61"/>
-      <c r="FA41" s="61"/>
-      <c r="FB41" s="61"/>
-      <c r="FC41" s="61"/>
-      <c r="FD41" s="61"/>
-      <c r="FE41" s="61"/>
-      <c r="FF41" s="14" t="s">
-        <v>102</v>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="51"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
+      <c r="AT41" s="51"/>
+      <c r="AU41" s="51"/>
+      <c r="AV41" s="51"/>
+      <c r="AW41" s="51"/>
+      <c r="AX41" s="51"/>
+      <c r="AY41" s="51"/>
+      <c r="AZ41" s="51"/>
+      <c r="BA41" s="51"/>
+      <c r="BB41" s="51"/>
+      <c r="BC41" s="51"/>
+      <c r="BD41" s="51"/>
+      <c r="BE41" s="51"/>
+      <c r="BF41" s="51"/>
+      <c r="BG41" s="51"/>
+      <c r="BH41" s="51"/>
+      <c r="BI41" s="51"/>
+      <c r="BJ41" s="51"/>
+      <c r="BK41" s="51"/>
+      <c r="BL41" s="51"/>
+      <c r="BM41" s="51"/>
+      <c r="BN41" s="51"/>
+      <c r="BO41" s="51"/>
+      <c r="BP41" s="51"/>
+      <c r="BQ41" s="51"/>
+      <c r="BR41" s="51"/>
+      <c r="BS41" s="51"/>
+      <c r="BT41" s="51"/>
+      <c r="BU41" s="51"/>
+      <c r="BV41" s="51"/>
+      <c r="BW41" s="51"/>
+      <c r="BX41" s="51"/>
+      <c r="BY41" s="51"/>
+      <c r="BZ41" s="51"/>
+      <c r="CB41" s="55"/>
+      <c r="CC41" s="55"/>
+      <c r="CD41" s="2"/>
+      <c r="CF41" s="51" t="s">
+        <v>104</v>
       </c>
-      <c r="FG41" s="14"/>
-      <c r="FH41" s="14"/>
-      <c r="FI41" s="14"/>
+      <c r="CG41" s="51"/>
+      <c r="CH41" s="51"/>
+      <c r="CI41" s="51"/>
+      <c r="CJ41" s="51"/>
+      <c r="CK41" s="51"/>
+      <c r="CL41" s="51"/>
+      <c r="CM41" s="51"/>
+      <c r="CN41" s="51"/>
+      <c r="CO41" s="51"/>
+      <c r="CP41" s="51"/>
+      <c r="CQ41" s="51"/>
+      <c r="CR41" s="51"/>
+      <c r="CS41" s="51"/>
+      <c r="CT41" s="51"/>
+      <c r="CU41" s="51"/>
+      <c r="CV41" s="51"/>
+      <c r="CW41" s="51"/>
+      <c r="CX41" s="51"/>
+      <c r="CY41" s="51"/>
+      <c r="CZ41" s="51"/>
+      <c r="DA41" s="51"/>
+      <c r="DB41" s="51"/>
+      <c r="DC41" s="51"/>
+      <c r="DD41" s="51"/>
+      <c r="DE41" s="51"/>
+      <c r="DF41" s="51"/>
+      <c r="DG41" s="51"/>
+      <c r="DH41" s="51"/>
+      <c r="DI41" s="51"/>
+      <c r="DJ41" s="51"/>
+      <c r="DK41" s="51"/>
+      <c r="DL41" s="51"/>
+      <c r="DM41" s="51"/>
+      <c r="DN41" s="51"/>
+      <c r="DO41" s="51"/>
+      <c r="DP41" s="51"/>
+      <c r="DQ41" s="51"/>
+      <c r="DR41" s="51"/>
+      <c r="DS41" s="51"/>
+      <c r="DT41" s="51"/>
+      <c r="DU41" s="51"/>
+      <c r="DV41" s="51"/>
+      <c r="DW41" s="51"/>
+      <c r="DX41" s="51"/>
+      <c r="DY41" s="51"/>
+      <c r="DZ41" s="51"/>
+      <c r="EA41" s="51"/>
+      <c r="EB41" s="51"/>
+      <c r="EC41" s="51"/>
+      <c r="ED41" s="51"/>
+      <c r="EE41" s="51"/>
+      <c r="EF41" s="51"/>
+      <c r="EG41" s="51"/>
+      <c r="EH41" s="51"/>
+      <c r="EI41" s="51"/>
+      <c r="EJ41" s="51"/>
+      <c r="EK41" s="51"/>
+      <c r="EL41" s="51"/>
+      <c r="EM41" s="51"/>
+      <c r="EN41" s="51"/>
+      <c r="EO41" s="51"/>
+      <c r="EP41" s="51"/>
+      <c r="EQ41" s="51"/>
+      <c r="ER41" s="51"/>
+      <c r="ES41" s="51"/>
+      <c r="ET41" s="51"/>
+      <c r="EU41" s="51"/>
+      <c r="EV41" s="51"/>
+      <c r="EW41" s="51"/>
+      <c r="EX41" s="51"/>
+      <c r="EY41" s="51"/>
+      <c r="EZ41" s="51"/>
+      <c r="FA41" s="51"/>
+      <c r="FB41" s="51"/>
+      <c r="FC41" s="51"/>
+      <c r="FD41" s="51"/>
+      <c r="FE41" s="51"/>
+      <c r="FG41" s="55"/>
+      <c r="FH41" s="55"/>
+      <c r="FI41" s="55"/>
+      <c r="FJ41" s="55"/>
       <c r="FK41" s="55"/>
       <c r="FL41" s="55"/>
       <c r="FM41" s="55"/>
@@ -30418,19 +30368,28 @@
       <c r="WY41" s="55"/>
       <c r="WZ41" s="55"/>
       <c r="XA41" s="55"/>
-      <c r="XB41" s="23"/>
+      <c r="XB41" s="55"/>
+      <c r="XC41" s="55"/>
       <c r="XD41" s="55"/>
+      <c r="XE41" s="55"/>
+      <c r="XF41" s="55"/>
       <c r="XG41" s="55"/>
       <c r="XH41" s="55"/>
+      <c r="XI41" s="55"/>
+      <c r="XJ41" s="55"/>
       <c r="XK41" s="55"/>
       <c r="XL41" s="55"/>
+      <c r="XM41" s="55"/>
       <c r="XN41" s="55"/>
       <c r="XO41" s="55"/>
       <c r="XP41" s="55"/>
       <c r="XQ41" s="55"/>
       <c r="XR41" s="55"/>
+      <c r="XS41" s="55"/>
+      <c r="XT41" s="55"/>
       <c r="XU41" s="55"/>
       <c r="XV41" s="55"/>
+      <c r="XW41" s="55"/>
       <c r="XX41" s="55"/>
       <c r="XY41" s="55"/>
       <c r="XZ41" s="55"/>
@@ -30487,173 +30446,174 @@
       <c r="ZY41" s="55"/>
       <c r="ZZ41" s="55"/>
     </row>
-    <row r="42" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A42" s="51" t="s">
-        <v>103</v>
+    <row r="42" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>105</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="51"/>
-      <c r="AG42" s="51"/>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="51"/>
-      <c r="AL42" s="51"/>
-      <c r="AM42" s="51"/>
-      <c r="AN42" s="51"/>
-      <c r="AO42" s="51"/>
-      <c r="AP42" s="51"/>
-      <c r="AQ42" s="51"/>
-      <c r="AR42" s="51"/>
-      <c r="AS42" s="51"/>
-      <c r="AT42" s="51"/>
-      <c r="AU42" s="51"/>
-      <c r="AV42" s="51"/>
-      <c r="AW42" s="51"/>
-      <c r="AX42" s="51"/>
-      <c r="AY42" s="51"/>
-      <c r="AZ42" s="51"/>
-      <c r="BA42" s="51"/>
-      <c r="BB42" s="51"/>
-      <c r="BC42" s="51"/>
-      <c r="BD42" s="51"/>
-      <c r="BE42" s="51"/>
-      <c r="BF42" s="51"/>
-      <c r="BG42" s="51"/>
-      <c r="BH42" s="51"/>
-      <c r="BI42" s="51"/>
-      <c r="BJ42" s="51"/>
-      <c r="BK42" s="51"/>
-      <c r="BL42" s="51"/>
-      <c r="BM42" s="51"/>
-      <c r="BN42" s="51"/>
-      <c r="BO42" s="51"/>
-      <c r="BP42" s="51"/>
-      <c r="BQ42" s="51"/>
-      <c r="BR42" s="51"/>
-      <c r="BS42" s="51"/>
-      <c r="BT42" s="51"/>
-      <c r="BU42" s="51"/>
-      <c r="BV42" s="51"/>
-      <c r="BW42" s="51"/>
-      <c r="BX42" s="51"/>
-      <c r="BY42" s="51"/>
-      <c r="BZ42" s="51"/>
-      <c r="CB42" s="55"/>
-      <c r="CC42" s="55"/>
-      <c r="CD42" s="2"/>
-      <c r="CF42" s="51" t="s">
-        <v>104</v>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="3"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
+      <c r="BQ42" s="3"/>
+      <c r="BR42" s="3"/>
+      <c r="BS42" s="3"/>
+      <c r="BT42" s="3"/>
+      <c r="BU42" s="3"/>
+      <c r="BV42" s="3"/>
+      <c r="BW42" s="3"/>
+      <c r="BX42" s="3"/>
+      <c r="BY42" s="3"/>
+      <c r="BZ42" s="3"/>
+      <c r="CA42" s="3"/>
+      <c r="CB42" s="3"/>
+      <c r="CC42" s="3"/>
+      <c r="CD42" s="83"/>
+      <c r="CF42" s="3" t="s">
+        <v>106</v>
       </c>
-      <c r="CG42" s="51"/>
-      <c r="CH42" s="51"/>
-      <c r="CI42" s="51"/>
-      <c r="CJ42" s="51"/>
-      <c r="CK42" s="51"/>
-      <c r="CL42" s="51"/>
-      <c r="CM42" s="51"/>
-      <c r="CN42" s="51"/>
-      <c r="CO42" s="51"/>
-      <c r="CP42" s="51"/>
-      <c r="CQ42" s="51"/>
-      <c r="CR42" s="51"/>
-      <c r="CS42" s="51"/>
-      <c r="CT42" s="51"/>
-      <c r="CU42" s="51"/>
-      <c r="CV42" s="51"/>
-      <c r="CW42" s="51"/>
-      <c r="CX42" s="51"/>
-      <c r="CY42" s="51"/>
-      <c r="CZ42" s="51"/>
-      <c r="DA42" s="51"/>
-      <c r="DB42" s="51"/>
-      <c r="DC42" s="51"/>
-      <c r="DD42" s="51"/>
-      <c r="DE42" s="51"/>
-      <c r="DF42" s="51"/>
-      <c r="DG42" s="51"/>
-      <c r="DH42" s="51"/>
-      <c r="DI42" s="51"/>
-      <c r="DJ42" s="51"/>
-      <c r="DK42" s="51"/>
-      <c r="DL42" s="51"/>
-      <c r="DM42" s="51"/>
-      <c r="DN42" s="51"/>
-      <c r="DO42" s="51"/>
-      <c r="DP42" s="51"/>
-      <c r="DQ42" s="51"/>
-      <c r="DR42" s="51"/>
-      <c r="DS42" s="51"/>
-      <c r="DT42" s="51"/>
-      <c r="DU42" s="51"/>
-      <c r="DV42" s="51"/>
-      <c r="DW42" s="51"/>
-      <c r="DX42" s="51"/>
-      <c r="DY42" s="51"/>
-      <c r="DZ42" s="51"/>
-      <c r="EA42" s="51"/>
-      <c r="EB42" s="51"/>
-      <c r="EC42" s="51"/>
-      <c r="ED42" s="51"/>
-      <c r="EE42" s="51"/>
-      <c r="EF42" s="51"/>
-      <c r="EG42" s="51"/>
-      <c r="EH42" s="51"/>
-      <c r="EI42" s="51"/>
-      <c r="EJ42" s="51"/>
-      <c r="EK42" s="51"/>
-      <c r="EL42" s="51"/>
-      <c r="EM42" s="51"/>
-      <c r="EN42" s="51"/>
-      <c r="EO42" s="51"/>
-      <c r="EP42" s="51"/>
-      <c r="EQ42" s="51"/>
-      <c r="ER42" s="51"/>
-      <c r="ES42" s="51"/>
-      <c r="ET42" s="51"/>
-      <c r="EU42" s="51"/>
-      <c r="EV42" s="51"/>
-      <c r="EW42" s="51"/>
-      <c r="EX42" s="51"/>
-      <c r="EY42" s="51"/>
-      <c r="EZ42" s="51"/>
-      <c r="FA42" s="51"/>
-      <c r="FB42" s="51"/>
-      <c r="FC42" s="51"/>
-      <c r="FD42" s="51"/>
-      <c r="FE42" s="51"/>
-      <c r="FG42" s="55"/>
-      <c r="FH42" s="55"/>
-      <c r="FI42" s="55"/>
+      <c r="CG42" s="3"/>
+      <c r="CH42" s="3"/>
+      <c r="CI42" s="3"/>
+      <c r="CJ42" s="3"/>
+      <c r="CK42" s="3"/>
+      <c r="CL42" s="3"/>
+      <c r="CM42" s="3"/>
+      <c r="CN42" s="3"/>
+      <c r="CO42" s="3"/>
+      <c r="CP42" s="3"/>
+      <c r="CQ42" s="3"/>
+      <c r="CR42" s="3"/>
+      <c r="CS42" s="3"/>
+      <c r="CT42" s="3"/>
+      <c r="CU42" s="3"/>
+      <c r="CV42" s="3"/>
+      <c r="CW42" s="3"/>
+      <c r="CX42" s="3"/>
+      <c r="CY42" s="3"/>
+      <c r="CZ42" s="3"/>
+      <c r="DA42" s="3"/>
+      <c r="DB42" s="3"/>
+      <c r="DC42" s="3"/>
+      <c r="DD42" s="3"/>
+      <c r="DE42" s="3"/>
+      <c r="DF42" s="3"/>
+      <c r="DG42" s="3"/>
+      <c r="DH42" s="3"/>
+      <c r="DI42" s="3"/>
+      <c r="DJ42" s="3"/>
+      <c r="DK42" s="3"/>
+      <c r="DL42" s="3"/>
+      <c r="DM42" s="3"/>
+      <c r="DN42" s="3"/>
+      <c r="DO42" s="3"/>
+      <c r="DP42" s="3"/>
+      <c r="DQ42" s="3"/>
+      <c r="DR42" s="3"/>
+      <c r="DS42" s="3"/>
+      <c r="DT42" s="3"/>
+      <c r="DU42" s="3"/>
+      <c r="DV42" s="3"/>
+      <c r="DW42" s="3"/>
+      <c r="DX42" s="3"/>
+      <c r="DY42" s="3"/>
+      <c r="DZ42" s="3"/>
+      <c r="EA42" s="3"/>
+      <c r="EB42" s="3"/>
+      <c r="EC42" s="3"/>
+      <c r="ED42" s="3"/>
+      <c r="EE42" s="3"/>
+      <c r="EF42" s="3"/>
+      <c r="EG42" s="3"/>
+      <c r="EH42" s="3"/>
+      <c r="EI42" s="3"/>
+      <c r="EJ42" s="3"/>
+      <c r="EK42" s="3"/>
+      <c r="EL42" s="3"/>
+      <c r="EM42" s="3"/>
+      <c r="EN42" s="3"/>
+      <c r="EO42" s="3"/>
+      <c r="EP42" s="3"/>
+      <c r="EQ42" s="3"/>
+      <c r="ER42" s="3"/>
+      <c r="ES42" s="3"/>
+      <c r="ET42" s="3"/>
+      <c r="EU42" s="3"/>
+      <c r="EV42" s="3"/>
+      <c r="EW42" s="3"/>
+      <c r="EX42" s="3"/>
+      <c r="EY42" s="3"/>
+      <c r="EZ42" s="3"/>
+      <c r="FA42" s="3"/>
+      <c r="FB42" s="3"/>
+      <c r="FC42" s="3"/>
+      <c r="FD42" s="3"/>
+      <c r="FE42" s="3"/>
+      <c r="FF42" s="3"/>
+      <c r="FG42" s="3"/>
+      <c r="FH42" s="3"/>
       <c r="FJ42" s="55"/>
       <c r="FK42" s="55"/>
       <c r="FL42" s="55"/>
@@ -31193,174 +31153,178 @@
       <c r="ZZ42" s="55"/>
     </row>
     <row r="43" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>105</v>
+      <c r="A43" s="79" t="s">
+        <v>85</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="3"/>
-      <c r="AR43" s="3"/>
-      <c r="AS43" s="3"/>
-      <c r="AT43" s="3"/>
-      <c r="AU43" s="3"/>
-      <c r="AV43" s="3"/>
-      <c r="AW43" s="3"/>
-      <c r="AX43" s="3"/>
-      <c r="AY43" s="3"/>
-      <c r="AZ43" s="3"/>
-      <c r="BA43" s="3"/>
-      <c r="BB43" s="3"/>
-      <c r="BC43" s="3"/>
-      <c r="BD43" s="3"/>
-      <c r="BE43" s="3"/>
-      <c r="BF43" s="3"/>
-      <c r="BG43" s="3"/>
-      <c r="BH43" s="3"/>
-      <c r="BI43" s="3"/>
-      <c r="BJ43" s="3"/>
-      <c r="BK43" s="3"/>
-      <c r="BL43" s="3"/>
-      <c r="BM43" s="3"/>
-      <c r="BN43" s="3"/>
-      <c r="BO43" s="3"/>
-      <c r="BP43" s="3"/>
-      <c r="BQ43" s="3"/>
-      <c r="BR43" s="3"/>
-      <c r="BS43" s="3"/>
-      <c r="BT43" s="3"/>
-      <c r="BU43" s="3"/>
-      <c r="BV43" s="3"/>
-      <c r="BW43" s="3"/>
-      <c r="BX43" s="3"/>
-      <c r="BY43" s="3"/>
-      <c r="BZ43" s="3"/>
-      <c r="CA43" s="3"/>
-      <c r="CB43" s="3"/>
-      <c r="CC43" s="3"/>
-      <c r="CD43" s="83"/>
-      <c r="CF43" s="3" t="s">
-        <v>106</v>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="79"/>
+      <c r="V43" s="79"/>
+      <c r="W43" s="79"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="79"/>
+      <c r="AD43" s="78"/>
+      <c r="AE43" s="78"/>
+      <c r="AF43" s="78"/>
+      <c r="AG43" s="78"/>
+      <c r="AH43" s="78"/>
+      <c r="AI43" s="78"/>
+      <c r="AJ43" s="78"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="78"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
+      <c r="AQ43" s="78"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="78"/>
+      <c r="AT43" s="78"/>
+      <c r="AU43" s="78"/>
+      <c r="AV43" s="78"/>
+      <c r="AW43" s="78"/>
+      <c r="AX43" s="78"/>
+      <c r="AZ43" s="79" t="s">
+        <v>67</v>
       </c>
-      <c r="CG43" s="3"/>
-      <c r="CH43" s="3"/>
-      <c r="CI43" s="3"/>
-      <c r="CJ43" s="3"/>
-      <c r="CK43" s="3"/>
-      <c r="CL43" s="3"/>
-      <c r="CM43" s="3"/>
-      <c r="CN43" s="3"/>
-      <c r="CO43" s="3"/>
-      <c r="CP43" s="3"/>
-      <c r="CQ43" s="3"/>
-      <c r="CR43" s="3"/>
-      <c r="CS43" s="3"/>
-      <c r="CT43" s="3"/>
-      <c r="CU43" s="3"/>
-      <c r="CV43" s="3"/>
-      <c r="CW43" s="3"/>
-      <c r="CX43" s="3"/>
-      <c r="CY43" s="3"/>
-      <c r="CZ43" s="3"/>
-      <c r="DA43" s="3"/>
-      <c r="DB43" s="3"/>
-      <c r="DC43" s="3"/>
-      <c r="DD43" s="3"/>
-      <c r="DE43" s="3"/>
-      <c r="DF43" s="3"/>
-      <c r="DG43" s="3"/>
-      <c r="DH43" s="3"/>
-      <c r="DI43" s="3"/>
-      <c r="DJ43" s="3"/>
-      <c r="DK43" s="3"/>
-      <c r="DL43" s="3"/>
-      <c r="DM43" s="3"/>
-      <c r="DN43" s="3"/>
-      <c r="DO43" s="3"/>
-      <c r="DP43" s="3"/>
-      <c r="DQ43" s="3"/>
-      <c r="DR43" s="3"/>
-      <c r="DS43" s="3"/>
-      <c r="DT43" s="3"/>
-      <c r="DU43" s="3"/>
-      <c r="DV43" s="3"/>
-      <c r="DW43" s="3"/>
-      <c r="DX43" s="3"/>
-      <c r="DY43" s="3"/>
-      <c r="DZ43" s="3"/>
-      <c r="EA43" s="3"/>
-      <c r="EB43" s="3"/>
-      <c r="EC43" s="3"/>
-      <c r="ED43" s="3"/>
-      <c r="EE43" s="3"/>
-      <c r="EF43" s="3"/>
-      <c r="EG43" s="3"/>
-      <c r="EH43" s="3"/>
-      <c r="EI43" s="3"/>
-      <c r="EJ43" s="3"/>
-      <c r="EK43" s="3"/>
-      <c r="EL43" s="3"/>
-      <c r="EM43" s="3"/>
-      <c r="EN43" s="3"/>
-      <c r="EO43" s="3"/>
-      <c r="EP43" s="3"/>
-      <c r="EQ43" s="3"/>
-      <c r="ER43" s="3"/>
-      <c r="ES43" s="3"/>
-      <c r="ET43" s="3"/>
-      <c r="EU43" s="3"/>
-      <c r="EV43" s="3"/>
-      <c r="EW43" s="3"/>
-      <c r="EX43" s="3"/>
-      <c r="EY43" s="3"/>
-      <c r="EZ43" s="3"/>
-      <c r="FA43" s="3"/>
-      <c r="FB43" s="3"/>
-      <c r="FC43" s="3"/>
-      <c r="FD43" s="3"/>
-      <c r="FE43" s="3"/>
-      <c r="FF43" s="3"/>
-      <c r="FG43" s="3"/>
-      <c r="FH43" s="3"/>
-      <c r="FJ43" s="55"/>
+      <c r="BA43" s="79"/>
+      <c r="BB43" s="79"/>
+      <c r="BC43" s="79"/>
+      <c r="BD43" s="79"/>
+      <c r="BE43" s="79"/>
+      <c r="BF43" s="79"/>
+      <c r="BG43" s="79"/>
+      <c r="BH43" s="79"/>
+      <c r="BI43" s="79"/>
+      <c r="BJ43" s="79"/>
+      <c r="BK43" s="79"/>
+      <c r="BL43" s="79"/>
+      <c r="BM43" s="79"/>
+      <c r="BN43" s="79"/>
+      <c r="BO43" s="79"/>
+      <c r="BP43" s="79"/>
+      <c r="BQ43" s="79"/>
+      <c r="BR43" s="79"/>
+      <c r="BS43" s="79"/>
+      <c r="BT43" s="79"/>
+      <c r="BU43" s="79"/>
+      <c r="BV43" s="79"/>
+      <c r="BW43" s="79"/>
+      <c r="BX43" s="79"/>
+      <c r="BY43" s="79"/>
+      <c r="BZ43" s="79"/>
+      <c r="CA43" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB43" s="81"/>
+      <c r="CC43" s="81"/>
+      <c r="CD43" s="81"/>
+      <c r="CF43" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG43" s="79"/>
+      <c r="CH43" s="79"/>
+      <c r="CI43" s="79"/>
+      <c r="CJ43" s="79"/>
+      <c r="CK43" s="79"/>
+      <c r="CL43" s="79"/>
+      <c r="CM43" s="79"/>
+      <c r="CN43" s="79"/>
+      <c r="CO43" s="79"/>
+      <c r="CP43" s="79"/>
+      <c r="CQ43" s="79"/>
+      <c r="CR43" s="79"/>
+      <c r="CS43" s="79"/>
+      <c r="CT43" s="79"/>
+      <c r="CU43" s="79"/>
+      <c r="CV43" s="79"/>
+      <c r="CW43" s="79"/>
+      <c r="CX43" s="79"/>
+      <c r="CY43" s="79"/>
+      <c r="CZ43" s="79"/>
+      <c r="DA43" s="79"/>
+      <c r="DB43" s="79"/>
+      <c r="DC43" s="79"/>
+      <c r="DD43" s="79"/>
+      <c r="DE43" s="79"/>
+      <c r="DF43" s="79"/>
+      <c r="DG43" s="79"/>
+      <c r="DI43" s="78"/>
+      <c r="DJ43" s="78"/>
+      <c r="DK43" s="78"/>
+      <c r="DL43" s="78"/>
+      <c r="DM43" s="78"/>
+      <c r="DN43" s="78"/>
+      <c r="DO43" s="78"/>
+      <c r="DP43" s="78"/>
+      <c r="DQ43" s="78"/>
+      <c r="DR43" s="78"/>
+      <c r="DS43" s="78"/>
+      <c r="DT43" s="78"/>
+      <c r="DU43" s="78"/>
+      <c r="DV43" s="78"/>
+      <c r="DW43" s="78"/>
+      <c r="DX43" s="78"/>
+      <c r="DY43" s="78"/>
+      <c r="DZ43" s="78"/>
+      <c r="EA43" s="78"/>
+      <c r="EB43" s="78"/>
+      <c r="EC43" s="78"/>
+      <c r="EE43" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF43" s="79"/>
+      <c r="EG43" s="79"/>
+      <c r="EH43" s="79"/>
+      <c r="EI43" s="79"/>
+      <c r="EJ43" s="79"/>
+      <c r="EK43" s="79"/>
+      <c r="EL43" s="79"/>
+      <c r="EM43" s="79"/>
+      <c r="EN43" s="79"/>
+      <c r="EO43" s="79"/>
+      <c r="EP43" s="79"/>
+      <c r="EQ43" s="79"/>
+      <c r="ER43" s="79"/>
+      <c r="ES43" s="79"/>
+      <c r="ET43" s="79"/>
+      <c r="EU43" s="79"/>
+      <c r="EV43" s="79"/>
+      <c r="EW43" s="79"/>
+      <c r="EX43" s="79"/>
+      <c r="EY43" s="79"/>
+      <c r="EZ43" s="79"/>
+      <c r="FA43" s="79"/>
+      <c r="FB43" s="79"/>
+      <c r="FC43" s="79"/>
+      <c r="FD43" s="79"/>
+      <c r="FE43" s="79"/>
+      <c r="FF43" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="FG43" s="14"/>
+      <c r="FH43" s="14"/>
+      <c r="FI43" s="14"/>
       <c r="FK43" s="55"/>
       <c r="FL43" s="55"/>
       <c r="FM43" s="55"/>
@@ -31827,20 +31791,23 @@
       <c r="XF43" s="55"/>
       <c r="XG43" s="55"/>
       <c r="XH43" s="55"/>
-      <c r="XI43" s="55"/>
-      <c r="XJ43" s="55"/>
+      <c r="XI43" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="XK43" s="55"/>
       <c r="XL43" s="55"/>
-      <c r="XM43" s="55"/>
-      <c r="XN43" s="55"/>
-      <c r="XO43" s="55"/>
+      <c r="XM43" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="XN43" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="XP43" s="55"/>
       <c r="XQ43" s="55"/>
       <c r="XR43" s="55"/>
-      <c r="XS43" s="55"/>
-      <c r="XT43" s="55"/>
-      <c r="XU43" s="55"/>
-      <c r="XV43" s="55"/>
+      <c r="XU43" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="XW43" s="55"/>
       <c r="XX43" s="55"/>
       <c r="XY43" s="55"/>
@@ -31898,179 +31865,178 @@
       <c r="ZY43" s="55"/>
       <c r="ZZ43" s="55"/>
     </row>
-    <row r="44" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A44" s="79" t="s">
-        <v>85</v>
+    <row r="44" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A44" s="51" t="s">
+        <v>90</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
-      <c r="U44" s="79"/>
-      <c r="V44" s="79"/>
-      <c r="W44" s="79"/>
-      <c r="X44" s="79"/>
-      <c r="Y44" s="79"/>
-      <c r="Z44" s="79"/>
-      <c r="AA44" s="79"/>
-      <c r="AB44" s="79"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="78"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="78"/>
-      <c r="AK44" s="78"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
-      <c r="AO44" s="78"/>
-      <c r="AP44" s="78"/>
-      <c r="AQ44" s="78"/>
-      <c r="AR44" s="78"/>
-      <c r="AS44" s="78"/>
-      <c r="AT44" s="78"/>
-      <c r="AU44" s="78"/>
-      <c r="AV44" s="78"/>
-      <c r="AW44" s="78"/>
-      <c r="AX44" s="78"/>
-      <c r="AZ44" s="79" t="s">
-        <v>67</v>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="51"/>
+      <c r="AD44" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="BA44" s="79"/>
-      <c r="BB44" s="79"/>
-      <c r="BC44" s="79"/>
-      <c r="BD44" s="79"/>
-      <c r="BE44" s="79"/>
-      <c r="BF44" s="79"/>
-      <c r="BG44" s="79"/>
-      <c r="BH44" s="79"/>
-      <c r="BI44" s="79"/>
-      <c r="BJ44" s="79"/>
-      <c r="BK44" s="79"/>
-      <c r="BL44" s="79"/>
-      <c r="BM44" s="79"/>
-      <c r="BN44" s="79"/>
-      <c r="BO44" s="79"/>
-      <c r="BP44" s="79"/>
-      <c r="BQ44" s="79"/>
-      <c r="BR44" s="79"/>
-      <c r="BS44" s="79"/>
-      <c r="BT44" s="79"/>
-      <c r="BU44" s="79"/>
-      <c r="BV44" s="79"/>
-      <c r="BW44" s="79"/>
-      <c r="BX44" s="79"/>
-      <c r="BY44" s="79"/>
-      <c r="BZ44" s="79"/>
-      <c r="CA44" s="81" t="s">
-        <v>107</v>
+      <c r="AE44" s="51"/>
+      <c r="AF44" s="51"/>
+      <c r="AG44" s="51"/>
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="51"/>
+      <c r="AJ44" s="51"/>
+      <c r="AK44" s="51"/>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="51"/>
+      <c r="AO44" s="51"/>
+      <c r="AP44" s="51"/>
+      <c r="AQ44" s="51"/>
+      <c r="AR44" s="51"/>
+      <c r="AS44" s="51"/>
+      <c r="AT44" s="51"/>
+      <c r="AU44" s="51"/>
+      <c r="AV44" s="51"/>
+      <c r="AW44" s="51"/>
+      <c r="AX44" s="51"/>
+      <c r="AZ44" s="51" t="s">
+        <v>91</v>
       </c>
-      <c r="CB44" s="81"/>
-      <c r="CC44" s="81"/>
-      <c r="CD44" s="81"/>
-      <c r="CF44" s="79" t="s">
-        <v>87</v>
+      <c r="BA44" s="51"/>
+      <c r="BB44" s="51"/>
+      <c r="BC44" s="51"/>
+      <c r="BD44" s="51"/>
+      <c r="BE44" s="51"/>
+      <c r="BF44" s="51"/>
+      <c r="BG44" s="51"/>
+      <c r="BH44" s="51"/>
+      <c r="BI44" s="51"/>
+      <c r="BJ44" s="51"/>
+      <c r="BK44" s="51"/>
+      <c r="BL44" s="51"/>
+      <c r="BM44" s="51"/>
+      <c r="BN44" s="51"/>
+      <c r="BO44" s="51"/>
+      <c r="BP44" s="51"/>
+      <c r="BQ44" s="51"/>
+      <c r="BR44" s="51"/>
+      <c r="BS44" s="51"/>
+      <c r="BT44" s="51"/>
+      <c r="BU44" s="51"/>
+      <c r="BV44" s="51"/>
+      <c r="BW44" s="51"/>
+      <c r="BX44" s="51"/>
+      <c r="BY44" s="51"/>
+      <c r="BZ44" s="51"/>
+      <c r="CB44" s="55"/>
+      <c r="CC44" s="55"/>
+      <c r="CD44" s="2"/>
+      <c r="CF44" s="51" t="s">
+        <v>90</v>
       </c>
-      <c r="CG44" s="79"/>
-      <c r="CH44" s="79"/>
-      <c r="CI44" s="79"/>
-      <c r="CJ44" s="79"/>
-      <c r="CK44" s="79"/>
-      <c r="CL44" s="79"/>
-      <c r="CM44" s="79"/>
-      <c r="CN44" s="79"/>
-      <c r="CO44" s="79"/>
-      <c r="CP44" s="79"/>
-      <c r="CQ44" s="79"/>
-      <c r="CR44" s="79"/>
-      <c r="CS44" s="79"/>
-      <c r="CT44" s="79"/>
-      <c r="CU44" s="79"/>
-      <c r="CV44" s="79"/>
-      <c r="CW44" s="79"/>
-      <c r="CX44" s="79"/>
-      <c r="CY44" s="79"/>
-      <c r="CZ44" s="79"/>
-      <c r="DA44" s="79"/>
-      <c r="DB44" s="79"/>
-      <c r="DC44" s="79"/>
-      <c r="DD44" s="79"/>
-      <c r="DE44" s="79"/>
-      <c r="DF44" s="79"/>
-      <c r="DG44" s="79"/>
-      <c r="DI44" s="78"/>
-      <c r="DJ44" s="78"/>
-      <c r="DK44" s="78"/>
-      <c r="DL44" s="78"/>
-      <c r="DM44" s="78"/>
-      <c r="DN44" s="78"/>
-      <c r="DO44" s="78"/>
-      <c r="DP44" s="78"/>
-      <c r="DQ44" s="78"/>
-      <c r="DR44" s="78"/>
-      <c r="DS44" s="78"/>
-      <c r="DT44" s="78"/>
-      <c r="DU44" s="78"/>
-      <c r="DV44" s="78"/>
-      <c r="DW44" s="78"/>
-      <c r="DX44" s="78"/>
-      <c r="DY44" s="78"/>
-      <c r="DZ44" s="78"/>
-      <c r="EA44" s="78"/>
-      <c r="EB44" s="78"/>
-      <c r="EC44" s="78"/>
-      <c r="EE44" s="79" t="s">
-        <v>88</v>
+      <c r="CG44" s="51"/>
+      <c r="CH44" s="51"/>
+      <c r="CI44" s="51"/>
+      <c r="CJ44" s="51"/>
+      <c r="CK44" s="51"/>
+      <c r="CL44" s="51"/>
+      <c r="CM44" s="51"/>
+      <c r="CN44" s="51"/>
+      <c r="CO44" s="51"/>
+      <c r="CP44" s="51"/>
+      <c r="CQ44" s="51"/>
+      <c r="CR44" s="51"/>
+      <c r="CS44" s="51"/>
+      <c r="CT44" s="51"/>
+      <c r="CU44" s="51"/>
+      <c r="CV44" s="51"/>
+      <c r="CW44" s="51"/>
+      <c r="CX44" s="51"/>
+      <c r="CY44" s="51"/>
+      <c r="CZ44" s="51"/>
+      <c r="DA44" s="51"/>
+      <c r="DB44" s="51"/>
+      <c r="DC44" s="51"/>
+      <c r="DD44" s="51"/>
+      <c r="DE44" s="51"/>
+      <c r="DF44" s="51"/>
+      <c r="DG44" s="51"/>
+      <c r="DI44" s="51" t="s">
+        <v>70</v>
       </c>
-      <c r="EF44" s="79"/>
-      <c r="EG44" s="79"/>
-      <c r="EH44" s="79"/>
-      <c r="EI44" s="79"/>
-      <c r="EJ44" s="79"/>
-      <c r="EK44" s="79"/>
-      <c r="EL44" s="79"/>
-      <c r="EM44" s="79"/>
-      <c r="EN44" s="79"/>
-      <c r="EO44" s="79"/>
-      <c r="EP44" s="79"/>
-      <c r="EQ44" s="79"/>
-      <c r="ER44" s="79"/>
-      <c r="ES44" s="79"/>
-      <c r="ET44" s="79"/>
-      <c r="EU44" s="79"/>
-      <c r="EV44" s="79"/>
-      <c r="EW44" s="79"/>
-      <c r="EX44" s="79"/>
-      <c r="EY44" s="79"/>
-      <c r="EZ44" s="79"/>
-      <c r="FA44" s="79"/>
-      <c r="FB44" s="79"/>
-      <c r="FC44" s="79"/>
-      <c r="FD44" s="79"/>
-      <c r="FE44" s="79"/>
-      <c r="FF44" s="14" t="s">
-        <v>108</v>
+      <c r="DJ44" s="51"/>
+      <c r="DK44" s="51"/>
+      <c r="DL44" s="51"/>
+      <c r="DM44" s="51"/>
+      <c r="DN44" s="51"/>
+      <c r="DO44" s="51"/>
+      <c r="DP44" s="51"/>
+      <c r="DQ44" s="51"/>
+      <c r="DR44" s="51"/>
+      <c r="DS44" s="51"/>
+      <c r="DT44" s="51"/>
+      <c r="DU44" s="51"/>
+      <c r="DV44" s="51"/>
+      <c r="DW44" s="51"/>
+      <c r="DX44" s="51"/>
+      <c r="DY44" s="51"/>
+      <c r="DZ44" s="51"/>
+      <c r="EA44" s="51"/>
+      <c r="EB44" s="51"/>
+      <c r="EC44" s="51"/>
+      <c r="EE44" s="51" t="s">
+        <v>91</v>
       </c>
-      <c r="FG44" s="14"/>
-      <c r="FH44" s="14"/>
-      <c r="FI44" s="14"/>
+      <c r="EF44" s="51"/>
+      <c r="EG44" s="51"/>
+      <c r="EH44" s="51"/>
+      <c r="EI44" s="51"/>
+      <c r="EJ44" s="51"/>
+      <c r="EK44" s="51"/>
+      <c r="EL44" s="51"/>
+      <c r="EM44" s="51"/>
+      <c r="EN44" s="51"/>
+      <c r="EO44" s="51"/>
+      <c r="EP44" s="51"/>
+      <c r="EQ44" s="51"/>
+      <c r="ER44" s="51"/>
+      <c r="ES44" s="51"/>
+      <c r="ET44" s="51"/>
+      <c r="EU44" s="51"/>
+      <c r="EV44" s="51"/>
+      <c r="EW44" s="51"/>
+      <c r="EX44" s="51"/>
+      <c r="EY44" s="51"/>
+      <c r="EZ44" s="51"/>
+      <c r="FA44" s="51"/>
+      <c r="FB44" s="51"/>
+      <c r="FC44" s="51"/>
+      <c r="FD44" s="51"/>
+      <c r="FE44" s="51"/>
+      <c r="FG44" s="55"/>
+      <c r="FH44" s="55"/>
+      <c r="FI44" s="55"/>
+      <c r="FJ44" s="55"/>
       <c r="FK44" s="55"/>
       <c r="FL44" s="55"/>
       <c r="FM44" s="55"/>
@@ -32537,23 +32503,20 @@
       <c r="XF44" s="55"/>
       <c r="XG44" s="55"/>
       <c r="XH44" s="55"/>
-      <c r="XI44" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="XI44" s="55"/>
+      <c r="XJ44" s="55"/>
       <c r="XK44" s="55"/>
       <c r="XL44" s="55"/>
-      <c r="XM44" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="XN44" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="XM44" s="55"/>
+      <c r="XN44" s="55"/>
+      <c r="XO44" s="55"/>
       <c r="XP44" s="55"/>
       <c r="XQ44" s="55"/>
       <c r="XR44" s="55"/>
-      <c r="XU44" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="XS44" s="55"/>
+      <c r="XT44" s="55"/>
+      <c r="XU44" s="55"/>
+      <c r="XV44" s="55"/>
       <c r="XW44" s="55"/>
       <c r="XX44" s="55"/>
       <c r="XY44" s="55"/>
@@ -32611,177 +32574,174 @@
       <c r="ZY44" s="55"/>
       <c r="ZZ44" s="55"/>
     </row>
-    <row r="45" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A45" s="51" t="s">
-        <v>90</v>
+    <row r="45" spans="1:702" ht="14.25" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>109</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="51"/>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="51"/>
-      <c r="AD45" s="51" t="s">
-        <v>70</v>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="6"/>
+      <c r="AT45" s="6"/>
+      <c r="AU45" s="6"/>
+      <c r="AV45" s="6"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6"/>
+      <c r="BA45" s="6"/>
+      <c r="BB45" s="6"/>
+      <c r="BC45" s="6"/>
+      <c r="BD45" s="6"/>
+      <c r="BE45" s="6"/>
+      <c r="BF45" s="6"/>
+      <c r="BG45" s="6"/>
+      <c r="BH45" s="6"/>
+      <c r="BI45" s="6"/>
+      <c r="BJ45" s="6"/>
+      <c r="BK45" s="6"/>
+      <c r="BL45" s="6"/>
+      <c r="BM45" s="6"/>
+      <c r="BN45" s="6"/>
+      <c r="BO45" s="6"/>
+      <c r="BP45" s="6"/>
+      <c r="BQ45" s="6"/>
+      <c r="BR45" s="6"/>
+      <c r="BS45" s="6"/>
+      <c r="BT45" s="6"/>
+      <c r="BU45" s="6"/>
+      <c r="BV45" s="6"/>
+      <c r="BW45" s="6"/>
+      <c r="BX45" s="6"/>
+      <c r="BY45" s="6"/>
+      <c r="BZ45" s="6"/>
+      <c r="CA45" s="6"/>
+      <c r="CB45" s="6"/>
+      <c r="CC45" s="6"/>
+      <c r="CD45" s="83"/>
+      <c r="CF45" s="6" t="s">
+        <v>110</v>
       </c>
-      <c r="AE45" s="51"/>
-      <c r="AF45" s="51"/>
-      <c r="AG45" s="51"/>
-      <c r="AH45" s="51"/>
-      <c r="AI45" s="51"/>
-      <c r="AJ45" s="51"/>
-      <c r="AK45" s="51"/>
-      <c r="AL45" s="51"/>
-      <c r="AM45" s="51"/>
-      <c r="AN45" s="51"/>
-      <c r="AO45" s="51"/>
-      <c r="AP45" s="51"/>
-      <c r="AQ45" s="51"/>
-      <c r="AR45" s="51"/>
-      <c r="AS45" s="51"/>
-      <c r="AT45" s="51"/>
-      <c r="AU45" s="51"/>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AZ45" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA45" s="51"/>
-      <c r="BB45" s="51"/>
-      <c r="BC45" s="51"/>
-      <c r="BD45" s="51"/>
-      <c r="BE45" s="51"/>
-      <c r="BF45" s="51"/>
-      <c r="BG45" s="51"/>
-      <c r="BH45" s="51"/>
-      <c r="BI45" s="51"/>
-      <c r="BJ45" s="51"/>
-      <c r="BK45" s="51"/>
-      <c r="BL45" s="51"/>
-      <c r="BM45" s="51"/>
-      <c r="BN45" s="51"/>
-      <c r="BO45" s="51"/>
-      <c r="BP45" s="51"/>
-      <c r="BQ45" s="51"/>
-      <c r="BR45" s="51"/>
-      <c r="BS45" s="51"/>
-      <c r="BT45" s="51"/>
-      <c r="BU45" s="51"/>
-      <c r="BV45" s="51"/>
-      <c r="BW45" s="51"/>
-      <c r="BX45" s="51"/>
-      <c r="BY45" s="51"/>
-      <c r="BZ45" s="51"/>
-      <c r="CB45" s="55"/>
-      <c r="CC45" s="55"/>
-      <c r="CD45" s="2"/>
-      <c r="CF45" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="CG45" s="51"/>
-      <c r="CH45" s="51"/>
-      <c r="CI45" s="51"/>
-      <c r="CJ45" s="51"/>
-      <c r="CK45" s="51"/>
-      <c r="CL45" s="51"/>
-      <c r="CM45" s="51"/>
-      <c r="CN45" s="51"/>
-      <c r="CO45" s="51"/>
-      <c r="CP45" s="51"/>
-      <c r="CQ45" s="51"/>
-      <c r="CR45" s="51"/>
-      <c r="CS45" s="51"/>
-      <c r="CT45" s="51"/>
-      <c r="CU45" s="51"/>
-      <c r="CV45" s="51"/>
-      <c r="CW45" s="51"/>
-      <c r="CX45" s="51"/>
-      <c r="CY45" s="51"/>
-      <c r="CZ45" s="51"/>
-      <c r="DA45" s="51"/>
-      <c r="DB45" s="51"/>
-      <c r="DC45" s="51"/>
-      <c r="DD45" s="51"/>
-      <c r="DE45" s="51"/>
-      <c r="DF45" s="51"/>
-      <c r="DG45" s="51"/>
-      <c r="DI45" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="DJ45" s="51"/>
-      <c r="DK45" s="51"/>
-      <c r="DL45" s="51"/>
-      <c r="DM45" s="51"/>
-      <c r="DN45" s="51"/>
-      <c r="DO45" s="51"/>
-      <c r="DP45" s="51"/>
-      <c r="DQ45" s="51"/>
-      <c r="DR45" s="51"/>
-      <c r="DS45" s="51"/>
-      <c r="DT45" s="51"/>
-      <c r="DU45" s="51"/>
-      <c r="DV45" s="51"/>
-      <c r="DW45" s="51"/>
-      <c r="DX45" s="51"/>
-      <c r="DY45" s="51"/>
-      <c r="DZ45" s="51"/>
-      <c r="EA45" s="51"/>
-      <c r="EB45" s="51"/>
-      <c r="EC45" s="51"/>
-      <c r="EE45" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="EF45" s="51"/>
-      <c r="EG45" s="51"/>
-      <c r="EH45" s="51"/>
-      <c r="EI45" s="51"/>
-      <c r="EJ45" s="51"/>
-      <c r="EK45" s="51"/>
-      <c r="EL45" s="51"/>
-      <c r="EM45" s="51"/>
-      <c r="EN45" s="51"/>
-      <c r="EO45" s="51"/>
-      <c r="EP45" s="51"/>
-      <c r="EQ45" s="51"/>
-      <c r="ER45" s="51"/>
-      <c r="ES45" s="51"/>
-      <c r="ET45" s="51"/>
-      <c r="EU45" s="51"/>
-      <c r="EV45" s="51"/>
-      <c r="EW45" s="51"/>
-      <c r="EX45" s="51"/>
-      <c r="EY45" s="51"/>
-      <c r="EZ45" s="51"/>
-      <c r="FA45" s="51"/>
-      <c r="FB45" s="51"/>
-      <c r="FC45" s="51"/>
-      <c r="FD45" s="51"/>
-      <c r="FE45" s="51"/>
-      <c r="FG45" s="55"/>
-      <c r="FH45" s="55"/>
-      <c r="FI45" s="55"/>
+      <c r="CG45" s="6"/>
+      <c r="CH45" s="6"/>
+      <c r="CI45" s="6"/>
+      <c r="CJ45" s="6"/>
+      <c r="CK45" s="6"/>
+      <c r="CL45" s="6"/>
+      <c r="CM45" s="6"/>
+      <c r="CN45" s="6"/>
+      <c r="CO45" s="6"/>
+      <c r="CP45" s="6"/>
+      <c r="CQ45" s="6"/>
+      <c r="CR45" s="6"/>
+      <c r="CS45" s="6"/>
+      <c r="CT45" s="6"/>
+      <c r="CU45" s="6"/>
+      <c r="CV45" s="6"/>
+      <c r="CW45" s="6"/>
+      <c r="CX45" s="6"/>
+      <c r="CY45" s="6"/>
+      <c r="CZ45" s="6"/>
+      <c r="DA45" s="6"/>
+      <c r="DB45" s="6"/>
+      <c r="DC45" s="6"/>
+      <c r="DD45" s="6"/>
+      <c r="DE45" s="6"/>
+      <c r="DF45" s="6"/>
+      <c r="DG45" s="6"/>
+      <c r="DH45" s="6"/>
+      <c r="DI45" s="6"/>
+      <c r="DJ45" s="6"/>
+      <c r="DK45" s="6"/>
+      <c r="DL45" s="6"/>
+      <c r="DM45" s="6"/>
+      <c r="DN45" s="6"/>
+      <c r="DO45" s="6"/>
+      <c r="DP45" s="6"/>
+      <c r="DQ45" s="6"/>
+      <c r="DR45" s="6"/>
+      <c r="DS45" s="6"/>
+      <c r="DT45" s="6"/>
+      <c r="DU45" s="6"/>
+      <c r="DV45" s="6"/>
+      <c r="DW45" s="6"/>
+      <c r="DX45" s="6"/>
+      <c r="DY45" s="6"/>
+      <c r="DZ45" s="6"/>
+      <c r="EA45" s="6"/>
+      <c r="EB45" s="6"/>
+      <c r="EC45" s="6"/>
+      <c r="ED45" s="6"/>
+      <c r="EE45" s="6"/>
+      <c r="EF45" s="6"/>
+      <c r="EG45" s="6"/>
+      <c r="EH45" s="6"/>
+      <c r="EI45" s="6"/>
+      <c r="EJ45" s="6"/>
+      <c r="EK45" s="6"/>
+      <c r="EL45" s="6"/>
+      <c r="EM45" s="6"/>
+      <c r="EN45" s="6"/>
+      <c r="EO45" s="6"/>
+      <c r="EP45" s="6"/>
+      <c r="EQ45" s="6"/>
+      <c r="ER45" s="6"/>
+      <c r="ES45" s="6"/>
+      <c r="ET45" s="6"/>
+      <c r="EU45" s="6"/>
+      <c r="EV45" s="6"/>
+      <c r="EW45" s="6"/>
+      <c r="EX45" s="6"/>
+      <c r="EY45" s="6"/>
+      <c r="EZ45" s="6"/>
+      <c r="FA45" s="6"/>
+      <c r="FB45" s="6"/>
+      <c r="FC45" s="6"/>
+      <c r="FD45" s="6"/>
+      <c r="FE45" s="6"/>
+      <c r="FF45" s="6"/>
+      <c r="FG45" s="6"/>
+      <c r="FH45" s="6"/>
       <c r="FJ45" s="55"/>
       <c r="FK45" s="55"/>
       <c r="FL45" s="55"/>
@@ -33321,174 +33281,178 @@
       <c r="ZZ45" s="55"/>
     </row>
     <row r="46" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>109</v>
+      <c r="A46" s="85" t="s">
+        <v>111</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="6"/>
-      <c r="AO46" s="6"/>
-      <c r="AP46" s="6"/>
-      <c r="AQ46" s="6"/>
-      <c r="AR46" s="6"/>
-      <c r="AS46" s="6"/>
-      <c r="AT46" s="6"/>
-      <c r="AU46" s="6"/>
-      <c r="AV46" s="6"/>
-      <c r="AW46" s="6"/>
-      <c r="AX46" s="6"/>
-      <c r="AY46" s="6"/>
-      <c r="AZ46" s="6"/>
-      <c r="BA46" s="6"/>
-      <c r="BB46" s="6"/>
-      <c r="BC46" s="6"/>
-      <c r="BD46" s="6"/>
-      <c r="BE46" s="6"/>
-      <c r="BF46" s="6"/>
-      <c r="BG46" s="6"/>
-      <c r="BH46" s="6"/>
-      <c r="BI46" s="6"/>
-      <c r="BJ46" s="6"/>
-      <c r="BK46" s="6"/>
-      <c r="BL46" s="6"/>
-      <c r="BM46" s="6"/>
-      <c r="BN46" s="6"/>
-      <c r="BO46" s="6"/>
-      <c r="BP46" s="6"/>
-      <c r="BQ46" s="6"/>
-      <c r="BR46" s="6"/>
-      <c r="BS46" s="6"/>
-      <c r="BT46" s="6"/>
-      <c r="BU46" s="6"/>
-      <c r="BV46" s="6"/>
-      <c r="BW46" s="6"/>
-      <c r="BX46" s="6"/>
-      <c r="BY46" s="6"/>
-      <c r="BZ46" s="6"/>
-      <c r="CA46" s="6"/>
-      <c r="CB46" s="6"/>
-      <c r="CC46" s="6"/>
-      <c r="CD46" s="83"/>
-      <c r="CF46" s="6" t="s">
-        <v>110</v>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="85"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="85"/>
+      <c r="AG46" s="85"/>
+      <c r="AH46" s="85"/>
+      <c r="AI46" s="85"/>
+      <c r="AJ46" s="85"/>
+      <c r="AK46" s="85"/>
+      <c r="AL46" s="85"/>
+      <c r="AM46" s="85"/>
+      <c r="AN46" s="85"/>
+      <c r="AO46" s="85"/>
+      <c r="AP46" s="85"/>
+      <c r="AQ46" s="85"/>
+      <c r="AR46" s="85"/>
+      <c r="AS46" s="85"/>
+      <c r="AT46" s="85"/>
+      <c r="AU46" s="85"/>
+      <c r="AV46" s="85"/>
+      <c r="AW46" s="85"/>
+      <c r="AX46" s="85"/>
+      <c r="AY46" s="85"/>
+      <c r="AZ46" s="85"/>
+      <c r="BA46" s="85"/>
+      <c r="BB46" s="85"/>
+      <c r="BC46" s="85"/>
+      <c r="BD46" s="85"/>
+      <c r="BE46" s="85"/>
+      <c r="BF46" s="85"/>
+      <c r="BG46" s="85"/>
+      <c r="BH46" s="85"/>
+      <c r="BI46" s="85"/>
+      <c r="BJ46" s="85"/>
+      <c r="BK46" s="85"/>
+      <c r="BL46" s="85"/>
+      <c r="BM46" s="85"/>
+      <c r="BN46" s="85"/>
+      <c r="BO46" s="85"/>
+      <c r="BP46" s="85"/>
+      <c r="BQ46" s="85"/>
+      <c r="BR46" s="85"/>
+      <c r="BS46" s="85"/>
+      <c r="BT46" s="85"/>
+      <c r="BU46" s="85"/>
+      <c r="BV46" s="85"/>
+      <c r="BW46" s="85"/>
+      <c r="BX46" s="85"/>
+      <c r="BY46" s="85"/>
+      <c r="BZ46" s="85"/>
+      <c r="CA46" s="81" t="s">
+        <v>112</v>
       </c>
-      <c r="CG46" s="6"/>
-      <c r="CH46" s="6"/>
-      <c r="CI46" s="6"/>
-      <c r="CJ46" s="6"/>
-      <c r="CK46" s="6"/>
-      <c r="CL46" s="6"/>
-      <c r="CM46" s="6"/>
-      <c r="CN46" s="6"/>
-      <c r="CO46" s="6"/>
-      <c r="CP46" s="6"/>
-      <c r="CQ46" s="6"/>
-      <c r="CR46" s="6"/>
-      <c r="CS46" s="6"/>
-      <c r="CT46" s="6"/>
-      <c r="CU46" s="6"/>
-      <c r="CV46" s="6"/>
-      <c r="CW46" s="6"/>
-      <c r="CX46" s="6"/>
-      <c r="CY46" s="6"/>
-      <c r="CZ46" s="6"/>
-      <c r="DA46" s="6"/>
-      <c r="DB46" s="6"/>
-      <c r="DC46" s="6"/>
-      <c r="DD46" s="6"/>
-      <c r="DE46" s="6"/>
-      <c r="DF46" s="6"/>
-      <c r="DG46" s="6"/>
-      <c r="DH46" s="6"/>
-      <c r="DI46" s="6"/>
-      <c r="DJ46" s="6"/>
-      <c r="DK46" s="6"/>
-      <c r="DL46" s="6"/>
-      <c r="DM46" s="6"/>
-      <c r="DN46" s="6"/>
-      <c r="DO46" s="6"/>
-      <c r="DP46" s="6"/>
-      <c r="DQ46" s="6"/>
-      <c r="DR46" s="6"/>
-      <c r="DS46" s="6"/>
-      <c r="DT46" s="6"/>
-      <c r="DU46" s="6"/>
-      <c r="DV46" s="6"/>
-      <c r="DW46" s="6"/>
-      <c r="DX46" s="6"/>
-      <c r="DY46" s="6"/>
-      <c r="DZ46" s="6"/>
-      <c r="EA46" s="6"/>
-      <c r="EB46" s="6"/>
-      <c r="EC46" s="6"/>
-      <c r="ED46" s="6"/>
-      <c r="EE46" s="6"/>
-      <c r="EF46" s="6"/>
-      <c r="EG46" s="6"/>
-      <c r="EH46" s="6"/>
-      <c r="EI46" s="6"/>
-      <c r="EJ46" s="6"/>
-      <c r="EK46" s="6"/>
-      <c r="EL46" s="6"/>
-      <c r="EM46" s="6"/>
-      <c r="EN46" s="6"/>
-      <c r="EO46" s="6"/>
-      <c r="EP46" s="6"/>
-      <c r="EQ46" s="6"/>
-      <c r="ER46" s="6"/>
-      <c r="ES46" s="6"/>
-      <c r="ET46" s="6"/>
-      <c r="EU46" s="6"/>
-      <c r="EV46" s="6"/>
-      <c r="EW46" s="6"/>
-      <c r="EX46" s="6"/>
-      <c r="EY46" s="6"/>
-      <c r="EZ46" s="6"/>
-      <c r="FA46" s="6"/>
-      <c r="FB46" s="6"/>
-      <c r="FC46" s="6"/>
-      <c r="FD46" s="6"/>
-      <c r="FE46" s="6"/>
-      <c r="FF46" s="6"/>
-      <c r="FG46" s="6"/>
-      <c r="FH46" s="6"/>
-      <c r="FJ46" s="55"/>
+      <c r="CB46" s="81"/>
+      <c r="CC46" s="81"/>
+      <c r="CD46" s="81"/>
+      <c r="CF46" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG46" s="79"/>
+      <c r="CH46" s="79"/>
+      <c r="CI46" s="79"/>
+      <c r="CJ46" s="79"/>
+      <c r="CK46" s="79"/>
+      <c r="CL46" s="79"/>
+      <c r="CM46" s="79"/>
+      <c r="CN46" s="79"/>
+      <c r="CO46" s="79"/>
+      <c r="CP46" s="79"/>
+      <c r="CQ46" s="79"/>
+      <c r="CR46" s="79"/>
+      <c r="CS46" s="79"/>
+      <c r="CT46" s="79"/>
+      <c r="CU46" s="79"/>
+      <c r="CV46" s="79"/>
+      <c r="CW46" s="79"/>
+      <c r="CX46" s="79"/>
+      <c r="CY46" s="79"/>
+      <c r="CZ46" s="79"/>
+      <c r="DA46" s="79"/>
+      <c r="DB46" s="79"/>
+      <c r="DC46" s="79"/>
+      <c r="DD46" s="79"/>
+      <c r="DE46" s="79"/>
+      <c r="DF46" s="79"/>
+      <c r="DG46" s="79"/>
+      <c r="DH46" s="79"/>
+      <c r="DI46" s="79"/>
+      <c r="DJ46" s="79"/>
+      <c r="DK46" s="79"/>
+      <c r="DL46" s="79"/>
+      <c r="DM46" s="79"/>
+      <c r="DN46" s="79"/>
+      <c r="DO46" s="79"/>
+      <c r="DP46" s="79"/>
+      <c r="DQ46" s="79"/>
+      <c r="DR46" s="79"/>
+      <c r="DS46" s="79"/>
+      <c r="DT46" s="79"/>
+      <c r="DU46" s="79"/>
+      <c r="DV46" s="79"/>
+      <c r="DW46" s="79"/>
+      <c r="DX46" s="79"/>
+      <c r="DY46" s="79"/>
+      <c r="DZ46" s="79"/>
+      <c r="EA46" s="79"/>
+      <c r="EB46" s="79"/>
+      <c r="EC46" s="79"/>
+      <c r="ED46" s="79"/>
+      <c r="EE46" s="79"/>
+      <c r="EF46" s="79"/>
+      <c r="EG46" s="79"/>
+      <c r="EH46" s="79"/>
+      <c r="EI46" s="79"/>
+      <c r="EJ46" s="79"/>
+      <c r="EK46" s="79"/>
+      <c r="EL46" s="79"/>
+      <c r="EM46" s="79"/>
+      <c r="EN46" s="79"/>
+      <c r="EO46" s="79"/>
+      <c r="EP46" s="79"/>
+      <c r="EQ46" s="79"/>
+      <c r="ER46" s="79"/>
+      <c r="ES46" s="79"/>
+      <c r="ET46" s="79"/>
+      <c r="EU46" s="79"/>
+      <c r="EV46" s="79"/>
+      <c r="EW46" s="79"/>
+      <c r="EX46" s="79"/>
+      <c r="EY46" s="79"/>
+      <c r="EZ46" s="79"/>
+      <c r="FA46" s="79"/>
+      <c r="FB46" s="79"/>
+      <c r="FC46" s="79"/>
+      <c r="FD46" s="79"/>
+      <c r="FE46" s="79"/>
+      <c r="FF46" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="FG46" s="14"/>
+      <c r="FH46" s="14"/>
+      <c r="FI46" s="14"/>
       <c r="FK46" s="55"/>
       <c r="FL46" s="55"/>
       <c r="FM46" s="55"/>
@@ -33961,9 +33925,12 @@
       <c r="XL46" s="55"/>
       <c r="XM46" s="55"/>
       <c r="XN46" s="55"/>
-      <c r="XO46" s="55"/>
-      <c r="XP46" s="55"/>
-      <c r="XQ46" s="55"/>
+      <c r="XO46" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="XP46" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="XR46" s="55"/>
       <c r="XS46" s="55"/>
       <c r="XT46" s="55"/>
@@ -34026,179 +33993,174 @@
       <c r="ZY46" s="55"/>
       <c r="ZZ46" s="55"/>
     </row>
-    <row r="47" spans="1:702" ht="14.25" customHeight="1">
-      <c r="A47" s="85" t="s">
-        <v>111</v>
+    <row r="47" spans="1:702" ht="6.75" customHeight="1">
+      <c r="A47" s="51" t="s">
+        <v>115</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="85"/>
-      <c r="S47" s="85"/>
-      <c r="T47" s="85"/>
-      <c r="U47" s="85"/>
-      <c r="V47" s="85"/>
-      <c r="W47" s="85"/>
-      <c r="X47" s="85"/>
-      <c r="Y47" s="85"/>
-      <c r="Z47" s="85"/>
-      <c r="AA47" s="85"/>
-      <c r="AB47" s="85"/>
-      <c r="AC47" s="85"/>
-      <c r="AD47" s="85"/>
-      <c r="AE47" s="85"/>
-      <c r="AF47" s="85"/>
-      <c r="AG47" s="85"/>
-      <c r="AH47" s="85"/>
-      <c r="AI47" s="85"/>
-      <c r="AJ47" s="85"/>
-      <c r="AK47" s="85"/>
-      <c r="AL47" s="85"/>
-      <c r="AM47" s="85"/>
-      <c r="AN47" s="85"/>
-      <c r="AO47" s="85"/>
-      <c r="AP47" s="85"/>
-      <c r="AQ47" s="85"/>
-      <c r="AR47" s="85"/>
-      <c r="AS47" s="85"/>
-      <c r="AT47" s="85"/>
-      <c r="AU47" s="85"/>
-      <c r="AV47" s="85"/>
-      <c r="AW47" s="85"/>
-      <c r="AX47" s="85"/>
-      <c r="AY47" s="85"/>
-      <c r="AZ47" s="85"/>
-      <c r="BA47" s="85"/>
-      <c r="BB47" s="85"/>
-      <c r="BC47" s="85"/>
-      <c r="BD47" s="85"/>
-      <c r="BE47" s="85"/>
-      <c r="BF47" s="85"/>
-      <c r="BG47" s="85"/>
-      <c r="BH47" s="85"/>
-      <c r="BI47" s="85"/>
-      <c r="BJ47" s="85"/>
-      <c r="BK47" s="85"/>
-      <c r="BL47" s="85"/>
-      <c r="BM47" s="85"/>
-      <c r="BN47" s="85"/>
-      <c r="BO47" s="85"/>
-      <c r="BP47" s="85"/>
-      <c r="BQ47" s="85"/>
-      <c r="BR47" s="85"/>
-      <c r="BS47" s="85"/>
-      <c r="BT47" s="85"/>
-      <c r="BU47" s="85"/>
-      <c r="BV47" s="85"/>
-      <c r="BW47" s="85"/>
-      <c r="BX47" s="85"/>
-      <c r="BY47" s="85"/>
-      <c r="BZ47" s="85"/>
-      <c r="CA47" s="81" t="s">
-        <v>112</v>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="51"/>
+      <c r="AO47" s="51"/>
+      <c r="AP47" s="51"/>
+      <c r="AQ47" s="51"/>
+      <c r="AR47" s="51"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="51"/>
+      <c r="AU47" s="51"/>
+      <c r="AV47" s="51"/>
+      <c r="AW47" s="51"/>
+      <c r="AX47" s="51"/>
+      <c r="AY47" s="51"/>
+      <c r="AZ47" s="51"/>
+      <c r="BA47" s="51"/>
+      <c r="BB47" s="51"/>
+      <c r="BC47" s="51"/>
+      <c r="BD47" s="51"/>
+      <c r="BE47" s="51"/>
+      <c r="BF47" s="51"/>
+      <c r="BG47" s="51"/>
+      <c r="BH47" s="51"/>
+      <c r="BI47" s="51"/>
+      <c r="BJ47" s="51"/>
+      <c r="BK47" s="51"/>
+      <c r="BL47" s="51"/>
+      <c r="BM47" s="51"/>
+      <c r="BN47" s="51"/>
+      <c r="BO47" s="51"/>
+      <c r="BP47" s="51"/>
+      <c r="BQ47" s="51"/>
+      <c r="BR47" s="51"/>
+      <c r="BS47" s="51"/>
+      <c r="BT47" s="51"/>
+      <c r="BU47" s="51"/>
+      <c r="BV47" s="51"/>
+      <c r="BW47" s="51"/>
+      <c r="BX47" s="51"/>
+      <c r="BY47" s="51"/>
+      <c r="BZ47" s="51"/>
+      <c r="CB47" s="55"/>
+      <c r="CC47" s="55"/>
+      <c r="CD47" s="2"/>
+      <c r="CF47" s="51" t="s">
+        <v>115</v>
       </c>
-      <c r="CB47" s="81"/>
-      <c r="CC47" s="81"/>
-      <c r="CD47" s="81"/>
-      <c r="CF47" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="CG47" s="79"/>
-      <c r="CH47" s="79"/>
-      <c r="CI47" s="79"/>
-      <c r="CJ47" s="79"/>
-      <c r="CK47" s="79"/>
-      <c r="CL47" s="79"/>
-      <c r="CM47" s="79"/>
-      <c r="CN47" s="79"/>
-      <c r="CO47" s="79"/>
-      <c r="CP47" s="79"/>
-      <c r="CQ47" s="79"/>
-      <c r="CR47" s="79"/>
-      <c r="CS47" s="79"/>
-      <c r="CT47" s="79"/>
-      <c r="CU47" s="79"/>
-      <c r="CV47" s="79"/>
-      <c r="CW47" s="79"/>
-      <c r="CX47" s="79"/>
-      <c r="CY47" s="79"/>
-      <c r="CZ47" s="79"/>
-      <c r="DA47" s="79"/>
-      <c r="DB47" s="79"/>
-      <c r="DC47" s="79"/>
-      <c r="DD47" s="79"/>
-      <c r="DE47" s="79"/>
-      <c r="DF47" s="79"/>
-      <c r="DG47" s="79"/>
-      <c r="DH47" s="79"/>
-      <c r="DI47" s="79"/>
-      <c r="DJ47" s="79"/>
-      <c r="DK47" s="79"/>
-      <c r="DL47" s="79"/>
-      <c r="DM47" s="79"/>
-      <c r="DN47" s="79"/>
-      <c r="DO47" s="79"/>
-      <c r="DP47" s="79"/>
-      <c r="DQ47" s="79"/>
-      <c r="DR47" s="79"/>
-      <c r="DS47" s="79"/>
-      <c r="DT47" s="79"/>
-      <c r="DU47" s="79"/>
-      <c r="DV47" s="79"/>
-      <c r="DW47" s="79"/>
-      <c r="DX47" s="79"/>
-      <c r="DY47" s="79"/>
-      <c r="DZ47" s="79"/>
-      <c r="EA47" s="79"/>
-      <c r="EB47" s="79"/>
-      <c r="EC47" s="79"/>
-      <c r="ED47" s="79"/>
-      <c r="EE47" s="79"/>
-      <c r="EF47" s="79"/>
-      <c r="EG47" s="79"/>
-      <c r="EH47" s="79"/>
-      <c r="EI47" s="79"/>
-      <c r="EJ47" s="79"/>
-      <c r="EK47" s="79"/>
-      <c r="EL47" s="79"/>
-      <c r="EM47" s="79"/>
-      <c r="EN47" s="79"/>
-      <c r="EO47" s="79"/>
-      <c r="EP47" s="79"/>
-      <c r="EQ47" s="79"/>
-      <c r="ER47" s="79"/>
-      <c r="ES47" s="79"/>
-      <c r="ET47" s="79"/>
-      <c r="EU47" s="79"/>
-      <c r="EV47" s="79"/>
-      <c r="EW47" s="79"/>
-      <c r="EX47" s="79"/>
-      <c r="EY47" s="79"/>
-      <c r="EZ47" s="79"/>
-      <c r="FA47" s="79"/>
-      <c r="FB47" s="79"/>
-      <c r="FC47" s="79"/>
-      <c r="FD47" s="79"/>
-      <c r="FE47" s="79"/>
-      <c r="FF47" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="FG47" s="14"/>
-      <c r="FH47" s="14"/>
-      <c r="FI47" s="14"/>
+      <c r="CG47" s="51"/>
+      <c r="CH47" s="51"/>
+      <c r="CI47" s="51"/>
+      <c r="CJ47" s="51"/>
+      <c r="CK47" s="51"/>
+      <c r="CL47" s="51"/>
+      <c r="CM47" s="51"/>
+      <c r="CN47" s="51"/>
+      <c r="CO47" s="51"/>
+      <c r="CP47" s="51"/>
+      <c r="CQ47" s="51"/>
+      <c r="CR47" s="51"/>
+      <c r="CS47" s="51"/>
+      <c r="CT47" s="51"/>
+      <c r="CU47" s="51"/>
+      <c r="CV47" s="51"/>
+      <c r="CW47" s="51"/>
+      <c r="CX47" s="51"/>
+      <c r="CY47" s="51"/>
+      <c r="CZ47" s="51"/>
+      <c r="DA47" s="51"/>
+      <c r="DB47" s="51"/>
+      <c r="DC47" s="51"/>
+      <c r="DD47" s="51"/>
+      <c r="DE47" s="51"/>
+      <c r="DF47" s="51"/>
+      <c r="DG47" s="51"/>
+      <c r="DH47" s="51"/>
+      <c r="DI47" s="51"/>
+      <c r="DJ47" s="51"/>
+      <c r="DK47" s="51"/>
+      <c r="DL47" s="51"/>
+      <c r="DM47" s="51"/>
+      <c r="DN47" s="51"/>
+      <c r="DO47" s="51"/>
+      <c r="DP47" s="51"/>
+      <c r="DQ47" s="51"/>
+      <c r="DR47" s="51"/>
+      <c r="DS47" s="51"/>
+      <c r="DT47" s="51"/>
+      <c r="DU47" s="51"/>
+      <c r="DV47" s="51"/>
+      <c r="DW47" s="51"/>
+      <c r="DX47" s="51"/>
+      <c r="DY47" s="51"/>
+      <c r="DZ47" s="51"/>
+      <c r="EA47" s="51"/>
+      <c r="EB47" s="51"/>
+      <c r="EC47" s="51"/>
+      <c r="ED47" s="51"/>
+      <c r="EE47" s="51"/>
+      <c r="EF47" s="51"/>
+      <c r="EG47" s="51"/>
+      <c r="EH47" s="51"/>
+      <c r="EI47" s="51"/>
+      <c r="EJ47" s="51"/>
+      <c r="EK47" s="51"/>
+      <c r="EL47" s="51"/>
+      <c r="EM47" s="51"/>
+      <c r="EN47" s="51"/>
+      <c r="EO47" s="51"/>
+      <c r="EP47" s="51"/>
+      <c r="EQ47" s="51"/>
+      <c r="ER47" s="51"/>
+      <c r="ES47" s="51"/>
+      <c r="ET47" s="51"/>
+      <c r="EU47" s="51"/>
+      <c r="EV47" s="51"/>
+      <c r="EW47" s="51"/>
+      <c r="EX47" s="51"/>
+      <c r="EY47" s="51"/>
+      <c r="EZ47" s="51"/>
+      <c r="FA47" s="51"/>
+      <c r="FB47" s="51"/>
+      <c r="FC47" s="51"/>
+      <c r="FD47" s="51"/>
+      <c r="FE47" s="51"/>
+      <c r="FG47" s="55"/>
+      <c r="FH47" s="55"/>
+      <c r="FI47" s="55"/>
+      <c r="FJ47" s="55"/>
       <c r="FK47" s="55"/>
       <c r="FL47" s="55"/>
       <c r="FM47" s="55"/>
@@ -34671,12 +34633,9 @@
       <c r="XL47" s="55"/>
       <c r="XM47" s="55"/>
       <c r="XN47" s="55"/>
-      <c r="XO47" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="XP47" s="23" t="s">
-        <v>113</v>
-      </c>
+      <c r="XO47" s="55"/>
+      <c r="XP47" s="55"/>
+      <c r="XQ47" s="55"/>
       <c r="XR47" s="55"/>
       <c r="XS47" s="55"/>
       <c r="XT47" s="55"/>
@@ -34739,170 +34698,169 @@
       <c r="ZY47" s="55"/>
       <c r="ZZ47" s="55"/>
     </row>
-    <row r="48" spans="1:702" ht="6.75" customHeight="1">
-      <c r="A48" s="51" t="s">
-        <v>115</v>
+    <row r="48" spans="1:702" ht="14.25" customHeight="1">
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="7" t="s">
+        <v>116</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="51"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="51"/>
-      <c r="AF48" s="51"/>
-      <c r="AG48" s="51"/>
-      <c r="AH48" s="51"/>
-      <c r="AI48" s="51"/>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="51"/>
-      <c r="AO48" s="51"/>
-      <c r="AP48" s="51"/>
-      <c r="AQ48" s="51"/>
-      <c r="AR48" s="51"/>
-      <c r="AS48" s="51"/>
-      <c r="AT48" s="51"/>
-      <c r="AU48" s="51"/>
-      <c r="AV48" s="51"/>
-      <c r="AW48" s="51"/>
-      <c r="AX48" s="51"/>
-      <c r="AY48" s="51"/>
-      <c r="AZ48" s="51"/>
-      <c r="BA48" s="51"/>
-      <c r="BB48" s="51"/>
-      <c r="BC48" s="51"/>
-      <c r="BD48" s="51"/>
-      <c r="BE48" s="51"/>
-      <c r="BF48" s="51"/>
-      <c r="BG48" s="51"/>
-      <c r="BH48" s="51"/>
-      <c r="BI48" s="51"/>
-      <c r="BJ48" s="51"/>
-      <c r="BK48" s="51"/>
-      <c r="BL48" s="51"/>
-      <c r="BM48" s="51"/>
-      <c r="BN48" s="51"/>
-      <c r="BO48" s="51"/>
-      <c r="BP48" s="51"/>
-      <c r="BQ48" s="51"/>
-      <c r="BR48" s="51"/>
-      <c r="BS48" s="51"/>
-      <c r="BT48" s="51"/>
-      <c r="BU48" s="51"/>
-      <c r="BV48" s="51"/>
-      <c r="BW48" s="51"/>
-      <c r="BX48" s="51"/>
-      <c r="BY48" s="51"/>
-      <c r="BZ48" s="51"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="55"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="55"/>
+      <c r="AJ48" s="55"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="55"/>
+      <c r="AM48" s="55"/>
+      <c r="AN48" s="55"/>
+      <c r="AO48" s="55"/>
+      <c r="AP48" s="55"/>
+      <c r="AQ48" s="55"/>
+      <c r="AR48" s="55"/>
+      <c r="AS48" s="55"/>
+      <c r="AT48" s="55"/>
+      <c r="AU48" s="55"/>
+      <c r="AV48" s="55"/>
+      <c r="AW48" s="55"/>
+      <c r="AX48" s="55"/>
+      <c r="AY48" s="55"/>
+      <c r="AZ48" s="55"/>
+      <c r="BA48" s="55"/>
+      <c r="BB48" s="55"/>
+      <c r="BC48" s="55"/>
+      <c r="BD48" s="55"/>
+      <c r="BE48" s="55"/>
+      <c r="BF48" s="55"/>
+      <c r="BG48" s="55"/>
+      <c r="BH48" s="55"/>
+      <c r="BI48" s="55"/>
+      <c r="BJ48" s="55"/>
+      <c r="BK48" s="55"/>
+      <c r="BL48" s="55"/>
+      <c r="BM48" s="55"/>
+      <c r="BN48" s="55"/>
+      <c r="BO48" s="55"/>
+      <c r="BP48" s="55"/>
+      <c r="BQ48" s="55"/>
+      <c r="BR48" s="55"/>
+      <c r="BS48" s="55"/>
+      <c r="BT48" s="55"/>
+      <c r="BU48" s="55"/>
+      <c r="BV48" s="55"/>
+      <c r="BW48" s="55"/>
+      <c r="BX48" s="55"/>
+      <c r="BY48" s="55"/>
+      <c r="BZ48" s="55"/>
+      <c r="CA48" s="55"/>
       <c r="CB48" s="55"/>
       <c r="CC48" s="55"/>
       <c r="CD48" s="2"/>
-      <c r="CF48" s="51" t="s">
-        <v>115</v>
+      <c r="CF48" s="55"/>
+      <c r="CG48" s="55"/>
+      <c r="CH48" s="55"/>
+      <c r="CI48" s="7" t="s">
+        <v>116</v>
       </c>
-      <c r="CG48" s="51"/>
-      <c r="CH48" s="51"/>
-      <c r="CI48" s="51"/>
-      <c r="CJ48" s="51"/>
-      <c r="CK48" s="51"/>
-      <c r="CL48" s="51"/>
-      <c r="CM48" s="51"/>
-      <c r="CN48" s="51"/>
-      <c r="CO48" s="51"/>
-      <c r="CP48" s="51"/>
-      <c r="CQ48" s="51"/>
-      <c r="CR48" s="51"/>
-      <c r="CS48" s="51"/>
-      <c r="CT48" s="51"/>
-      <c r="CU48" s="51"/>
-      <c r="CV48" s="51"/>
-      <c r="CW48" s="51"/>
-      <c r="CX48" s="51"/>
-      <c r="CY48" s="51"/>
-      <c r="CZ48" s="51"/>
-      <c r="DA48" s="51"/>
-      <c r="DB48" s="51"/>
-      <c r="DC48" s="51"/>
-      <c r="DD48" s="51"/>
-      <c r="DE48" s="51"/>
-      <c r="DF48" s="51"/>
-      <c r="DG48" s="51"/>
-      <c r="DH48" s="51"/>
-      <c r="DI48" s="51"/>
-      <c r="DJ48" s="51"/>
-      <c r="DK48" s="51"/>
-      <c r="DL48" s="51"/>
-      <c r="DM48" s="51"/>
-      <c r="DN48" s="51"/>
-      <c r="DO48" s="51"/>
-      <c r="DP48" s="51"/>
-      <c r="DQ48" s="51"/>
-      <c r="DR48" s="51"/>
-      <c r="DS48" s="51"/>
-      <c r="DT48" s="51"/>
-      <c r="DU48" s="51"/>
-      <c r="DV48" s="51"/>
-      <c r="DW48" s="51"/>
-      <c r="DX48" s="51"/>
-      <c r="DY48" s="51"/>
-      <c r="DZ48" s="51"/>
-      <c r="EA48" s="51"/>
-      <c r="EB48" s="51"/>
-      <c r="EC48" s="51"/>
-      <c r="ED48" s="51"/>
-      <c r="EE48" s="51"/>
-      <c r="EF48" s="51"/>
-      <c r="EG48" s="51"/>
-      <c r="EH48" s="51"/>
-      <c r="EI48" s="51"/>
-      <c r="EJ48" s="51"/>
-      <c r="EK48" s="51"/>
-      <c r="EL48" s="51"/>
-      <c r="EM48" s="51"/>
-      <c r="EN48" s="51"/>
-      <c r="EO48" s="51"/>
-      <c r="EP48" s="51"/>
-      <c r="EQ48" s="51"/>
-      <c r="ER48" s="51"/>
-      <c r="ES48" s="51"/>
-      <c r="ET48" s="51"/>
-      <c r="EU48" s="51"/>
-      <c r="EV48" s="51"/>
-      <c r="EW48" s="51"/>
-      <c r="EX48" s="51"/>
-      <c r="EY48" s="51"/>
-      <c r="EZ48" s="51"/>
-      <c r="FA48" s="51"/>
-      <c r="FB48" s="51"/>
-      <c r="FC48" s="51"/>
-      <c r="FD48" s="51"/>
-      <c r="FE48" s="51"/>
+      <c r="CJ48" s="7"/>
+      <c r="CK48" s="7"/>
+      <c r="CL48" s="7"/>
+      <c r="CM48" s="7"/>
+      <c r="CO48" s="55"/>
+      <c r="CP48" s="55"/>
+      <c r="CQ48" s="55"/>
+      <c r="CR48" s="55"/>
+      <c r="CS48" s="55"/>
+      <c r="CT48" s="55"/>
+      <c r="CU48" s="55"/>
+      <c r="CV48" s="55"/>
+      <c r="CW48" s="55"/>
+      <c r="CX48" s="55"/>
+      <c r="CY48" s="55"/>
+      <c r="CZ48" s="55"/>
+      <c r="DA48" s="55"/>
+      <c r="DB48" s="55"/>
+      <c r="DC48" s="55"/>
+      <c r="DD48" s="55"/>
+      <c r="DE48" s="55"/>
+      <c r="DF48" s="55"/>
+      <c r="DG48" s="55"/>
+      <c r="DH48" s="55"/>
+      <c r="DI48" s="55"/>
+      <c r="DJ48" s="55"/>
+      <c r="DK48" s="55"/>
+      <c r="DL48" s="55"/>
+      <c r="DM48" s="55"/>
+      <c r="DN48" s="55"/>
+      <c r="DO48" s="55"/>
+      <c r="DP48" s="55"/>
+      <c r="DQ48" s="55"/>
+      <c r="DR48" s="55"/>
+      <c r="DS48" s="55"/>
+      <c r="DT48" s="55"/>
+      <c r="DU48" s="55"/>
+      <c r="DV48" s="55"/>
+      <c r="DW48" s="55"/>
+      <c r="DX48" s="55"/>
+      <c r="DY48" s="55"/>
+      <c r="DZ48" s="55"/>
+      <c r="EA48" s="55"/>
+      <c r="EB48" s="55"/>
+      <c r="EC48" s="55"/>
+      <c r="ED48" s="55"/>
+      <c r="EE48" s="55"/>
+      <c r="EF48" s="55"/>
+      <c r="EG48" s="55"/>
+      <c r="EH48" s="55"/>
+      <c r="EI48" s="55"/>
+      <c r="EJ48" s="55"/>
+      <c r="EK48" s="55"/>
+      <c r="EL48" s="55"/>
+      <c r="EM48" s="55"/>
+      <c r="EN48" s="55"/>
+      <c r="EO48" s="55"/>
+      <c r="EP48" s="55"/>
+      <c r="EQ48" s="55"/>
+      <c r="ER48" s="55"/>
+      <c r="ES48" s="55"/>
+      <c r="ET48" s="55"/>
+      <c r="EU48" s="55"/>
+      <c r="EV48" s="55"/>
+      <c r="EW48" s="55"/>
+      <c r="EX48" s="55"/>
+      <c r="EY48" s="55"/>
+      <c r="EZ48" s="55"/>
+      <c r="FA48" s="55"/>
+      <c r="FB48" s="55"/>
+      <c r="FC48" s="55"/>
+      <c r="FD48" s="55"/>
+      <c r="FE48" s="55"/>
+      <c r="FF48" s="55"/>
       <c r="FG48" s="55"/>
       <c r="FH48" s="55"/>
       <c r="FI48" s="55"/>
@@ -35444,18 +35402,17 @@
       <c r="ZY48" s="55"/>
       <c r="ZZ48" s="55"/>
     </row>
-    <row r="49" spans="1:702" ht="14.25" customHeight="1">
+    <row r="49" spans="1:702" ht="11.25" hidden="1">
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
-      <c r="E49" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
       <c r="L49" s="55"/>
       <c r="M49" s="55"/>
       <c r="N49" s="55"/>
@@ -35526,17 +35483,17 @@
       <c r="CA49" s="55"/>
       <c r="CB49" s="55"/>
       <c r="CC49" s="55"/>
-      <c r="CD49" s="2"/>
+      <c r="CD49" s="55"/>
+      <c r="CE49" s="55"/>
       <c r="CF49" s="55"/>
       <c r="CG49" s="55"/>
       <c r="CH49" s="55"/>
-      <c r="CI49" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CJ49" s="7"/>
-      <c r="CK49" s="7"/>
-      <c r="CL49" s="7"/>
-      <c r="CM49" s="7"/>
+      <c r="CI49" s="55"/>
+      <c r="CJ49" s="55"/>
+      <c r="CK49" s="55"/>
+      <c r="CL49" s="55"/>
+      <c r="CM49" s="55"/>
+      <c r="CN49" s="55"/>
       <c r="CO49" s="55"/>
       <c r="CP49" s="55"/>
       <c r="CQ49" s="55"/>
@@ -35610,7 +35567,6 @@
       <c r="FG49" s="55"/>
       <c r="FH49" s="55"/>
       <c r="FI49" s="55"/>
-      <c r="FJ49" s="55"/>
       <c r="FK49" s="55"/>
       <c r="FL49" s="55"/>
       <c r="FM49" s="55"/>
@@ -36070,32 +36026,20 @@
       <c r="WY49" s="55"/>
       <c r="WZ49" s="55"/>
       <c r="XA49" s="55"/>
-      <c r="XB49" s="55"/>
-      <c r="XC49" s="55"/>
       <c r="XD49" s="55"/>
-      <c r="XE49" s="55"/>
-      <c r="XF49" s="55"/>
       <c r="XG49" s="55"/>
       <c r="XH49" s="55"/>
-      <c r="XI49" s="55"/>
-      <c r="XJ49" s="55"/>
       <c r="XK49" s="55"/>
       <c r="XL49" s="55"/>
-      <c r="XM49" s="55"/>
       <c r="XN49" s="55"/>
       <c r="XO49" s="55"/>
       <c r="XP49" s="55"/>
       <c r="XQ49" s="55"/>
       <c r="XR49" s="55"/>
-      <c r="XS49" s="55"/>
-      <c r="XT49" s="55"/>
       <c r="XU49" s="55"/>
       <c r="XV49" s="55"/>
       <c r="XW49" s="55"/>
-      <c r="XX49" s="55"/>
-      <c r="XY49" s="55"/>
       <c r="XZ49" s="55"/>
-      <c r="YA49" s="55"/>
       <c r="YB49" s="55"/>
       <c r="YC49" s="55"/>
       <c r="YD49" s="55"/>
@@ -36121,712 +36065,22 @@
       <c r="YX49" s="55"/>
       <c r="YY49" s="55"/>
       <c r="YZ49" s="55"/>
-      <c r="ZA49" s="55"/>
       <c r="ZB49" s="55"/>
-      <c r="ZC49" s="55"/>
-      <c r="ZD49" s="55"/>
       <c r="ZE49" s="55"/>
       <c r="ZF49" s="55"/>
       <c r="ZG49" s="55"/>
       <c r="ZH49" s="55"/>
-      <c r="ZI49" s="55"/>
-      <c r="ZJ49" s="55"/>
-      <c r="ZK49" s="55"/>
-      <c r="ZL49" s="55"/>
       <c r="ZM49" s="55"/>
       <c r="ZN49" s="55"/>
       <c r="ZO49" s="55"/>
       <c r="ZP49" s="55"/>
       <c r="ZQ49" s="55"/>
       <c r="ZR49" s="55"/>
-      <c r="ZS49" s="55"/>
-      <c r="ZT49" s="55"/>
-      <c r="ZU49" s="55"/>
-      <c r="ZV49" s="55"/>
       <c r="ZW49" s="55"/>
       <c r="ZX49" s="55"/>
-      <c r="ZY49" s="55"/>
-      <c r="ZZ49" s="55"/>
-    </row>
-    <row r="50" spans="1:702" ht="11.25" hidden="1">
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="55"/>
-      <c r="Z50" s="55"/>
-      <c r="AA50" s="55"/>
-      <c r="AB50" s="55"/>
-      <c r="AC50" s="55"/>
-      <c r="AD50" s="55"/>
-      <c r="AE50" s="55"/>
-      <c r="AF50" s="55"/>
-      <c r="AG50" s="55"/>
-      <c r="AH50" s="55"/>
-      <c r="AI50" s="55"/>
-      <c r="AJ50" s="55"/>
-      <c r="AK50" s="55"/>
-      <c r="AL50" s="55"/>
-      <c r="AM50" s="55"/>
-      <c r="AN50" s="55"/>
-      <c r="AO50" s="55"/>
-      <c r="AP50" s="55"/>
-      <c r="AQ50" s="55"/>
-      <c r="AR50" s="55"/>
-      <c r="AS50" s="55"/>
-      <c r="AT50" s="55"/>
-      <c r="AU50" s="55"/>
-      <c r="AV50" s="55"/>
-      <c r="AW50" s="55"/>
-      <c r="AX50" s="55"/>
-      <c r="AY50" s="55"/>
-      <c r="AZ50" s="55"/>
-      <c r="BA50" s="55"/>
-      <c r="BB50" s="55"/>
-      <c r="BC50" s="55"/>
-      <c r="BD50" s="55"/>
-      <c r="BE50" s="55"/>
-      <c r="BF50" s="55"/>
-      <c r="BG50" s="55"/>
-      <c r="BH50" s="55"/>
-      <c r="BI50" s="55"/>
-      <c r="BJ50" s="55"/>
-      <c r="BK50" s="55"/>
-      <c r="BL50" s="55"/>
-      <c r="BM50" s="55"/>
-      <c r="BN50" s="55"/>
-      <c r="BO50" s="55"/>
-      <c r="BP50" s="55"/>
-      <c r="BQ50" s="55"/>
-      <c r="BR50" s="55"/>
-      <c r="BS50" s="55"/>
-      <c r="BT50" s="55"/>
-      <c r="BU50" s="55"/>
-      <c r="BV50" s="55"/>
-      <c r="BW50" s="55"/>
-      <c r="BX50" s="55"/>
-      <c r="BY50" s="55"/>
-      <c r="BZ50" s="55"/>
-      <c r="CA50" s="55"/>
-      <c r="CB50" s="55"/>
-      <c r="CC50" s="55"/>
-      <c r="CD50" s="55"/>
-      <c r="CE50" s="55"/>
-      <c r="CF50" s="55"/>
-      <c r="CG50" s="55"/>
-      <c r="CH50" s="55"/>
-      <c r="CI50" s="55"/>
-      <c r="CJ50" s="55"/>
-      <c r="CK50" s="55"/>
-      <c r="CL50" s="55"/>
-      <c r="CM50" s="55"/>
-      <c r="CN50" s="55"/>
-      <c r="CO50" s="55"/>
-      <c r="CP50" s="55"/>
-      <c r="CQ50" s="55"/>
-      <c r="CR50" s="55"/>
-      <c r="CS50" s="55"/>
-      <c r="CT50" s="55"/>
-      <c r="CU50" s="55"/>
-      <c r="CV50" s="55"/>
-      <c r="CW50" s="55"/>
-      <c r="CX50" s="55"/>
-      <c r="CY50" s="55"/>
-      <c r="CZ50" s="55"/>
-      <c r="DA50" s="55"/>
-      <c r="DB50" s="55"/>
-      <c r="DC50" s="55"/>
-      <c r="DD50" s="55"/>
-      <c r="DE50" s="55"/>
-      <c r="DF50" s="55"/>
-      <c r="DG50" s="55"/>
-      <c r="DH50" s="55"/>
-      <c r="DI50" s="55"/>
-      <c r="DJ50" s="55"/>
-      <c r="DK50" s="55"/>
-      <c r="DL50" s="55"/>
-      <c r="DM50" s="55"/>
-      <c r="DN50" s="55"/>
-      <c r="DO50" s="55"/>
-      <c r="DP50" s="55"/>
-      <c r="DQ50" s="55"/>
-      <c r="DR50" s="55"/>
-      <c r="DS50" s="55"/>
-      <c r="DT50" s="55"/>
-      <c r="DU50" s="55"/>
-      <c r="DV50" s="55"/>
-      <c r="DW50" s="55"/>
-      <c r="DX50" s="55"/>
-      <c r="DY50" s="55"/>
-      <c r="DZ50" s="55"/>
-      <c r="EA50" s="55"/>
-      <c r="EB50" s="55"/>
-      <c r="EC50" s="55"/>
-      <c r="ED50" s="55"/>
-      <c r="EE50" s="55"/>
-      <c r="EF50" s="55"/>
-      <c r="EG50" s="55"/>
-      <c r="EH50" s="55"/>
-      <c r="EI50" s="55"/>
-      <c r="EJ50" s="55"/>
-      <c r="EK50" s="55"/>
-      <c r="EL50" s="55"/>
-      <c r="EM50" s="55"/>
-      <c r="EN50" s="55"/>
-      <c r="EO50" s="55"/>
-      <c r="EP50" s="55"/>
-      <c r="EQ50" s="55"/>
-      <c r="ER50" s="55"/>
-      <c r="ES50" s="55"/>
-      <c r="ET50" s="55"/>
-      <c r="EU50" s="55"/>
-      <c r="EV50" s="55"/>
-      <c r="EW50" s="55"/>
-      <c r="EX50" s="55"/>
-      <c r="EY50" s="55"/>
-      <c r="EZ50" s="55"/>
-      <c r="FA50" s="55"/>
-      <c r="FB50" s="55"/>
-      <c r="FC50" s="55"/>
-      <c r="FD50" s="55"/>
-      <c r="FE50" s="55"/>
-      <c r="FF50" s="55"/>
-      <c r="FG50" s="55"/>
-      <c r="FH50" s="55"/>
-      <c r="FI50" s="55"/>
-      <c r="FK50" s="55"/>
-      <c r="FL50" s="55"/>
-      <c r="FM50" s="55"/>
-      <c r="FN50" s="55"/>
-      <c r="FO50" s="55"/>
-      <c r="FP50" s="55"/>
-      <c r="FQ50" s="55"/>
-      <c r="FR50" s="55"/>
-      <c r="FS50" s="55"/>
-      <c r="FT50" s="55"/>
-      <c r="FU50" s="55"/>
-      <c r="FV50" s="55"/>
-      <c r="FW50" s="55"/>
-      <c r="FX50" s="55"/>
-      <c r="FY50" s="55"/>
-      <c r="FZ50" s="55"/>
-      <c r="GA50" s="55"/>
-      <c r="GB50" s="55"/>
-      <c r="GC50" s="55"/>
-      <c r="GD50" s="55"/>
-      <c r="GE50" s="55"/>
-      <c r="GF50" s="55"/>
-      <c r="GG50" s="55"/>
-      <c r="GH50" s="55"/>
-      <c r="GI50" s="55"/>
-      <c r="GJ50" s="55"/>
-      <c r="GK50" s="55"/>
-      <c r="GL50" s="55"/>
-      <c r="GM50" s="55"/>
-      <c r="GN50" s="55"/>
-      <c r="GO50" s="55"/>
-      <c r="GP50" s="55"/>
-      <c r="GQ50" s="55"/>
-      <c r="GR50" s="55"/>
-      <c r="GS50" s="55"/>
-      <c r="GT50" s="55"/>
-      <c r="GU50" s="55"/>
-      <c r="GV50" s="55"/>
-      <c r="GW50" s="55"/>
-      <c r="GX50" s="55"/>
-      <c r="GY50" s="55"/>
-      <c r="GZ50" s="55"/>
-      <c r="HA50" s="55"/>
-      <c r="HB50" s="55"/>
-      <c r="HC50" s="55"/>
-      <c r="HD50" s="55"/>
-      <c r="HE50" s="55"/>
-      <c r="HF50" s="55"/>
-      <c r="HG50" s="55"/>
-      <c r="HH50" s="55"/>
-      <c r="HI50" s="55"/>
-      <c r="HJ50" s="55"/>
-      <c r="HK50" s="55"/>
-      <c r="HL50" s="55"/>
-      <c r="HM50" s="55"/>
-      <c r="HN50" s="55"/>
-      <c r="HO50" s="55"/>
-      <c r="HP50" s="55"/>
-      <c r="HQ50" s="55"/>
-      <c r="HR50" s="55"/>
-      <c r="HS50" s="55"/>
-      <c r="HT50" s="55"/>
-      <c r="HU50" s="55"/>
-      <c r="HV50" s="55"/>
-      <c r="HW50" s="55"/>
-      <c r="HX50" s="55"/>
-      <c r="HY50" s="55"/>
-      <c r="HZ50" s="55"/>
-      <c r="IA50" s="55"/>
-      <c r="IB50" s="55"/>
-      <c r="IC50" s="55"/>
-      <c r="ID50" s="55"/>
-      <c r="IE50" s="55"/>
-      <c r="IF50" s="55"/>
-      <c r="IG50" s="55"/>
-      <c r="IH50" s="55"/>
-      <c r="II50" s="55"/>
-      <c r="IJ50" s="55"/>
-      <c r="IK50" s="55"/>
-      <c r="IL50" s="55"/>
-      <c r="IM50" s="55"/>
-      <c r="IN50" s="55"/>
-      <c r="IO50" s="55"/>
-      <c r="IP50" s="55"/>
-      <c r="IQ50" s="55"/>
-      <c r="IR50" s="55"/>
-      <c r="IS50" s="55"/>
-      <c r="IT50" s="55"/>
-      <c r="IU50" s="55"/>
-      <c r="IV50" s="55"/>
-      <c r="IW50" s="55"/>
-      <c r="IX50" s="55"/>
-      <c r="IY50" s="55"/>
-      <c r="IZ50" s="55"/>
-      <c r="JA50" s="55"/>
-      <c r="JB50" s="55"/>
-      <c r="JC50" s="55"/>
-      <c r="JD50" s="55"/>
-      <c r="JE50" s="55"/>
-      <c r="JF50" s="55"/>
-      <c r="JG50" s="55"/>
-      <c r="JH50" s="55"/>
-      <c r="JI50" s="55"/>
-      <c r="JJ50" s="55"/>
-      <c r="JK50" s="55"/>
-      <c r="JL50" s="55"/>
-      <c r="JM50" s="55"/>
-      <c r="JN50" s="55"/>
-      <c r="JO50" s="55"/>
-      <c r="JP50" s="55"/>
-      <c r="JQ50" s="55"/>
-      <c r="JR50" s="55"/>
-      <c r="JS50" s="55"/>
-      <c r="JT50" s="55"/>
-      <c r="JU50" s="55"/>
-      <c r="JV50" s="55"/>
-      <c r="JW50" s="55"/>
-      <c r="JX50" s="55"/>
-      <c r="JY50" s="55"/>
-      <c r="JZ50" s="55"/>
-      <c r="KA50" s="55"/>
-      <c r="KB50" s="55"/>
-      <c r="KC50" s="55"/>
-      <c r="KD50" s="55"/>
-      <c r="KE50" s="55"/>
-      <c r="KF50" s="55"/>
-      <c r="KG50" s="55"/>
-      <c r="KH50" s="55"/>
-      <c r="KI50" s="55"/>
-      <c r="KJ50" s="55"/>
-      <c r="KK50" s="55"/>
-      <c r="KL50" s="55"/>
-      <c r="KM50" s="55"/>
-      <c r="KN50" s="55"/>
-      <c r="KO50" s="55"/>
-      <c r="KP50" s="55"/>
-      <c r="KQ50" s="55"/>
-      <c r="KR50" s="55"/>
-      <c r="KS50" s="55"/>
-      <c r="KT50" s="55"/>
-      <c r="KU50" s="55"/>
-      <c r="KV50" s="55"/>
-      <c r="KW50" s="55"/>
-      <c r="KX50" s="55"/>
-      <c r="KY50" s="55"/>
-      <c r="KZ50" s="55"/>
-      <c r="LA50" s="55"/>
-      <c r="LB50" s="55"/>
-      <c r="LC50" s="55"/>
-      <c r="LD50" s="55"/>
-      <c r="LE50" s="55"/>
-      <c r="LF50" s="55"/>
-      <c r="LG50" s="55"/>
-      <c r="LH50" s="55"/>
-      <c r="LI50" s="55"/>
-      <c r="LJ50" s="55"/>
-      <c r="LK50" s="55"/>
-      <c r="LL50" s="55"/>
-      <c r="LM50" s="55"/>
-      <c r="LN50" s="55"/>
-      <c r="LO50" s="55"/>
-      <c r="LP50" s="55"/>
-      <c r="LQ50" s="55"/>
-      <c r="LR50" s="55"/>
-      <c r="LS50" s="55"/>
-      <c r="LT50" s="55"/>
-      <c r="LU50" s="55"/>
-      <c r="LV50" s="55"/>
-      <c r="LW50" s="55"/>
-      <c r="LX50" s="55"/>
-      <c r="LY50" s="55"/>
-      <c r="LZ50" s="55"/>
-      <c r="MA50" s="55"/>
-      <c r="MB50" s="55"/>
-      <c r="MC50" s="55"/>
-      <c r="MD50" s="55"/>
-      <c r="ME50" s="55"/>
-      <c r="MF50" s="55"/>
-      <c r="MG50" s="55"/>
-      <c r="MH50" s="55"/>
-      <c r="MI50" s="55"/>
-      <c r="MJ50" s="55"/>
-      <c r="MK50" s="55"/>
-      <c r="ML50" s="55"/>
-      <c r="MM50" s="55"/>
-      <c r="MN50" s="55"/>
-      <c r="MO50" s="55"/>
-      <c r="MP50" s="55"/>
-      <c r="MQ50" s="55"/>
-      <c r="MR50" s="55"/>
-      <c r="MS50" s="55"/>
-      <c r="MT50" s="55"/>
-      <c r="MU50" s="55"/>
-      <c r="MV50" s="55"/>
-      <c r="MW50" s="55"/>
-      <c r="MX50" s="55"/>
-      <c r="MY50" s="55"/>
-      <c r="MZ50" s="55"/>
-      <c r="NA50" s="55"/>
-      <c r="NB50" s="55"/>
-      <c r="NC50" s="55"/>
-      <c r="ND50" s="55"/>
-      <c r="NE50" s="55"/>
-      <c r="NF50" s="55"/>
-      <c r="NG50" s="55"/>
-      <c r="NH50" s="55"/>
-      <c r="NI50" s="55"/>
-      <c r="NJ50" s="55"/>
-      <c r="NK50" s="55"/>
-      <c r="NL50" s="55"/>
-      <c r="NM50" s="55"/>
-      <c r="NN50" s="55"/>
-      <c r="NO50" s="55"/>
-      <c r="NP50" s="55"/>
-      <c r="NQ50" s="55"/>
-      <c r="NR50" s="55"/>
-      <c r="NS50" s="55"/>
-      <c r="NT50" s="55"/>
-      <c r="NU50" s="55"/>
-      <c r="NV50" s="55"/>
-      <c r="NW50" s="55"/>
-      <c r="NX50" s="55"/>
-      <c r="NY50" s="55"/>
-      <c r="NZ50" s="55"/>
-      <c r="OA50" s="55"/>
-      <c r="OB50" s="55"/>
-      <c r="OC50" s="55"/>
-      <c r="OD50" s="55"/>
-      <c r="OE50" s="55"/>
-      <c r="OF50" s="55"/>
-      <c r="OG50" s="55"/>
-      <c r="OH50" s="55"/>
-      <c r="OI50" s="55"/>
-      <c r="OJ50" s="55"/>
-      <c r="OK50" s="55"/>
-      <c r="OL50" s="55"/>
-      <c r="OM50" s="55"/>
-      <c r="ON50" s="55"/>
-      <c r="OO50" s="55"/>
-      <c r="OP50" s="55"/>
-      <c r="OQ50" s="55"/>
-      <c r="OR50" s="55"/>
-      <c r="OS50" s="55"/>
-      <c r="OT50" s="55"/>
-      <c r="OU50" s="55"/>
-      <c r="OV50" s="55"/>
-      <c r="OW50" s="55"/>
-      <c r="OX50" s="55"/>
-      <c r="OY50" s="55"/>
-      <c r="OZ50" s="55"/>
-      <c r="PA50" s="55"/>
-      <c r="PB50" s="55"/>
-      <c r="PC50" s="55"/>
-      <c r="PD50" s="55"/>
-      <c r="PE50" s="55"/>
-      <c r="PF50" s="55"/>
-      <c r="PG50" s="55"/>
-      <c r="PH50" s="55"/>
-      <c r="PI50" s="55"/>
-      <c r="PJ50" s="55"/>
-      <c r="PK50" s="55"/>
-      <c r="PL50" s="55"/>
-      <c r="PM50" s="55"/>
-      <c r="PN50" s="55"/>
-      <c r="PO50" s="55"/>
-      <c r="PP50" s="55"/>
-      <c r="PQ50" s="55"/>
-      <c r="PR50" s="55"/>
-      <c r="PS50" s="55"/>
-      <c r="PT50" s="55"/>
-      <c r="PU50" s="55"/>
-      <c r="PV50" s="55"/>
-      <c r="PW50" s="55"/>
-      <c r="PX50" s="55"/>
-      <c r="PY50" s="55"/>
-      <c r="PZ50" s="55"/>
-      <c r="QA50" s="55"/>
-      <c r="QB50" s="55"/>
-      <c r="QC50" s="55"/>
-      <c r="QD50" s="55"/>
-      <c r="QE50" s="55"/>
-      <c r="QF50" s="55"/>
-      <c r="QG50" s="55"/>
-      <c r="QH50" s="55"/>
-      <c r="QI50" s="55"/>
-      <c r="QJ50" s="55"/>
-      <c r="QK50" s="55"/>
-      <c r="QL50" s="55"/>
-      <c r="QM50" s="55"/>
-      <c r="QN50" s="55"/>
-      <c r="QO50" s="55"/>
-      <c r="QP50" s="55"/>
-      <c r="QQ50" s="55"/>
-      <c r="QR50" s="55"/>
-      <c r="QS50" s="55"/>
-      <c r="QT50" s="55"/>
-      <c r="QU50" s="55"/>
-      <c r="QV50" s="55"/>
-      <c r="QW50" s="55"/>
-      <c r="QX50" s="55"/>
-      <c r="QY50" s="55"/>
-      <c r="QZ50" s="55"/>
-      <c r="RA50" s="55"/>
-      <c r="RB50" s="55"/>
-      <c r="RC50" s="55"/>
-      <c r="RD50" s="55"/>
-      <c r="RE50" s="55"/>
-      <c r="RF50" s="55"/>
-      <c r="RG50" s="55"/>
-      <c r="RH50" s="55"/>
-      <c r="RI50" s="55"/>
-      <c r="RJ50" s="55"/>
-      <c r="RK50" s="55"/>
-      <c r="RL50" s="55"/>
-      <c r="RM50" s="55"/>
-      <c r="RN50" s="55"/>
-      <c r="RO50" s="55"/>
-      <c r="RP50" s="55"/>
-      <c r="RQ50" s="55"/>
-      <c r="RR50" s="55"/>
-      <c r="RS50" s="55"/>
-      <c r="RT50" s="55"/>
-      <c r="RU50" s="55"/>
-      <c r="RV50" s="55"/>
-      <c r="RW50" s="55"/>
-      <c r="RX50" s="55"/>
-      <c r="RY50" s="55"/>
-      <c r="RZ50" s="55"/>
-      <c r="SA50" s="55"/>
-      <c r="SB50" s="55"/>
-      <c r="SC50" s="55"/>
-      <c r="SD50" s="55"/>
-      <c r="SE50" s="55"/>
-      <c r="SF50" s="55"/>
-      <c r="SG50" s="55"/>
-      <c r="SH50" s="55"/>
-      <c r="SI50" s="55"/>
-      <c r="SJ50" s="55"/>
-      <c r="SK50" s="55"/>
-      <c r="SL50" s="55"/>
-      <c r="SM50" s="55"/>
-      <c r="SN50" s="55"/>
-      <c r="SO50" s="55"/>
-      <c r="SP50" s="55"/>
-      <c r="SQ50" s="55"/>
-      <c r="SR50" s="55"/>
-      <c r="SS50" s="55"/>
-      <c r="ST50" s="55"/>
-      <c r="SU50" s="55"/>
-      <c r="SV50" s="55"/>
-      <c r="SW50" s="55"/>
-      <c r="SX50" s="55"/>
-      <c r="SY50" s="55"/>
-      <c r="SZ50" s="55"/>
-      <c r="TA50" s="55"/>
-      <c r="TB50" s="55"/>
-      <c r="TC50" s="55"/>
-      <c r="TD50" s="55"/>
-      <c r="TE50" s="55"/>
-      <c r="TF50" s="55"/>
-      <c r="TG50" s="55"/>
-      <c r="TH50" s="55"/>
-      <c r="TI50" s="55"/>
-      <c r="TJ50" s="55"/>
-      <c r="TK50" s="55"/>
-      <c r="TL50" s="55"/>
-      <c r="TM50" s="55"/>
-      <c r="TN50" s="55"/>
-      <c r="TO50" s="55"/>
-      <c r="TP50" s="55"/>
-      <c r="TQ50" s="55"/>
-      <c r="TR50" s="55"/>
-      <c r="TS50" s="55"/>
-      <c r="TT50" s="55"/>
-      <c r="TU50" s="55"/>
-      <c r="TV50" s="55"/>
-      <c r="TW50" s="55"/>
-      <c r="TX50" s="55"/>
-      <c r="TY50" s="55"/>
-      <c r="TZ50" s="55"/>
-      <c r="UA50" s="55"/>
-      <c r="UB50" s="55"/>
-      <c r="UC50" s="55"/>
-      <c r="UD50" s="55"/>
-      <c r="UE50" s="55"/>
-      <c r="UF50" s="55"/>
-      <c r="UG50" s="55"/>
-      <c r="UH50" s="55"/>
-      <c r="UI50" s="55"/>
-      <c r="UJ50" s="55"/>
-      <c r="UK50" s="55"/>
-      <c r="UL50" s="55"/>
-      <c r="UM50" s="55"/>
-      <c r="UN50" s="55"/>
-      <c r="UO50" s="55"/>
-      <c r="UP50" s="55"/>
-      <c r="UQ50" s="55"/>
-      <c r="UR50" s="55"/>
-      <c r="US50" s="55"/>
-      <c r="UT50" s="55"/>
-      <c r="UU50" s="55"/>
-      <c r="UV50" s="55"/>
-      <c r="UW50" s="55"/>
-      <c r="UX50" s="55"/>
-      <c r="UY50" s="55"/>
-      <c r="UZ50" s="55"/>
-      <c r="VA50" s="55"/>
-      <c r="VB50" s="55"/>
-      <c r="VC50" s="55"/>
-      <c r="VD50" s="55"/>
-      <c r="VE50" s="55"/>
-      <c r="VF50" s="55"/>
-      <c r="VG50" s="55"/>
-      <c r="VH50" s="55"/>
-      <c r="VI50" s="55"/>
-      <c r="VJ50" s="55"/>
-      <c r="VK50" s="55"/>
-      <c r="VL50" s="55"/>
-      <c r="VM50" s="55"/>
-      <c r="VN50" s="55"/>
-      <c r="VO50" s="55"/>
-      <c r="VP50" s="55"/>
-      <c r="VQ50" s="55"/>
-      <c r="VR50" s="55"/>
-      <c r="VS50" s="55"/>
-      <c r="VT50" s="55"/>
-      <c r="VU50" s="55"/>
-      <c r="VV50" s="55"/>
-      <c r="VW50" s="55"/>
-      <c r="VX50" s="55"/>
-      <c r="VY50" s="55"/>
-      <c r="VZ50" s="55"/>
-      <c r="WA50" s="55"/>
-      <c r="WB50" s="55"/>
-      <c r="WC50" s="55"/>
-      <c r="WD50" s="55"/>
-      <c r="WE50" s="55"/>
-      <c r="WF50" s="55"/>
-      <c r="WG50" s="55"/>
-      <c r="WH50" s="55"/>
-      <c r="WI50" s="55"/>
-      <c r="WJ50" s="55"/>
-      <c r="WK50" s="55"/>
-      <c r="WL50" s="55"/>
-      <c r="WM50" s="55"/>
-      <c r="WN50" s="55"/>
-      <c r="WO50" s="55"/>
-      <c r="WP50" s="55"/>
-      <c r="WQ50" s="55"/>
-      <c r="WR50" s="55"/>
-      <c r="WS50" s="55"/>
-      <c r="WT50" s="55"/>
-      <c r="WU50" s="55"/>
-      <c r="WV50" s="55"/>
-      <c r="WW50" s="55"/>
-      <c r="WX50" s="55"/>
-      <c r="WY50" s="55"/>
-      <c r="WZ50" s="55"/>
-      <c r="XA50" s="55"/>
-      <c r="XD50" s="55"/>
-      <c r="XG50" s="55"/>
-      <c r="XH50" s="55"/>
-      <c r="XK50" s="55"/>
-      <c r="XL50" s="55"/>
-      <c r="XN50" s="55"/>
-      <c r="XO50" s="55"/>
-      <c r="XP50" s="55"/>
-      <c r="XQ50" s="55"/>
-      <c r="XR50" s="55"/>
-      <c r="XU50" s="55"/>
-      <c r="XV50" s="55"/>
-      <c r="XW50" s="55"/>
-      <c r="XZ50" s="55"/>
-      <c r="YB50" s="55"/>
-      <c r="YC50" s="55"/>
-      <c r="YD50" s="55"/>
-      <c r="YE50" s="55"/>
-      <c r="YF50" s="55"/>
-      <c r="YG50" s="55"/>
-      <c r="YH50" s="55"/>
-      <c r="YI50" s="55"/>
-      <c r="YJ50" s="55"/>
-      <c r="YK50" s="55"/>
-      <c r="YL50" s="55"/>
-      <c r="YM50" s="55"/>
-      <c r="YN50" s="55"/>
-      <c r="YO50" s="55"/>
-      <c r="YP50" s="55"/>
-      <c r="YQ50" s="55"/>
-      <c r="YR50" s="55"/>
-      <c r="YS50" s="55"/>
-      <c r="YT50" s="55"/>
-      <c r="YU50" s="55"/>
-      <c r="YV50" s="55"/>
-      <c r="YW50" s="55"/>
-      <c r="YX50" s="55"/>
-      <c r="YY50" s="55"/>
-      <c r="YZ50" s="55"/>
-      <c r="ZB50" s="55"/>
-      <c r="ZE50" s="55"/>
-      <c r="ZF50" s="55"/>
-      <c r="ZG50" s="55"/>
-      <c r="ZH50" s="55"/>
-      <c r="ZM50" s="55"/>
-      <c r="ZN50" s="55"/>
-      <c r="ZO50" s="55"/>
-      <c r="ZP50" s="55"/>
-      <c r="ZQ50" s="55"/>
-      <c r="ZR50" s="55"/>
-      <c r="ZW50" s="55"/>
-      <c r="ZX50" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="216">
+  <mergeCells count="200">
     <mergeCell ref="CP1:FI4"/>
     <mergeCell ref="A2:M5"/>
     <mergeCell ref="O2:AO2"/>
@@ -36929,120 +36183,104 @@
     <mergeCell ref="EJ22:ES22"/>
     <mergeCell ref="ET22:FI22"/>
     <mergeCell ref="A23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:AP23"/>
-    <mergeCell ref="AQ23:AV23"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="BA23:BM23"/>
-    <mergeCell ref="BN23:BT23"/>
-    <mergeCell ref="BU23:CD23"/>
+    <mergeCell ref="N23:CD23"/>
     <mergeCell ref="CE23:CQ23"/>
-    <mergeCell ref="CR23:CW23"/>
-    <mergeCell ref="CX23:DC23"/>
+    <mergeCell ref="CR23:DC23"/>
     <mergeCell ref="DD23:DP23"/>
     <mergeCell ref="DQ23:EC23"/>
     <mergeCell ref="ED23:EI23"/>
     <mergeCell ref="EJ23:ES23"/>
     <mergeCell ref="ET23:FI23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="N24:CD24"/>
-    <mergeCell ref="CE24:CQ24"/>
-    <mergeCell ref="CR24:DC24"/>
-    <mergeCell ref="DD24:DP24"/>
-    <mergeCell ref="DQ24:EC24"/>
-    <mergeCell ref="ED24:EI24"/>
-    <mergeCell ref="EJ24:ES24"/>
-    <mergeCell ref="ET24:FI24"/>
-    <mergeCell ref="A26:M27"/>
-    <mergeCell ref="O26:AY28"/>
+    <mergeCell ref="A25:M26"/>
+    <mergeCell ref="O25:AY27"/>
+    <mergeCell ref="AZ25:BQ25"/>
+    <mergeCell ref="BS25:CO25"/>
+    <mergeCell ref="CQ25:DR27"/>
+    <mergeCell ref="DS25:EJ25"/>
+    <mergeCell ref="EL25:FH25"/>
     <mergeCell ref="AZ26:BQ26"/>
     <mergeCell ref="BS26:CO26"/>
-    <mergeCell ref="CQ26:DR28"/>
     <mergeCell ref="DS26:EJ26"/>
     <mergeCell ref="EL26:FH26"/>
-    <mergeCell ref="AZ27:BQ27"/>
-    <mergeCell ref="BS27:CO27"/>
-    <mergeCell ref="DS27:EJ27"/>
-    <mergeCell ref="EL27:FH27"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="O29:AY31"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="O28:AY30"/>
+    <mergeCell ref="AZ28:BQ28"/>
+    <mergeCell ref="BS28:CO28"/>
+    <mergeCell ref="CQ28:FH28"/>
     <mergeCell ref="AZ29:BQ29"/>
     <mergeCell ref="BS29:CO29"/>
     <mergeCell ref="CQ29:FH29"/>
-    <mergeCell ref="AZ30:BQ30"/>
-    <mergeCell ref="BS30:CO30"/>
-    <mergeCell ref="CQ30:FH30"/>
-    <mergeCell ref="A32:AU32"/>
+    <mergeCell ref="A31:AU31"/>
+    <mergeCell ref="AW31:FE31"/>
+    <mergeCell ref="FF31:FI31"/>
     <mergeCell ref="AW32:FE32"/>
-    <mergeCell ref="FF32:FI32"/>
-    <mergeCell ref="AW33:FE33"/>
-    <mergeCell ref="A34:AI34"/>
+    <mergeCell ref="A33:AI33"/>
+    <mergeCell ref="AJ33:FE33"/>
+    <mergeCell ref="FF33:FI33"/>
     <mergeCell ref="AJ34:FE34"/>
-    <mergeCell ref="FF34:FI34"/>
-    <mergeCell ref="AJ35:FE35"/>
-    <mergeCell ref="A36:CC36"/>
-    <mergeCell ref="CF36:FI36"/>
+    <mergeCell ref="A35:CC35"/>
+    <mergeCell ref="CF35:FI35"/>
+    <mergeCell ref="A36:AB36"/>
+    <mergeCell ref="AD36:AX36"/>
+    <mergeCell ref="AZ36:BZ36"/>
+    <mergeCell ref="CA36:CD36"/>
+    <mergeCell ref="CF36:DG36"/>
+    <mergeCell ref="DI36:EC36"/>
+    <mergeCell ref="EE36:FE36"/>
+    <mergeCell ref="FF36:FI36"/>
     <mergeCell ref="A37:AB37"/>
     <mergeCell ref="AD37:AX37"/>
     <mergeCell ref="AZ37:BZ37"/>
-    <mergeCell ref="CA37:CD37"/>
     <mergeCell ref="CF37:DG37"/>
     <mergeCell ref="DI37:EC37"/>
-    <mergeCell ref="EE37:FE37"/>
-    <mergeCell ref="FF37:FI37"/>
-    <mergeCell ref="A38:AB38"/>
-    <mergeCell ref="AD38:AX38"/>
-    <mergeCell ref="AZ38:BZ38"/>
-    <mergeCell ref="CF38:DG38"/>
-    <mergeCell ref="DI38:EC38"/>
-    <mergeCell ref="EE38:FF38"/>
-    <mergeCell ref="A39:AE39"/>
-    <mergeCell ref="AL39:AP39"/>
-    <mergeCell ref="AR39:BN39"/>
-    <mergeCell ref="BP39:BV39"/>
-    <mergeCell ref="BW39:BY39"/>
-    <mergeCell ref="CA39:CD39"/>
-    <mergeCell ref="CF39:DJ39"/>
-    <mergeCell ref="DP39:DT39"/>
-    <mergeCell ref="DV39:ER39"/>
-    <mergeCell ref="ET39:EZ39"/>
-    <mergeCell ref="FA39:FC39"/>
-    <mergeCell ref="FF39:FI39"/>
-    <mergeCell ref="A40:AI40"/>
-    <mergeCell ref="CF40:DQ40"/>
+    <mergeCell ref="EE37:FF37"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="AL38:AP38"/>
+    <mergeCell ref="AR38:BN38"/>
+    <mergeCell ref="BP38:BV38"/>
+    <mergeCell ref="BW38:BY38"/>
+    <mergeCell ref="CA38:CD38"/>
+    <mergeCell ref="CF38:DJ38"/>
+    <mergeCell ref="DP38:DT38"/>
+    <mergeCell ref="DV38:ER38"/>
+    <mergeCell ref="ET38:EZ38"/>
+    <mergeCell ref="FA38:FC38"/>
+    <mergeCell ref="FF38:FI38"/>
+    <mergeCell ref="A39:AI39"/>
+    <mergeCell ref="CF39:DQ39"/>
+    <mergeCell ref="A40:BZ40"/>
+    <mergeCell ref="CA40:CD40"/>
+    <mergeCell ref="CF40:FE40"/>
+    <mergeCell ref="FF40:FI40"/>
     <mergeCell ref="A41:BZ41"/>
-    <mergeCell ref="CA41:CD41"/>
     <mergeCell ref="CF41:FE41"/>
-    <mergeCell ref="FF41:FI41"/>
-    <mergeCell ref="A42:BZ42"/>
-    <mergeCell ref="CF42:FE42"/>
-    <mergeCell ref="A43:CC43"/>
-    <mergeCell ref="CF43:FH43"/>
+    <mergeCell ref="A42:CC42"/>
+    <mergeCell ref="CF42:FH42"/>
+    <mergeCell ref="A43:AB43"/>
+    <mergeCell ref="AD43:AX43"/>
+    <mergeCell ref="AZ43:BZ43"/>
+    <mergeCell ref="CA43:CD43"/>
+    <mergeCell ref="CF43:DG43"/>
+    <mergeCell ref="DI43:EC43"/>
+    <mergeCell ref="EE43:FE43"/>
+    <mergeCell ref="FF43:FI43"/>
     <mergeCell ref="A44:AB44"/>
     <mergeCell ref="AD44:AX44"/>
     <mergeCell ref="AZ44:BZ44"/>
-    <mergeCell ref="CA44:CD44"/>
     <mergeCell ref="CF44:DG44"/>
     <mergeCell ref="DI44:EC44"/>
     <mergeCell ref="EE44:FE44"/>
-    <mergeCell ref="FF44:FI44"/>
-    <mergeCell ref="A45:AB45"/>
-    <mergeCell ref="AD45:AX45"/>
-    <mergeCell ref="AZ45:BZ45"/>
-    <mergeCell ref="CF45:DG45"/>
-    <mergeCell ref="DI45:EC45"/>
-    <mergeCell ref="EE45:FE45"/>
-    <mergeCell ref="A46:CC46"/>
-    <mergeCell ref="CF46:FH46"/>
+    <mergeCell ref="A45:CC45"/>
+    <mergeCell ref="CF45:FH45"/>
+    <mergeCell ref="A46:BZ46"/>
+    <mergeCell ref="CA46:CD46"/>
+    <mergeCell ref="CF46:FE46"/>
+    <mergeCell ref="FF46:FI46"/>
     <mergeCell ref="A47:BZ47"/>
-    <mergeCell ref="CA47:CD47"/>
     <mergeCell ref="CF47:FE47"/>
-    <mergeCell ref="FF47:FI47"/>
-    <mergeCell ref="A48:BZ48"/>
-    <mergeCell ref="CF48:FE48"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="CI49:CM49"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="CI48:CM48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -37051,7 +36289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29261bd4-4c69-4cb4-b8f6-be009aebf102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e6c36176-2bf5-4919-8daf-6e569e93925d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1b92b08d-9b91-421a-9c4c-fe6bf0f7388d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fafba978-393b-4667-8984-c7b15454a66b}">
   <dimension ref="A1:ZZ49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -36289,7 +36289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e6c36176-2bf5-4919-8daf-6e569e93925d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872639d1-c576-4652-adf9-a07a8faa3d53}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fafba978-393b-4667-8984-c7b15454a66b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e88e9cb4-cfe7-4771-b2b1-1601eb72b8e6}">
   <dimension ref="A1:ZZ49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -36289,7 +36289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872639d1-c576-4652-adf9-a07a8faa3d53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3a41d774-9ec9-4ff2-afda-b6c5ffa52cf2}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e88e9cb4-cfe7-4771-b2b1-1601eb72b8e6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aaa40065-0309-44a2-801c-d92ab402384a}">
   <dimension ref="A1:ZZ49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -36289,7 +36289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3a41d774-9ec9-4ff2-afda-b6c5ffa52cf2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64809b9c-0add-42ac-89b5-9a31ed8efca8}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/utd/utils/output.xlsx
+++ b/utd/utils/output.xlsx
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aaa40065-0309-44a2-801c-d92ab402384a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3f6c9caf-e031-4cee-98e6-2100adbb8368}">
   <dimension ref="A1:ZZ49"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -36289,7 +36289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64809b9c-0add-42ac-89b5-9a31ed8efca8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4a86596f-1a77-488a-81dd-068cc61c3e19}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
